--- a/volatility/src/xls/24_EURAUD.xlsx
+++ b/volatility/src/xls/24_EURAUD.xlsx
@@ -501,7 +501,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -525,7 +525,7 @@
         <v>1000</v>
       </c>
       <c r="C2" s="2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="2">
         <v>74.599999999999994</v>
@@ -558,22 +558,22 @@
       </c>
       <c r="C6" s="5">
         <f>ROUND(B2*10000*(100/D2)*(1/B6)/100*C2,0)</f>
-        <v>12566</v>
+        <v>31415</v>
       </c>
       <c r="E6" s="5">
-        <v>112.9</v>
+        <v>163.1</v>
       </c>
       <c r="G6" s="5">
         <f>(E6+B9)/100</f>
-        <v>1.1360000000000001</v>
+        <v>1.6379999999999999</v>
       </c>
       <c r="H6" s="5">
         <f>G6+(B8/100)</f>
-        <v>1.157</v>
+        <v>1.6589999999999998</v>
       </c>
       <c r="I6" s="5">
         <f>G6-(B8/100)</f>
-        <v>1.1150000000000002</v>
+        <v>1.617</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1">
@@ -603,15 +603,15 @@
       <c r="F10" s="7"/>
       <c r="G10" s="5">
         <f>(E6-B9)/100</f>
-        <v>1.1220000000000001</v>
+        <v>1.6240000000000001</v>
       </c>
       <c r="H10" s="5">
         <f>G10-(B8/100)</f>
-        <v>1.1010000000000002</v>
+        <v>1.6030000000000002</v>
       </c>
       <c r="I10" s="5">
         <f>G10+(B8/100)</f>
-        <v>1.143</v>
+        <v>1.645</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="24" customHeight="1">

--- a/volatility/src/xls/24_EURAUD.xlsx
+++ b/volatility/src/xls/24_EURAUD.xlsx
@@ -501,7 +501,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -561,19 +561,19 @@
         <v>31415</v>
       </c>
       <c r="E6" s="5">
-        <v>163.1</v>
+        <v>164.1</v>
       </c>
       <c r="G6" s="5">
         <f>(E6+B9)/100</f>
-        <v>1.6379999999999999</v>
+        <v>1.6479999999999999</v>
       </c>
       <c r="H6" s="5">
         <f>G6+(B8/100)</f>
-        <v>1.6589999999999998</v>
+        <v>1.6689999999999998</v>
       </c>
       <c r="I6" s="5">
         <f>G6-(B8/100)</f>
-        <v>1.617</v>
+        <v>1.627</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1">
@@ -603,15 +603,15 @@
       <c r="F10" s="7"/>
       <c r="G10" s="5">
         <f>(E6-B9)/100</f>
-        <v>1.6240000000000001</v>
+        <v>1.6340000000000001</v>
       </c>
       <c r="H10" s="5">
         <f>G10-(B8/100)</f>
-        <v>1.6030000000000002</v>
+        <v>1.6130000000000002</v>
       </c>
       <c r="I10" s="5">
         <f>G10+(B8/100)</f>
-        <v>1.645</v>
+        <v>1.655</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="24" customHeight="1">
@@ -638,7 +638,7 @@
   <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection sqref="A1:F200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9.83203125" defaultRowHeight="21" customHeight="1"/>
@@ -667,7 +667,7 @@
       </c>
       <c r="H1">
         <f>ABS(D2-E2)*100</f>
-        <v>1.915</v>
+        <v>1.8310000000000048</v>
       </c>
       <c r="J1">
         <f>MEDIAN(H1:H52)</f>
@@ -679,23 +679,23 @@
         <v>24</v>
       </c>
       <c r="B2" s="8">
-        <v>42164</v>
+        <v>42171</v>
       </c>
       <c r="C2">
-        <v>1.61727</v>
+        <v>1.6309199999999999</v>
       </c>
       <c r="D2">
-        <v>1.63632</v>
+        <v>1.6448</v>
       </c>
       <c r="E2">
-        <v>1.61717</v>
+        <v>1.62649</v>
       </c>
       <c r="F2">
-        <v>1.63073</v>
+        <v>1.6410199999999999</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H65" si="0">ABS(D3-E3)*100</f>
-        <v>1.2949999999999795</v>
+        <v>1.915</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
@@ -703,23 +703,23 @@
         <v>24</v>
       </c>
       <c r="B3" s="8">
-        <v>42157</v>
+        <v>42164</v>
       </c>
       <c r="C3">
-        <v>1.6106499999999999</v>
+        <v>1.61727</v>
       </c>
       <c r="D3">
-        <v>1.6197299999999999</v>
+        <v>1.63632</v>
       </c>
       <c r="E3">
-        <v>1.6067800000000001</v>
+        <v>1.61717</v>
       </c>
       <c r="F3">
-        <v>1.61944</v>
+        <v>1.63073</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>1.3720000000000176</v>
+        <v>1.2949999999999795</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
@@ -727,23 +727,23 @@
         <v>24</v>
       </c>
       <c r="B4" s="8">
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="C4">
-        <v>1.6177699999999999</v>
+        <v>1.6106499999999999</v>
       </c>
       <c r="D4">
-        <v>1.6187400000000001</v>
+        <v>1.6197299999999999</v>
       </c>
       <c r="E4">
-        <v>1.6050199999999999</v>
+        <v>1.6067800000000001</v>
       </c>
       <c r="F4">
-        <v>1.6101300000000001</v>
+        <v>1.61944</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>1.5509999999999913</v>
+        <v>1.3720000000000176</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
@@ -751,23 +751,23 @@
         <v>24</v>
       </c>
       <c r="B5" s="8">
-        <v>42143</v>
+        <v>42150</v>
       </c>
       <c r="C5">
-        <v>1.61711</v>
+        <v>1.6177699999999999</v>
       </c>
       <c r="D5">
-        <v>1.6251199999999999</v>
+        <v>1.6187400000000001</v>
       </c>
       <c r="E5">
-        <v>1.60961</v>
+        <v>1.6050199999999999</v>
       </c>
       <c r="F5">
-        <v>1.61761</v>
+        <v>1.6101300000000001</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>2.1830000000000016</v>
+        <v>1.5509999999999913</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
@@ -775,23 +775,23 @@
         <v>24</v>
       </c>
       <c r="B6" s="8">
-        <v>42136</v>
+        <v>42143</v>
       </c>
       <c r="C6">
-        <v>1.6055900000000001</v>
+        <v>1.61711</v>
       </c>
       <c r="D6">
-        <v>1.62618</v>
+        <v>1.6251199999999999</v>
       </c>
       <c r="E6">
-        <v>1.6043499999999999</v>
+        <v>1.60961</v>
       </c>
       <c r="F6">
-        <v>1.6245799999999999</v>
+        <v>1.61761</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>2.1660000000000013</v>
+        <v>2.1830000000000016</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
@@ -799,23 +799,23 @@
         <v>24</v>
       </c>
       <c r="B7" s="8">
-        <v>42129</v>
+        <v>42136</v>
       </c>
       <c r="C7">
-        <v>1.6003799999999999</v>
+        <v>1.6055900000000001</v>
       </c>
       <c r="D7">
-        <v>1.61209</v>
+        <v>1.62618</v>
       </c>
       <c r="E7">
-        <v>1.59043</v>
+        <v>1.6043499999999999</v>
       </c>
       <c r="F7">
-        <v>1.60507</v>
+        <v>1.6245799999999999</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>1.8839999999999968</v>
+        <v>2.1660000000000013</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
@@ -823,23 +823,23 @@
         <v>24</v>
       </c>
       <c r="B8" s="8">
-        <v>42122</v>
+        <v>42129</v>
       </c>
       <c r="C8">
-        <v>1.5829299999999999</v>
+        <v>1.6003799999999999</v>
       </c>
       <c r="D8">
-        <v>1.5993999999999999</v>
+        <v>1.61209</v>
       </c>
       <c r="E8">
-        <v>1.58056</v>
+        <v>1.59043</v>
       </c>
       <c r="F8">
-        <v>1.59494</v>
+        <v>1.60507</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>2.4299999999999988</v>
+        <v>1.8839999999999968</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
@@ -847,23 +847,23 @@
         <v>24</v>
       </c>
       <c r="B9" s="8">
-        <v>42115</v>
+        <v>42122</v>
       </c>
       <c r="C9">
-        <v>1.57239</v>
+        <v>1.5829299999999999</v>
       </c>
       <c r="D9">
-        <v>1.59585</v>
+        <v>1.5993999999999999</v>
       </c>
       <c r="E9">
-        <v>1.57155</v>
+        <v>1.58056</v>
       </c>
       <c r="F9">
-        <v>1.58277</v>
+        <v>1.59494</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>1.5079999999999982</v>
+        <v>2.4299999999999988</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
@@ -871,23 +871,23 @@
         <v>24</v>
       </c>
       <c r="B10" s="8">
-        <v>42108</v>
+        <v>42115</v>
       </c>
       <c r="C10">
-        <v>1.5745100000000001</v>
+        <v>1.57239</v>
       </c>
       <c r="D10">
-        <v>1.58342</v>
+        <v>1.59585</v>
       </c>
       <c r="E10">
-        <v>1.5683400000000001</v>
+        <v>1.57155</v>
       </c>
       <c r="F10">
-        <v>1.5719000000000001</v>
+        <v>1.58277</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>1.3889999999999958</v>
+        <v>1.5079999999999982</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
@@ -895,23 +895,23 @@
         <v>24</v>
       </c>
       <c r="B11" s="8">
-        <v>42101</v>
+        <v>42108</v>
       </c>
       <c r="C11">
-        <v>1.5774999999999999</v>
+        <v>1.5745100000000001</v>
       </c>
       <c r="D11">
-        <v>1.5852299999999999</v>
+        <v>1.58342</v>
       </c>
       <c r="E11">
-        <v>1.57134</v>
+        <v>1.5683400000000001</v>
       </c>
       <c r="F11">
-        <v>1.57511</v>
+        <v>1.5719000000000001</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>1.6510000000000025</v>
+        <v>1.3889999999999958</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
@@ -919,23 +919,23 @@
         <v>24</v>
       </c>
       <c r="B12" s="8">
-        <v>42094</v>
+        <v>42101</v>
       </c>
       <c r="C12">
-        <v>1.57881</v>
+        <v>1.5774999999999999</v>
       </c>
       <c r="D12">
-        <v>1.58789</v>
+        <v>1.5852299999999999</v>
       </c>
       <c r="E12">
-        <v>1.57138</v>
+        <v>1.57134</v>
       </c>
       <c r="F12">
-        <v>1.5787</v>
+        <v>1.57511</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>2.022999999999997</v>
+        <v>1.6510000000000025</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
@@ -943,23 +943,23 @@
         <v>24</v>
       </c>
       <c r="B13" s="8">
-        <v>42087</v>
+        <v>42094</v>
       </c>
       <c r="C13">
-        <v>1.5948800000000001</v>
+        <v>1.57881</v>
       </c>
       <c r="D13">
-        <v>1.59823</v>
+        <v>1.58789</v>
       </c>
       <c r="E13">
-        <v>1.5780000000000001</v>
+        <v>1.57138</v>
       </c>
       <c r="F13">
-        <v>1.57982</v>
+        <v>1.5787</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>1.8969999999999931</v>
+        <v>2.022999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
@@ -967,23 +967,23 @@
         <v>24</v>
       </c>
       <c r="B14" s="8">
-        <v>42080</v>
+        <v>42087</v>
       </c>
       <c r="C14">
-        <v>1.59789</v>
+        <v>1.5948800000000001</v>
       </c>
       <c r="D14">
-        <v>1.6076999999999999</v>
+        <v>1.59823</v>
       </c>
       <c r="E14">
-        <v>1.58873</v>
+        <v>1.5780000000000001</v>
       </c>
       <c r="F14">
-        <v>1.59596</v>
+        <v>1.57982</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>1.6230000000000189</v>
+        <v>1.8969999999999931</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
@@ -991,23 +991,23 @@
         <v>24</v>
       </c>
       <c r="B15" s="8">
-        <v>42073</v>
+        <v>42080</v>
       </c>
       <c r="C15">
-        <v>1.5965400000000001</v>
+        <v>1.59789</v>
       </c>
       <c r="D15">
-        <v>1.6056600000000001</v>
+        <v>1.6076999999999999</v>
       </c>
       <c r="E15">
-        <v>1.5894299999999999</v>
+        <v>1.58873</v>
       </c>
       <c r="F15">
-        <v>1.5989</v>
+        <v>1.59596</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>1.9179999999999975</v>
+        <v>1.6230000000000189</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
@@ -1015,23 +1015,23 @@
         <v>24</v>
       </c>
       <c r="B16" s="8">
-        <v>42066</v>
+        <v>42073</v>
       </c>
       <c r="C16">
-        <v>1.59982</v>
+        <v>1.5965400000000001</v>
       </c>
       <c r="D16">
-        <v>1.6121300000000001</v>
+        <v>1.6056600000000001</v>
       </c>
       <c r="E16">
-        <v>1.5929500000000001</v>
+        <v>1.5894299999999999</v>
       </c>
       <c r="F16">
-        <v>1.5942799999999999</v>
+        <v>1.5989</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>2.6250000000000107</v>
+        <v>1.9179999999999975</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1">
@@ -1039,23 +1039,23 @@
         <v>24</v>
       </c>
       <c r="B17" s="8">
-        <v>42059</v>
+        <v>42066</v>
       </c>
       <c r="C17">
-        <v>1.5877399999999999</v>
+        <v>1.59982</v>
       </c>
       <c r="D17">
-        <v>1.6071800000000001</v>
+        <v>1.6121300000000001</v>
       </c>
       <c r="E17">
-        <v>1.5809299999999999</v>
+        <v>1.5929500000000001</v>
       </c>
       <c r="F17">
-        <v>1.60588</v>
+        <v>1.5942799999999999</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>2.7660000000000018</v>
+        <v>2.6250000000000107</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
@@ -1063,23 +1063,23 @@
         <v>24</v>
       </c>
       <c r="B18" s="8">
-        <v>42052</v>
+        <v>42059</v>
       </c>
       <c r="C18">
-        <v>1.5824800000000001</v>
+        <v>1.5877399999999999</v>
       </c>
       <c r="D18">
-        <v>1.60192</v>
+        <v>1.6071800000000001</v>
       </c>
       <c r="E18">
-        <v>1.57426</v>
+        <v>1.5809299999999999</v>
       </c>
       <c r="F18">
-        <v>1.5893999999999999</v>
+        <v>1.60588</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>1.9650000000000167</v>
+        <v>2.7660000000000018</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1">
@@ -1087,23 +1087,23 @@
         <v>24</v>
       </c>
       <c r="B19" s="8">
-        <v>42045</v>
+        <v>42052</v>
       </c>
       <c r="C19">
-        <v>1.59656</v>
+        <v>1.5824800000000001</v>
       </c>
       <c r="D19">
-        <v>1.5998600000000001</v>
+        <v>1.60192</v>
       </c>
       <c r="E19">
-        <v>1.5802099999999999</v>
+        <v>1.57426</v>
       </c>
       <c r="F19">
-        <v>1.58165</v>
+        <v>1.5893999999999999</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>3.3009999999999984</v>
+        <v>1.9650000000000167</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1">
@@ -1111,23 +1111,23 @@
         <v>24</v>
       </c>
       <c r="B20" s="8">
-        <v>42038</v>
+        <v>42045</v>
       </c>
       <c r="C20">
-        <v>1.5800399999999999</v>
+        <v>1.59656</v>
       </c>
       <c r="D20">
-        <v>1.6059399999999999</v>
+        <v>1.5998600000000001</v>
       </c>
       <c r="E20">
-        <v>1.5729299999999999</v>
+        <v>1.5802099999999999</v>
       </c>
       <c r="F20">
-        <v>1.5977600000000001</v>
+        <v>1.58165</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>2.845999999999993</v>
+        <v>3.3009999999999984</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
@@ -1135,23 +1135,23 @@
         <v>24</v>
       </c>
       <c r="B21" s="8">
-        <v>42031</v>
+        <v>42038</v>
       </c>
       <c r="C21">
-        <v>1.58822</v>
+        <v>1.5800399999999999</v>
       </c>
       <c r="D21">
-        <v>1.60053</v>
+        <v>1.6059399999999999</v>
       </c>
       <c r="E21">
-        <v>1.5720700000000001</v>
+        <v>1.5729299999999999</v>
       </c>
       <c r="F21">
-        <v>1.5801000000000001</v>
+        <v>1.5977600000000001</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>1.9419999999999993</v>
+        <v>2.845999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" customHeight="1">
@@ -1159,23 +1159,23 @@
         <v>24</v>
       </c>
       <c r="B22" s="8">
-        <v>42024</v>
+        <v>42031</v>
       </c>
       <c r="C22">
-        <v>1.5851900000000001</v>
+        <v>1.58822</v>
       </c>
       <c r="D22">
-        <v>1.60375</v>
+        <v>1.60053</v>
       </c>
       <c r="E22">
-        <v>1.58433</v>
+        <v>1.5720700000000001</v>
       </c>
       <c r="F22">
-        <v>1.58891</v>
+        <v>1.5801000000000001</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>2.143000000000006</v>
+        <v>1.9419999999999993</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1">
@@ -1183,23 +1183,23 @@
         <v>24</v>
       </c>
       <c r="B23" s="8">
-        <v>42017</v>
+        <v>42024</v>
       </c>
       <c r="C23">
-        <v>1.58833</v>
+        <v>1.5851900000000001</v>
       </c>
       <c r="D23">
-        <v>1.59883</v>
+        <v>1.60375</v>
       </c>
       <c r="E23">
-        <v>1.5773999999999999</v>
+        <v>1.58433</v>
       </c>
       <c r="F23">
-        <v>1.5857300000000001</v>
+        <v>1.58891</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>2.6410000000000045</v>
+        <v>2.143000000000006</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1">
@@ -1207,23 +1207,23 @@
         <v>24</v>
       </c>
       <c r="B24" s="8">
-        <v>42010</v>
+        <v>42017</v>
       </c>
       <c r="C24">
-        <v>1.6014299999999999</v>
+        <v>1.58833</v>
       </c>
       <c r="D24">
-        <v>1.61537</v>
+        <v>1.59883</v>
       </c>
       <c r="E24">
-        <v>1.5889599999999999</v>
+        <v>1.5773999999999999</v>
       </c>
       <c r="F24">
-        <v>1.58907</v>
+        <v>1.5857300000000001</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>7.6349999999999918</v>
+        <v>2.6410000000000045</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1">
@@ -1231,23 +1231,23 @@
         <v>24</v>
       </c>
       <c r="B25" s="8">
-        <v>42003</v>
+        <v>42010</v>
       </c>
       <c r="C25">
-        <v>1.62398</v>
+        <v>1.6014299999999999</v>
       </c>
       <c r="D25">
-        <v>1.6766799999999999</v>
+        <v>1.61537</v>
       </c>
       <c r="E25">
-        <v>1.60033</v>
+        <v>1.5889599999999999</v>
       </c>
       <c r="F25">
-        <v>1.6007899999999999</v>
+        <v>1.58907</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>2.6749999999999829</v>
+        <v>7.6349999999999918</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1">
@@ -1255,23 +1255,23 @@
         <v>24</v>
       </c>
       <c r="B26" s="8">
-        <v>41996</v>
+        <v>42003</v>
       </c>
       <c r="C26">
-        <v>1.6144799999999999</v>
+        <v>1.62398</v>
       </c>
       <c r="D26">
-        <v>1.6315599999999999</v>
+        <v>1.6766799999999999</v>
       </c>
       <c r="E26">
-        <v>1.6048100000000001</v>
+        <v>1.60033</v>
       </c>
       <c r="F26">
-        <v>1.6252899999999999</v>
+        <v>1.6007899999999999</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>4.1210000000000191</v>
+        <v>2.6749999999999829</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
@@ -1279,23 +1279,23 @@
         <v>24</v>
       </c>
       <c r="B27" s="8">
-        <v>41989</v>
+        <v>41996</v>
       </c>
       <c r="C27">
-        <v>1.57463</v>
+        <v>1.6144799999999999</v>
       </c>
       <c r="D27">
-        <v>1.6153900000000001</v>
+        <v>1.6315599999999999</v>
       </c>
       <c r="E27">
-        <v>1.5741799999999999</v>
+        <v>1.6048100000000001</v>
       </c>
       <c r="F27">
-        <v>1.6136600000000001</v>
+        <v>1.6252899999999999</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>2.1239999999999926</v>
+        <v>4.1210000000000191</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
@@ -1303,23 +1303,23 @@
         <v>24</v>
       </c>
       <c r="B28" s="8">
-        <v>41982</v>
+        <v>41989</v>
       </c>
       <c r="C28">
-        <v>1.58473</v>
+        <v>1.57463</v>
       </c>
       <c r="D28">
-        <v>1.5884799999999999</v>
+        <v>1.6153900000000001</v>
       </c>
       <c r="E28">
-        <v>1.56724</v>
+        <v>1.5741799999999999</v>
       </c>
       <c r="F28">
-        <v>1.57477</v>
+        <v>1.6136600000000001</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>4.9939999999999873</v>
+        <v>2.1239999999999926</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1">
@@ -1327,23 +1327,23 @@
         <v>24</v>
       </c>
       <c r="B29" s="8">
-        <v>41975</v>
+        <v>41982</v>
       </c>
       <c r="C29">
-        <v>1.5375799999999999</v>
+        <v>1.58473</v>
       </c>
       <c r="D29">
-        <v>1.58456</v>
+        <v>1.5884799999999999</v>
       </c>
       <c r="E29">
-        <v>1.5346200000000001</v>
+        <v>1.56724</v>
       </c>
       <c r="F29">
-        <v>1.5843</v>
+        <v>1.57477</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>2.2680000000000033</v>
+        <v>4.9939999999999873</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1">
@@ -1351,23 +1351,23 @@
         <v>24</v>
       </c>
       <c r="B30" s="8">
-        <v>41968</v>
+        <v>41975</v>
       </c>
       <c r="C30">
-        <v>1.5678099999999999</v>
+        <v>1.5375799999999999</v>
       </c>
       <c r="D30">
-        <v>1.57046</v>
+        <v>1.58456</v>
       </c>
       <c r="E30">
-        <v>1.5477799999999999</v>
+        <v>1.5346200000000001</v>
       </c>
       <c r="F30">
-        <v>1.5483899999999999</v>
+        <v>1.5843</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>2.043000000000017</v>
+        <v>2.2680000000000033</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1">
@@ -1375,23 +1375,23 @@
         <v>24</v>
       </c>
       <c r="B31" s="8">
-        <v>41961</v>
+        <v>41968</v>
       </c>
       <c r="C31">
-        <v>1.5612299999999999</v>
+        <v>1.5678099999999999</v>
       </c>
       <c r="D31">
-        <v>1.5781700000000001</v>
+        <v>1.57046</v>
       </c>
       <c r="E31">
-        <v>1.5577399999999999</v>
+        <v>1.5477799999999999</v>
       </c>
       <c r="F31">
-        <v>1.5670500000000001</v>
+        <v>1.5483899999999999</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>1.7309999999999937</v>
+        <v>2.043000000000017</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
@@ -1399,23 +1399,23 @@
         <v>24</v>
       </c>
       <c r="B32" s="8">
-        <v>41954</v>
+        <v>41961</v>
       </c>
       <c r="C32">
-        <v>1.5679399999999999</v>
+        <v>1.5612299999999999</v>
       </c>
       <c r="D32">
-        <v>1.56931</v>
+        <v>1.5781700000000001</v>
       </c>
       <c r="E32">
-        <v>1.552</v>
+        <v>1.5577399999999999</v>
       </c>
       <c r="F32">
-        <v>1.55629</v>
+        <v>1.5670500000000001</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>2.1980000000000111</v>
+        <v>1.7309999999999937</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1">
@@ -1423,23 +1423,23 @@
         <v>24</v>
       </c>
       <c r="B33" s="8">
-        <v>41947</v>
+        <v>41954</v>
       </c>
       <c r="C33">
-        <v>1.5827599999999999</v>
+        <v>1.5679399999999999</v>
       </c>
       <c r="D33">
-        <v>1.58518</v>
+        <v>1.56931</v>
       </c>
       <c r="E33">
-        <v>1.5631999999999999</v>
+        <v>1.552</v>
       </c>
       <c r="F33">
-        <v>1.56843</v>
+        <v>1.55629</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>4.0779999999999816</v>
+        <v>2.1980000000000111</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21" customHeight="1">
@@ -1447,23 +1447,23 @@
         <v>24</v>
       </c>
       <c r="B34" s="8">
-        <v>41940</v>
+        <v>41947</v>
       </c>
       <c r="C34">
-        <v>1.6069599999999999</v>
+        <v>1.5827599999999999</v>
       </c>
       <c r="D34">
-        <v>1.6149899999999999</v>
+        <v>1.58518</v>
       </c>
       <c r="E34">
-        <v>1.5742100000000001</v>
+        <v>1.5631999999999999</v>
       </c>
       <c r="F34">
-        <v>1.5824100000000001</v>
+        <v>1.56843</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>2.1640000000000104</v>
+        <v>4.0779999999999816</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1">
@@ -1471,23 +1471,23 @@
         <v>24</v>
       </c>
       <c r="B35" s="8">
-        <v>41933</v>
+        <v>41940</v>
       </c>
       <c r="C35">
-        <v>1.6161799999999999</v>
+        <v>1.6069599999999999</v>
       </c>
       <c r="D35">
-        <v>1.62497</v>
+        <v>1.6149899999999999</v>
       </c>
       <c r="E35">
-        <v>1.6033299999999999</v>
+        <v>1.5742100000000001</v>
       </c>
       <c r="F35">
-        <v>1.6080399999999999</v>
+        <v>1.5824100000000001</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>2.3569999999999869</v>
+        <v>2.1640000000000104</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1">
@@ -1495,23 +1495,23 @@
         <v>24</v>
       </c>
       <c r="B36" s="8">
-        <v>41926</v>
+        <v>41933</v>
       </c>
       <c r="C36">
-        <v>1.62453</v>
+        <v>1.6161799999999999</v>
       </c>
       <c r="D36">
-        <v>1.62842</v>
+        <v>1.62497</v>
       </c>
       <c r="E36">
-        <v>1.6048500000000001</v>
+        <v>1.6033299999999999</v>
       </c>
       <c r="F36">
-        <v>1.6180000000000001</v>
+        <v>1.6080399999999999</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>2.1039999999999948</v>
+        <v>2.3569999999999869</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
@@ -1519,23 +1519,23 @@
         <v>24</v>
       </c>
       <c r="B37" s="8">
-        <v>41919</v>
+        <v>41926</v>
       </c>
       <c r="C37">
-        <v>1.6331599999999999</v>
+        <v>1.62453</v>
       </c>
       <c r="D37">
-        <v>1.6356999999999999</v>
+        <v>1.62842</v>
       </c>
       <c r="E37">
-        <v>1.61466</v>
+        <v>1.6048500000000001</v>
       </c>
       <c r="F37">
-        <v>1.62503</v>
+        <v>1.6180000000000001</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>3.6700000000000177</v>
+        <v>2.1039999999999948</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21" customHeight="1">
@@ -1543,23 +1543,23 @@
         <v>24</v>
       </c>
       <c r="B38" s="8">
-        <v>41912</v>
+        <v>41919</v>
       </c>
       <c r="C38">
-        <v>1.6072299999999999</v>
+        <v>1.6331599999999999</v>
       </c>
       <c r="D38">
-        <v>1.6352500000000001</v>
+        <v>1.6356999999999999</v>
       </c>
       <c r="E38">
-        <v>1.5985499999999999</v>
+        <v>1.61466</v>
       </c>
       <c r="F38">
-        <v>1.63358</v>
+        <v>1.62503</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>2.2350000000000092</v>
+        <v>3.6700000000000177</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21" customHeight="1">
@@ -1567,23 +1567,23 @@
         <v>24</v>
       </c>
       <c r="B39" s="8">
-        <v>41905</v>
+        <v>41912</v>
       </c>
       <c r="C39">
-        <v>1.61608</v>
+        <v>1.6072299999999999</v>
       </c>
       <c r="D39">
-        <v>1.62534</v>
+        <v>1.6352500000000001</v>
       </c>
       <c r="E39">
-        <v>1.6029899999999999</v>
+        <v>1.5985499999999999</v>
       </c>
       <c r="F39">
-        <v>1.6070599999999999</v>
+        <v>1.63358</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>2.813000000000021</v>
+        <v>2.2350000000000092</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21" customHeight="1">
@@ -1591,23 +1591,23 @@
         <v>24</v>
       </c>
       <c r="B40" s="8">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="C40">
-        <v>1.62496</v>
+        <v>1.61608</v>
       </c>
       <c r="D40">
-        <v>1.6333200000000001</v>
+        <v>1.62534</v>
       </c>
       <c r="E40">
-        <v>1.6051899999999999</v>
+        <v>1.6029899999999999</v>
       </c>
       <c r="F40">
-        <v>1.6130500000000001</v>
+        <v>1.6070599999999999</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>2.1639999999999882</v>
+        <v>2.813000000000021</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1">
@@ -1615,23 +1615,23 @@
         <v>24</v>
       </c>
       <c r="B41" s="8">
-        <v>41891</v>
+        <v>41898</v>
       </c>
       <c r="C41">
-        <v>1.6256999999999999</v>
+        <v>1.62496</v>
       </c>
       <c r="D41">
-        <v>1.63537</v>
+        <v>1.6333200000000001</v>
       </c>
       <c r="E41">
-        <v>1.6137300000000001</v>
+        <v>1.6051899999999999</v>
       </c>
       <c r="F41">
-        <v>1.62443</v>
+        <v>1.6130500000000001</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>2.4800000000000155</v>
+        <v>2.1639999999999882</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21" customHeight="1">
@@ -1639,23 +1639,23 @@
         <v>24</v>
       </c>
       <c r="B42" s="8">
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="C42">
-        <v>1.61242</v>
+        <v>1.6256999999999999</v>
       </c>
       <c r="D42">
-        <v>1.6289100000000001</v>
+        <v>1.63537</v>
       </c>
       <c r="E42">
-        <v>1.6041099999999999</v>
+        <v>1.6137300000000001</v>
       </c>
       <c r="F42">
-        <v>1.6256600000000001</v>
+        <v>1.62443</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>3.1430000000000069</v>
+        <v>2.4800000000000155</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1">
@@ -1663,23 +1663,23 @@
         <v>24</v>
       </c>
       <c r="B43" s="8">
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="C43">
-        <v>1.58494</v>
+        <v>1.61242</v>
       </c>
       <c r="D43">
-        <v>1.6160300000000001</v>
+        <v>1.6289100000000001</v>
       </c>
       <c r="E43">
-        <v>1.5846</v>
+        <v>1.6041099999999999</v>
       </c>
       <c r="F43">
-        <v>1.6136699999999999</v>
+        <v>1.6256600000000001</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>3.4370000000000012</v>
+        <v>3.1430000000000069</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21" customHeight="1">
@@ -1687,23 +1687,23 @@
         <v>24</v>
       </c>
       <c r="B44" s="8">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="C44">
-        <v>1.56359</v>
+        <v>1.58494</v>
       </c>
       <c r="D44">
-        <v>1.5946199999999999</v>
+        <v>1.6160300000000001</v>
       </c>
       <c r="E44">
-        <v>1.5602499999999999</v>
+        <v>1.5846</v>
       </c>
       <c r="F44">
-        <v>1.5864799999999999</v>
+        <v>1.6136699999999999</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>1.0929999999999884</v>
+        <v>3.4370000000000012</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21" customHeight="1">
@@ -1711,23 +1711,23 @@
         <v>24</v>
       </c>
       <c r="B45" s="8">
-        <v>41863</v>
+        <v>41870</v>
       </c>
       <c r="C45">
-        <v>1.56288</v>
+        <v>1.56359</v>
       </c>
       <c r="D45">
-        <v>1.5725899999999999</v>
+        <v>1.5946199999999999</v>
       </c>
       <c r="E45">
-        <v>1.56166</v>
+        <v>1.5602499999999999</v>
       </c>
       <c r="F45">
-        <v>1.5638700000000001</v>
+        <v>1.5864799999999999</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>1.2249999999999872</v>
+        <v>1.0929999999999884</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21" customHeight="1">
@@ -1735,23 +1735,23 @@
         <v>24</v>
       </c>
       <c r="B46" s="8">
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="C46">
-        <v>1.5633999999999999</v>
+        <v>1.56288</v>
       </c>
       <c r="D46">
-        <v>1.57019</v>
+        <v>1.5725899999999999</v>
       </c>
       <c r="E46">
-        <v>1.5579400000000001</v>
+        <v>1.56166</v>
       </c>
       <c r="F46">
-        <v>1.56334</v>
+        <v>1.5638700000000001</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>1.9179999999999975</v>
+        <v>1.2249999999999872</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21" customHeight="1">
@@ -1759,23 +1759,23 @@
         <v>24</v>
       </c>
       <c r="B47" s="8">
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="C47">
-        <v>1.57463</v>
+        <v>1.5633999999999999</v>
       </c>
       <c r="D47">
-        <v>1.5819799999999999</v>
+        <v>1.57019</v>
       </c>
       <c r="E47">
-        <v>1.5628</v>
+        <v>1.5579400000000001</v>
       </c>
       <c r="F47">
-        <v>1.5634600000000001</v>
+        <v>1.56334</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>1.6850000000000032</v>
+        <v>1.9179999999999975</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21" customHeight="1">
@@ -1783,23 +1783,23 @@
         <v>24</v>
       </c>
       <c r="B48" s="8">
-        <v>41842</v>
+        <v>41849</v>
       </c>
       <c r="C48">
-        <v>1.57931</v>
+        <v>1.57463</v>
       </c>
       <c r="D48">
-        <v>1.58693</v>
+        <v>1.5819799999999999</v>
       </c>
       <c r="E48">
-        <v>1.5700799999999999</v>
+        <v>1.5628</v>
       </c>
       <c r="F48">
-        <v>1.57494</v>
+        <v>1.5634600000000001</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>2.3310000000000164</v>
+        <v>1.6850000000000032</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21" customHeight="1">
@@ -1807,23 +1807,23 @@
         <v>24</v>
       </c>
       <c r="B49" s="8">
-        <v>41835</v>
+        <v>41842</v>
       </c>
       <c r="C49">
-        <v>1.57561</v>
+        <v>1.57931</v>
       </c>
       <c r="D49">
-        <v>1.5889800000000001</v>
+        <v>1.58693</v>
       </c>
       <c r="E49">
-        <v>1.5656699999999999</v>
+        <v>1.5700799999999999</v>
       </c>
       <c r="F49">
-        <v>1.5782400000000001</v>
+        <v>1.57494</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>1.8170000000000019</v>
+        <v>2.3310000000000164</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21" customHeight="1">
@@ -1831,23 +1831,23 @@
         <v>24</v>
       </c>
       <c r="B50" s="8">
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="C50">
-        <v>1.58036</v>
+        <v>1.57561</v>
       </c>
       <c r="D50">
-        <v>1.58812</v>
+        <v>1.5889800000000001</v>
       </c>
       <c r="E50">
-        <v>1.56995</v>
+        <v>1.5656699999999999</v>
       </c>
       <c r="F50">
-        <v>1.57446</v>
+        <v>1.5782400000000001</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>1.5959999999999974</v>
+        <v>1.8170000000000019</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21" customHeight="1">
@@ -1855,23 +1855,23 @@
         <v>24</v>
       </c>
       <c r="B51" s="8">
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="C51">
-        <v>1.57663</v>
+        <v>1.58036</v>
       </c>
       <c r="D51">
-        <v>1.5887199999999999</v>
+        <v>1.58812</v>
       </c>
       <c r="E51">
-        <v>1.5727599999999999</v>
+        <v>1.56995</v>
       </c>
       <c r="F51">
-        <v>1.5803</v>
+        <v>1.57446</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>1.6850000000000032</v>
+        <v>1.5959999999999974</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21" customHeight="1">
@@ -1879,23 +1879,23 @@
         <v>24</v>
       </c>
       <c r="B52" s="8">
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="C52">
-        <v>1.56735</v>
+        <v>1.57663</v>
       </c>
       <c r="D52">
-        <v>1.5826</v>
+        <v>1.5887199999999999</v>
       </c>
       <c r="E52">
-        <v>1.56575</v>
+        <v>1.5727599999999999</v>
       </c>
       <c r="F52">
-        <v>1.57755</v>
+        <v>1.5803</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>2.1230000000000082</v>
+        <v>1.6850000000000032</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21" customHeight="1">
@@ -1903,23 +1903,23 @@
         <v>24</v>
       </c>
       <c r="B53" s="8">
-        <v>41807</v>
+        <v>41814</v>
       </c>
       <c r="C53">
-        <v>1.55759</v>
+        <v>1.56735</v>
       </c>
       <c r="D53">
-        <v>1.57558</v>
+        <v>1.5826</v>
       </c>
       <c r="E53">
-        <v>1.5543499999999999</v>
+        <v>1.56575</v>
       </c>
       <c r="F53">
-        <v>1.56732</v>
+        <v>1.57755</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>2.6449999999999863</v>
+        <v>2.1230000000000082</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21" customHeight="1">
@@ -1927,23 +1927,23 @@
         <v>24</v>
       </c>
       <c r="B54" s="8">
-        <v>41800</v>
+        <v>41807</v>
       </c>
       <c r="C54">
-        <v>1.5498099999999999</v>
+        <v>1.55759</v>
       </c>
       <c r="D54">
-        <v>1.5691299999999999</v>
+        <v>1.57558</v>
       </c>
       <c r="E54">
-        <v>1.5426800000000001</v>
+        <v>1.5543499999999999</v>
       </c>
       <c r="F54">
-        <v>1.5595000000000001</v>
+        <v>1.56732</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>2.8359999999999941</v>
+        <v>2.6449999999999863</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21" customHeight="1">
@@ -1951,23 +1951,23 @@
         <v>24</v>
       </c>
       <c r="B55" s="8">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="C55">
-        <v>1.5402199999999999</v>
+        <v>1.5498099999999999</v>
       </c>
       <c r="D55">
-        <v>1.55579</v>
+        <v>1.5691299999999999</v>
       </c>
       <c r="E55">
-        <v>1.5274300000000001</v>
+        <v>1.5426800000000001</v>
       </c>
       <c r="F55">
-        <v>1.5489299999999999</v>
+        <v>1.5595000000000001</v>
       </c>
       <c r="H55">
         <f t="shared" si="0"/>
-        <v>2.14700000000001</v>
+        <v>2.8359999999999941</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21" customHeight="1">
@@ -1975,23 +1975,23 @@
         <v>24</v>
       </c>
       <c r="B56" s="8">
-        <v>41786</v>
+        <v>41793</v>
       </c>
       <c r="C56">
-        <v>1.5455000000000001</v>
+        <v>1.5402199999999999</v>
       </c>
       <c r="D56">
-        <v>1.5529900000000001</v>
+        <v>1.55579</v>
       </c>
       <c r="E56">
-        <v>1.53152</v>
+        <v>1.5274300000000001</v>
       </c>
       <c r="F56">
-        <v>1.5404899999999999</v>
+        <v>1.5489299999999999</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>2.4280000000000079</v>
+        <v>2.14700000000001</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21" customHeight="1">
@@ -1999,23 +1999,23 @@
         <v>24</v>
       </c>
       <c r="B57" s="8">
-        <v>41779</v>
+        <v>41786</v>
       </c>
       <c r="C57">
-        <v>1.56345</v>
+        <v>1.5455000000000001</v>
       </c>
       <c r="D57">
-        <v>1.5648200000000001</v>
+        <v>1.5529900000000001</v>
       </c>
       <c r="E57">
-        <v>1.54054</v>
+        <v>1.53152</v>
       </c>
       <c r="F57">
-        <v>1.54358</v>
+        <v>1.5404899999999999</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
-        <v>2.3419999999999996</v>
+        <v>2.4280000000000079</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21" customHeight="1">
@@ -2023,23 +2023,23 @@
         <v>24</v>
       </c>
       <c r="B58" s="8">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="C58">
-        <v>1.58345</v>
+        <v>1.56345</v>
       </c>
       <c r="D58">
-        <v>1.5888100000000001</v>
+        <v>1.5648200000000001</v>
       </c>
       <c r="E58">
-        <v>1.5653900000000001</v>
+        <v>1.54054</v>
       </c>
       <c r="F58">
-        <v>1.5664199999999999</v>
+        <v>1.54358</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>1.876000000000011</v>
+        <v>2.3419999999999996</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21" customHeight="1">
@@ -2047,23 +2047,23 @@
         <v>24</v>
       </c>
       <c r="B59" s="8">
-        <v>41765</v>
+        <v>41772</v>
       </c>
       <c r="C59">
-        <v>1.5862700000000001</v>
+        <v>1.58345</v>
       </c>
       <c r="D59">
-        <v>1.59633</v>
+        <v>1.5888100000000001</v>
       </c>
       <c r="E59">
-        <v>1.5775699999999999</v>
+        <v>1.5653900000000001</v>
       </c>
       <c r="F59">
-        <v>1.5828199999999999</v>
+        <v>1.5664199999999999</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
-        <v>2.1260000000000057</v>
+        <v>1.876000000000011</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21" customHeight="1">
@@ -2071,23 +2071,23 @@
         <v>24</v>
       </c>
       <c r="B60" s="8">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="C60">
-        <v>1.6003099999999999</v>
+        <v>1.5862700000000001</v>
       </c>
       <c r="D60">
-        <v>1.6056600000000001</v>
+        <v>1.59633</v>
       </c>
       <c r="E60">
-        <v>1.5844</v>
+        <v>1.5775699999999999</v>
       </c>
       <c r="F60">
-        <v>1.5872200000000001</v>
+        <v>1.5828199999999999</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>1.7249999999999988</v>
+        <v>2.1260000000000057</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21" customHeight="1">
@@ -2095,23 +2095,23 @@
         <v>24</v>
       </c>
       <c r="B61" s="8">
-        <v>41751</v>
+        <v>41758</v>
       </c>
       <c r="C61">
-        <v>1.6008899999999999</v>
+        <v>1.6003099999999999</v>
       </c>
       <c r="D61">
-        <v>1.6140099999999999</v>
+        <v>1.6056600000000001</v>
       </c>
       <c r="E61">
-        <v>1.59676</v>
+        <v>1.5844</v>
       </c>
       <c r="F61">
-        <v>1.60046</v>
+        <v>1.5872200000000001</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>1.8199999999999994</v>
+        <v>1.7249999999999988</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21" customHeight="1">
@@ -2119,23 +2119,23 @@
         <v>24</v>
       </c>
       <c r="B62" s="8">
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="C62">
-        <v>1.5872900000000001</v>
+        <v>1.6008899999999999</v>
       </c>
       <c r="D62">
-        <v>1.60301</v>
+        <v>1.6140099999999999</v>
       </c>
       <c r="E62">
-        <v>1.5848100000000001</v>
+        <v>1.59676</v>
       </c>
       <c r="F62">
-        <v>1.60209</v>
+        <v>1.60046</v>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
-        <v>2.854000000000001</v>
+        <v>1.8199999999999994</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21" customHeight="1">
@@ -2143,23 +2143,23 @@
         <v>24</v>
       </c>
       <c r="B63" s="8">
-        <v>41737</v>
+        <v>41744</v>
       </c>
       <c r="C63">
-        <v>1.6003799999999999</v>
+        <v>1.5872900000000001</v>
       </c>
       <c r="D63">
-        <v>1.6060099999999999</v>
+        <v>1.60301</v>
       </c>
       <c r="E63">
-        <v>1.5774699999999999</v>
+        <v>1.5848100000000001</v>
       </c>
       <c r="F63">
-        <v>1.5885899999999999</v>
+        <v>1.60209</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
-        <v>1.8649999999999833</v>
+        <v>2.854000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21" customHeight="1">
@@ -2167,23 +2167,23 @@
         <v>24</v>
       </c>
       <c r="B64" s="8">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="C64">
-        <v>1.6020300000000001</v>
+        <v>1.6003799999999999</v>
       </c>
       <c r="D64">
-        <v>1.6084799999999999</v>
+        <v>1.6060099999999999</v>
       </c>
       <c r="E64">
-        <v>1.5898300000000001</v>
+        <v>1.5774699999999999</v>
       </c>
       <c r="F64">
-        <v>1.59992</v>
+        <v>1.5885899999999999</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>2.1549999999999958</v>
+        <v>1.8649999999999833</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21" customHeight="1">
@@ -2191,23 +2191,23 @@
         <v>24</v>
       </c>
       <c r="B65" s="8">
-        <v>41723</v>
+        <v>41730</v>
       </c>
       <c r="C65">
-        <v>1.6043099999999999</v>
+        <v>1.6020300000000001</v>
       </c>
       <c r="D65">
-        <v>1.6191</v>
+        <v>1.6084799999999999</v>
       </c>
       <c r="E65">
-        <v>1.59755</v>
+        <v>1.5898300000000001</v>
       </c>
       <c r="F65">
-        <v>1.60425</v>
+        <v>1.59992</v>
       </c>
       <c r="H65">
         <f t="shared" si="0"/>
-        <v>1.9579999999999931</v>
+        <v>2.1549999999999958</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21" customHeight="1">
@@ -2215,23 +2215,23 @@
         <v>24</v>
       </c>
       <c r="B66" s="8">
-        <v>41716</v>
+        <v>41723</v>
       </c>
       <c r="C66">
-        <v>1.5928</v>
+        <v>1.6043099999999999</v>
       </c>
       <c r="D66">
-        <v>1.6055299999999999</v>
+        <v>1.6191</v>
       </c>
       <c r="E66">
-        <v>1.58595</v>
+        <v>1.59755</v>
       </c>
       <c r="F66">
-        <v>1.6050899999999999</v>
+        <v>1.60425</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H129" si="1">ABS(D67-E67)*100</f>
-        <v>3.1309999999999949</v>
+        <v>1.9579999999999931</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21" customHeight="1">
@@ -2239,23 +2239,23 @@
         <v>24</v>
       </c>
       <c r="B67" s="8">
-        <v>41709</v>
+        <v>41716</v>
       </c>
       <c r="C67">
-        <v>1.5682100000000001</v>
+        <v>1.5928</v>
       </c>
       <c r="D67">
-        <v>1.5935299999999999</v>
+        <v>1.6055299999999999</v>
       </c>
       <c r="E67">
-        <v>1.5622199999999999</v>
+        <v>1.58595</v>
       </c>
       <c r="F67">
-        <v>1.5932200000000001</v>
+        <v>1.6050899999999999</v>
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>2.9989999999999961</v>
+        <v>3.1309999999999949</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21" customHeight="1">
@@ -2263,23 +2263,23 @@
         <v>24</v>
       </c>
       <c r="B68" s="8">
-        <v>41702</v>
+        <v>41709</v>
       </c>
       <c r="C68">
-        <v>1.58752</v>
+        <v>1.5682100000000001</v>
       </c>
       <c r="D68">
-        <v>1.59775</v>
+        <v>1.5935299999999999</v>
       </c>
       <c r="E68">
-        <v>1.56776</v>
+        <v>1.5622199999999999</v>
       </c>
       <c r="F68">
-        <v>1.5680000000000001</v>
+        <v>1.5932200000000001</v>
       </c>
       <c r="H68">
         <f t="shared" si="1"/>
-        <v>3.0159999999999965</v>
+        <v>2.9989999999999961</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21" customHeight="1">
@@ -2287,23 +2287,23 @@
         <v>24</v>
       </c>
       <c r="B69" s="8">
-        <v>41695</v>
+        <v>41702</v>
       </c>
       <c r="C69">
-        <v>1.56728</v>
+        <v>1.58752</v>
       </c>
       <c r="D69">
-        <v>1.59195</v>
+        <v>1.59775</v>
       </c>
       <c r="E69">
-        <v>1.56179</v>
+        <v>1.56776</v>
       </c>
       <c r="F69">
-        <v>1.5878099999999999</v>
+        <v>1.5680000000000001</v>
       </c>
       <c r="H69">
         <f t="shared" si="1"/>
-        <v>1.5280000000000182</v>
+        <v>3.0159999999999965</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21" customHeight="1">
@@ -2311,23 +2311,23 @@
         <v>24</v>
       </c>
       <c r="B70" s="8">
-        <v>41688</v>
+        <v>41695</v>
       </c>
       <c r="C70">
-        <v>1.56809</v>
+        <v>1.56728</v>
       </c>
       <c r="D70">
-        <v>1.5758700000000001</v>
+        <v>1.59195</v>
       </c>
       <c r="E70">
-        <v>1.5605899999999999</v>
+        <v>1.56179</v>
       </c>
       <c r="F70">
-        <v>1.5689299999999999</v>
+        <v>1.5878099999999999</v>
       </c>
       <c r="H70">
         <f t="shared" si="1"/>
-        <v>2.096000000000009</v>
+        <v>1.5280000000000182</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21" customHeight="1">
@@ -2335,23 +2335,23 @@
         <v>24</v>
       </c>
       <c r="B71" s="8">
-        <v>41681</v>
+        <v>41688</v>
       </c>
       <c r="C71">
-        <v>1.5670599999999999</v>
+        <v>1.56809</v>
       </c>
       <c r="D71">
-        <v>1.5816300000000001</v>
+        <v>1.5758700000000001</v>
       </c>
       <c r="E71">
-        <v>1.56067</v>
+        <v>1.5605899999999999</v>
       </c>
       <c r="F71">
-        <v>1.56843</v>
+        <v>1.5689299999999999</v>
       </c>
       <c r="H71">
         <f t="shared" si="1"/>
-        <v>1.6259999999999941</v>
+        <v>2.096000000000009</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21" customHeight="1">
@@ -2359,23 +2359,23 @@
         <v>24</v>
       </c>
       <c r="B72" s="8">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="C72">
-        <v>1.5713999999999999</v>
+        <v>1.5670599999999999</v>
       </c>
       <c r="D72">
-        <v>1.5796399999999999</v>
+        <v>1.5816300000000001</v>
       </c>
       <c r="E72">
-        <v>1.56338</v>
+        <v>1.56067</v>
       </c>
       <c r="F72">
-        <v>1.56671</v>
+        <v>1.56843</v>
       </c>
       <c r="H72">
         <f t="shared" si="1"/>
-        <v>4.7080000000000011</v>
+        <v>1.6259999999999941</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21" customHeight="1">
@@ -2383,23 +2383,23 @@
         <v>24</v>
       </c>
       <c r="B73" s="8">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="C73">
-        <v>1.5335399999999999</v>
+        <v>1.5713999999999999</v>
       </c>
       <c r="D73">
-        <v>1.57301</v>
+        <v>1.5796399999999999</v>
       </c>
       <c r="E73">
-        <v>1.52593</v>
+        <v>1.56338</v>
       </c>
       <c r="F73">
-        <v>1.57178</v>
+        <v>1.56671</v>
       </c>
       <c r="H73">
         <f t="shared" si="1"/>
-        <v>2.2569999999999979</v>
+        <v>4.7080000000000011</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21" customHeight="1">
@@ -2407,23 +2407,23 @@
         <v>24</v>
       </c>
       <c r="B74" s="8">
-        <v>41660</v>
+        <v>41667</v>
       </c>
       <c r="C74">
-        <v>1.53359</v>
+        <v>1.5335399999999999</v>
       </c>
       <c r="D74">
-        <v>1.5494600000000001</v>
+        <v>1.57301</v>
       </c>
       <c r="E74">
-        <v>1.5268900000000001</v>
+        <v>1.52593</v>
       </c>
       <c r="F74">
-        <v>1.5319799999999999</v>
+        <v>1.57178</v>
       </c>
       <c r="H74">
         <f t="shared" si="1"/>
-        <v>1.8040000000000056</v>
+        <v>2.2569999999999979</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21" customHeight="1">
@@ -2431,23 +2431,23 @@
         <v>24</v>
       </c>
       <c r="B75" s="8">
-        <v>41653</v>
+        <v>41660</v>
       </c>
       <c r="C75">
-        <v>1.5426299999999999</v>
+        <v>1.53359</v>
       </c>
       <c r="D75">
-        <v>1.54406</v>
+        <v>1.5494600000000001</v>
       </c>
       <c r="E75">
-        <v>1.5260199999999999</v>
+        <v>1.5268900000000001</v>
       </c>
       <c r="F75">
-        <v>1.5297799999999999</v>
+        <v>1.5319799999999999</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
-        <v>2.9150000000000009</v>
+        <v>1.8040000000000056</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21" customHeight="1">
@@ -2455,23 +2455,23 @@
         <v>24</v>
       </c>
       <c r="B76" s="8">
-        <v>41646</v>
+        <v>41653</v>
       </c>
       <c r="C76">
-        <v>1.5295399999999999</v>
+        <v>1.5426299999999999</v>
       </c>
       <c r="D76">
-        <v>1.5445899999999999</v>
+        <v>1.54406</v>
       </c>
       <c r="E76">
-        <v>1.5154399999999999</v>
+        <v>1.5260199999999999</v>
       </c>
       <c r="F76">
-        <v>1.5400700000000001</v>
+        <v>1.5297799999999999</v>
       </c>
       <c r="H76">
         <f t="shared" si="1"/>
-        <v>1.4220000000000121</v>
+        <v>2.9150000000000009</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21" customHeight="1">
@@ -2479,23 +2479,23 @@
         <v>24</v>
       </c>
       <c r="B77" s="8">
-        <v>41639</v>
+        <v>41646</v>
       </c>
       <c r="C77">
-        <v>1.53914</v>
+        <v>1.5295399999999999</v>
       </c>
       <c r="D77">
-        <v>1.5430600000000001</v>
+        <v>1.5445899999999999</v>
       </c>
       <c r="E77">
-        <v>1.52884</v>
+        <v>1.5154399999999999</v>
       </c>
       <c r="F77">
-        <v>1.5300400000000001</v>
+        <v>1.5400700000000001</v>
       </c>
       <c r="H77">
         <f t="shared" si="1"/>
-        <v>1.1440000000000117</v>
+        <v>1.4220000000000121</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21" customHeight="1">
@@ -2503,23 +2503,23 @@
         <v>24</v>
       </c>
       <c r="B78" s="8">
-        <v>41632</v>
+        <v>41639</v>
       </c>
       <c r="C78">
-        <v>1.53607</v>
+        <v>1.53914</v>
       </c>
       <c r="D78">
-        <v>1.5393300000000001</v>
+        <v>1.5430600000000001</v>
       </c>
       <c r="E78">
-        <v>1.52789</v>
+        <v>1.52884</v>
       </c>
       <c r="F78">
-        <v>1.53755</v>
+        <v>1.5300400000000001</v>
       </c>
       <c r="H78">
         <f t="shared" si="1"/>
-        <v>2.0159999999999956</v>
+        <v>1.1440000000000117</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21" customHeight="1">
@@ -2527,23 +2527,23 @@
         <v>24</v>
       </c>
       <c r="B79" s="8">
-        <v>41625</v>
+        <v>41632</v>
       </c>
       <c r="C79">
-        <v>1.53599</v>
+        <v>1.53607</v>
       </c>
       <c r="D79">
-        <v>1.5526899999999999</v>
+        <v>1.5393300000000001</v>
       </c>
       <c r="E79">
-        <v>1.5325299999999999</v>
+        <v>1.52789</v>
       </c>
       <c r="F79">
-        <v>1.53748</v>
+        <v>1.53755</v>
       </c>
       <c r="H79">
         <f t="shared" si="1"/>
-        <v>3.6070000000000046</v>
+        <v>2.0159999999999956</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21" customHeight="1">
@@ -2551,23 +2551,23 @@
         <v>24</v>
       </c>
       <c r="B80" s="8">
-        <v>41618</v>
+        <v>41625</v>
       </c>
       <c r="C80">
-        <v>1.5662799999999999</v>
+        <v>1.53599</v>
       </c>
       <c r="D80">
-        <v>1.56826</v>
+        <v>1.5526899999999999</v>
       </c>
       <c r="E80">
-        <v>1.5321899999999999</v>
+        <v>1.5325299999999999</v>
       </c>
       <c r="F80">
-        <v>1.5377700000000001</v>
+        <v>1.53748</v>
       </c>
       <c r="H80">
         <f t="shared" si="1"/>
-        <v>2.0809999999999995</v>
+        <v>3.6070000000000046</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21" customHeight="1">
@@ -2575,23 +2575,23 @@
         <v>24</v>
       </c>
       <c r="B81" s="8">
-        <v>41611</v>
+        <v>41618</v>
       </c>
       <c r="C81">
-        <v>1.5615000000000001</v>
+        <v>1.5662799999999999</v>
       </c>
       <c r="D81">
-        <v>1.5695699999999999</v>
+        <v>1.56826</v>
       </c>
       <c r="E81">
-        <v>1.5487599999999999</v>
+        <v>1.5321899999999999</v>
       </c>
       <c r="F81">
-        <v>1.5670200000000001</v>
+        <v>1.5377700000000001</v>
       </c>
       <c r="H81">
         <f t="shared" si="1"/>
-        <v>2.0210000000000061</v>
+        <v>2.0809999999999995</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21" customHeight="1">
@@ -2599,23 +2599,23 @@
         <v>24</v>
       </c>
       <c r="B82" s="8">
-        <v>41604</v>
+        <v>41611</v>
       </c>
       <c r="C82">
-        <v>1.56558</v>
+        <v>1.5615000000000001</v>
       </c>
       <c r="D82">
-        <v>1.5770200000000001</v>
+        <v>1.5695699999999999</v>
       </c>
       <c r="E82">
-        <v>1.55681</v>
+        <v>1.5487599999999999</v>
       </c>
       <c r="F82">
-        <v>1.56342</v>
+        <v>1.5670200000000001</v>
       </c>
       <c r="H82">
         <f t="shared" si="1"/>
-        <v>2.1469999999999878</v>
+        <v>2.0210000000000061</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21" customHeight="1">
@@ -2623,23 +2623,23 @@
         <v>24</v>
       </c>
       <c r="B83" s="8">
-        <v>41597</v>
+        <v>41604</v>
       </c>
       <c r="C83">
-        <v>1.5576099999999999</v>
+        <v>1.56558</v>
       </c>
       <c r="D83">
-        <v>1.56734</v>
+        <v>1.5770200000000001</v>
       </c>
       <c r="E83">
-        <v>1.5458700000000001</v>
+        <v>1.55681</v>
       </c>
       <c r="F83">
-        <v>1.5664</v>
+        <v>1.56342</v>
       </c>
       <c r="H83">
         <f t="shared" si="1"/>
-        <v>4.6000000000000041</v>
+        <v>2.1469999999999878</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21" customHeight="1">
@@ -2647,23 +2647,23 @@
         <v>24</v>
       </c>
       <c r="B84" s="8">
-        <v>41590</v>
+        <v>41597</v>
       </c>
       <c r="C84">
-        <v>1.52291</v>
+        <v>1.5576099999999999</v>
       </c>
       <c r="D84">
-        <v>1.5656600000000001</v>
+        <v>1.56734</v>
       </c>
       <c r="E84">
-        <v>1.51966</v>
+        <v>1.5458700000000001</v>
       </c>
       <c r="F84">
-        <v>1.5584</v>
+        <v>1.5664</v>
       </c>
       <c r="H84">
         <f t="shared" si="1"/>
-        <v>1.5339999999999909</v>
+        <v>4.6000000000000041</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21" customHeight="1">
@@ -2671,23 +2671,23 @@
         <v>24</v>
       </c>
       <c r="B85" s="8">
-        <v>41583</v>
+        <v>41590</v>
       </c>
       <c r="C85">
-        <v>1.51814</v>
+        <v>1.52291</v>
       </c>
       <c r="D85">
-        <v>1.5233699999999999</v>
+        <v>1.5656600000000001</v>
       </c>
       <c r="E85">
-        <v>1.50803</v>
+        <v>1.51966</v>
       </c>
       <c r="F85">
-        <v>1.5225900000000001</v>
+        <v>1.5584</v>
       </c>
       <c r="H85">
         <f t="shared" si="1"/>
-        <v>1.4720000000000066</v>
+        <v>1.5339999999999909</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21" customHeight="1">
@@ -2695,23 +2695,23 @@
         <v>24</v>
       </c>
       <c r="B86" s="8">
-        <v>41576</v>
+        <v>41583</v>
       </c>
       <c r="C86">
-        <v>1.5124299999999999</v>
+        <v>1.51814</v>
       </c>
       <c r="D86">
-        <v>1.52336</v>
+        <v>1.5233699999999999</v>
       </c>
       <c r="E86">
-        <v>1.50864</v>
+        <v>1.50803</v>
       </c>
       <c r="F86">
-        <v>1.5177700000000001</v>
+        <v>1.5225900000000001</v>
       </c>
       <c r="H86">
         <f t="shared" si="1"/>
-        <v>3.7690000000000001</v>
+        <v>1.4720000000000066</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21" customHeight="1">
@@ -2719,23 +2719,23 @@
         <v>24</v>
       </c>
       <c r="B87" s="8">
-        <v>41569</v>
+        <v>41576</v>
       </c>
       <c r="C87">
-        <v>1.5063299999999999</v>
+        <v>1.5124299999999999</v>
       </c>
       <c r="D87">
-        <v>1.53921</v>
+        <v>1.52336</v>
       </c>
       <c r="E87">
-        <v>1.50152</v>
+        <v>1.50864</v>
       </c>
       <c r="F87">
-        <v>1.5122</v>
+        <v>1.5177700000000001</v>
       </c>
       <c r="H87">
         <f t="shared" si="1"/>
-        <v>1.373000000000002</v>
+        <v>3.7690000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21" customHeight="1">
@@ -2743,23 +2743,23 @@
         <v>24</v>
       </c>
       <c r="B88" s="8">
-        <v>41562</v>
+        <v>41569</v>
       </c>
       <c r="C88">
-        <v>1.4978100000000001</v>
+        <v>1.5063299999999999</v>
       </c>
       <c r="D88">
-        <v>1.5087600000000001</v>
+        <v>1.53921</v>
       </c>
       <c r="E88">
-        <v>1.4950300000000001</v>
+        <v>1.50152</v>
       </c>
       <c r="F88">
-        <v>1.50674</v>
+        <v>1.5122</v>
       </c>
       <c r="H88">
         <f t="shared" si="1"/>
-        <v>2.6110000000000078</v>
+        <v>1.373000000000002</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21" customHeight="1">
@@ -2767,23 +2767,23 @@
         <v>24</v>
       </c>
       <c r="B89" s="8">
-        <v>41555</v>
+        <v>41562</v>
       </c>
       <c r="C89">
-        <v>1.50908</v>
+        <v>1.4978100000000001</v>
       </c>
       <c r="D89">
-        <v>1.52417</v>
+        <v>1.5087600000000001</v>
       </c>
       <c r="E89">
-        <v>1.4980599999999999</v>
+        <v>1.4950300000000001</v>
       </c>
       <c r="F89">
-        <v>1.49908</v>
+        <v>1.50674</v>
       </c>
       <c r="H89">
         <f t="shared" si="1"/>
-        <v>1.7889999999999961</v>
+        <v>2.6110000000000078</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21" customHeight="1">
@@ -2791,23 +2791,23 @@
         <v>24</v>
       </c>
       <c r="B90" s="8">
-        <v>41548</v>
+        <v>41555</v>
       </c>
       <c r="C90">
-        <v>1.50664</v>
+        <v>1.50908</v>
       </c>
       <c r="D90">
-        <v>1.51292</v>
+        <v>1.52417</v>
       </c>
       <c r="E90">
-        <v>1.4950300000000001</v>
+        <v>1.4980599999999999</v>
       </c>
       <c r="F90">
-        <v>1.50979</v>
+        <v>1.49908</v>
       </c>
       <c r="H90">
         <f t="shared" si="1"/>
-        <v>2.0850000000000035</v>
+        <v>1.7889999999999961</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21" customHeight="1">
@@ -2815,23 +2815,23 @@
         <v>24</v>
       </c>
       <c r="B91" s="8">
-        <v>41541</v>
+        <v>41548</v>
       </c>
       <c r="C91">
-        <v>1.4977400000000001</v>
+        <v>1.50664</v>
       </c>
       <c r="D91">
-        <v>1.5104</v>
+        <v>1.51292</v>
       </c>
       <c r="E91">
-        <v>1.4895499999999999</v>
+        <v>1.4950300000000001</v>
       </c>
       <c r="F91">
-        <v>1.5077100000000001</v>
+        <v>1.50979</v>
       </c>
       <c r="H91">
         <f t="shared" si="1"/>
-        <v>3.1460000000000043</v>
+        <v>2.0850000000000035</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="21" customHeight="1">
@@ -2839,23 +2839,23 @@
         <v>24</v>
       </c>
       <c r="B92" s="8">
-        <v>41534</v>
+        <v>41541</v>
       </c>
       <c r="C92">
-        <v>1.4923200000000001</v>
+        <v>1.4977400000000001</v>
       </c>
       <c r="D92">
-        <v>1.5107699999999999</v>
+        <v>1.5104</v>
       </c>
       <c r="E92">
-        <v>1.4793099999999999</v>
+        <v>1.4895499999999999</v>
       </c>
       <c r="F92">
-        <v>1.5005500000000001</v>
+        <v>1.5077100000000001</v>
       </c>
       <c r="H92">
         <f t="shared" si="1"/>
-        <v>1.5430000000000055</v>
+        <v>3.1460000000000043</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="21" customHeight="1">
@@ -2863,23 +2863,23 @@
         <v>24</v>
       </c>
       <c r="B93" s="8">
-        <v>41527</v>
+        <v>41534</v>
       </c>
       <c r="C93">
-        <v>1.4922599999999999</v>
+        <v>1.4923200000000001</v>
       </c>
       <c r="D93">
-        <v>1.49668</v>
+        <v>1.5107699999999999</v>
       </c>
       <c r="E93">
-        <v>1.48125</v>
+        <v>1.4793099999999999</v>
       </c>
       <c r="F93">
-        <v>1.4935</v>
+        <v>1.5005500000000001</v>
       </c>
       <c r="H93">
         <f t="shared" si="1"/>
-        <v>1.6089999999999938</v>
+        <v>1.5430000000000055</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="21" customHeight="1">
@@ -2887,23 +2887,23 @@
         <v>24</v>
       </c>
       <c r="B94" s="8">
-        <v>41520</v>
+        <v>41527</v>
       </c>
       <c r="C94">
-        <v>1.4937499999999999</v>
+        <v>1.4922599999999999</v>
       </c>
       <c r="D94">
-        <v>1.49959</v>
+        <v>1.49668</v>
       </c>
       <c r="E94">
-        <v>1.4835</v>
+        <v>1.48125</v>
       </c>
       <c r="F94">
-        <v>1.49403</v>
+        <v>1.4935</v>
       </c>
       <c r="H94">
         <f t="shared" si="1"/>
-        <v>3.0440000000000023</v>
+        <v>1.6089999999999938</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="21" customHeight="1">
@@ -2911,23 +2911,23 @@
         <v>24</v>
       </c>
       <c r="B95" s="8">
-        <v>41513</v>
+        <v>41520</v>
       </c>
       <c r="C95">
-        <v>1.50525</v>
+        <v>1.4937499999999999</v>
       </c>
       <c r="D95">
-        <v>1.5174000000000001</v>
+        <v>1.49959</v>
       </c>
       <c r="E95">
-        <v>1.4869600000000001</v>
+        <v>1.4835</v>
       </c>
       <c r="F95">
-        <v>1.4885699999999999</v>
+        <v>1.49403</v>
       </c>
       <c r="H95">
         <f t="shared" si="1"/>
-        <v>2.2699999999999942</v>
+        <v>3.0440000000000023</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="21" customHeight="1">
@@ -2935,23 +2935,23 @@
         <v>24</v>
       </c>
       <c r="B96" s="8">
-        <v>41506</v>
+        <v>41513</v>
       </c>
       <c r="C96">
-        <v>1.48298</v>
+        <v>1.50525</v>
       </c>
       <c r="D96">
-        <v>1.5034799999999999</v>
+        <v>1.5174000000000001</v>
       </c>
       <c r="E96">
-        <v>1.48078</v>
+        <v>1.4869600000000001</v>
       </c>
       <c r="F96">
-        <v>1.5030300000000001</v>
+        <v>1.4885699999999999</v>
       </c>
       <c r="H96">
         <f t="shared" si="1"/>
-        <v>2.8699999999999948</v>
+        <v>2.2699999999999942</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="21" customHeight="1">
@@ -2959,23 +2959,23 @@
         <v>24</v>
       </c>
       <c r="B97" s="8">
-        <v>41499</v>
+        <v>41506</v>
       </c>
       <c r="C97">
-        <v>1.4980800000000001</v>
+        <v>1.48298</v>
       </c>
       <c r="D97">
-        <v>1.50197</v>
+        <v>1.5034799999999999</v>
       </c>
       <c r="E97">
-        <v>1.4732700000000001</v>
+        <v>1.48078</v>
       </c>
       <c r="F97">
-        <v>1.48305</v>
+        <v>1.5030300000000001</v>
       </c>
       <c r="H97">
         <f t="shared" si="1"/>
-        <v>1.8610000000000015</v>
+        <v>2.8699999999999948</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="21" customHeight="1">
@@ -2983,23 +2983,23 @@
         <v>24</v>
       </c>
       <c r="B98" s="8">
-        <v>41492</v>
+        <v>41499</v>
       </c>
       <c r="C98">
-        <v>1.4850300000000001</v>
+        <v>1.4980800000000001</v>
       </c>
       <c r="D98">
-        <v>1.50108</v>
+        <v>1.50197</v>
       </c>
       <c r="E98">
-        <v>1.48247</v>
+        <v>1.4732700000000001</v>
       </c>
       <c r="F98">
-        <v>1.49793</v>
+        <v>1.48305</v>
       </c>
       <c r="H98">
         <f t="shared" si="1"/>
-        <v>2.8110000000000079</v>
+        <v>1.8610000000000015</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="21" customHeight="1">
@@ -3007,23 +3007,23 @@
         <v>24</v>
       </c>
       <c r="B99" s="8">
-        <v>41485</v>
+        <v>41492</v>
       </c>
       <c r="C99">
-        <v>1.4721</v>
+        <v>1.4850300000000001</v>
       </c>
       <c r="D99">
-        <v>1.49658</v>
+        <v>1.50108</v>
       </c>
       <c r="E99">
-        <v>1.4684699999999999</v>
+        <v>1.48247</v>
       </c>
       <c r="F99">
-        <v>1.48502</v>
+        <v>1.49793</v>
       </c>
       <c r="H99">
         <f t="shared" si="1"/>
-        <v>1.992000000000016</v>
+        <v>2.8110000000000079</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="21" customHeight="1">
@@ -3031,23 +3031,23 @@
         <v>24</v>
       </c>
       <c r="B100" s="8">
-        <v>41478</v>
+        <v>41485</v>
       </c>
       <c r="C100">
-        <v>1.4744999999999999</v>
+        <v>1.4721</v>
       </c>
       <c r="D100">
-        <v>1.4764600000000001</v>
+        <v>1.49658</v>
       </c>
       <c r="E100">
-        <v>1.4565399999999999</v>
+        <v>1.4684699999999999</v>
       </c>
       <c r="F100">
-        <v>1.47142</v>
+        <v>1.48502</v>
       </c>
       <c r="H100">
         <f t="shared" si="1"/>
-        <v>3.5390000000000033</v>
+        <v>1.992000000000016</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="21" customHeight="1">
@@ -3055,23 +3055,23 @@
         <v>24</v>
       </c>
       <c r="B101" s="8">
-        <v>41471</v>
+        <v>41478</v>
       </c>
       <c r="C101">
-        <v>1.4658500000000001</v>
+        <v>1.4744999999999999</v>
       </c>
       <c r="D101">
-        <v>1.4776800000000001</v>
+        <v>1.4764600000000001</v>
       </c>
       <c r="E101">
-        <v>1.4422900000000001</v>
+        <v>1.4565399999999999</v>
       </c>
       <c r="F101">
-        <v>1.4732400000000001</v>
+        <v>1.47142</v>
       </c>
       <c r="H101">
         <f t="shared" si="1"/>
-        <v>4.1140000000000176</v>
+        <v>3.5390000000000033</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="21" customHeight="1">
@@ -3079,23 +3079,23 @@
         <v>24</v>
       </c>
       <c r="B102" s="8">
-        <v>41464</v>
+        <v>41471</v>
       </c>
       <c r="C102">
-        <v>1.50021</v>
+        <v>1.4658500000000001</v>
       </c>
       <c r="D102">
-        <v>1.5037400000000001</v>
+        <v>1.4776800000000001</v>
       </c>
       <c r="E102">
-        <v>1.4625999999999999</v>
+        <v>1.4422900000000001</v>
       </c>
       <c r="F102">
-        <v>1.46506</v>
+        <v>1.4732400000000001</v>
       </c>
       <c r="H102">
         <f t="shared" si="1"/>
-        <v>2.7490000000000014</v>
+        <v>4.1140000000000176</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="21" customHeight="1">
@@ -3103,23 +3103,23 @@
         <v>24</v>
       </c>
       <c r="B103" s="8">
-        <v>41457</v>
+        <v>41464</v>
       </c>
       <c r="C103">
-        <v>1.48695</v>
+        <v>1.50021</v>
       </c>
       <c r="D103">
-        <v>1.50743</v>
+        <v>1.5037400000000001</v>
       </c>
       <c r="E103">
-        <v>1.47994</v>
+        <v>1.4625999999999999</v>
       </c>
       <c r="F103">
-        <v>1.49962</v>
+        <v>1.46506</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>
-        <v>3.1630000000000047</v>
+        <v>2.7490000000000014</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="21" customHeight="1">
@@ -3127,23 +3127,23 @@
         <v>24</v>
       </c>
       <c r="B104" s="8">
-        <v>41450</v>
+        <v>41457</v>
       </c>
       <c r="C104">
-        <v>1.4791700000000001</v>
+        <v>1.48695</v>
       </c>
       <c r="D104">
-        <v>1.49979</v>
+        <v>1.50743</v>
       </c>
       <c r="E104">
-        <v>1.4681599999999999</v>
+        <v>1.47994</v>
       </c>
       <c r="F104">
-        <v>1.4852300000000001</v>
+        <v>1.49962</v>
       </c>
       <c r="H104">
         <f t="shared" si="1"/>
-        <v>1.880000000000015</v>
+        <v>3.1630000000000047</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="21" customHeight="1">
@@ -3151,23 +3151,23 @@
         <v>24</v>
       </c>
       <c r="B105" s="8">
-        <v>41443</v>
+        <v>41450</v>
       </c>
       <c r="C105">
-        <v>1.46898</v>
+        <v>1.4791700000000001</v>
       </c>
       <c r="D105">
-        <v>1.4814400000000001</v>
+        <v>1.49979</v>
       </c>
       <c r="E105">
-        <v>1.4626399999999999</v>
+        <v>1.4681599999999999</v>
       </c>
       <c r="F105">
-        <v>1.4791399999999999</v>
+        <v>1.4852300000000001</v>
       </c>
       <c r="H105">
         <f t="shared" si="1"/>
-        <v>2.4859999999999882</v>
+        <v>1.880000000000015</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="21" customHeight="1">
@@ -3175,23 +3175,23 @@
         <v>24</v>
       </c>
       <c r="B106" s="8">
-        <v>41436</v>
+        <v>41443</v>
       </c>
       <c r="C106">
-        <v>1.48743</v>
+        <v>1.46898</v>
       </c>
       <c r="D106">
-        <v>1.4908699999999999</v>
+        <v>1.4814400000000001</v>
       </c>
       <c r="E106">
-        <v>1.46601</v>
+        <v>1.4626399999999999</v>
       </c>
       <c r="F106">
-        <v>1.4688600000000001</v>
+        <v>1.4791399999999999</v>
       </c>
       <c r="H106">
         <f t="shared" si="1"/>
-        <v>3.6429999999999962</v>
+        <v>2.4859999999999882</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="21" customHeight="1">
@@ -3199,23 +3199,23 @@
         <v>24</v>
       </c>
       <c r="B107" s="8">
-        <v>41429</v>
+        <v>41436</v>
       </c>
       <c r="C107">
-        <v>1.5174700000000001</v>
+        <v>1.48743</v>
       </c>
       <c r="D107">
-        <v>1.51858</v>
+        <v>1.4908699999999999</v>
       </c>
       <c r="E107">
-        <v>1.4821500000000001</v>
+        <v>1.46601</v>
       </c>
       <c r="F107">
-        <v>1.48688</v>
+        <v>1.4688600000000001</v>
       </c>
       <c r="H107">
         <f t="shared" si="1"/>
-        <v>2.9880000000000129</v>
+        <v>3.6429999999999962</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="21" customHeight="1">
@@ -3223,23 +3223,23 @@
         <v>24</v>
       </c>
       <c r="B108" s="8">
-        <v>41422</v>
+        <v>41429</v>
       </c>
       <c r="C108">
-        <v>1.5019199999999999</v>
+        <v>1.5174700000000001</v>
       </c>
       <c r="D108">
-        <v>1.5226900000000001</v>
+        <v>1.51858</v>
       </c>
       <c r="E108">
-        <v>1.49281</v>
+        <v>1.4821500000000001</v>
       </c>
       <c r="F108">
-        <v>1.5153799999999999</v>
+        <v>1.48688</v>
       </c>
       <c r="H108">
         <f t="shared" si="1"/>
-        <v>1.7630000000000035</v>
+        <v>2.9880000000000129</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="21" customHeight="1">
@@ -3247,23 +3247,23 @@
         <v>24</v>
       </c>
       <c r="B109" s="8">
-        <v>41415</v>
+        <v>41422</v>
       </c>
       <c r="C109">
-        <v>1.5039100000000001</v>
+        <v>1.5019199999999999</v>
       </c>
       <c r="D109">
-        <v>1.5110399999999999</v>
+        <v>1.5226900000000001</v>
       </c>
       <c r="E109">
-        <v>1.4934099999999999</v>
+        <v>1.49281</v>
       </c>
       <c r="F109">
-        <v>1.5007999999999999</v>
+        <v>1.5153799999999999</v>
       </c>
       <c r="H109">
         <f t="shared" si="1"/>
-        <v>3.5980000000000123</v>
+        <v>1.7630000000000035</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="21" customHeight="1">
@@ -3271,23 +3271,23 @@
         <v>24</v>
       </c>
       <c r="B110" s="8">
-        <v>41408</v>
+        <v>41415</v>
       </c>
       <c r="C110">
-        <v>1.4783200000000001</v>
+        <v>1.5039100000000001</v>
       </c>
       <c r="D110">
-        <v>1.5075000000000001</v>
+        <v>1.5110399999999999</v>
       </c>
       <c r="E110">
-        <v>1.4715199999999999</v>
+        <v>1.4934099999999999</v>
       </c>
       <c r="F110">
-        <v>1.5024599999999999</v>
+        <v>1.5007999999999999</v>
       </c>
       <c r="H110">
         <f t="shared" si="1"/>
-        <v>2.0840000000000192</v>
+        <v>3.5980000000000123</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="21" customHeight="1">
@@ -3295,23 +3295,23 @@
         <v>24</v>
       </c>
       <c r="B111" s="8">
-        <v>41401</v>
+        <v>41408</v>
       </c>
       <c r="C111">
-        <v>1.48569</v>
+        <v>1.4783200000000001</v>
       </c>
       <c r="D111">
-        <v>1.4878800000000001</v>
+        <v>1.5075000000000001</v>
       </c>
       <c r="E111">
-        <v>1.4670399999999999</v>
+        <v>1.4715199999999999</v>
       </c>
       <c r="F111">
-        <v>1.4792700000000001</v>
+        <v>1.5024599999999999</v>
       </c>
       <c r="H111">
         <f t="shared" si="1"/>
-        <v>4.6699999999999964</v>
+        <v>2.0840000000000192</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="21" customHeight="1">
@@ -3319,23 +3319,23 @@
         <v>24</v>
       </c>
       <c r="B112" s="8">
-        <v>41394</v>
+        <v>41401</v>
       </c>
       <c r="C112">
-        <v>1.4559500000000001</v>
+        <v>1.48569</v>
       </c>
       <c r="D112">
-        <v>1.49105</v>
+        <v>1.4878800000000001</v>
       </c>
       <c r="E112">
-        <v>1.44435</v>
+        <v>1.4670399999999999</v>
       </c>
       <c r="F112">
-        <v>1.4821299999999999</v>
+        <v>1.4792700000000001</v>
       </c>
       <c r="H112">
         <f t="shared" si="1"/>
-        <v>3.3450000000000202</v>
+        <v>4.6699999999999964</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="21" customHeight="1">
@@ -3343,23 +3343,23 @@
         <v>24</v>
       </c>
       <c r="B113" s="8">
-        <v>41387</v>
+        <v>41394</v>
       </c>
       <c r="C113">
-        <v>1.4381200000000001</v>
+        <v>1.4559500000000001</v>
       </c>
       <c r="D113">
-        <v>1.4650700000000001</v>
+        <v>1.49105</v>
       </c>
       <c r="E113">
-        <v>1.4316199999999999</v>
+        <v>1.44435</v>
       </c>
       <c r="F113">
-        <v>1.4553</v>
+        <v>1.4821299999999999</v>
       </c>
       <c r="H113">
         <f t="shared" si="1"/>
-        <v>3.5279999999999978</v>
+        <v>3.3450000000000202</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="21" customHeight="1">
@@ -3367,23 +3367,23 @@
         <v>24</v>
       </c>
       <c r="B114" s="8">
-        <v>41380</v>
+        <v>41387</v>
       </c>
       <c r="C114">
-        <v>1.3998200000000001</v>
+        <v>1.4381200000000001</v>
       </c>
       <c r="D114">
-        <v>1.4335100000000001</v>
+        <v>1.4650700000000001</v>
       </c>
       <c r="E114">
-        <v>1.3982300000000001</v>
+        <v>1.4316199999999999</v>
       </c>
       <c r="F114">
-        <v>1.4212800000000001</v>
+        <v>1.4553</v>
       </c>
       <c r="H114">
         <f t="shared" si="1"/>
-        <v>2.1740000000000093</v>
+        <v>3.5279999999999978</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="21" customHeight="1">
@@ -3391,23 +3391,23 @@
         <v>24</v>
       </c>
       <c r="B115" s="8">
-        <v>41373</v>
+        <v>41380</v>
       </c>
       <c r="C115">
-        <v>1.41126</v>
+        <v>1.3998200000000001</v>
       </c>
       <c r="D115">
-        <v>1.4216800000000001</v>
+        <v>1.4335100000000001</v>
       </c>
       <c r="E115">
-        <v>1.39994</v>
+        <v>1.3982300000000001</v>
       </c>
       <c r="F115">
-        <v>1.40035</v>
+        <v>1.4212800000000001</v>
       </c>
       <c r="H115">
         <f t="shared" si="1"/>
-        <v>2.1790000000000198</v>
+        <v>2.1740000000000093</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="21" customHeight="1">
@@ -3415,23 +3415,23 @@
         <v>24</v>
       </c>
       <c r="B116" s="8">
-        <v>41366</v>
+        <v>41373</v>
       </c>
       <c r="C116">
-        <v>1.39649</v>
+        <v>1.41126</v>
       </c>
       <c r="D116">
-        <v>1.4178900000000001</v>
+        <v>1.4216800000000001</v>
       </c>
       <c r="E116">
-        <v>1.3960999999999999</v>
+        <v>1.39994</v>
       </c>
       <c r="F116">
-        <v>1.4120600000000001</v>
+        <v>1.40035</v>
       </c>
       <c r="H116">
         <f t="shared" si="1"/>
-        <v>3.7039999999999962</v>
+        <v>2.1790000000000198</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="21" customHeight="1">
@@ -3439,23 +3439,23 @@
         <v>24</v>
       </c>
       <c r="B117" s="8">
-        <v>41359</v>
+        <v>41366</v>
       </c>
       <c r="C117">
-        <v>1.4189700000000001</v>
+        <v>1.39649</v>
       </c>
       <c r="D117">
-        <v>1.4310099999999999</v>
+        <v>1.4178900000000001</v>
       </c>
       <c r="E117">
-        <v>1.3939699999999999</v>
+        <v>1.3960999999999999</v>
       </c>
       <c r="F117">
-        <v>1.39605</v>
+        <v>1.4120600000000001</v>
       </c>
       <c r="H117">
         <f t="shared" si="1"/>
-        <v>3.3469999999999889</v>
+        <v>3.7039999999999962</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="21" customHeight="1">
@@ -3463,23 +3463,23 @@
         <v>24</v>
       </c>
       <c r="B118" s="8">
-        <v>41352</v>
+        <v>41359</v>
       </c>
       <c r="C118">
-        <v>1.3945000000000001</v>
+        <v>1.4189700000000001</v>
       </c>
       <c r="D118">
-        <v>1.4208099999999999</v>
+        <v>1.4310099999999999</v>
       </c>
       <c r="E118">
-        <v>1.38734</v>
+        <v>1.3939699999999999</v>
       </c>
       <c r="F118">
-        <v>1.4166399999999999</v>
+        <v>1.39605</v>
       </c>
       <c r="H118">
         <f t="shared" si="1"/>
-        <v>3.0370000000000008</v>
+        <v>3.3469999999999889</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="21" customHeight="1">
@@ -3487,23 +3487,23 @@
         <v>24</v>
       </c>
       <c r="B119" s="8">
-        <v>41345</v>
+        <v>41352</v>
       </c>
       <c r="C119">
-        <v>1.4154500000000001</v>
+        <v>1.3945000000000001</v>
       </c>
       <c r="D119">
-        <v>1.41842</v>
+        <v>1.4208099999999999</v>
       </c>
       <c r="E119">
-        <v>1.38805</v>
+        <v>1.38734</v>
       </c>
       <c r="F119">
-        <v>1.39384</v>
+        <v>1.4166399999999999</v>
       </c>
       <c r="H119">
         <f t="shared" si="1"/>
-        <v>3.0460000000000154</v>
+        <v>3.0370000000000008</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="21" customHeight="1">
@@ -3511,23 +3511,23 @@
         <v>24</v>
       </c>
       <c r="B120" s="8">
-        <v>41338</v>
+        <v>41345</v>
       </c>
       <c r="C120">
-        <v>1.39778</v>
+        <v>1.4154500000000001</v>
       </c>
       <c r="D120">
-        <v>1.4179900000000001</v>
+        <v>1.41842</v>
       </c>
       <c r="E120">
-        <v>1.3875299999999999</v>
+        <v>1.38805</v>
       </c>
       <c r="F120">
-        <v>1.41483</v>
+        <v>1.39384</v>
       </c>
       <c r="H120">
         <f t="shared" si="1"/>
-        <v>2.7020000000000044</v>
+        <v>3.0460000000000154</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="21" customHeight="1">
@@ -3535,23 +3535,23 @@
         <v>24</v>
       </c>
       <c r="B121" s="8">
-        <v>41331</v>
+        <v>41338</v>
       </c>
       <c r="C121">
-        <v>1.3749400000000001</v>
+        <v>1.39778</v>
       </c>
       <c r="D121">
-        <v>1.39832</v>
+        <v>1.4179900000000001</v>
       </c>
       <c r="E121">
-        <v>1.3713</v>
+        <v>1.3875299999999999</v>
       </c>
       <c r="F121">
-        <v>1.3978999999999999</v>
+        <v>1.41483</v>
       </c>
       <c r="H121">
         <f t="shared" si="1"/>
-        <v>2.3599999999999843</v>
+        <v>2.7020000000000044</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="21" customHeight="1">
@@ -3559,23 +3559,23 @@
         <v>24</v>
       </c>
       <c r="B122" s="8">
-        <v>41324</v>
+        <v>41331</v>
       </c>
       <c r="C122">
-        <v>1.38219</v>
+        <v>1.3749400000000001</v>
       </c>
       <c r="D122">
-        <v>1.3862699999999999</v>
+        <v>1.39832</v>
       </c>
       <c r="E122">
-        <v>1.36267</v>
+        <v>1.3713</v>
       </c>
       <c r="F122">
-        <v>1.3765099999999999</v>
+        <v>1.3978999999999999</v>
       </c>
       <c r="H122">
         <f t="shared" si="1"/>
-        <v>1.7700000000000049</v>
+        <v>2.3599999999999843</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="21" customHeight="1">
@@ -3583,23 +3583,23 @@
         <v>24</v>
       </c>
       <c r="B123" s="8">
-        <v>41317</v>
+        <v>41324</v>
       </c>
       <c r="C123">
-        <v>1.3835599999999999</v>
+        <v>1.38219</v>
       </c>
       <c r="D123">
-        <v>1.39018</v>
+        <v>1.3862699999999999</v>
       </c>
       <c r="E123">
-        <v>1.3724799999999999</v>
+        <v>1.36267</v>
       </c>
       <c r="F123">
-        <v>1.3838299999999999</v>
+        <v>1.3765099999999999</v>
       </c>
       <c r="H123">
         <f t="shared" si="1"/>
-        <v>2.3619999999999974</v>
+        <v>1.7700000000000049</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="21" customHeight="1">
@@ -3607,23 +3607,23 @@
         <v>24</v>
       </c>
       <c r="B124" s="8">
-        <v>41310</v>
+        <v>41317</v>
       </c>
       <c r="C124">
-        <v>1.4053199999999999</v>
+        <v>1.3835599999999999</v>
       </c>
       <c r="D124">
-        <v>1.40757</v>
+        <v>1.39018</v>
       </c>
       <c r="E124">
-        <v>1.38395</v>
+        <v>1.3724799999999999</v>
       </c>
       <c r="F124">
-        <v>1.38581</v>
+        <v>1.3838299999999999</v>
       </c>
       <c r="H124">
         <f t="shared" si="1"/>
-        <v>2.9320000000000013</v>
+        <v>2.3619999999999974</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="21" customHeight="1">
@@ -3631,23 +3631,23 @@
         <v>24</v>
       </c>
       <c r="B125" s="8">
-        <v>41303</v>
+        <v>41310</v>
       </c>
       <c r="C125">
-        <v>1.4178200000000001</v>
+        <v>1.4053199999999999</v>
       </c>
       <c r="D125">
-        <v>1.42903</v>
+        <v>1.40757</v>
       </c>
       <c r="E125">
-        <v>1.39971</v>
+        <v>1.38395</v>
       </c>
       <c r="F125">
-        <v>1.4039999999999999</v>
+        <v>1.38581</v>
       </c>
       <c r="H125">
         <f t="shared" si="1"/>
-        <v>1.5430000000000055</v>
+        <v>2.9320000000000013</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="21" customHeight="1">
@@ -3655,23 +3655,23 @@
         <v>24</v>
       </c>
       <c r="B126" s="8">
-        <v>41296</v>
+        <v>41303</v>
       </c>
       <c r="C126">
-        <v>1.41578</v>
+        <v>1.4178200000000001</v>
       </c>
       <c r="D126">
-        <v>1.42757</v>
+        <v>1.42903</v>
       </c>
       <c r="E126">
-        <v>1.41214</v>
+        <v>1.39971</v>
       </c>
       <c r="F126">
-        <v>1.4173500000000001</v>
+        <v>1.4039999999999999</v>
       </c>
       <c r="H126">
         <f t="shared" si="1"/>
-        <v>1.8529999999999935</v>
+        <v>1.5430000000000055</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="21" customHeight="1">
@@ -3679,23 +3679,23 @@
         <v>24</v>
       </c>
       <c r="B127" s="8">
-        <v>41289</v>
+        <v>41296</v>
       </c>
       <c r="C127">
-        <v>1.4165300000000001</v>
+        <v>1.41578</v>
       </c>
       <c r="D127">
-        <v>1.42126</v>
+        <v>1.42757</v>
       </c>
       <c r="E127">
-        <v>1.40273</v>
+        <v>1.41214</v>
       </c>
       <c r="F127">
-        <v>1.4155899999999999</v>
+        <v>1.4173500000000001</v>
       </c>
       <c r="H127">
         <f t="shared" si="1"/>
-        <v>3.082000000000007</v>
+        <v>1.8529999999999935</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="21" customHeight="1">
@@ -3703,23 +3703,23 @@
         <v>24</v>
       </c>
       <c r="B128" s="8">
-        <v>41282</v>
+        <v>41289</v>
       </c>
       <c r="C128">
-        <v>1.4429799999999999</v>
+        <v>1.4165300000000001</v>
       </c>
       <c r="D128">
-        <v>1.44485</v>
+        <v>1.42126</v>
       </c>
       <c r="E128">
-        <v>1.4140299999999999</v>
+        <v>1.40273</v>
       </c>
       <c r="F128">
-        <v>1.4183699999999999</v>
+        <v>1.4155899999999999</v>
       </c>
       <c r="H128">
         <f t="shared" si="1"/>
-        <v>2.4270000000000014</v>
+        <v>3.082000000000007</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="21" customHeight="1">
@@ -3727,23 +3727,23 @@
         <v>24</v>
       </c>
       <c r="B129" s="8">
-        <v>41275</v>
+        <v>41282</v>
       </c>
       <c r="C129">
-        <v>1.45417</v>
+        <v>1.4429799999999999</v>
       </c>
       <c r="D129">
-        <v>1.45669</v>
+        <v>1.44485</v>
       </c>
       <c r="E129">
-        <v>1.43242</v>
+        <v>1.4140299999999999</v>
       </c>
       <c r="F129">
-        <v>1.4436599999999999</v>
+        <v>1.4183699999999999</v>
       </c>
       <c r="H129">
         <f t="shared" si="1"/>
-        <v>2.7329999999999854</v>
+        <v>2.4270000000000014</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="21" customHeight="1">
@@ -3751,23 +3751,23 @@
         <v>24</v>
       </c>
       <c r="B130" s="8">
-        <v>41268</v>
+        <v>41275</v>
       </c>
       <c r="C130">
-        <v>1.45522</v>
+        <v>1.45417</v>
       </c>
       <c r="D130">
-        <v>1.47281</v>
+        <v>1.45669</v>
       </c>
       <c r="E130">
-        <v>1.4454800000000001</v>
+        <v>1.43242</v>
       </c>
       <c r="F130">
-        <v>1.4593499999999999</v>
+        <v>1.4436599999999999</v>
       </c>
       <c r="H130">
         <f t="shared" ref="H130:H193" si="2">ABS(D131-E131)*100</f>
-        <v>3.0630000000000157</v>
+        <v>2.7329999999999854</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="21" customHeight="1">
@@ -3775,23 +3775,23 @@
         <v>24</v>
       </c>
       <c r="B131" s="8">
-        <v>41261</v>
+        <v>41268</v>
       </c>
       <c r="C131">
-        <v>1.43333</v>
+        <v>1.45522</v>
       </c>
       <c r="D131">
-        <v>1.4596800000000001</v>
+        <v>1.47281</v>
       </c>
       <c r="E131">
-        <v>1.4290499999999999</v>
+        <v>1.4454800000000001</v>
       </c>
       <c r="F131">
-        <v>1.45624</v>
+        <v>1.4593499999999999</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
-        <v>2.50999999999999</v>
+        <v>3.0630000000000157</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="21" customHeight="1">
@@ -3799,23 +3799,23 @@
         <v>24</v>
       </c>
       <c r="B132" s="8">
-        <v>41254</v>
+        <v>41261</v>
       </c>
       <c r="C132">
-        <v>1.41405</v>
+        <v>1.43333</v>
       </c>
       <c r="D132">
-        <v>1.43421</v>
+        <v>1.4596800000000001</v>
       </c>
       <c r="E132">
-        <v>1.4091100000000001</v>
+        <v>1.4290499999999999</v>
       </c>
       <c r="F132">
-        <v>1.43164</v>
+        <v>1.45624</v>
       </c>
       <c r="H132">
         <f t="shared" si="2"/>
-        <v>3.9380000000000193</v>
+        <v>2.50999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="21" customHeight="1">
@@ -3823,23 +3823,23 @@
         <v>24</v>
       </c>
       <c r="B133" s="8">
-        <v>41247</v>
+        <v>41254</v>
       </c>
       <c r="C133">
-        <v>1.4311199999999999</v>
+        <v>1.41405</v>
       </c>
       <c r="D133">
-        <v>1.4512400000000001</v>
+        <v>1.43421</v>
       </c>
       <c r="E133">
-        <v>1.4118599999999999</v>
+        <v>1.4091100000000001</v>
       </c>
       <c r="F133">
-        <v>1.4167400000000001</v>
+        <v>1.43164</v>
       </c>
       <c r="H133">
         <f t="shared" si="2"/>
-        <v>3.0030000000000001</v>
+        <v>3.9380000000000193</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="21" customHeight="1">
@@ -3847,23 +3847,23 @@
         <v>24</v>
       </c>
       <c r="B134" s="8">
-        <v>41240</v>
+        <v>41247</v>
       </c>
       <c r="C134">
-        <v>1.42517</v>
+        <v>1.4311199999999999</v>
       </c>
       <c r="D134">
-        <v>1.4436</v>
+        <v>1.4512400000000001</v>
       </c>
       <c r="E134">
-        <v>1.41357</v>
+        <v>1.4118599999999999</v>
       </c>
       <c r="F134">
-        <v>1.4309000000000001</v>
+        <v>1.4167400000000001</v>
       </c>
       <c r="H134">
         <f t="shared" si="2"/>
-        <v>3.0810000000000004</v>
+        <v>3.0030000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="21" customHeight="1">
@@ -3871,23 +3871,23 @@
         <v>24</v>
       </c>
       <c r="B135" s="8">
-        <v>41233</v>
+        <v>41240</v>
       </c>
       <c r="C135">
-        <v>1.4447000000000001</v>
+        <v>1.42517</v>
       </c>
       <c r="D135">
-        <v>1.4488399999999999</v>
+        <v>1.4436</v>
       </c>
       <c r="E135">
-        <v>1.4180299999999999</v>
+        <v>1.41357</v>
       </c>
       <c r="F135">
-        <v>1.42408</v>
+        <v>1.4309000000000001</v>
       </c>
       <c r="H135">
         <f t="shared" si="2"/>
-        <v>2.6699999999999946</v>
+        <v>3.0810000000000004</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="21" customHeight="1">
@@ -3895,23 +3895,23 @@
         <v>24</v>
       </c>
       <c r="B136" s="8">
-        <v>41226</v>
+        <v>41233</v>
       </c>
       <c r="C136">
-        <v>1.4352400000000001</v>
+        <v>1.4447000000000001</v>
       </c>
       <c r="D136">
-        <v>1.44469</v>
+        <v>1.4488399999999999</v>
       </c>
       <c r="E136">
-        <v>1.4179900000000001</v>
+        <v>1.4180299999999999</v>
       </c>
       <c r="F136">
-        <v>1.4433499999999999</v>
+        <v>1.42408</v>
       </c>
       <c r="H136">
         <f t="shared" si="2"/>
-        <v>8.0639999999999823</v>
+        <v>2.6699999999999946</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="21" customHeight="1">
@@ -3919,23 +3919,23 @@
         <v>24</v>
       </c>
       <c r="B137" s="8">
-        <v>41219</v>
+        <v>41226</v>
       </c>
       <c r="C137">
-        <v>1.43913</v>
+        <v>1.4352400000000001</v>
       </c>
       <c r="D137">
-        <v>1.4880199999999999</v>
+        <v>1.44469</v>
       </c>
       <c r="E137">
-        <v>1.4073800000000001</v>
+        <v>1.4179900000000001</v>
       </c>
       <c r="F137">
-        <v>1.4378200000000001</v>
+        <v>1.4433499999999999</v>
       </c>
       <c r="H137">
         <f t="shared" si="2"/>
-        <v>2.5899999999999812</v>
+        <v>8.0639999999999823</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="21" customHeight="1">
@@ -3943,23 +3943,23 @@
         <v>24</v>
       </c>
       <c r="B138" s="8">
-        <v>41212</v>
+        <v>41219</v>
       </c>
       <c r="C138">
-        <v>1.44523</v>
+        <v>1.43913</v>
       </c>
       <c r="D138">
-        <v>1.4557899999999999</v>
+        <v>1.4880199999999999</v>
       </c>
       <c r="E138">
-        <v>1.4298900000000001</v>
+        <v>1.4073800000000001</v>
       </c>
       <c r="F138">
-        <v>1.4506699999999999</v>
+        <v>1.4378200000000001</v>
       </c>
       <c r="H138">
         <f t="shared" si="2"/>
-        <v>3.5760000000000014</v>
+        <v>2.5899999999999812</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="21" customHeight="1">
@@ -3967,23 +3967,23 @@
         <v>24</v>
       </c>
       <c r="B139" s="8">
-        <v>41205</v>
+        <v>41212</v>
       </c>
       <c r="C139">
-        <v>1.4302600000000001</v>
+        <v>1.44523</v>
       </c>
       <c r="D139">
-        <v>1.44848</v>
+        <v>1.4557899999999999</v>
       </c>
       <c r="E139">
-        <v>1.41272</v>
+        <v>1.4298900000000001</v>
       </c>
       <c r="F139">
-        <v>1.44587</v>
+        <v>1.4506699999999999</v>
       </c>
       <c r="H139">
         <f t="shared" si="2"/>
-        <v>2.9379999999999962</v>
+        <v>3.5760000000000014</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="21" customHeight="1">
@@ -3991,23 +3991,23 @@
         <v>24</v>
       </c>
       <c r="B140" s="8">
-        <v>41198</v>
+        <v>41205</v>
       </c>
       <c r="C140">
-        <v>1.4394100000000001</v>
+        <v>1.4302600000000001</v>
       </c>
       <c r="D140">
-        <v>1.4475199999999999</v>
+        <v>1.44848</v>
       </c>
       <c r="E140">
-        <v>1.41814</v>
+        <v>1.41272</v>
       </c>
       <c r="F140">
-        <v>1.4308799999999999</v>
+        <v>1.44587</v>
       </c>
       <c r="H140">
         <f t="shared" si="2"/>
-        <v>3.5640000000000116</v>
+        <v>2.9379999999999962</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="21" customHeight="1">
@@ -4015,23 +4015,23 @@
         <v>24</v>
       </c>
       <c r="B141" s="8">
-        <v>41191</v>
+        <v>41198</v>
       </c>
       <c r="C141">
-        <v>1.4718199999999999</v>
+        <v>1.4394100000000001</v>
       </c>
       <c r="D141">
-        <v>1.4752700000000001</v>
+        <v>1.4475199999999999</v>
       </c>
       <c r="E141">
-        <v>1.43963</v>
+        <v>1.41814</v>
       </c>
       <c r="F141">
-        <v>1.4416500000000001</v>
+        <v>1.4308799999999999</v>
       </c>
       <c r="H141">
         <f t="shared" si="2"/>
-        <v>2.4359999999999937</v>
+        <v>3.5640000000000116</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="21" customHeight="1">
@@ -4039,23 +4039,23 @@
         <v>24</v>
       </c>
       <c r="B142" s="8">
-        <v>41184</v>
+        <v>41191</v>
       </c>
       <c r="C142">
-        <v>1.4667600000000001</v>
+        <v>1.4718199999999999</v>
       </c>
       <c r="D142">
-        <v>1.47787</v>
+        <v>1.4752700000000001</v>
       </c>
       <c r="E142">
-        <v>1.4535100000000001</v>
+        <v>1.43963</v>
       </c>
       <c r="F142">
-        <v>1.47614</v>
+        <v>1.4416500000000001</v>
       </c>
       <c r="H142">
         <f t="shared" si="2"/>
-        <v>2.2399999999999975</v>
+        <v>2.4359999999999937</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="21" customHeight="1">
@@ -4063,23 +4063,23 @@
         <v>24</v>
       </c>
       <c r="B143" s="8">
-        <v>41177</v>
+        <v>41184</v>
       </c>
       <c r="C143">
-        <v>1.4738599999999999</v>
+        <v>1.4667600000000001</v>
       </c>
       <c r="D143">
-        <v>1.4781</v>
+        <v>1.47787</v>
       </c>
       <c r="E143">
-        <v>1.4557</v>
+        <v>1.4535100000000001</v>
       </c>
       <c r="F143">
-        <v>1.4676199999999999</v>
+        <v>1.47614</v>
       </c>
       <c r="H143">
         <f t="shared" si="2"/>
-        <v>2.6830000000000132</v>
+        <v>2.2399999999999975</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="21" customHeight="1">
@@ -4087,23 +4087,23 @@
         <v>24</v>
       </c>
       <c r="B144" s="8">
-        <v>41170</v>
+        <v>41177</v>
       </c>
       <c r="C144">
-        <v>1.48977</v>
+        <v>1.4738599999999999</v>
       </c>
       <c r="D144">
-        <v>1.4900100000000001</v>
+        <v>1.4781</v>
       </c>
       <c r="E144">
-        <v>1.4631799999999999</v>
+        <v>1.4557</v>
       </c>
       <c r="F144">
-        <v>1.4730700000000001</v>
+        <v>1.4676199999999999</v>
       </c>
       <c r="H144">
         <f t="shared" si="2"/>
-        <v>2.513999999999994</v>
+        <v>2.6830000000000132</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="21" customHeight="1">
@@ -4111,23 +4111,23 @@
         <v>24</v>
       </c>
       <c r="B145" s="8">
-        <v>41163</v>
+        <v>41170</v>
       </c>
       <c r="C145">
-        <v>1.4892099999999999</v>
+        <v>1.48977</v>
       </c>
       <c r="D145">
-        <v>1.5095099999999999</v>
+        <v>1.4900100000000001</v>
       </c>
       <c r="E145">
-        <v>1.48437</v>
+        <v>1.4631799999999999</v>
       </c>
       <c r="F145">
-        <v>1.4889300000000001</v>
+        <v>1.4730700000000001</v>
       </c>
       <c r="H145">
         <f t="shared" si="2"/>
-        <v>3.2149999999999901</v>
+        <v>2.513999999999994</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="21" customHeight="1">
@@ -4135,23 +4135,23 @@
         <v>24</v>
       </c>
       <c r="B146" s="8">
-        <v>41156</v>
+        <v>41163</v>
       </c>
       <c r="C146">
-        <v>1.4725200000000001</v>
+        <v>1.4892099999999999</v>
       </c>
       <c r="D146">
-        <v>1.4901</v>
+        <v>1.5095099999999999</v>
       </c>
       <c r="E146">
-        <v>1.4579500000000001</v>
+        <v>1.48437</v>
       </c>
       <c r="F146">
-        <v>1.48997</v>
+        <v>1.4889300000000001</v>
       </c>
       <c r="H146">
         <f t="shared" si="2"/>
-        <v>1.3500000000000068</v>
+        <v>3.2149999999999901</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="21" customHeight="1">
@@ -4159,23 +4159,23 @@
         <v>24</v>
       </c>
       <c r="B147" s="8">
-        <v>41149</v>
+        <v>41156</v>
       </c>
       <c r="C147">
-        <v>1.4804999999999999</v>
+        <v>1.4725200000000001</v>
       </c>
       <c r="D147">
-        <v>1.4871700000000001</v>
+        <v>1.4901</v>
       </c>
       <c r="E147">
-        <v>1.47367</v>
+        <v>1.4579500000000001</v>
       </c>
       <c r="F147">
-        <v>1.4738599999999999</v>
+        <v>1.48997</v>
       </c>
       <c r="H147">
         <f t="shared" si="2"/>
-        <v>1.8220000000000125</v>
+        <v>1.3500000000000068</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="21" customHeight="1">
@@ -4183,23 +4183,23 @@
         <v>24</v>
       </c>
       <c r="B148" s="8">
-        <v>41142</v>
+        <v>41149</v>
       </c>
       <c r="C148">
-        <v>1.48661</v>
+        <v>1.4804999999999999</v>
       </c>
       <c r="D148">
-        <v>1.4877800000000001</v>
+        <v>1.4871700000000001</v>
       </c>
       <c r="E148">
-        <v>1.46956</v>
+        <v>1.47367</v>
       </c>
       <c r="F148">
-        <v>1.48044</v>
+        <v>1.4738599999999999</v>
       </c>
       <c r="H148">
         <f t="shared" si="2"/>
-        <v>3.4689999999999888</v>
+        <v>1.8220000000000125</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="21" customHeight="1">
@@ -4207,23 +4207,23 @@
         <v>24</v>
       </c>
       <c r="B149" s="8">
-        <v>41135</v>
+        <v>41142</v>
       </c>
       <c r="C149">
-        <v>1.4582299999999999</v>
+        <v>1.48661</v>
       </c>
       <c r="D149">
-        <v>1.48888</v>
+        <v>1.4877800000000001</v>
       </c>
       <c r="E149">
-        <v>1.4541900000000001</v>
+        <v>1.46956</v>
       </c>
       <c r="F149">
-        <v>1.48499</v>
+        <v>1.48044</v>
       </c>
       <c r="H149">
         <f t="shared" si="2"/>
-        <v>1.8319999999999892</v>
+        <v>3.4689999999999888</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="21" customHeight="1">
@@ -4231,23 +4231,23 @@
         <v>24</v>
       </c>
       <c r="B150" s="8">
-        <v>41128</v>
+        <v>41135</v>
       </c>
       <c r="C150">
-        <v>1.4574800000000001</v>
+        <v>1.4582299999999999</v>
       </c>
       <c r="D150">
-        <v>1.4604299999999999</v>
+        <v>1.48888</v>
       </c>
       <c r="E150">
-        <v>1.44211</v>
+        <v>1.4541900000000001</v>
       </c>
       <c r="F150">
-        <v>1.45963</v>
+        <v>1.48499</v>
       </c>
       <c r="H150">
         <f t="shared" si="2"/>
-        <v>4.1050000000000031</v>
+        <v>1.8319999999999892</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="21" customHeight="1">
@@ -4255,23 +4255,23 @@
         <v>24</v>
       </c>
       <c r="B151" s="8">
-        <v>41121</v>
+        <v>41128</v>
       </c>
       <c r="C151">
-        <v>1.47119</v>
+        <v>1.4574800000000001</v>
       </c>
       <c r="D151">
-        <v>1.4905600000000001</v>
+        <v>1.4604299999999999</v>
       </c>
       <c r="E151">
-        <v>1.4495100000000001</v>
+        <v>1.44211</v>
       </c>
       <c r="F151">
-        <v>1.4549700000000001</v>
+        <v>1.45963</v>
       </c>
       <c r="H151">
         <f t="shared" si="2"/>
-        <v>2.9420000000000002</v>
+        <v>4.1050000000000031</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="21" customHeight="1">
@@ -4279,23 +4279,23 @@
         <v>24</v>
       </c>
       <c r="B152" s="8">
-        <v>41114</v>
+        <v>41121</v>
       </c>
       <c r="C152">
-        <v>1.4700200000000001</v>
+        <v>1.47119</v>
       </c>
       <c r="D152">
-        <v>1.4812799999999999</v>
+        <v>1.4905600000000001</v>
       </c>
       <c r="E152">
-        <v>1.4518599999999999</v>
+        <v>1.4495100000000001</v>
       </c>
       <c r="F152">
-        <v>1.4702</v>
+        <v>1.4549700000000001</v>
       </c>
       <c r="H152">
         <f t="shared" si="2"/>
-        <v>2.6269999999999794</v>
+        <v>2.9420000000000002</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="21" customHeight="1">
@@ -4303,23 +4303,23 @@
         <v>24</v>
       </c>
       <c r="B153" s="8">
-        <v>41107</v>
+        <v>41114</v>
       </c>
       <c r="C153">
-        <v>1.4545999999999999</v>
+        <v>1.4700200000000001</v>
       </c>
       <c r="D153">
-        <v>1.4789699999999999</v>
+        <v>1.4812799999999999</v>
       </c>
       <c r="E153">
-        <v>1.4527000000000001</v>
+        <v>1.4518599999999999</v>
       </c>
       <c r="F153">
-        <v>1.46977</v>
+        <v>1.4702</v>
       </c>
       <c r="H153">
         <f t="shared" si="2"/>
-        <v>2.1589999999999998</v>
+        <v>2.6269999999999794</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="21" customHeight="1">
@@ -4327,23 +4327,23 @@
         <v>24</v>
       </c>
       <c r="B154" s="8">
-        <v>41100</v>
+        <v>41107</v>
       </c>
       <c r="C154">
-        <v>1.4613499999999999</v>
+        <v>1.4545999999999999</v>
       </c>
       <c r="D154">
-        <v>1.4695499999999999</v>
+        <v>1.4789699999999999</v>
       </c>
       <c r="E154">
-        <v>1.4479599999999999</v>
+        <v>1.4527000000000001</v>
       </c>
       <c r="F154">
-        <v>1.4578100000000001</v>
+        <v>1.46977</v>
       </c>
       <c r="H154">
         <f t="shared" si="2"/>
-        <v>3.4980000000000011</v>
+        <v>2.1589999999999998</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="21" customHeight="1">
@@ -4351,23 +4351,23 @@
         <v>24</v>
       </c>
       <c r="B155" s="8">
-        <v>41093</v>
+        <v>41100</v>
       </c>
       <c r="C155">
-        <v>1.4922200000000001</v>
+        <v>1.4613499999999999</v>
       </c>
       <c r="D155">
-        <v>1.4938400000000001</v>
+        <v>1.4695499999999999</v>
       </c>
       <c r="E155">
-        <v>1.45886</v>
+        <v>1.4479599999999999</v>
       </c>
       <c r="F155">
-        <v>1.4601299999999999</v>
+        <v>1.4578100000000001</v>
       </c>
       <c r="H155">
         <f t="shared" si="2"/>
-        <v>2.2499999999999964</v>
+        <v>3.4980000000000011</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="21" customHeight="1">
@@ -4375,23 +4375,23 @@
         <v>24</v>
       </c>
       <c r="B156" s="8">
-        <v>41086</v>
+        <v>41093</v>
       </c>
       <c r="C156">
-        <v>1.4857100000000001</v>
+        <v>1.4922200000000001</v>
       </c>
       <c r="D156">
-        <v>1.5047299999999999</v>
+        <v>1.4938400000000001</v>
       </c>
       <c r="E156">
-        <v>1.4822299999999999</v>
+        <v>1.45886</v>
       </c>
       <c r="F156">
-        <v>1.4862299999999999</v>
+        <v>1.4601299999999999</v>
       </c>
       <c r="H156">
         <f t="shared" si="2"/>
-        <v>4.9639999999999906</v>
+        <v>2.2499999999999964</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="21" customHeight="1">
@@ -4399,23 +4399,23 @@
         <v>24</v>
       </c>
       <c r="B157" s="8">
-        <v>41079</v>
+        <v>41086</v>
       </c>
       <c r="C157">
-        <v>1.52349</v>
+        <v>1.4857100000000001</v>
       </c>
       <c r="D157">
-        <v>1.5298499999999999</v>
+        <v>1.5047299999999999</v>
       </c>
       <c r="E157">
-        <v>1.48021</v>
+        <v>1.4822299999999999</v>
       </c>
       <c r="F157">
-        <v>1.48428</v>
+        <v>1.4862299999999999</v>
       </c>
       <c r="H157">
         <f t="shared" si="2"/>
-        <v>2.2759999999999891</v>
+        <v>4.9639999999999906</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="21" customHeight="1">
@@ -4423,23 +4423,23 @@
         <v>24</v>
       </c>
       <c r="B158" s="8">
-        <v>41072</v>
+        <v>41079</v>
       </c>
       <c r="C158">
-        <v>1.5257099999999999</v>
+        <v>1.52349</v>
       </c>
       <c r="D158">
-        <v>1.53647</v>
+        <v>1.5298499999999999</v>
       </c>
       <c r="E158">
-        <v>1.5137100000000001</v>
+        <v>1.48021</v>
       </c>
       <c r="F158">
-        <v>1.52529</v>
+        <v>1.48428</v>
       </c>
       <c r="H158">
         <f t="shared" si="2"/>
-        <v>3.2040000000000068</v>
+        <v>2.2759999999999891</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="21" customHeight="1">
@@ -4447,23 +4447,23 @@
         <v>24</v>
       </c>
       <c r="B159" s="8">
-        <v>41065</v>
+        <v>41072</v>
       </c>
       <c r="C159">
-        <v>1.5431999999999999</v>
+        <v>1.5257099999999999</v>
       </c>
       <c r="D159">
-        <v>1.55138</v>
+        <v>1.53647</v>
       </c>
       <c r="E159">
-        <v>1.5193399999999999</v>
+        <v>1.5137100000000001</v>
       </c>
       <c r="F159">
-        <v>1.52522</v>
+        <v>1.52529</v>
       </c>
       <c r="H159">
         <f t="shared" si="2"/>
-        <v>3.0380000000000074</v>
+        <v>3.2040000000000068</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="21" customHeight="1">
@@ -4471,23 +4471,23 @@
         <v>24</v>
       </c>
       <c r="B160" s="8">
-        <v>41058</v>
+        <v>41065</v>
       </c>
       <c r="C160">
-        <v>1.5476799999999999</v>
+        <v>1.5431999999999999</v>
       </c>
       <c r="D160">
-        <v>1.55416</v>
+        <v>1.55138</v>
       </c>
       <c r="E160">
-        <v>1.5237799999999999</v>
+        <v>1.5193399999999999</v>
       </c>
       <c r="F160">
-        <v>1.5419400000000001</v>
+        <v>1.52522</v>
       </c>
       <c r="H160">
         <f t="shared" si="2"/>
-        <v>1.9689999999999985</v>
+        <v>3.0380000000000074</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="21" customHeight="1">
@@ -4495,23 +4495,23 @@
         <v>24</v>
       </c>
       <c r="B161" s="8">
-        <v>41051</v>
+        <v>41058</v>
       </c>
       <c r="C161">
-        <v>1.55175</v>
+        <v>1.5476799999999999</v>
       </c>
       <c r="D161">
-        <v>1.5645199999999999</v>
+        <v>1.55416</v>
       </c>
       <c r="E161">
-        <v>1.5448299999999999</v>
+        <v>1.5237799999999999</v>
       </c>
       <c r="F161">
-        <v>1.5459000000000001</v>
+        <v>1.5419400000000001</v>
       </c>
       <c r="H161">
         <f t="shared" si="2"/>
-        <v>2.2860000000000102</v>
+        <v>1.9689999999999985</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="21" customHeight="1">
@@ -4519,23 +4519,23 @@
         <v>24</v>
       </c>
       <c r="B162" s="8">
-        <v>41044</v>
+        <v>41051</v>
       </c>
       <c r="C162">
-        <v>1.55694</v>
+        <v>1.55175</v>
       </c>
       <c r="D162">
-        <v>1.5595600000000001</v>
+        <v>1.5645199999999999</v>
       </c>
       <c r="E162">
-        <v>1.5367</v>
+        <v>1.5448299999999999</v>
       </c>
       <c r="F162">
-        <v>1.55294</v>
+        <v>1.5459000000000001</v>
       </c>
       <c r="H162">
         <f t="shared" si="2"/>
-        <v>2.092000000000005</v>
+        <v>2.2860000000000102</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="21" customHeight="1">
@@ -4543,23 +4543,23 @@
         <v>24</v>
       </c>
       <c r="B163" s="8">
-        <v>41037</v>
+        <v>41044</v>
       </c>
       <c r="C163">
-        <v>1.5472399999999999</v>
+        <v>1.55694</v>
       </c>
       <c r="D163">
-        <v>1.5603899999999999</v>
+        <v>1.5595600000000001</v>
       </c>
       <c r="E163">
-        <v>1.5394699999999999</v>
+        <v>1.5367</v>
       </c>
       <c r="F163">
-        <v>1.55565</v>
+        <v>1.55294</v>
       </c>
       <c r="H163">
         <f t="shared" si="2"/>
-        <v>6.3199999999999923</v>
+        <v>2.092000000000005</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="21" customHeight="1">
@@ -4567,23 +4567,23 @@
         <v>24</v>
       </c>
       <c r="B164" s="8">
-        <v>41030</v>
+        <v>41037</v>
       </c>
       <c r="C164">
-        <v>1.5060500000000001</v>
+        <v>1.5472399999999999</v>
       </c>
       <c r="D164">
-        <v>1.55664</v>
+        <v>1.5603899999999999</v>
       </c>
       <c r="E164">
-        <v>1.4934400000000001</v>
+        <v>1.5394699999999999</v>
       </c>
       <c r="F164">
-        <v>1.54732</v>
+        <v>1.55565</v>
       </c>
       <c r="H164">
         <f t="shared" si="2"/>
-        <v>5.2749999999999853</v>
+        <v>6.3199999999999923</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="21" customHeight="1">
@@ -4591,23 +4591,23 @@
         <v>24</v>
       </c>
       <c r="B165" s="8">
-        <v>41023</v>
+        <v>41030</v>
       </c>
       <c r="C165">
-        <v>1.4557</v>
+        <v>1.5060500000000001</v>
       </c>
       <c r="D165">
-        <v>1.5078499999999999</v>
+        <v>1.55664</v>
       </c>
       <c r="E165">
-        <v>1.4551000000000001</v>
+        <v>1.4934400000000001</v>
       </c>
       <c r="F165">
-        <v>1.50509</v>
+        <v>1.54732</v>
       </c>
       <c r="H165">
         <f t="shared" si="2"/>
-        <v>3.6950000000000038</v>
+        <v>5.2749999999999853</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="21" customHeight="1">
@@ -4615,23 +4615,23 @@
         <v>24</v>
       </c>
       <c r="B166" s="8">
-        <v>41016</v>
+        <v>41023</v>
       </c>
       <c r="C166">
-        <v>1.4735400000000001</v>
+        <v>1.4557</v>
       </c>
       <c r="D166">
-        <v>1.48038</v>
+        <v>1.5078499999999999</v>
       </c>
       <c r="E166">
-        <v>1.44343</v>
+        <v>1.4551000000000001</v>
       </c>
       <c r="F166">
-        <v>1.4570000000000001</v>
+        <v>1.50509</v>
       </c>
       <c r="H166">
         <f t="shared" si="2"/>
-        <v>5.9769999999999879</v>
+        <v>3.6950000000000038</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="21" customHeight="1">
@@ -4639,23 +4639,23 @@
         <v>24</v>
       </c>
       <c r="B167" s="8">
-        <v>41009</v>
+        <v>41016</v>
       </c>
       <c r="C167">
-        <v>1.5109399999999999</v>
+        <v>1.4735400000000001</v>
       </c>
       <c r="D167">
-        <v>1.5159199999999999</v>
+        <v>1.48038</v>
       </c>
       <c r="E167">
-        <v>1.4561500000000001</v>
+        <v>1.44343</v>
       </c>
       <c r="F167">
-        <v>1.4615400000000001</v>
+        <v>1.4570000000000001</v>
       </c>
       <c r="H167">
         <f t="shared" si="2"/>
-        <v>3.6789999999999878</v>
+        <v>5.9769999999999879</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="21" customHeight="1">
@@ -4663,23 +4663,23 @@
         <v>24</v>
       </c>
       <c r="B168" s="8">
-        <v>41002</v>
+        <v>41009</v>
       </c>
       <c r="C168">
-        <v>1.4841200000000001</v>
+        <v>1.5109399999999999</v>
       </c>
       <c r="D168">
-        <v>1.5202199999999999</v>
+        <v>1.5159199999999999</v>
       </c>
       <c r="E168">
-        <v>1.48343</v>
+        <v>1.4561500000000001</v>
       </c>
       <c r="F168">
-        <v>1.5093399999999999</v>
+        <v>1.4615400000000001</v>
       </c>
       <c r="H168">
         <f t="shared" si="2"/>
-        <v>2.5979999999999892</v>
+        <v>3.6789999999999878</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="21" customHeight="1">
@@ -4687,23 +4687,23 @@
         <v>24</v>
       </c>
       <c r="B169" s="8">
-        <v>40995</v>
+        <v>41002</v>
       </c>
       <c r="C169">
-        <v>1.4862899999999999</v>
+        <v>1.4841200000000001</v>
       </c>
       <c r="D169">
-        <v>1.4974499999999999</v>
+        <v>1.5202199999999999</v>
       </c>
       <c r="E169">
-        <v>1.4714700000000001</v>
+        <v>1.48343</v>
       </c>
       <c r="F169">
-        <v>1.4834000000000001</v>
+        <v>1.5093399999999999</v>
       </c>
       <c r="H169">
         <f t="shared" si="2"/>
-        <v>2.625999999999995</v>
+        <v>2.5979999999999892</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="21" customHeight="1">
@@ -4711,23 +4711,23 @@
         <v>24</v>
       </c>
       <c r="B170" s="8">
-        <v>40988</v>
+        <v>40995</v>
       </c>
       <c r="C170">
-        <v>1.48325</v>
+        <v>1.4862899999999999</v>
       </c>
       <c r="D170">
-        <v>1.49254</v>
+        <v>1.4974499999999999</v>
       </c>
       <c r="E170">
-        <v>1.46628</v>
+        <v>1.4714700000000001</v>
       </c>
       <c r="F170">
-        <v>1.48804</v>
+        <v>1.4834000000000001</v>
       </c>
       <c r="H170">
         <f t="shared" si="2"/>
-        <v>2.4240000000000039</v>
+        <v>2.625999999999995</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="21" customHeight="1">
@@ -4735,23 +4735,23 @@
         <v>24</v>
       </c>
       <c r="B171" s="8">
-        <v>40981</v>
+        <v>40988</v>
       </c>
       <c r="C171">
-        <v>1.4760200000000001</v>
+        <v>1.48325</v>
       </c>
       <c r="D171">
-        <v>1.49407</v>
+        <v>1.49254</v>
       </c>
       <c r="E171">
-        <v>1.46983</v>
+        <v>1.46628</v>
       </c>
       <c r="F171">
-        <v>1.4832000000000001</v>
+        <v>1.48804</v>
       </c>
       <c r="H171">
         <f t="shared" si="2"/>
-        <v>6.2109999999999888</v>
+        <v>2.4240000000000039</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="21" customHeight="1">
@@ -4759,23 +4759,23 @@
         <v>24</v>
       </c>
       <c r="B172" s="8">
-        <v>40974</v>
+        <v>40981</v>
       </c>
       <c r="C172">
-        <v>1.4842</v>
+        <v>1.4760200000000001</v>
       </c>
       <c r="D172">
-        <v>1.50874</v>
+        <v>1.49407</v>
       </c>
       <c r="E172">
-        <v>1.4466300000000001</v>
+        <v>1.46983</v>
       </c>
       <c r="F172">
-        <v>1.4758599999999999</v>
+        <v>1.4832000000000001</v>
       </c>
       <c r="H172">
         <f t="shared" si="2"/>
-        <v>6.4540000000000042</v>
+        <v>6.2109999999999888</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="21" customHeight="1">
@@ -4783,23 +4783,23 @@
         <v>24</v>
       </c>
       <c r="B173" s="8">
-        <v>40967</v>
+        <v>40974</v>
       </c>
       <c r="C173">
-        <v>1.53216</v>
+        <v>1.4842</v>
       </c>
       <c r="D173">
-        <v>1.5383100000000001</v>
+        <v>1.50874</v>
       </c>
       <c r="E173">
-        <v>1.47377</v>
+        <v>1.4466300000000001</v>
       </c>
       <c r="F173">
-        <v>1.4806299999999999</v>
+        <v>1.4758599999999999</v>
       </c>
       <c r="H173">
         <f t="shared" si="2"/>
-        <v>4.2470000000000008</v>
+        <v>6.4540000000000042</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="21" customHeight="1">
@@ -4807,23 +4807,23 @@
         <v>24</v>
       </c>
       <c r="B174" s="8">
-        <v>40960</v>
+        <v>40967</v>
       </c>
       <c r="C174">
-        <v>1.55261</v>
+        <v>1.53216</v>
       </c>
       <c r="D174">
-        <v>1.5584</v>
+        <v>1.5383100000000001</v>
       </c>
       <c r="E174">
-        <v>1.51593</v>
+        <v>1.47377</v>
       </c>
       <c r="F174">
-        <v>1.53392</v>
+        <v>1.4806299999999999</v>
       </c>
       <c r="H174">
         <f t="shared" si="2"/>
-        <v>3.6389999999999922</v>
+        <v>4.2470000000000008</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="21" customHeight="1">
@@ -4831,23 +4831,23 @@
         <v>24</v>
       </c>
       <c r="B175" s="8">
-        <v>40953</v>
+        <v>40960</v>
       </c>
       <c r="C175">
-        <v>1.5809899999999999</v>
+        <v>1.55261</v>
       </c>
       <c r="D175">
-        <v>1.5835999999999999</v>
+        <v>1.5584</v>
       </c>
       <c r="E175">
-        <v>1.54721</v>
+        <v>1.51593</v>
       </c>
       <c r="F175">
-        <v>1.5563100000000001</v>
+        <v>1.53392</v>
       </c>
       <c r="H175">
         <f t="shared" si="2"/>
-        <v>6.0170000000000057</v>
+        <v>3.6389999999999922</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="21" customHeight="1">
@@ -4855,23 +4855,23 @@
         <v>24</v>
       </c>
       <c r="B176" s="8">
-        <v>40946</v>
+        <v>40953</v>
       </c>
       <c r="C176">
-        <v>1.57467</v>
+        <v>1.5809899999999999</v>
       </c>
       <c r="D176">
-        <v>1.62497</v>
+        <v>1.5835999999999999</v>
       </c>
       <c r="E176">
-        <v>1.5648</v>
+        <v>1.54721</v>
       </c>
       <c r="F176">
-        <v>1.5838399999999999</v>
+        <v>1.5563100000000001</v>
       </c>
       <c r="H176">
         <f t="shared" si="2"/>
-        <v>5.0719999999999876</v>
+        <v>6.0170000000000057</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="21" customHeight="1">
@@ -4879,23 +4879,23 @@
         <v>24</v>
       </c>
       <c r="B177" s="8">
-        <v>40939</v>
+        <v>40946</v>
       </c>
       <c r="C177">
-        <v>1.5283</v>
+        <v>1.57467</v>
       </c>
       <c r="D177">
-        <v>1.5789299999999999</v>
+        <v>1.62497</v>
       </c>
       <c r="E177">
-        <v>1.5282100000000001</v>
+        <v>1.5648</v>
       </c>
       <c r="F177">
-        <v>1.57782</v>
+        <v>1.5838399999999999</v>
       </c>
       <c r="H177">
         <f t="shared" si="2"/>
-        <v>4.5609999999999928</v>
+        <v>5.0719999999999876</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="21" customHeight="1">
@@ -4903,23 +4903,23 @@
         <v>24</v>
       </c>
       <c r="B178" s="8">
-        <v>40932</v>
+        <v>40939</v>
       </c>
       <c r="C178">
-        <v>1.53949</v>
+        <v>1.5283</v>
       </c>
       <c r="D178">
-        <v>1.5704899999999999</v>
+        <v>1.5789299999999999</v>
       </c>
       <c r="E178">
-        <v>1.52488</v>
+        <v>1.5282100000000001</v>
       </c>
       <c r="F178">
-        <v>1.5301800000000001</v>
+        <v>1.57782</v>
       </c>
       <c r="H178">
         <f t="shared" si="2"/>
-        <v>7.1359999999999868</v>
+        <v>4.5609999999999928</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="21" customHeight="1">
@@ -4927,23 +4927,23 @@
         <v>24</v>
       </c>
       <c r="B179" s="8">
-        <v>40925</v>
+        <v>40932</v>
       </c>
       <c r="C179">
-        <v>1.5966400000000001</v>
+        <v>1.53949</v>
       </c>
       <c r="D179">
-        <v>1.6053299999999999</v>
+        <v>1.5704899999999999</v>
       </c>
       <c r="E179">
-        <v>1.5339700000000001</v>
+        <v>1.52488</v>
       </c>
       <c r="F179">
-        <v>1.5418700000000001</v>
+        <v>1.5301800000000001</v>
       </c>
       <c r="H179">
         <f t="shared" si="2"/>
-        <v>7.3500000000000121</v>
+        <v>7.1359999999999868</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="21" customHeight="1">
@@ -4951,23 +4951,23 @@
         <v>24</v>
       </c>
       <c r="B180" s="8">
-        <v>40918</v>
+        <v>40925</v>
       </c>
       <c r="C180">
-        <v>1.5658399999999999</v>
+        <v>1.5966400000000001</v>
       </c>
       <c r="D180">
-        <v>1.60762</v>
+        <v>1.6053299999999999</v>
       </c>
       <c r="E180">
-        <v>1.5341199999999999</v>
+        <v>1.5339700000000001</v>
       </c>
       <c r="F180">
-        <v>1.5875699999999999</v>
+        <v>1.5418700000000001</v>
       </c>
       <c r="H180">
         <f t="shared" si="2"/>
-        <v>8.1350000000000033</v>
+        <v>7.3500000000000121</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="21" customHeight="1">
@@ -4975,23 +4975,23 @@
         <v>24</v>
       </c>
       <c r="B181" s="8">
-        <v>40911</v>
+        <v>40918</v>
       </c>
       <c r="C181">
-        <v>1.4911700000000001</v>
+        <v>1.5658399999999999</v>
       </c>
       <c r="D181">
-        <v>1.5682400000000001</v>
+        <v>1.60762</v>
       </c>
       <c r="E181">
-        <v>1.48689</v>
+        <v>1.5341199999999999</v>
       </c>
       <c r="F181">
-        <v>1.5681799999999999</v>
+        <v>1.5875699999999999</v>
       </c>
       <c r="H181">
         <f t="shared" si="2"/>
-        <v>2.7789999999999981</v>
+        <v>8.1350000000000033</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="21" customHeight="1">
@@ -4999,23 +4999,23 @@
         <v>24</v>
       </c>
       <c r="B182" s="8">
-        <v>40904</v>
+        <v>40911</v>
       </c>
       <c r="C182">
-        <v>1.5021599999999999</v>
+        <v>1.4911700000000001</v>
       </c>
       <c r="D182">
-        <v>1.5140899999999999</v>
+        <v>1.5682400000000001</v>
       </c>
       <c r="E182">
-        <v>1.4863</v>
+        <v>1.48689</v>
       </c>
       <c r="F182">
-        <v>1.4925999999999999</v>
+        <v>1.5681799999999999</v>
       </c>
       <c r="H182">
         <f t="shared" si="2"/>
-        <v>2.2540000000000004</v>
+        <v>2.7789999999999981</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="21" customHeight="1">
@@ -5023,23 +5023,23 @@
         <v>24</v>
       </c>
       <c r="B183" s="8">
-        <v>40897</v>
+        <v>40904</v>
       </c>
       <c r="C183">
-        <v>1.5132300000000001</v>
+        <v>1.5021599999999999</v>
       </c>
       <c r="D183">
-        <v>1.5254399999999999</v>
+        <v>1.5140899999999999</v>
       </c>
       <c r="E183">
-        <v>1.5028999999999999</v>
+        <v>1.4863</v>
       </c>
       <c r="F183">
-        <v>1.5051300000000001</v>
+        <v>1.4925999999999999</v>
       </c>
       <c r="H183">
         <f t="shared" si="2"/>
-        <v>3.0270000000000019</v>
+        <v>2.2540000000000004</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="21" customHeight="1">
@@ -5047,23 +5047,23 @@
         <v>24</v>
       </c>
       <c r="B184" s="8">
-        <v>40890</v>
+        <v>40897</v>
       </c>
       <c r="C184">
-        <v>1.52437</v>
+        <v>1.5132300000000001</v>
       </c>
       <c r="D184">
-        <v>1.53346</v>
+        <v>1.5254399999999999</v>
       </c>
       <c r="E184">
-        <v>1.50319</v>
+        <v>1.5028999999999999</v>
       </c>
       <c r="F184">
-        <v>1.51467</v>
+        <v>1.5051300000000001</v>
       </c>
       <c r="H184">
         <f t="shared" si="2"/>
-        <v>5.5220000000000047</v>
+        <v>3.0270000000000019</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="21" customHeight="1">
@@ -5071,23 +5071,23 @@
         <v>24</v>
       </c>
       <c r="B185" s="8">
-        <v>40883</v>
+        <v>40890</v>
       </c>
       <c r="C185">
-        <v>1.4803900000000001</v>
+        <v>1.52437</v>
       </c>
       <c r="D185">
-        <v>1.5342800000000001</v>
+        <v>1.53346</v>
       </c>
       <c r="E185">
-        <v>1.47906</v>
+        <v>1.50319</v>
       </c>
       <c r="F185">
-        <v>1.5286999999999999</v>
+        <v>1.51467</v>
       </c>
       <c r="H185">
         <f t="shared" si="2"/>
-        <v>6.1870000000000092</v>
+        <v>5.5220000000000047</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="21" customHeight="1">
@@ -5095,23 +5095,23 @@
         <v>24</v>
       </c>
       <c r="B186" s="8">
-        <v>40876</v>
+        <v>40883</v>
       </c>
       <c r="C186">
-        <v>1.4720299999999999</v>
+        <v>1.4803900000000001</v>
       </c>
       <c r="D186">
-        <v>1.49665</v>
+        <v>1.5342800000000001</v>
       </c>
       <c r="E186">
-        <v>1.4347799999999999</v>
+        <v>1.47906</v>
       </c>
       <c r="F186">
-        <v>1.48193</v>
+        <v>1.5286999999999999</v>
       </c>
       <c r="H186">
         <f t="shared" si="2"/>
-        <v>2.4540000000000006</v>
+        <v>6.1870000000000092</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="21" customHeight="1">
@@ -5119,23 +5119,23 @@
         <v>24</v>
       </c>
       <c r="B187" s="8">
-        <v>40869</v>
+        <v>40876</v>
       </c>
       <c r="C187">
-        <v>1.4710300000000001</v>
+        <v>1.4720299999999999</v>
       </c>
       <c r="D187">
-        <v>1.48323</v>
+        <v>1.49665</v>
       </c>
       <c r="E187">
-        <v>1.45869</v>
+        <v>1.4347799999999999</v>
       </c>
       <c r="F187">
-        <v>1.47305</v>
+        <v>1.48193</v>
       </c>
       <c r="H187">
         <f t="shared" si="2"/>
-        <v>4.3590000000000018</v>
+        <v>2.4540000000000006</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="21" customHeight="1">
@@ -5143,23 +5143,23 @@
         <v>24</v>
       </c>
       <c r="B188" s="8">
-        <v>40862</v>
+        <v>40869</v>
       </c>
       <c r="C188">
-        <v>1.50729</v>
+        <v>1.4710300000000001</v>
       </c>
       <c r="D188">
-        <v>1.5137700000000001</v>
+        <v>1.48323</v>
       </c>
       <c r="E188">
-        <v>1.47018</v>
+        <v>1.45869</v>
       </c>
       <c r="F188">
-        <v>1.47136</v>
+        <v>1.47305</v>
       </c>
       <c r="H188">
         <f t="shared" si="2"/>
-        <v>3.0220000000000136</v>
+        <v>4.3590000000000018</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="21" customHeight="1">
@@ -5167,23 +5167,23 @@
         <v>24</v>
       </c>
       <c r="B189" s="8">
-        <v>40855</v>
+        <v>40862</v>
       </c>
       <c r="C189">
-        <v>1.5267299999999999</v>
+        <v>1.50729</v>
       </c>
       <c r="D189">
-        <v>1.5287500000000001</v>
+        <v>1.5137700000000001</v>
       </c>
       <c r="E189">
-        <v>1.4985299999999999</v>
+        <v>1.47018</v>
       </c>
       <c r="F189">
-        <v>1.50946</v>
+        <v>1.47136</v>
       </c>
       <c r="H189">
         <f t="shared" si="2"/>
-        <v>4.1050000000000031</v>
+        <v>3.0220000000000136</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="21" customHeight="1">
@@ -5191,23 +5191,23 @@
         <v>24</v>
       </c>
       <c r="B190" s="8">
-        <v>40848</v>
+        <v>40855</v>
       </c>
       <c r="C190">
-        <v>1.55037</v>
+        <v>1.5267299999999999</v>
       </c>
       <c r="D190">
-        <v>1.55043</v>
+        <v>1.5287500000000001</v>
       </c>
       <c r="E190">
-        <v>1.5093799999999999</v>
+        <v>1.4985299999999999</v>
       </c>
       <c r="F190">
-        <v>1.52437</v>
+        <v>1.50946</v>
       </c>
       <c r="H190">
         <f t="shared" si="2"/>
-        <v>4.0979999999999794</v>
+        <v>4.1050000000000031</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="21" customHeight="1">
@@ -5215,23 +5215,23 @@
         <v>24</v>
       </c>
       <c r="B191" s="8">
-        <v>40841</v>
+        <v>40848</v>
       </c>
       <c r="C191">
-        <v>1.5257400000000001</v>
+        <v>1.55037</v>
       </c>
       <c r="D191">
-        <v>1.5575699999999999</v>
+        <v>1.55043</v>
       </c>
       <c r="E191">
-        <v>1.5165900000000001</v>
+        <v>1.5093799999999999</v>
       </c>
       <c r="F191">
-        <v>1.5414699999999999</v>
+        <v>1.52437</v>
       </c>
       <c r="H191">
         <f t="shared" si="2"/>
-        <v>6.0159999999999991</v>
+        <v>4.0979999999999794</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="21" customHeight="1">
@@ -5239,23 +5239,23 @@
         <v>24</v>
       </c>
       <c r="B192" s="8">
-        <v>40834</v>
+        <v>40841</v>
       </c>
       <c r="C192">
-        <v>1.5629599999999999</v>
+        <v>1.5257400000000001</v>
       </c>
       <c r="D192">
-        <v>1.5789899999999999</v>
+        <v>1.5575699999999999</v>
       </c>
       <c r="E192">
-        <v>1.5188299999999999</v>
+        <v>1.5165900000000001</v>
       </c>
       <c r="F192">
-        <v>1.52573</v>
+        <v>1.5414699999999999</v>
       </c>
       <c r="H192">
         <f t="shared" si="2"/>
-        <v>4.2289999999999939</v>
+        <v>6.0159999999999991</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="21" customHeight="1">
@@ -5263,23 +5263,23 @@
         <v>24</v>
       </c>
       <c r="B193" s="8">
-        <v>40827</v>
+        <v>40834</v>
       </c>
       <c r="C193">
-        <v>1.55105</v>
+        <v>1.5629599999999999</v>
       </c>
       <c r="D193">
-        <v>1.58205</v>
+        <v>1.5789899999999999</v>
       </c>
       <c r="E193">
-        <v>1.53976</v>
+        <v>1.5188299999999999</v>
       </c>
       <c r="F193">
-        <v>1.5606100000000001</v>
+        <v>1.52573</v>
       </c>
       <c r="H193">
         <f t="shared" si="2"/>
-        <v>4.8089999999999966</v>
+        <v>4.2289999999999939</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="21" customHeight="1">
@@ -5287,23 +5287,23 @@
         <v>24</v>
       </c>
       <c r="B194" s="8">
-        <v>40820</v>
+        <v>40827</v>
       </c>
       <c r="C194">
-        <v>1.58884</v>
+        <v>1.55105</v>
       </c>
       <c r="D194">
-        <v>1.5933999999999999</v>
+        <v>1.58205</v>
       </c>
       <c r="E194">
-        <v>1.54531</v>
+        <v>1.53976</v>
       </c>
       <c r="F194">
-        <v>1.54952</v>
+        <v>1.5606100000000001</v>
       </c>
       <c r="H194">
         <f t="shared" ref="H194:H199" si="3">ABS(D195-E195)*100</f>
-        <v>5.0900000000000167</v>
+        <v>4.8089999999999966</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="21" customHeight="1">
@@ -5311,23 +5311,23 @@
         <v>24</v>
       </c>
       <c r="B195" s="8">
-        <v>40813</v>
+        <v>40820</v>
       </c>
       <c r="C195">
-        <v>1.5932599999999999</v>
+        <v>1.58884</v>
       </c>
       <c r="D195">
-        <v>1.6249800000000001</v>
+        <v>1.5933999999999999</v>
       </c>
       <c r="E195">
-        <v>1.5740799999999999</v>
+        <v>1.54531</v>
       </c>
       <c r="F195">
-        <v>1.5911200000000001</v>
+        <v>1.54952</v>
       </c>
       <c r="H195">
         <f t="shared" si="3"/>
-        <v>5.8840000000000003</v>
+        <v>5.0900000000000167</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="21" customHeight="1">
@@ -5335,23 +5335,23 @@
         <v>24</v>
       </c>
       <c r="B196" s="8">
-        <v>40806</v>
+        <v>40813</v>
       </c>
       <c r="C196">
-        <v>1.56992</v>
+        <v>1.5932599999999999</v>
       </c>
       <c r="D196">
-        <v>1.61894</v>
+        <v>1.6249800000000001</v>
       </c>
       <c r="E196">
-        <v>1.5601</v>
+        <v>1.5740799999999999</v>
       </c>
       <c r="F196">
-        <v>1.59504</v>
+        <v>1.5911200000000001</v>
       </c>
       <c r="H196">
         <f t="shared" si="3"/>
-        <v>4.045999999999994</v>
+        <v>5.8840000000000003</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="21" customHeight="1">
@@ -5359,23 +5359,23 @@
         <v>24</v>
       </c>
       <c r="B197" s="8">
-        <v>40799</v>
+        <v>40806</v>
       </c>
       <c r="C197">
-        <v>1.5995600000000001</v>
+        <v>1.56992</v>
       </c>
       <c r="D197">
-        <v>1.60663</v>
+        <v>1.61894</v>
       </c>
       <c r="E197">
-        <v>1.5661700000000001</v>
+        <v>1.5601</v>
       </c>
       <c r="F197">
-        <v>1.56887</v>
+        <v>1.59504</v>
       </c>
       <c r="H197">
         <f t="shared" si="3"/>
-        <v>3.990999999999989</v>
+        <v>4.045999999999994</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="21" customHeight="1">
@@ -5383,23 +5383,23 @@
         <v>24</v>
       </c>
       <c r="B198" s="8">
-        <v>40792</v>
+        <v>40799</v>
       </c>
       <c r="C198">
-        <v>1.6126400000000001</v>
+        <v>1.5995600000000001</v>
       </c>
       <c r="D198">
-        <v>1.6175999999999999</v>
+        <v>1.60663</v>
       </c>
       <c r="E198">
-        <v>1.57769</v>
+        <v>1.5661700000000001</v>
       </c>
       <c r="F198">
-        <v>1.5984400000000001</v>
+        <v>1.56887</v>
       </c>
       <c r="H198">
         <f t="shared" si="3"/>
-        <v>5.5779999999999941</v>
+        <v>3.990999999999989</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="21" customHeight="1">
@@ -5407,23 +5407,23 @@
         <v>24</v>
       </c>
       <c r="B199" s="8">
-        <v>40785</v>
+        <v>40792</v>
       </c>
       <c r="C199">
-        <v>1.5597300000000001</v>
+        <v>1.6126400000000001</v>
       </c>
       <c r="D199">
-        <v>1.61527</v>
+        <v>1.6175999999999999</v>
       </c>
       <c r="E199">
-        <v>1.55949</v>
+        <v>1.57769</v>
       </c>
       <c r="F199">
-        <v>1.6124700000000001</v>
+        <v>1.5984400000000001</v>
       </c>
       <c r="H199">
         <f t="shared" si="3"/>
-        <v>10.353999999999996</v>
+        <v>5.5779999999999941</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="21" customHeight="1">
@@ -5431,19 +5431,19 @@
         <v>24</v>
       </c>
       <c r="B200" s="8">
-        <v>40778</v>
+        <v>40785</v>
       </c>
       <c r="C200">
-        <v>1.55646</v>
+        <v>1.5597300000000001</v>
       </c>
       <c r="D200">
-        <v>1.65957</v>
+        <v>1.61527</v>
       </c>
       <c r="E200">
-        <v>1.55603</v>
+        <v>1.55949</v>
       </c>
       <c r="F200">
-        <v>1.56023</v>
+        <v>1.6124700000000001</v>
       </c>
     </row>
   </sheetData>

--- a/volatility/src/xls/24_EURAUD.xlsx
+++ b/volatility/src/xls/24_EURAUD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
+    <workbookView xWindow="14180" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -525,10 +525,10 @@
         <v>1000</v>
       </c>
       <c r="C2" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D2" s="2">
-        <v>74.599999999999994</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="24" customHeight="1">
@@ -554,32 +554,32 @@
     <row r="6" spans="2:11" ht="24" customHeight="1">
       <c r="B6" s="5">
         <f>sub!J1</f>
-        <v>2.1334999999999993</v>
+        <v>2.1534999999999971</v>
       </c>
       <c r="C6" s="5">
         <f>ROUND(B2*10000*(100/D2)*(1/B6)/100*C2,0)</f>
-        <v>31415</v>
+        <v>36757</v>
       </c>
       <c r="E6" s="5">
-        <v>164.1</v>
+        <v>161.6</v>
       </c>
       <c r="G6" s="5">
         <f>(E6+B9)/100</f>
-        <v>1.6479999999999999</v>
+        <v>1.6229999999999998</v>
       </c>
       <c r="H6" s="5">
         <f>G6+(B8/100)</f>
-        <v>1.6689999999999998</v>
+        <v>1.6449999999999998</v>
       </c>
       <c r="I6" s="5">
         <f>G6-(B8/100)</f>
-        <v>1.627</v>
+        <v>1.6009999999999998</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1">
       <c r="B8" s="1">
         <f>ROUND(B6,1)</f>
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="24" customHeight="1">
@@ -603,15 +603,15 @@
       <c r="F10" s="7"/>
       <c r="G10" s="5">
         <f>(E6-B9)/100</f>
-        <v>1.6340000000000001</v>
+        <v>1.609</v>
       </c>
       <c r="H10" s="5">
         <f>G10-(B8/100)</f>
-        <v>1.6130000000000002</v>
+        <v>1.587</v>
       </c>
       <c r="I10" s="5">
         <f>G10+(B8/100)</f>
-        <v>1.655</v>
+        <v>1.631</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="24" customHeight="1">
@@ -625,6 +625,7 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -667,11 +668,11 @@
       </c>
       <c r="H1">
         <f>ABS(D2-E2)*100</f>
-        <v>1.8310000000000048</v>
+        <v>2.2340000000000027</v>
       </c>
       <c r="J1">
         <f>MEDIAN(H1:H52)</f>
-        <v>2.1334999999999993</v>
+        <v>2.1534999999999971</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
@@ -679,23 +680,23 @@
         <v>24</v>
       </c>
       <c r="B2" s="8">
-        <v>42171</v>
+        <v>42178</v>
       </c>
       <c r="C2">
-        <v>1.6309199999999999</v>
+        <v>1.6407</v>
       </c>
       <c r="D2">
-        <v>1.6448</v>
+        <v>1.64116</v>
       </c>
       <c r="E2">
-        <v>1.62649</v>
+        <v>1.6188199999999999</v>
       </c>
       <c r="F2">
-        <v>1.6410199999999999</v>
+        <v>1.6193500000000001</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H65" si="0">ABS(D3-E3)*100</f>
-        <v>1.915</v>
+        <v>1.8310000000000048</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
@@ -703,23 +704,23 @@
         <v>24</v>
       </c>
       <c r="B3" s="8">
-        <v>42164</v>
+        <v>42171</v>
       </c>
       <c r="C3">
-        <v>1.61727</v>
+        <v>1.6309199999999999</v>
       </c>
       <c r="D3">
-        <v>1.63632</v>
+        <v>1.6448</v>
       </c>
       <c r="E3">
-        <v>1.61717</v>
+        <v>1.62649</v>
       </c>
       <c r="F3">
-        <v>1.63073</v>
+        <v>1.6410199999999999</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>1.2949999999999795</v>
+        <v>1.915</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
@@ -727,23 +728,23 @@
         <v>24</v>
       </c>
       <c r="B4" s="8">
-        <v>42157</v>
+        <v>42164</v>
       </c>
       <c r="C4">
-        <v>1.6106499999999999</v>
+        <v>1.61727</v>
       </c>
       <c r="D4">
-        <v>1.6197299999999999</v>
+        <v>1.63632</v>
       </c>
       <c r="E4">
-        <v>1.6067800000000001</v>
+        <v>1.61717</v>
       </c>
       <c r="F4">
-        <v>1.61944</v>
+        <v>1.63073</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>1.3720000000000176</v>
+        <v>1.2949999999999795</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
@@ -751,23 +752,23 @@
         <v>24</v>
       </c>
       <c r="B5" s="8">
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="C5">
-        <v>1.6177699999999999</v>
+        <v>1.6106499999999999</v>
       </c>
       <c r="D5">
-        <v>1.6187400000000001</v>
+        <v>1.6197299999999999</v>
       </c>
       <c r="E5">
-        <v>1.6050199999999999</v>
+        <v>1.6067800000000001</v>
       </c>
       <c r="F5">
-        <v>1.6101300000000001</v>
+        <v>1.61944</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>1.5509999999999913</v>
+        <v>1.3720000000000176</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
@@ -775,23 +776,23 @@
         <v>24</v>
       </c>
       <c r="B6" s="8">
-        <v>42143</v>
+        <v>42150</v>
       </c>
       <c r="C6">
-        <v>1.61711</v>
+        <v>1.6177699999999999</v>
       </c>
       <c r="D6">
-        <v>1.6251199999999999</v>
+        <v>1.6187400000000001</v>
       </c>
       <c r="E6">
-        <v>1.60961</v>
+        <v>1.6050199999999999</v>
       </c>
       <c r="F6">
-        <v>1.61761</v>
+        <v>1.6101300000000001</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>2.1830000000000016</v>
+        <v>1.5509999999999913</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
@@ -799,23 +800,23 @@
         <v>24</v>
       </c>
       <c r="B7" s="8">
-        <v>42136</v>
+        <v>42143</v>
       </c>
       <c r="C7">
-        <v>1.6055900000000001</v>
+        <v>1.61711</v>
       </c>
       <c r="D7">
-        <v>1.62618</v>
+        <v>1.6251199999999999</v>
       </c>
       <c r="E7">
-        <v>1.6043499999999999</v>
+        <v>1.60961</v>
       </c>
       <c r="F7">
-        <v>1.6245799999999999</v>
+        <v>1.61761</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>2.1660000000000013</v>
+        <v>2.1830000000000016</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
@@ -823,23 +824,23 @@
         <v>24</v>
       </c>
       <c r="B8" s="8">
-        <v>42129</v>
+        <v>42136</v>
       </c>
       <c r="C8">
-        <v>1.6003799999999999</v>
+        <v>1.6055900000000001</v>
       </c>
       <c r="D8">
-        <v>1.61209</v>
+        <v>1.62618</v>
       </c>
       <c r="E8">
-        <v>1.59043</v>
+        <v>1.6043499999999999</v>
       </c>
       <c r="F8">
-        <v>1.60507</v>
+        <v>1.6245799999999999</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>1.8839999999999968</v>
+        <v>2.1660000000000013</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
@@ -847,23 +848,23 @@
         <v>24</v>
       </c>
       <c r="B9" s="8">
-        <v>42122</v>
+        <v>42129</v>
       </c>
       <c r="C9">
-        <v>1.5829299999999999</v>
+        <v>1.6003799999999999</v>
       </c>
       <c r="D9">
-        <v>1.5993999999999999</v>
+        <v>1.61209</v>
       </c>
       <c r="E9">
-        <v>1.58056</v>
+        <v>1.59043</v>
       </c>
       <c r="F9">
-        <v>1.59494</v>
+        <v>1.60507</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>2.4299999999999988</v>
+        <v>1.8839999999999968</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
@@ -871,23 +872,23 @@
         <v>24</v>
       </c>
       <c r="B10" s="8">
-        <v>42115</v>
+        <v>42122</v>
       </c>
       <c r="C10">
-        <v>1.57239</v>
+        <v>1.5829299999999999</v>
       </c>
       <c r="D10">
-        <v>1.59585</v>
+        <v>1.5993999999999999</v>
       </c>
       <c r="E10">
-        <v>1.57155</v>
+        <v>1.58056</v>
       </c>
       <c r="F10">
-        <v>1.58277</v>
+        <v>1.59494</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>1.5079999999999982</v>
+        <v>2.4299999999999988</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
@@ -895,23 +896,23 @@
         <v>24</v>
       </c>
       <c r="B11" s="8">
-        <v>42108</v>
+        <v>42115</v>
       </c>
       <c r="C11">
-        <v>1.5745100000000001</v>
+        <v>1.57239</v>
       </c>
       <c r="D11">
-        <v>1.58342</v>
+        <v>1.59585</v>
       </c>
       <c r="E11">
-        <v>1.5683400000000001</v>
+        <v>1.57155</v>
       </c>
       <c r="F11">
-        <v>1.5719000000000001</v>
+        <v>1.58277</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>1.3889999999999958</v>
+        <v>1.5079999999999982</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
@@ -919,23 +920,23 @@
         <v>24</v>
       </c>
       <c r="B12" s="8">
-        <v>42101</v>
+        <v>42108</v>
       </c>
       <c r="C12">
-        <v>1.5774999999999999</v>
+        <v>1.5745100000000001</v>
       </c>
       <c r="D12">
-        <v>1.5852299999999999</v>
+        <v>1.58342</v>
       </c>
       <c r="E12">
-        <v>1.57134</v>
+        <v>1.5683400000000001</v>
       </c>
       <c r="F12">
-        <v>1.57511</v>
+        <v>1.5719000000000001</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>1.6510000000000025</v>
+        <v>1.3889999999999958</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
@@ -943,23 +944,23 @@
         <v>24</v>
       </c>
       <c r="B13" s="8">
-        <v>42094</v>
+        <v>42101</v>
       </c>
       <c r="C13">
-        <v>1.57881</v>
+        <v>1.5774999999999999</v>
       </c>
       <c r="D13">
-        <v>1.58789</v>
+        <v>1.5852299999999999</v>
       </c>
       <c r="E13">
-        <v>1.57138</v>
+        <v>1.57134</v>
       </c>
       <c r="F13">
-        <v>1.5787</v>
+        <v>1.57511</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>2.022999999999997</v>
+        <v>1.6510000000000025</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
@@ -967,23 +968,23 @@
         <v>24</v>
       </c>
       <c r="B14" s="8">
-        <v>42087</v>
+        <v>42094</v>
       </c>
       <c r="C14">
-        <v>1.5948800000000001</v>
+        <v>1.57881</v>
       </c>
       <c r="D14">
-        <v>1.59823</v>
+        <v>1.58789</v>
       </c>
       <c r="E14">
-        <v>1.5780000000000001</v>
+        <v>1.57138</v>
       </c>
       <c r="F14">
-        <v>1.57982</v>
+        <v>1.5787</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>1.8969999999999931</v>
+        <v>2.022999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
@@ -991,23 +992,23 @@
         <v>24</v>
       </c>
       <c r="B15" s="8">
-        <v>42080</v>
+        <v>42087</v>
       </c>
       <c r="C15">
-        <v>1.59789</v>
+        <v>1.5948800000000001</v>
       </c>
       <c r="D15">
-        <v>1.6076999999999999</v>
+        <v>1.59823</v>
       </c>
       <c r="E15">
-        <v>1.58873</v>
+        <v>1.5780000000000001</v>
       </c>
       <c r="F15">
-        <v>1.59596</v>
+        <v>1.57982</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>1.6230000000000189</v>
+        <v>1.8969999999999931</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
@@ -1015,23 +1016,23 @@
         <v>24</v>
       </c>
       <c r="B16" s="8">
-        <v>42073</v>
+        <v>42080</v>
       </c>
       <c r="C16">
-        <v>1.5965400000000001</v>
+        <v>1.59789</v>
       </c>
       <c r="D16">
-        <v>1.6056600000000001</v>
+        <v>1.6076999999999999</v>
       </c>
       <c r="E16">
-        <v>1.5894299999999999</v>
+        <v>1.58873</v>
       </c>
       <c r="F16">
-        <v>1.5989</v>
+        <v>1.59596</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>1.9179999999999975</v>
+        <v>1.6230000000000189</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1">
@@ -1039,23 +1040,23 @@
         <v>24</v>
       </c>
       <c r="B17" s="8">
-        <v>42066</v>
+        <v>42073</v>
       </c>
       <c r="C17">
-        <v>1.59982</v>
+        <v>1.5965400000000001</v>
       </c>
       <c r="D17">
-        <v>1.6121300000000001</v>
+        <v>1.6056600000000001</v>
       </c>
       <c r="E17">
-        <v>1.5929500000000001</v>
+        <v>1.5894299999999999</v>
       </c>
       <c r="F17">
-        <v>1.5942799999999999</v>
+        <v>1.5989</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>2.6250000000000107</v>
+        <v>1.9179999999999975</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
@@ -1063,23 +1064,23 @@
         <v>24</v>
       </c>
       <c r="B18" s="8">
-        <v>42059</v>
+        <v>42066</v>
       </c>
       <c r="C18">
-        <v>1.5877399999999999</v>
+        <v>1.59982</v>
       </c>
       <c r="D18">
-        <v>1.6071800000000001</v>
+        <v>1.6121300000000001</v>
       </c>
       <c r="E18">
-        <v>1.5809299999999999</v>
+        <v>1.5929500000000001</v>
       </c>
       <c r="F18">
-        <v>1.60588</v>
+        <v>1.5942799999999999</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>2.7660000000000018</v>
+        <v>2.6250000000000107</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1">
@@ -1087,23 +1088,23 @@
         <v>24</v>
       </c>
       <c r="B19" s="8">
-        <v>42052</v>
+        <v>42059</v>
       </c>
       <c r="C19">
-        <v>1.5824800000000001</v>
+        <v>1.5877399999999999</v>
       </c>
       <c r="D19">
-        <v>1.60192</v>
+        <v>1.6071800000000001</v>
       </c>
       <c r="E19">
-        <v>1.57426</v>
+        <v>1.5809299999999999</v>
       </c>
       <c r="F19">
-        <v>1.5893999999999999</v>
+        <v>1.60588</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>1.9650000000000167</v>
+        <v>2.7660000000000018</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1">
@@ -1111,23 +1112,23 @@
         <v>24</v>
       </c>
       <c r="B20" s="8">
-        <v>42045</v>
+        <v>42052</v>
       </c>
       <c r="C20">
-        <v>1.59656</v>
+        <v>1.5824800000000001</v>
       </c>
       <c r="D20">
-        <v>1.5998600000000001</v>
+        <v>1.60192</v>
       </c>
       <c r="E20">
-        <v>1.5802099999999999</v>
+        <v>1.57426</v>
       </c>
       <c r="F20">
-        <v>1.58165</v>
+        <v>1.5893999999999999</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>3.3009999999999984</v>
+        <v>1.9650000000000167</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
@@ -1135,23 +1136,23 @@
         <v>24</v>
       </c>
       <c r="B21" s="8">
-        <v>42038</v>
+        <v>42045</v>
       </c>
       <c r="C21">
-        <v>1.5800399999999999</v>
+        <v>1.59656</v>
       </c>
       <c r="D21">
-        <v>1.6059399999999999</v>
+        <v>1.5998600000000001</v>
       </c>
       <c r="E21">
-        <v>1.5729299999999999</v>
+        <v>1.5802099999999999</v>
       </c>
       <c r="F21">
-        <v>1.5977600000000001</v>
+        <v>1.58165</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>2.845999999999993</v>
+        <v>3.3009999999999984</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" customHeight="1">
@@ -1159,23 +1160,23 @@
         <v>24</v>
       </c>
       <c r="B22" s="8">
-        <v>42031</v>
+        <v>42038</v>
       </c>
       <c r="C22">
-        <v>1.58822</v>
+        <v>1.5800399999999999</v>
       </c>
       <c r="D22">
-        <v>1.60053</v>
+        <v>1.6059399999999999</v>
       </c>
       <c r="E22">
-        <v>1.5720700000000001</v>
+        <v>1.5729299999999999</v>
       </c>
       <c r="F22">
-        <v>1.5801000000000001</v>
+        <v>1.5977600000000001</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>1.9419999999999993</v>
+        <v>2.845999999999993</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1">
@@ -1183,23 +1184,23 @@
         <v>24</v>
       </c>
       <c r="B23" s="8">
-        <v>42024</v>
+        <v>42031</v>
       </c>
       <c r="C23">
-        <v>1.5851900000000001</v>
+        <v>1.58822</v>
       </c>
       <c r="D23">
-        <v>1.60375</v>
+        <v>1.60053</v>
       </c>
       <c r="E23">
-        <v>1.58433</v>
+        <v>1.5720700000000001</v>
       </c>
       <c r="F23">
-        <v>1.58891</v>
+        <v>1.5801000000000001</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>2.143000000000006</v>
+        <v>1.9419999999999993</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1">
@@ -1207,23 +1208,23 @@
         <v>24</v>
       </c>
       <c r="B24" s="8">
-        <v>42017</v>
+        <v>42024</v>
       </c>
       <c r="C24">
-        <v>1.58833</v>
+        <v>1.5851900000000001</v>
       </c>
       <c r="D24">
-        <v>1.59883</v>
+        <v>1.60375</v>
       </c>
       <c r="E24">
-        <v>1.5773999999999999</v>
+        <v>1.58433</v>
       </c>
       <c r="F24">
-        <v>1.5857300000000001</v>
+        <v>1.58891</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>2.6410000000000045</v>
+        <v>2.143000000000006</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1">
@@ -1231,23 +1232,23 @@
         <v>24</v>
       </c>
       <c r="B25" s="8">
-        <v>42010</v>
+        <v>42017</v>
       </c>
       <c r="C25">
-        <v>1.6014299999999999</v>
+        <v>1.58833</v>
       </c>
       <c r="D25">
-        <v>1.61537</v>
+        <v>1.59883</v>
       </c>
       <c r="E25">
-        <v>1.5889599999999999</v>
+        <v>1.5773999999999999</v>
       </c>
       <c r="F25">
-        <v>1.58907</v>
+        <v>1.5857300000000001</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>7.6349999999999918</v>
+        <v>2.6410000000000045</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1">
@@ -1255,23 +1256,23 @@
         <v>24</v>
       </c>
       <c r="B26" s="8">
-        <v>42003</v>
+        <v>42010</v>
       </c>
       <c r="C26">
-        <v>1.62398</v>
+        <v>1.6014299999999999</v>
       </c>
       <c r="D26">
-        <v>1.6766799999999999</v>
+        <v>1.61537</v>
       </c>
       <c r="E26">
-        <v>1.60033</v>
+        <v>1.5889599999999999</v>
       </c>
       <c r="F26">
-        <v>1.6007899999999999</v>
+        <v>1.58907</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>2.6749999999999829</v>
+        <v>7.6349999999999918</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
@@ -1279,23 +1280,23 @@
         <v>24</v>
       </c>
       <c r="B27" s="8">
-        <v>41996</v>
+        <v>42003</v>
       </c>
       <c r="C27">
-        <v>1.6144799999999999</v>
+        <v>1.62398</v>
       </c>
       <c r="D27">
-        <v>1.6315599999999999</v>
+        <v>1.6766799999999999</v>
       </c>
       <c r="E27">
-        <v>1.6048100000000001</v>
+        <v>1.60033</v>
       </c>
       <c r="F27">
-        <v>1.6252899999999999</v>
+        <v>1.6007899999999999</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>4.1210000000000191</v>
+        <v>2.6749999999999829</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
@@ -1303,23 +1304,23 @@
         <v>24</v>
       </c>
       <c r="B28" s="8">
-        <v>41989</v>
+        <v>41996</v>
       </c>
       <c r="C28">
-        <v>1.57463</v>
+        <v>1.6144799999999999</v>
       </c>
       <c r="D28">
-        <v>1.6153900000000001</v>
+        <v>1.6315599999999999</v>
       </c>
       <c r="E28">
-        <v>1.5741799999999999</v>
+        <v>1.6048100000000001</v>
       </c>
       <c r="F28">
-        <v>1.6136600000000001</v>
+        <v>1.6252899999999999</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>2.1239999999999926</v>
+        <v>4.1210000000000191</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1">
@@ -1327,23 +1328,23 @@
         <v>24</v>
       </c>
       <c r="B29" s="8">
-        <v>41982</v>
+        <v>41989</v>
       </c>
       <c r="C29">
-        <v>1.58473</v>
+        <v>1.57463</v>
       </c>
       <c r="D29">
-        <v>1.5884799999999999</v>
+        <v>1.6153900000000001</v>
       </c>
       <c r="E29">
-        <v>1.56724</v>
+        <v>1.5741799999999999</v>
       </c>
       <c r="F29">
-        <v>1.57477</v>
+        <v>1.6136600000000001</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>4.9939999999999873</v>
+        <v>2.1239999999999926</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1">
@@ -1351,23 +1352,23 @@
         <v>24</v>
       </c>
       <c r="B30" s="8">
-        <v>41975</v>
+        <v>41982</v>
       </c>
       <c r="C30">
-        <v>1.5375799999999999</v>
+        <v>1.58473</v>
       </c>
       <c r="D30">
-        <v>1.58456</v>
+        <v>1.5884799999999999</v>
       </c>
       <c r="E30">
-        <v>1.5346200000000001</v>
+        <v>1.56724</v>
       </c>
       <c r="F30">
-        <v>1.5843</v>
+        <v>1.57477</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>2.2680000000000033</v>
+        <v>4.9939999999999873</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1">
@@ -1375,23 +1376,23 @@
         <v>24</v>
       </c>
       <c r="B31" s="8">
-        <v>41968</v>
+        <v>41975</v>
       </c>
       <c r="C31">
-        <v>1.5678099999999999</v>
+        <v>1.5375799999999999</v>
       </c>
       <c r="D31">
-        <v>1.57046</v>
+        <v>1.58456</v>
       </c>
       <c r="E31">
-        <v>1.5477799999999999</v>
+        <v>1.5346200000000001</v>
       </c>
       <c r="F31">
-        <v>1.5483899999999999</v>
+        <v>1.5843</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>2.043000000000017</v>
+        <v>2.2680000000000033</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
@@ -1399,23 +1400,23 @@
         <v>24</v>
       </c>
       <c r="B32" s="8">
-        <v>41961</v>
+        <v>41968</v>
       </c>
       <c r="C32">
-        <v>1.5612299999999999</v>
+        <v>1.5678099999999999</v>
       </c>
       <c r="D32">
-        <v>1.5781700000000001</v>
+        <v>1.57046</v>
       </c>
       <c r="E32">
-        <v>1.5577399999999999</v>
+        <v>1.5477799999999999</v>
       </c>
       <c r="F32">
-        <v>1.5670500000000001</v>
+        <v>1.5483899999999999</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>1.7309999999999937</v>
+        <v>2.043000000000017</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1">
@@ -1423,23 +1424,23 @@
         <v>24</v>
       </c>
       <c r="B33" s="8">
-        <v>41954</v>
+        <v>41961</v>
       </c>
       <c r="C33">
-        <v>1.5679399999999999</v>
+        <v>1.5612299999999999</v>
       </c>
       <c r="D33">
-        <v>1.56931</v>
+        <v>1.5781700000000001</v>
       </c>
       <c r="E33">
-        <v>1.552</v>
+        <v>1.5577399999999999</v>
       </c>
       <c r="F33">
-        <v>1.55629</v>
+        <v>1.5670500000000001</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>2.1980000000000111</v>
+        <v>1.7309999999999937</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21" customHeight="1">
@@ -1447,23 +1448,23 @@
         <v>24</v>
       </c>
       <c r="B34" s="8">
-        <v>41947</v>
+        <v>41954</v>
       </c>
       <c r="C34">
-        <v>1.5827599999999999</v>
+        <v>1.5679399999999999</v>
       </c>
       <c r="D34">
-        <v>1.58518</v>
+        <v>1.56931</v>
       </c>
       <c r="E34">
-        <v>1.5631999999999999</v>
+        <v>1.552</v>
       </c>
       <c r="F34">
-        <v>1.56843</v>
+        <v>1.55629</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>4.0779999999999816</v>
+        <v>2.1980000000000111</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1">
@@ -1471,23 +1472,23 @@
         <v>24</v>
       </c>
       <c r="B35" s="8">
-        <v>41940</v>
+        <v>41947</v>
       </c>
       <c r="C35">
-        <v>1.6069599999999999</v>
+        <v>1.5827599999999999</v>
       </c>
       <c r="D35">
-        <v>1.6149899999999999</v>
+        <v>1.58518</v>
       </c>
       <c r="E35">
-        <v>1.5742100000000001</v>
+        <v>1.5631999999999999</v>
       </c>
       <c r="F35">
-        <v>1.5824100000000001</v>
+        <v>1.56843</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>2.1640000000000104</v>
+        <v>4.0779999999999816</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1">
@@ -1495,23 +1496,23 @@
         <v>24</v>
       </c>
       <c r="B36" s="8">
-        <v>41933</v>
+        <v>41940</v>
       </c>
       <c r="C36">
-        <v>1.6161799999999999</v>
+        <v>1.6069599999999999</v>
       </c>
       <c r="D36">
-        <v>1.62497</v>
+        <v>1.6149899999999999</v>
       </c>
       <c r="E36">
-        <v>1.6033299999999999</v>
+        <v>1.5742100000000001</v>
       </c>
       <c r="F36">
-        <v>1.6080399999999999</v>
+        <v>1.5824100000000001</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>2.3569999999999869</v>
+        <v>2.1640000000000104</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
@@ -1519,23 +1520,23 @@
         <v>24</v>
       </c>
       <c r="B37" s="8">
-        <v>41926</v>
+        <v>41933</v>
       </c>
       <c r="C37">
-        <v>1.62453</v>
+        <v>1.6161799999999999</v>
       </c>
       <c r="D37">
-        <v>1.62842</v>
+        <v>1.62497</v>
       </c>
       <c r="E37">
-        <v>1.6048500000000001</v>
+        <v>1.6033299999999999</v>
       </c>
       <c r="F37">
-        <v>1.6180000000000001</v>
+        <v>1.6080399999999999</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>2.1039999999999948</v>
+        <v>2.3569999999999869</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21" customHeight="1">
@@ -1543,23 +1544,23 @@
         <v>24</v>
       </c>
       <c r="B38" s="8">
-        <v>41919</v>
+        <v>41926</v>
       </c>
       <c r="C38">
-        <v>1.6331599999999999</v>
+        <v>1.62453</v>
       </c>
       <c r="D38">
-        <v>1.6356999999999999</v>
+        <v>1.62842</v>
       </c>
       <c r="E38">
-        <v>1.61466</v>
+        <v>1.6048500000000001</v>
       </c>
       <c r="F38">
-        <v>1.62503</v>
+        <v>1.6180000000000001</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>3.6700000000000177</v>
+        <v>2.1039999999999948</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21" customHeight="1">
@@ -1567,23 +1568,23 @@
         <v>24</v>
       </c>
       <c r="B39" s="8">
-        <v>41912</v>
+        <v>41919</v>
       </c>
       <c r="C39">
-        <v>1.6072299999999999</v>
+        <v>1.6331599999999999</v>
       </c>
       <c r="D39">
-        <v>1.6352500000000001</v>
+        <v>1.6356999999999999</v>
       </c>
       <c r="E39">
-        <v>1.5985499999999999</v>
+        <v>1.61466</v>
       </c>
       <c r="F39">
-        <v>1.63358</v>
+        <v>1.62503</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>2.2350000000000092</v>
+        <v>3.6700000000000177</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21" customHeight="1">
@@ -1591,23 +1592,23 @@
         <v>24</v>
       </c>
       <c r="B40" s="8">
-        <v>41905</v>
+        <v>41912</v>
       </c>
       <c r="C40">
-        <v>1.61608</v>
+        <v>1.6072299999999999</v>
       </c>
       <c r="D40">
-        <v>1.62534</v>
+        <v>1.6352500000000001</v>
       </c>
       <c r="E40">
-        <v>1.6029899999999999</v>
+        <v>1.5985499999999999</v>
       </c>
       <c r="F40">
-        <v>1.6070599999999999</v>
+        <v>1.63358</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>2.813000000000021</v>
+        <v>2.2350000000000092</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1">
@@ -1615,23 +1616,23 @@
         <v>24</v>
       </c>
       <c r="B41" s="8">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="C41">
-        <v>1.62496</v>
+        <v>1.61608</v>
       </c>
       <c r="D41">
-        <v>1.6333200000000001</v>
+        <v>1.62534</v>
       </c>
       <c r="E41">
-        <v>1.6051899999999999</v>
+        <v>1.6029899999999999</v>
       </c>
       <c r="F41">
-        <v>1.6130500000000001</v>
+        <v>1.6070599999999999</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>2.1639999999999882</v>
+        <v>2.813000000000021</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21" customHeight="1">
@@ -1639,23 +1640,23 @@
         <v>24</v>
       </c>
       <c r="B42" s="8">
-        <v>41891</v>
+        <v>41898</v>
       </c>
       <c r="C42">
-        <v>1.6256999999999999</v>
+        <v>1.62496</v>
       </c>
       <c r="D42">
-        <v>1.63537</v>
+        <v>1.6333200000000001</v>
       </c>
       <c r="E42">
-        <v>1.6137300000000001</v>
+        <v>1.6051899999999999</v>
       </c>
       <c r="F42">
-        <v>1.62443</v>
+        <v>1.6130500000000001</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>2.4800000000000155</v>
+        <v>2.1639999999999882</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1">
@@ -1663,23 +1664,23 @@
         <v>24</v>
       </c>
       <c r="B43" s="8">
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="C43">
-        <v>1.61242</v>
+        <v>1.6256999999999999</v>
       </c>
       <c r="D43">
-        <v>1.6289100000000001</v>
+        <v>1.63537</v>
       </c>
       <c r="E43">
-        <v>1.6041099999999999</v>
+        <v>1.6137300000000001</v>
       </c>
       <c r="F43">
-        <v>1.6256600000000001</v>
+        <v>1.62443</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>3.1430000000000069</v>
+        <v>2.4800000000000155</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21" customHeight="1">
@@ -1687,23 +1688,23 @@
         <v>24</v>
       </c>
       <c r="B44" s="8">
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="C44">
-        <v>1.58494</v>
+        <v>1.61242</v>
       </c>
       <c r="D44">
-        <v>1.6160300000000001</v>
+        <v>1.6289100000000001</v>
       </c>
       <c r="E44">
-        <v>1.5846</v>
+        <v>1.6041099999999999</v>
       </c>
       <c r="F44">
-        <v>1.6136699999999999</v>
+        <v>1.6256600000000001</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>3.4370000000000012</v>
+        <v>3.1430000000000069</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21" customHeight="1">
@@ -1711,23 +1712,23 @@
         <v>24</v>
       </c>
       <c r="B45" s="8">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="C45">
-        <v>1.56359</v>
+        <v>1.58494</v>
       </c>
       <c r="D45">
-        <v>1.5946199999999999</v>
+        <v>1.6160300000000001</v>
       </c>
       <c r="E45">
-        <v>1.5602499999999999</v>
+        <v>1.5846</v>
       </c>
       <c r="F45">
-        <v>1.5864799999999999</v>
+        <v>1.6136699999999999</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>1.0929999999999884</v>
+        <v>3.4370000000000012</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21" customHeight="1">
@@ -1735,23 +1736,23 @@
         <v>24</v>
       </c>
       <c r="B46" s="8">
-        <v>41863</v>
+        <v>41870</v>
       </c>
       <c r="C46">
-        <v>1.56288</v>
+        <v>1.56359</v>
       </c>
       <c r="D46">
-        <v>1.5725899999999999</v>
+        <v>1.5946199999999999</v>
       </c>
       <c r="E46">
-        <v>1.56166</v>
+        <v>1.5602499999999999</v>
       </c>
       <c r="F46">
-        <v>1.5638700000000001</v>
+        <v>1.5864799999999999</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>1.2249999999999872</v>
+        <v>1.0929999999999884</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21" customHeight="1">
@@ -1759,23 +1760,23 @@
         <v>24</v>
       </c>
       <c r="B47" s="8">
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="C47">
-        <v>1.5633999999999999</v>
+        <v>1.56288</v>
       </c>
       <c r="D47">
-        <v>1.57019</v>
+        <v>1.5725899999999999</v>
       </c>
       <c r="E47">
-        <v>1.5579400000000001</v>
+        <v>1.56166</v>
       </c>
       <c r="F47">
-        <v>1.56334</v>
+        <v>1.5638700000000001</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>1.9179999999999975</v>
+        <v>1.2249999999999872</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21" customHeight="1">
@@ -1783,23 +1784,23 @@
         <v>24</v>
       </c>
       <c r="B48" s="8">
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="C48">
-        <v>1.57463</v>
+        <v>1.5633999999999999</v>
       </c>
       <c r="D48">
-        <v>1.5819799999999999</v>
+        <v>1.57019</v>
       </c>
       <c r="E48">
-        <v>1.5628</v>
+        <v>1.5579400000000001</v>
       </c>
       <c r="F48">
-        <v>1.5634600000000001</v>
+        <v>1.56334</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>1.6850000000000032</v>
+        <v>1.9179999999999975</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21" customHeight="1">
@@ -1807,23 +1808,23 @@
         <v>24</v>
       </c>
       <c r="B49" s="8">
-        <v>41842</v>
+        <v>41849</v>
       </c>
       <c r="C49">
-        <v>1.57931</v>
+        <v>1.57463</v>
       </c>
       <c r="D49">
-        <v>1.58693</v>
+        <v>1.5819799999999999</v>
       </c>
       <c r="E49">
-        <v>1.5700799999999999</v>
+        <v>1.5628</v>
       </c>
       <c r="F49">
-        <v>1.57494</v>
+        <v>1.5634600000000001</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>2.3310000000000164</v>
+        <v>1.6850000000000032</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21" customHeight="1">
@@ -1831,23 +1832,23 @@
         <v>24</v>
       </c>
       <c r="B50" s="8">
-        <v>41835</v>
+        <v>41842</v>
       </c>
       <c r="C50">
-        <v>1.57561</v>
+        <v>1.57931</v>
       </c>
       <c r="D50">
-        <v>1.5889800000000001</v>
+        <v>1.58693</v>
       </c>
       <c r="E50">
-        <v>1.5656699999999999</v>
+        <v>1.5700799999999999</v>
       </c>
       <c r="F50">
-        <v>1.5782400000000001</v>
+        <v>1.57494</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>1.8170000000000019</v>
+        <v>2.3310000000000164</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21" customHeight="1">
@@ -1855,23 +1856,23 @@
         <v>24</v>
       </c>
       <c r="B51" s="8">
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="C51">
-        <v>1.58036</v>
+        <v>1.57561</v>
       </c>
       <c r="D51">
-        <v>1.58812</v>
+        <v>1.5889800000000001</v>
       </c>
       <c r="E51">
-        <v>1.56995</v>
+        <v>1.5656699999999999</v>
       </c>
       <c r="F51">
-        <v>1.57446</v>
+        <v>1.5782400000000001</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>1.5959999999999974</v>
+        <v>1.8170000000000019</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21" customHeight="1">
@@ -1879,23 +1880,23 @@
         <v>24</v>
       </c>
       <c r="B52" s="8">
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="C52">
-        <v>1.57663</v>
+        <v>1.58036</v>
       </c>
       <c r="D52">
-        <v>1.5887199999999999</v>
+        <v>1.58812</v>
       </c>
       <c r="E52">
-        <v>1.5727599999999999</v>
+        <v>1.56995</v>
       </c>
       <c r="F52">
-        <v>1.5803</v>
+        <v>1.57446</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>1.6850000000000032</v>
+        <v>1.5959999999999974</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21" customHeight="1">
@@ -1903,23 +1904,23 @@
         <v>24</v>
       </c>
       <c r="B53" s="8">
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="C53">
-        <v>1.56735</v>
+        <v>1.57663</v>
       </c>
       <c r="D53">
-        <v>1.5826</v>
+        <v>1.5887199999999999</v>
       </c>
       <c r="E53">
-        <v>1.56575</v>
+        <v>1.5727599999999999</v>
       </c>
       <c r="F53">
-        <v>1.57755</v>
+        <v>1.5803</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>2.1230000000000082</v>
+        <v>1.6850000000000032</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21" customHeight="1">
@@ -1927,23 +1928,23 @@
         <v>24</v>
       </c>
       <c r="B54" s="8">
-        <v>41807</v>
+        <v>41814</v>
       </c>
       <c r="C54">
-        <v>1.55759</v>
+        <v>1.56735</v>
       </c>
       <c r="D54">
-        <v>1.57558</v>
+        <v>1.5826</v>
       </c>
       <c r="E54">
-        <v>1.5543499999999999</v>
+        <v>1.56575</v>
       </c>
       <c r="F54">
-        <v>1.56732</v>
+        <v>1.57755</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>2.6449999999999863</v>
+        <v>2.1230000000000082</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21" customHeight="1">
@@ -1951,23 +1952,23 @@
         <v>24</v>
       </c>
       <c r="B55" s="8">
-        <v>41800</v>
+        <v>41807</v>
       </c>
       <c r="C55">
-        <v>1.5498099999999999</v>
+        <v>1.55759</v>
       </c>
       <c r="D55">
-        <v>1.5691299999999999</v>
+        <v>1.57558</v>
       </c>
       <c r="E55">
-        <v>1.5426800000000001</v>
+        <v>1.5543499999999999</v>
       </c>
       <c r="F55">
-        <v>1.5595000000000001</v>
+        <v>1.56732</v>
       </c>
       <c r="H55">
         <f t="shared" si="0"/>
-        <v>2.8359999999999941</v>
+        <v>2.6449999999999863</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21" customHeight="1">
@@ -1975,23 +1976,23 @@
         <v>24</v>
       </c>
       <c r="B56" s="8">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="C56">
-        <v>1.5402199999999999</v>
+        <v>1.5498099999999999</v>
       </c>
       <c r="D56">
-        <v>1.55579</v>
+        <v>1.5691299999999999</v>
       </c>
       <c r="E56">
-        <v>1.5274300000000001</v>
+        <v>1.5426800000000001</v>
       </c>
       <c r="F56">
-        <v>1.5489299999999999</v>
+        <v>1.5595000000000001</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>2.14700000000001</v>
+        <v>2.8359999999999941</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21" customHeight="1">
@@ -1999,23 +2000,23 @@
         <v>24</v>
       </c>
       <c r="B57" s="8">
-        <v>41786</v>
+        <v>41793</v>
       </c>
       <c r="C57">
-        <v>1.5455000000000001</v>
+        <v>1.5402199999999999</v>
       </c>
       <c r="D57">
-        <v>1.5529900000000001</v>
+        <v>1.55579</v>
       </c>
       <c r="E57">
-        <v>1.53152</v>
+        <v>1.5274300000000001</v>
       </c>
       <c r="F57">
-        <v>1.5404899999999999</v>
+        <v>1.5489299999999999</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
-        <v>2.4280000000000079</v>
+        <v>2.14700000000001</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21" customHeight="1">
@@ -2023,23 +2024,23 @@
         <v>24</v>
       </c>
       <c r="B58" s="8">
-        <v>41779</v>
+        <v>41786</v>
       </c>
       <c r="C58">
-        <v>1.56345</v>
+        <v>1.5455000000000001</v>
       </c>
       <c r="D58">
-        <v>1.5648200000000001</v>
+        <v>1.5529900000000001</v>
       </c>
       <c r="E58">
-        <v>1.54054</v>
+        <v>1.53152</v>
       </c>
       <c r="F58">
-        <v>1.54358</v>
+        <v>1.5404899999999999</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>2.3419999999999996</v>
+        <v>2.4280000000000079</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21" customHeight="1">
@@ -2047,23 +2048,23 @@
         <v>24</v>
       </c>
       <c r="B59" s="8">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="C59">
-        <v>1.58345</v>
+        <v>1.56345</v>
       </c>
       <c r="D59">
-        <v>1.5888100000000001</v>
+        <v>1.5648200000000001</v>
       </c>
       <c r="E59">
-        <v>1.5653900000000001</v>
+        <v>1.54054</v>
       </c>
       <c r="F59">
-        <v>1.5664199999999999</v>
+        <v>1.54358</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
-        <v>1.876000000000011</v>
+        <v>2.3419999999999996</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21" customHeight="1">
@@ -2071,23 +2072,23 @@
         <v>24</v>
       </c>
       <c r="B60" s="8">
-        <v>41765</v>
+        <v>41772</v>
       </c>
       <c r="C60">
-        <v>1.5862700000000001</v>
+        <v>1.58345</v>
       </c>
       <c r="D60">
-        <v>1.59633</v>
+        <v>1.5888100000000001</v>
       </c>
       <c r="E60">
-        <v>1.5775699999999999</v>
+        <v>1.5653900000000001</v>
       </c>
       <c r="F60">
-        <v>1.5828199999999999</v>
+        <v>1.5664199999999999</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>2.1260000000000057</v>
+        <v>1.876000000000011</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21" customHeight="1">
@@ -2095,23 +2096,23 @@
         <v>24</v>
       </c>
       <c r="B61" s="8">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="C61">
-        <v>1.6003099999999999</v>
+        <v>1.5862700000000001</v>
       </c>
       <c r="D61">
-        <v>1.6056600000000001</v>
+        <v>1.59633</v>
       </c>
       <c r="E61">
-        <v>1.5844</v>
+        <v>1.5775699999999999</v>
       </c>
       <c r="F61">
-        <v>1.5872200000000001</v>
+        <v>1.5828199999999999</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>1.7249999999999988</v>
+        <v>2.1260000000000057</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21" customHeight="1">
@@ -2119,23 +2120,23 @@
         <v>24</v>
       </c>
       <c r="B62" s="8">
-        <v>41751</v>
+        <v>41758</v>
       </c>
       <c r="C62">
-        <v>1.6008899999999999</v>
+        <v>1.6003099999999999</v>
       </c>
       <c r="D62">
-        <v>1.6140099999999999</v>
+        <v>1.6056600000000001</v>
       </c>
       <c r="E62">
-        <v>1.59676</v>
+        <v>1.5844</v>
       </c>
       <c r="F62">
-        <v>1.60046</v>
+        <v>1.5872200000000001</v>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
-        <v>1.8199999999999994</v>
+        <v>1.7249999999999988</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21" customHeight="1">
@@ -2143,23 +2144,23 @@
         <v>24</v>
       </c>
       <c r="B63" s="8">
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="C63">
-        <v>1.5872900000000001</v>
+        <v>1.6008899999999999</v>
       </c>
       <c r="D63">
-        <v>1.60301</v>
+        <v>1.6140099999999999</v>
       </c>
       <c r="E63">
-        <v>1.5848100000000001</v>
+        <v>1.59676</v>
       </c>
       <c r="F63">
-        <v>1.60209</v>
+        <v>1.60046</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
-        <v>2.854000000000001</v>
+        <v>1.8199999999999994</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21" customHeight="1">
@@ -2167,23 +2168,23 @@
         <v>24</v>
       </c>
       <c r="B64" s="8">
-        <v>41737</v>
+        <v>41744</v>
       </c>
       <c r="C64">
-        <v>1.6003799999999999</v>
+        <v>1.5872900000000001</v>
       </c>
       <c r="D64">
-        <v>1.6060099999999999</v>
+        <v>1.60301</v>
       </c>
       <c r="E64">
-        <v>1.5774699999999999</v>
+        <v>1.5848100000000001</v>
       </c>
       <c r="F64">
-        <v>1.5885899999999999</v>
+        <v>1.60209</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>1.8649999999999833</v>
+        <v>2.854000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21" customHeight="1">
@@ -2191,23 +2192,23 @@
         <v>24</v>
       </c>
       <c r="B65" s="8">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="C65">
-        <v>1.6020300000000001</v>
+        <v>1.6003799999999999</v>
       </c>
       <c r="D65">
-        <v>1.6084799999999999</v>
+        <v>1.6060099999999999</v>
       </c>
       <c r="E65">
-        <v>1.5898300000000001</v>
+        <v>1.5774699999999999</v>
       </c>
       <c r="F65">
-        <v>1.59992</v>
+        <v>1.5885899999999999</v>
       </c>
       <c r="H65">
         <f t="shared" si="0"/>
-        <v>2.1549999999999958</v>
+        <v>1.8649999999999833</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21" customHeight="1">
@@ -2215,23 +2216,23 @@
         <v>24</v>
       </c>
       <c r="B66" s="8">
-        <v>41723</v>
+        <v>41730</v>
       </c>
       <c r="C66">
-        <v>1.6043099999999999</v>
+        <v>1.6020300000000001</v>
       </c>
       <c r="D66">
-        <v>1.6191</v>
+        <v>1.6084799999999999</v>
       </c>
       <c r="E66">
-        <v>1.59755</v>
+        <v>1.5898300000000001</v>
       </c>
       <c r="F66">
-        <v>1.60425</v>
+        <v>1.59992</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H129" si="1">ABS(D67-E67)*100</f>
-        <v>1.9579999999999931</v>
+        <v>2.1549999999999958</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21" customHeight="1">
@@ -2239,23 +2240,23 @@
         <v>24</v>
       </c>
       <c r="B67" s="8">
-        <v>41716</v>
+        <v>41723</v>
       </c>
       <c r="C67">
-        <v>1.5928</v>
+        <v>1.6043099999999999</v>
       </c>
       <c r="D67">
-        <v>1.6055299999999999</v>
+        <v>1.6191</v>
       </c>
       <c r="E67">
-        <v>1.58595</v>
+        <v>1.59755</v>
       </c>
       <c r="F67">
-        <v>1.6050899999999999</v>
+        <v>1.60425</v>
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>3.1309999999999949</v>
+        <v>1.9579999999999931</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21" customHeight="1">
@@ -2263,23 +2264,23 @@
         <v>24</v>
       </c>
       <c r="B68" s="8">
-        <v>41709</v>
+        <v>41716</v>
       </c>
       <c r="C68">
-        <v>1.5682100000000001</v>
+        <v>1.5928</v>
       </c>
       <c r="D68">
-        <v>1.5935299999999999</v>
+        <v>1.6055299999999999</v>
       </c>
       <c r="E68">
-        <v>1.5622199999999999</v>
+        <v>1.58595</v>
       </c>
       <c r="F68">
-        <v>1.5932200000000001</v>
+        <v>1.6050899999999999</v>
       </c>
       <c r="H68">
         <f t="shared" si="1"/>
-        <v>2.9989999999999961</v>
+        <v>3.1309999999999949</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21" customHeight="1">
@@ -2287,23 +2288,23 @@
         <v>24</v>
       </c>
       <c r="B69" s="8">
-        <v>41702</v>
+        <v>41709</v>
       </c>
       <c r="C69">
-        <v>1.58752</v>
+        <v>1.5682100000000001</v>
       </c>
       <c r="D69">
-        <v>1.59775</v>
+        <v>1.5935299999999999</v>
       </c>
       <c r="E69">
-        <v>1.56776</v>
+        <v>1.5622199999999999</v>
       </c>
       <c r="F69">
-        <v>1.5680000000000001</v>
+        <v>1.5932200000000001</v>
       </c>
       <c r="H69">
         <f t="shared" si="1"/>
-        <v>3.0159999999999965</v>
+        <v>2.9989999999999961</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21" customHeight="1">
@@ -2311,23 +2312,23 @@
         <v>24</v>
       </c>
       <c r="B70" s="8">
-        <v>41695</v>
+        <v>41702</v>
       </c>
       <c r="C70">
-        <v>1.56728</v>
+        <v>1.58752</v>
       </c>
       <c r="D70">
-        <v>1.59195</v>
+        <v>1.59775</v>
       </c>
       <c r="E70">
-        <v>1.56179</v>
+        <v>1.56776</v>
       </c>
       <c r="F70">
-        <v>1.5878099999999999</v>
+        <v>1.5680000000000001</v>
       </c>
       <c r="H70">
         <f t="shared" si="1"/>
-        <v>1.5280000000000182</v>
+        <v>3.0159999999999965</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21" customHeight="1">
@@ -2335,23 +2336,23 @@
         <v>24</v>
       </c>
       <c r="B71" s="8">
-        <v>41688</v>
+        <v>41695</v>
       </c>
       <c r="C71">
-        <v>1.56809</v>
+        <v>1.56728</v>
       </c>
       <c r="D71">
-        <v>1.5758700000000001</v>
+        <v>1.59195</v>
       </c>
       <c r="E71">
-        <v>1.5605899999999999</v>
+        <v>1.56179</v>
       </c>
       <c r="F71">
-        <v>1.5689299999999999</v>
+        <v>1.5878099999999999</v>
       </c>
       <c r="H71">
         <f t="shared" si="1"/>
-        <v>2.096000000000009</v>
+        <v>1.5280000000000182</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21" customHeight="1">
@@ -2359,23 +2360,23 @@
         <v>24</v>
       </c>
       <c r="B72" s="8">
-        <v>41681</v>
+        <v>41688</v>
       </c>
       <c r="C72">
-        <v>1.5670599999999999</v>
+        <v>1.56809</v>
       </c>
       <c r="D72">
-        <v>1.5816300000000001</v>
+        <v>1.5758700000000001</v>
       </c>
       <c r="E72">
-        <v>1.56067</v>
+        <v>1.5605899999999999</v>
       </c>
       <c r="F72">
-        <v>1.56843</v>
+        <v>1.5689299999999999</v>
       </c>
       <c r="H72">
         <f t="shared" si="1"/>
-        <v>1.6259999999999941</v>
+        <v>2.096000000000009</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21" customHeight="1">
@@ -2383,23 +2384,23 @@
         <v>24</v>
       </c>
       <c r="B73" s="8">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="C73">
-        <v>1.5713999999999999</v>
+        <v>1.5670599999999999</v>
       </c>
       <c r="D73">
-        <v>1.5796399999999999</v>
+        <v>1.5816300000000001</v>
       </c>
       <c r="E73">
-        <v>1.56338</v>
+        <v>1.56067</v>
       </c>
       <c r="F73">
-        <v>1.56671</v>
+        <v>1.56843</v>
       </c>
       <c r="H73">
         <f t="shared" si="1"/>
-        <v>4.7080000000000011</v>
+        <v>1.6259999999999941</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21" customHeight="1">
@@ -2407,23 +2408,23 @@
         <v>24</v>
       </c>
       <c r="B74" s="8">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="C74">
-        <v>1.5335399999999999</v>
+        <v>1.5713999999999999</v>
       </c>
       <c r="D74">
-        <v>1.57301</v>
+        <v>1.5796399999999999</v>
       </c>
       <c r="E74">
-        <v>1.52593</v>
+        <v>1.56338</v>
       </c>
       <c r="F74">
-        <v>1.57178</v>
+        <v>1.56671</v>
       </c>
       <c r="H74">
         <f t="shared" si="1"/>
-        <v>2.2569999999999979</v>
+        <v>4.7080000000000011</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21" customHeight="1">
@@ -2431,23 +2432,23 @@
         <v>24</v>
       </c>
       <c r="B75" s="8">
-        <v>41660</v>
+        <v>41667</v>
       </c>
       <c r="C75">
-        <v>1.53359</v>
+        <v>1.5335399999999999</v>
       </c>
       <c r="D75">
-        <v>1.5494600000000001</v>
+        <v>1.57301</v>
       </c>
       <c r="E75">
-        <v>1.5268900000000001</v>
+        <v>1.52593</v>
       </c>
       <c r="F75">
-        <v>1.5319799999999999</v>
+        <v>1.57178</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
-        <v>1.8040000000000056</v>
+        <v>2.2569999999999979</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21" customHeight="1">
@@ -2455,23 +2456,23 @@
         <v>24</v>
       </c>
       <c r="B76" s="8">
-        <v>41653</v>
+        <v>41660</v>
       </c>
       <c r="C76">
-        <v>1.5426299999999999</v>
+        <v>1.53359</v>
       </c>
       <c r="D76">
-        <v>1.54406</v>
+        <v>1.5494600000000001</v>
       </c>
       <c r="E76">
-        <v>1.5260199999999999</v>
+        <v>1.5268900000000001</v>
       </c>
       <c r="F76">
-        <v>1.5297799999999999</v>
+        <v>1.5319799999999999</v>
       </c>
       <c r="H76">
         <f t="shared" si="1"/>
-        <v>2.9150000000000009</v>
+        <v>1.8040000000000056</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21" customHeight="1">
@@ -2479,23 +2480,23 @@
         <v>24</v>
       </c>
       <c r="B77" s="8">
-        <v>41646</v>
+        <v>41653</v>
       </c>
       <c r="C77">
-        <v>1.5295399999999999</v>
+        <v>1.5426299999999999</v>
       </c>
       <c r="D77">
-        <v>1.5445899999999999</v>
+        <v>1.54406</v>
       </c>
       <c r="E77">
-        <v>1.5154399999999999</v>
+        <v>1.5260199999999999</v>
       </c>
       <c r="F77">
-        <v>1.5400700000000001</v>
+        <v>1.5297799999999999</v>
       </c>
       <c r="H77">
         <f t="shared" si="1"/>
-        <v>1.4220000000000121</v>
+        <v>2.9150000000000009</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21" customHeight="1">
@@ -2503,23 +2504,23 @@
         <v>24</v>
       </c>
       <c r="B78" s="8">
-        <v>41639</v>
+        <v>41646</v>
       </c>
       <c r="C78">
-        <v>1.53914</v>
+        <v>1.5295399999999999</v>
       </c>
       <c r="D78">
-        <v>1.5430600000000001</v>
+        <v>1.5445899999999999</v>
       </c>
       <c r="E78">
-        <v>1.52884</v>
+        <v>1.5154399999999999</v>
       </c>
       <c r="F78">
-        <v>1.5300400000000001</v>
+        <v>1.5400700000000001</v>
       </c>
       <c r="H78">
         <f t="shared" si="1"/>
-        <v>1.1440000000000117</v>
+        <v>1.4220000000000121</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21" customHeight="1">
@@ -2527,23 +2528,23 @@
         <v>24</v>
       </c>
       <c r="B79" s="8">
-        <v>41632</v>
+        <v>41639</v>
       </c>
       <c r="C79">
-        <v>1.53607</v>
+        <v>1.53914</v>
       </c>
       <c r="D79">
-        <v>1.5393300000000001</v>
+        <v>1.5430600000000001</v>
       </c>
       <c r="E79">
-        <v>1.52789</v>
+        <v>1.52884</v>
       </c>
       <c r="F79">
-        <v>1.53755</v>
+        <v>1.5300400000000001</v>
       </c>
       <c r="H79">
         <f t="shared" si="1"/>
-        <v>2.0159999999999956</v>
+        <v>1.1440000000000117</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21" customHeight="1">
@@ -2551,23 +2552,23 @@
         <v>24</v>
       </c>
       <c r="B80" s="8">
-        <v>41625</v>
+        <v>41632</v>
       </c>
       <c r="C80">
-        <v>1.53599</v>
+        <v>1.53607</v>
       </c>
       <c r="D80">
-        <v>1.5526899999999999</v>
+        <v>1.5393300000000001</v>
       </c>
       <c r="E80">
-        <v>1.5325299999999999</v>
+        <v>1.52789</v>
       </c>
       <c r="F80">
-        <v>1.53748</v>
+        <v>1.53755</v>
       </c>
       <c r="H80">
         <f t="shared" si="1"/>
-        <v>3.6070000000000046</v>
+        <v>2.0159999999999956</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21" customHeight="1">
@@ -2575,23 +2576,23 @@
         <v>24</v>
       </c>
       <c r="B81" s="8">
-        <v>41618</v>
+        <v>41625</v>
       </c>
       <c r="C81">
-        <v>1.5662799999999999</v>
+        <v>1.53599</v>
       </c>
       <c r="D81">
-        <v>1.56826</v>
+        <v>1.5526899999999999</v>
       </c>
       <c r="E81">
-        <v>1.5321899999999999</v>
+        <v>1.5325299999999999</v>
       </c>
       <c r="F81">
-        <v>1.5377700000000001</v>
+        <v>1.53748</v>
       </c>
       <c r="H81">
         <f t="shared" si="1"/>
-        <v>2.0809999999999995</v>
+        <v>3.6070000000000046</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21" customHeight="1">
@@ -2599,23 +2600,23 @@
         <v>24</v>
       </c>
       <c r="B82" s="8">
-        <v>41611</v>
+        <v>41618</v>
       </c>
       <c r="C82">
-        <v>1.5615000000000001</v>
+        <v>1.5662799999999999</v>
       </c>
       <c r="D82">
-        <v>1.5695699999999999</v>
+        <v>1.56826</v>
       </c>
       <c r="E82">
-        <v>1.5487599999999999</v>
+        <v>1.5321899999999999</v>
       </c>
       <c r="F82">
-        <v>1.5670200000000001</v>
+        <v>1.5377700000000001</v>
       </c>
       <c r="H82">
         <f t="shared" si="1"/>
-        <v>2.0210000000000061</v>
+        <v>2.0809999999999995</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21" customHeight="1">
@@ -2623,23 +2624,23 @@
         <v>24</v>
       </c>
       <c r="B83" s="8">
-        <v>41604</v>
+        <v>41611</v>
       </c>
       <c r="C83">
-        <v>1.56558</v>
+        <v>1.5615000000000001</v>
       </c>
       <c r="D83">
-        <v>1.5770200000000001</v>
+        <v>1.5695699999999999</v>
       </c>
       <c r="E83">
-        <v>1.55681</v>
+        <v>1.5487599999999999</v>
       </c>
       <c r="F83">
-        <v>1.56342</v>
+        <v>1.5670200000000001</v>
       </c>
       <c r="H83">
         <f t="shared" si="1"/>
-        <v>2.1469999999999878</v>
+        <v>2.0210000000000061</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21" customHeight="1">
@@ -2647,23 +2648,23 @@
         <v>24</v>
       </c>
       <c r="B84" s="8">
-        <v>41597</v>
+        <v>41604</v>
       </c>
       <c r="C84">
-        <v>1.5576099999999999</v>
+        <v>1.56558</v>
       </c>
       <c r="D84">
-        <v>1.56734</v>
+        <v>1.5770200000000001</v>
       </c>
       <c r="E84">
-        <v>1.5458700000000001</v>
+        <v>1.55681</v>
       </c>
       <c r="F84">
-        <v>1.5664</v>
+        <v>1.56342</v>
       </c>
       <c r="H84">
         <f t="shared" si="1"/>
-        <v>4.6000000000000041</v>
+        <v>2.1469999999999878</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21" customHeight="1">
@@ -2671,23 +2672,23 @@
         <v>24</v>
       </c>
       <c r="B85" s="8">
-        <v>41590</v>
+        <v>41597</v>
       </c>
       <c r="C85">
-        <v>1.52291</v>
+        <v>1.5576099999999999</v>
       </c>
       <c r="D85">
-        <v>1.5656600000000001</v>
+        <v>1.56734</v>
       </c>
       <c r="E85">
-        <v>1.51966</v>
+        <v>1.5458700000000001</v>
       </c>
       <c r="F85">
-        <v>1.5584</v>
+        <v>1.5664</v>
       </c>
       <c r="H85">
         <f t="shared" si="1"/>
-        <v>1.5339999999999909</v>
+        <v>4.6000000000000041</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21" customHeight="1">
@@ -2695,23 +2696,23 @@
         <v>24</v>
       </c>
       <c r="B86" s="8">
-        <v>41583</v>
+        <v>41590</v>
       </c>
       <c r="C86">
-        <v>1.51814</v>
+        <v>1.52291</v>
       </c>
       <c r="D86">
-        <v>1.5233699999999999</v>
+        <v>1.5656600000000001</v>
       </c>
       <c r="E86">
-        <v>1.50803</v>
+        <v>1.51966</v>
       </c>
       <c r="F86">
-        <v>1.5225900000000001</v>
+        <v>1.5584</v>
       </c>
       <c r="H86">
         <f t="shared" si="1"/>
-        <v>1.4720000000000066</v>
+        <v>1.5339999999999909</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21" customHeight="1">
@@ -2719,23 +2720,23 @@
         <v>24</v>
       </c>
       <c r="B87" s="8">
-        <v>41576</v>
+        <v>41583</v>
       </c>
       <c r="C87">
-        <v>1.5124299999999999</v>
+        <v>1.51814</v>
       </c>
       <c r="D87">
-        <v>1.52336</v>
+        <v>1.5233699999999999</v>
       </c>
       <c r="E87">
-        <v>1.50864</v>
+        <v>1.50803</v>
       </c>
       <c r="F87">
-        <v>1.5177700000000001</v>
+        <v>1.5225900000000001</v>
       </c>
       <c r="H87">
         <f t="shared" si="1"/>
-        <v>3.7690000000000001</v>
+        <v>1.4720000000000066</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21" customHeight="1">
@@ -2743,23 +2744,23 @@
         <v>24</v>
       </c>
       <c r="B88" s="8">
-        <v>41569</v>
+        <v>41576</v>
       </c>
       <c r="C88">
-        <v>1.5063299999999999</v>
+        <v>1.5124299999999999</v>
       </c>
       <c r="D88">
-        <v>1.53921</v>
+        <v>1.52336</v>
       </c>
       <c r="E88">
-        <v>1.50152</v>
+        <v>1.50864</v>
       </c>
       <c r="F88">
-        <v>1.5122</v>
+        <v>1.5177700000000001</v>
       </c>
       <c r="H88">
         <f t="shared" si="1"/>
-        <v>1.373000000000002</v>
+        <v>3.7690000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21" customHeight="1">
@@ -2767,23 +2768,23 @@
         <v>24</v>
       </c>
       <c r="B89" s="8">
-        <v>41562</v>
+        <v>41569</v>
       </c>
       <c r="C89">
-        <v>1.4978100000000001</v>
+        <v>1.5063299999999999</v>
       </c>
       <c r="D89">
-        <v>1.5087600000000001</v>
+        <v>1.53921</v>
       </c>
       <c r="E89">
-        <v>1.4950300000000001</v>
+        <v>1.50152</v>
       </c>
       <c r="F89">
-        <v>1.50674</v>
+        <v>1.5122</v>
       </c>
       <c r="H89">
         <f t="shared" si="1"/>
-        <v>2.6110000000000078</v>
+        <v>1.373000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21" customHeight="1">
@@ -2791,23 +2792,23 @@
         <v>24</v>
       </c>
       <c r="B90" s="8">
-        <v>41555</v>
+        <v>41562</v>
       </c>
       <c r="C90">
-        <v>1.50908</v>
+        <v>1.4978100000000001</v>
       </c>
       <c r="D90">
-        <v>1.52417</v>
+        <v>1.5087600000000001</v>
       </c>
       <c r="E90">
-        <v>1.4980599999999999</v>
+        <v>1.4950300000000001</v>
       </c>
       <c r="F90">
-        <v>1.49908</v>
+        <v>1.50674</v>
       </c>
       <c r="H90">
         <f t="shared" si="1"/>
-        <v>1.7889999999999961</v>
+        <v>2.6110000000000078</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21" customHeight="1">
@@ -2815,23 +2816,23 @@
         <v>24</v>
       </c>
       <c r="B91" s="8">
-        <v>41548</v>
+        <v>41555</v>
       </c>
       <c r="C91">
-        <v>1.50664</v>
+        <v>1.50908</v>
       </c>
       <c r="D91">
-        <v>1.51292</v>
+        <v>1.52417</v>
       </c>
       <c r="E91">
-        <v>1.4950300000000001</v>
+        <v>1.4980599999999999</v>
       </c>
       <c r="F91">
-        <v>1.50979</v>
+        <v>1.49908</v>
       </c>
       <c r="H91">
         <f t="shared" si="1"/>
-        <v>2.0850000000000035</v>
+        <v>1.7889999999999961</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="21" customHeight="1">
@@ -2839,23 +2840,23 @@
         <v>24</v>
       </c>
       <c r="B92" s="8">
-        <v>41541</v>
+        <v>41548</v>
       </c>
       <c r="C92">
-        <v>1.4977400000000001</v>
+        <v>1.50664</v>
       </c>
       <c r="D92">
-        <v>1.5104</v>
+        <v>1.51292</v>
       </c>
       <c r="E92">
-        <v>1.4895499999999999</v>
+        <v>1.4950300000000001</v>
       </c>
       <c r="F92">
-        <v>1.5077100000000001</v>
+        <v>1.50979</v>
       </c>
       <c r="H92">
         <f t="shared" si="1"/>
-        <v>3.1460000000000043</v>
+        <v>2.0850000000000035</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="21" customHeight="1">
@@ -2863,23 +2864,23 @@
         <v>24</v>
       </c>
       <c r="B93" s="8">
-        <v>41534</v>
+        <v>41541</v>
       </c>
       <c r="C93">
-        <v>1.4923200000000001</v>
+        <v>1.4977400000000001</v>
       </c>
       <c r="D93">
-        <v>1.5107699999999999</v>
+        <v>1.5104</v>
       </c>
       <c r="E93">
-        <v>1.4793099999999999</v>
+        <v>1.4895499999999999</v>
       </c>
       <c r="F93">
-        <v>1.5005500000000001</v>
+        <v>1.5077100000000001</v>
       </c>
       <c r="H93">
         <f t="shared" si="1"/>
-        <v>1.5430000000000055</v>
+        <v>3.1460000000000043</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="21" customHeight="1">
@@ -2887,23 +2888,23 @@
         <v>24</v>
       </c>
       <c r="B94" s="8">
-        <v>41527</v>
+        <v>41534</v>
       </c>
       <c r="C94">
-        <v>1.4922599999999999</v>
+        <v>1.4923200000000001</v>
       </c>
       <c r="D94">
-        <v>1.49668</v>
+        <v>1.5107699999999999</v>
       </c>
       <c r="E94">
-        <v>1.48125</v>
+        <v>1.4793099999999999</v>
       </c>
       <c r="F94">
-        <v>1.4935</v>
+        <v>1.5005500000000001</v>
       </c>
       <c r="H94">
         <f t="shared" si="1"/>
-        <v>1.6089999999999938</v>
+        <v>1.5430000000000055</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="21" customHeight="1">
@@ -2911,23 +2912,23 @@
         <v>24</v>
       </c>
       <c r="B95" s="8">
-        <v>41520</v>
+        <v>41527</v>
       </c>
       <c r="C95">
-        <v>1.4937499999999999</v>
+        <v>1.4922599999999999</v>
       </c>
       <c r="D95">
-        <v>1.49959</v>
+        <v>1.49668</v>
       </c>
       <c r="E95">
-        <v>1.4835</v>
+        <v>1.48125</v>
       </c>
       <c r="F95">
-        <v>1.49403</v>
+        <v>1.4935</v>
       </c>
       <c r="H95">
         <f t="shared" si="1"/>
-        <v>3.0440000000000023</v>
+        <v>1.6089999999999938</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="21" customHeight="1">
@@ -2935,23 +2936,23 @@
         <v>24</v>
       </c>
       <c r="B96" s="8">
-        <v>41513</v>
+        <v>41520</v>
       </c>
       <c r="C96">
-        <v>1.50525</v>
+        <v>1.4937499999999999</v>
       </c>
       <c r="D96">
-        <v>1.5174000000000001</v>
+        <v>1.49959</v>
       </c>
       <c r="E96">
-        <v>1.4869600000000001</v>
+        <v>1.4835</v>
       </c>
       <c r="F96">
-        <v>1.4885699999999999</v>
+        <v>1.49403</v>
       </c>
       <c r="H96">
         <f t="shared" si="1"/>
-        <v>2.2699999999999942</v>
+        <v>3.0440000000000023</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="21" customHeight="1">
@@ -2959,23 +2960,23 @@
         <v>24</v>
       </c>
       <c r="B97" s="8">
-        <v>41506</v>
+        <v>41513</v>
       </c>
       <c r="C97">
-        <v>1.48298</v>
+        <v>1.50525</v>
       </c>
       <c r="D97">
-        <v>1.5034799999999999</v>
+        <v>1.5174000000000001</v>
       </c>
       <c r="E97">
-        <v>1.48078</v>
+        <v>1.4869600000000001</v>
       </c>
       <c r="F97">
-        <v>1.5030300000000001</v>
+        <v>1.4885699999999999</v>
       </c>
       <c r="H97">
         <f t="shared" si="1"/>
-        <v>2.8699999999999948</v>
+        <v>2.2699999999999942</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="21" customHeight="1">
@@ -2983,23 +2984,23 @@
         <v>24</v>
       </c>
       <c r="B98" s="8">
-        <v>41499</v>
+        <v>41506</v>
       </c>
       <c r="C98">
-        <v>1.4980800000000001</v>
+        <v>1.48298</v>
       </c>
       <c r="D98">
-        <v>1.50197</v>
+        <v>1.5034799999999999</v>
       </c>
       <c r="E98">
-        <v>1.4732700000000001</v>
+        <v>1.48078</v>
       </c>
       <c r="F98">
-        <v>1.48305</v>
+        <v>1.5030300000000001</v>
       </c>
       <c r="H98">
         <f t="shared" si="1"/>
-        <v>1.8610000000000015</v>
+        <v>2.8699999999999948</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="21" customHeight="1">
@@ -3007,23 +3008,23 @@
         <v>24</v>
       </c>
       <c r="B99" s="8">
-        <v>41492</v>
+        <v>41499</v>
       </c>
       <c r="C99">
-        <v>1.4850300000000001</v>
+        <v>1.4980800000000001</v>
       </c>
       <c r="D99">
-        <v>1.50108</v>
+        <v>1.50197</v>
       </c>
       <c r="E99">
-        <v>1.48247</v>
+        <v>1.4732700000000001</v>
       </c>
       <c r="F99">
-        <v>1.49793</v>
+        <v>1.48305</v>
       </c>
       <c r="H99">
         <f t="shared" si="1"/>
-        <v>2.8110000000000079</v>
+        <v>1.8610000000000015</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="21" customHeight="1">
@@ -3031,23 +3032,23 @@
         <v>24</v>
       </c>
       <c r="B100" s="8">
-        <v>41485</v>
+        <v>41492</v>
       </c>
       <c r="C100">
-        <v>1.4721</v>
+        <v>1.4850300000000001</v>
       </c>
       <c r="D100">
-        <v>1.49658</v>
+        <v>1.50108</v>
       </c>
       <c r="E100">
-        <v>1.4684699999999999</v>
+        <v>1.48247</v>
       </c>
       <c r="F100">
-        <v>1.48502</v>
+        <v>1.49793</v>
       </c>
       <c r="H100">
         <f t="shared" si="1"/>
-        <v>1.992000000000016</v>
+        <v>2.8110000000000079</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="21" customHeight="1">
@@ -3055,23 +3056,23 @@
         <v>24</v>
       </c>
       <c r="B101" s="8">
-        <v>41478</v>
+        <v>41485</v>
       </c>
       <c r="C101">
-        <v>1.4744999999999999</v>
+        <v>1.4721</v>
       </c>
       <c r="D101">
-        <v>1.4764600000000001</v>
+        <v>1.49658</v>
       </c>
       <c r="E101">
-        <v>1.4565399999999999</v>
+        <v>1.4684699999999999</v>
       </c>
       <c r="F101">
-        <v>1.47142</v>
+        <v>1.48502</v>
       </c>
       <c r="H101">
         <f t="shared" si="1"/>
-        <v>3.5390000000000033</v>
+        <v>1.992000000000016</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="21" customHeight="1">
@@ -3079,23 +3080,23 @@
         <v>24</v>
       </c>
       <c r="B102" s="8">
-        <v>41471</v>
+        <v>41478</v>
       </c>
       <c r="C102">
-        <v>1.4658500000000001</v>
+        <v>1.4744999999999999</v>
       </c>
       <c r="D102">
-        <v>1.4776800000000001</v>
+        <v>1.4764600000000001</v>
       </c>
       <c r="E102">
-        <v>1.4422900000000001</v>
+        <v>1.4565399999999999</v>
       </c>
       <c r="F102">
-        <v>1.4732400000000001</v>
+        <v>1.47142</v>
       </c>
       <c r="H102">
         <f t="shared" si="1"/>
-        <v>4.1140000000000176</v>
+        <v>3.5390000000000033</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="21" customHeight="1">
@@ -3103,23 +3104,23 @@
         <v>24</v>
       </c>
       <c r="B103" s="8">
-        <v>41464</v>
+        <v>41471</v>
       </c>
       <c r="C103">
-        <v>1.50021</v>
+        <v>1.4658500000000001</v>
       </c>
       <c r="D103">
-        <v>1.5037400000000001</v>
+        <v>1.4776800000000001</v>
       </c>
       <c r="E103">
-        <v>1.4625999999999999</v>
+        <v>1.4422900000000001</v>
       </c>
       <c r="F103">
-        <v>1.46506</v>
+        <v>1.4732400000000001</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>
-        <v>2.7490000000000014</v>
+        <v>4.1140000000000176</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="21" customHeight="1">
@@ -3127,23 +3128,23 @@
         <v>24</v>
       </c>
       <c r="B104" s="8">
-        <v>41457</v>
+        <v>41464</v>
       </c>
       <c r="C104">
-        <v>1.48695</v>
+        <v>1.50021</v>
       </c>
       <c r="D104">
-        <v>1.50743</v>
+        <v>1.5037400000000001</v>
       </c>
       <c r="E104">
-        <v>1.47994</v>
+        <v>1.4625999999999999</v>
       </c>
       <c r="F104">
-        <v>1.49962</v>
+        <v>1.46506</v>
       </c>
       <c r="H104">
         <f t="shared" si="1"/>
-        <v>3.1630000000000047</v>
+        <v>2.7490000000000014</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="21" customHeight="1">
@@ -3151,23 +3152,23 @@
         <v>24</v>
       </c>
       <c r="B105" s="8">
-        <v>41450</v>
+        <v>41457</v>
       </c>
       <c r="C105">
-        <v>1.4791700000000001</v>
+        <v>1.48695</v>
       </c>
       <c r="D105">
-        <v>1.49979</v>
+        <v>1.50743</v>
       </c>
       <c r="E105">
-        <v>1.4681599999999999</v>
+        <v>1.47994</v>
       </c>
       <c r="F105">
-        <v>1.4852300000000001</v>
+        <v>1.49962</v>
       </c>
       <c r="H105">
         <f t="shared" si="1"/>
-        <v>1.880000000000015</v>
+        <v>3.1630000000000047</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="21" customHeight="1">
@@ -3175,23 +3176,23 @@
         <v>24</v>
       </c>
       <c r="B106" s="8">
-        <v>41443</v>
+        <v>41450</v>
       </c>
       <c r="C106">
-        <v>1.46898</v>
+        <v>1.4791700000000001</v>
       </c>
       <c r="D106">
-        <v>1.4814400000000001</v>
+        <v>1.49979</v>
       </c>
       <c r="E106">
-        <v>1.4626399999999999</v>
+        <v>1.4681599999999999</v>
       </c>
       <c r="F106">
-        <v>1.4791399999999999</v>
+        <v>1.4852300000000001</v>
       </c>
       <c r="H106">
         <f t="shared" si="1"/>
-        <v>2.4859999999999882</v>
+        <v>1.880000000000015</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="21" customHeight="1">
@@ -3199,23 +3200,23 @@
         <v>24</v>
       </c>
       <c r="B107" s="8">
-        <v>41436</v>
+        <v>41443</v>
       </c>
       <c r="C107">
-        <v>1.48743</v>
+        <v>1.46898</v>
       </c>
       <c r="D107">
-        <v>1.4908699999999999</v>
+        <v>1.4814400000000001</v>
       </c>
       <c r="E107">
-        <v>1.46601</v>
+        <v>1.4626399999999999</v>
       </c>
       <c r="F107">
-        <v>1.4688600000000001</v>
+        <v>1.4791399999999999</v>
       </c>
       <c r="H107">
         <f t="shared" si="1"/>
-        <v>3.6429999999999962</v>
+        <v>2.4859999999999882</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="21" customHeight="1">
@@ -3223,23 +3224,23 @@
         <v>24</v>
       </c>
       <c r="B108" s="8">
-        <v>41429</v>
+        <v>41436</v>
       </c>
       <c r="C108">
-        <v>1.5174700000000001</v>
+        <v>1.48743</v>
       </c>
       <c r="D108">
-        <v>1.51858</v>
+        <v>1.4908699999999999</v>
       </c>
       <c r="E108">
-        <v>1.4821500000000001</v>
+        <v>1.46601</v>
       </c>
       <c r="F108">
-        <v>1.48688</v>
+        <v>1.4688600000000001</v>
       </c>
       <c r="H108">
         <f t="shared" si="1"/>
-        <v>2.9880000000000129</v>
+        <v>3.6429999999999962</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="21" customHeight="1">
@@ -3247,23 +3248,23 @@
         <v>24</v>
       </c>
       <c r="B109" s="8">
-        <v>41422</v>
+        <v>41429</v>
       </c>
       <c r="C109">
-        <v>1.5019199999999999</v>
+        <v>1.5174700000000001</v>
       </c>
       <c r="D109">
-        <v>1.5226900000000001</v>
+        <v>1.51858</v>
       </c>
       <c r="E109">
-        <v>1.49281</v>
+        <v>1.4821500000000001</v>
       </c>
       <c r="F109">
-        <v>1.5153799999999999</v>
+        <v>1.48688</v>
       </c>
       <c r="H109">
         <f t="shared" si="1"/>
-        <v>1.7630000000000035</v>
+        <v>2.9880000000000129</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="21" customHeight="1">
@@ -3271,23 +3272,23 @@
         <v>24</v>
       </c>
       <c r="B110" s="8">
-        <v>41415</v>
+        <v>41422</v>
       </c>
       <c r="C110">
-        <v>1.5039100000000001</v>
+        <v>1.5019199999999999</v>
       </c>
       <c r="D110">
-        <v>1.5110399999999999</v>
+        <v>1.5226900000000001</v>
       </c>
       <c r="E110">
-        <v>1.4934099999999999</v>
+        <v>1.49281</v>
       </c>
       <c r="F110">
-        <v>1.5007999999999999</v>
+        <v>1.5153799999999999</v>
       </c>
       <c r="H110">
         <f t="shared" si="1"/>
-        <v>3.5980000000000123</v>
+        <v>1.7630000000000035</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="21" customHeight="1">
@@ -3295,23 +3296,23 @@
         <v>24</v>
       </c>
       <c r="B111" s="8">
-        <v>41408</v>
+        <v>41415</v>
       </c>
       <c r="C111">
-        <v>1.4783200000000001</v>
+        <v>1.5039100000000001</v>
       </c>
       <c r="D111">
-        <v>1.5075000000000001</v>
+        <v>1.5110399999999999</v>
       </c>
       <c r="E111">
-        <v>1.4715199999999999</v>
+        <v>1.4934099999999999</v>
       </c>
       <c r="F111">
-        <v>1.5024599999999999</v>
+        <v>1.5007999999999999</v>
       </c>
       <c r="H111">
         <f t="shared" si="1"/>
-        <v>2.0840000000000192</v>
+        <v>3.5980000000000123</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="21" customHeight="1">
@@ -3319,23 +3320,23 @@
         <v>24</v>
       </c>
       <c r="B112" s="8">
-        <v>41401</v>
+        <v>41408</v>
       </c>
       <c r="C112">
-        <v>1.48569</v>
+        <v>1.4783200000000001</v>
       </c>
       <c r="D112">
-        <v>1.4878800000000001</v>
+        <v>1.5075000000000001</v>
       </c>
       <c r="E112">
-        <v>1.4670399999999999</v>
+        <v>1.4715199999999999</v>
       </c>
       <c r="F112">
-        <v>1.4792700000000001</v>
+        <v>1.5024599999999999</v>
       </c>
       <c r="H112">
         <f t="shared" si="1"/>
-        <v>4.6699999999999964</v>
+        <v>2.0840000000000192</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="21" customHeight="1">
@@ -3343,23 +3344,23 @@
         <v>24</v>
       </c>
       <c r="B113" s="8">
-        <v>41394</v>
+        <v>41401</v>
       </c>
       <c r="C113">
-        <v>1.4559500000000001</v>
+        <v>1.48569</v>
       </c>
       <c r="D113">
-        <v>1.49105</v>
+        <v>1.4878800000000001</v>
       </c>
       <c r="E113">
-        <v>1.44435</v>
+        <v>1.4670399999999999</v>
       </c>
       <c r="F113">
-        <v>1.4821299999999999</v>
+        <v>1.4792700000000001</v>
       </c>
       <c r="H113">
         <f t="shared" si="1"/>
-        <v>3.3450000000000202</v>
+        <v>4.6699999999999964</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="21" customHeight="1">
@@ -3367,23 +3368,23 @@
         <v>24</v>
       </c>
       <c r="B114" s="8">
-        <v>41387</v>
+        <v>41394</v>
       </c>
       <c r="C114">
-        <v>1.4381200000000001</v>
+        <v>1.4559500000000001</v>
       </c>
       <c r="D114">
-        <v>1.4650700000000001</v>
+        <v>1.49105</v>
       </c>
       <c r="E114">
-        <v>1.4316199999999999</v>
+        <v>1.44435</v>
       </c>
       <c r="F114">
-        <v>1.4553</v>
+        <v>1.4821299999999999</v>
       </c>
       <c r="H114">
         <f t="shared" si="1"/>
-        <v>3.5279999999999978</v>
+        <v>3.3450000000000202</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="21" customHeight="1">
@@ -3391,23 +3392,23 @@
         <v>24</v>
       </c>
       <c r="B115" s="8">
-        <v>41380</v>
+        <v>41387</v>
       </c>
       <c r="C115">
-        <v>1.3998200000000001</v>
+        <v>1.4381200000000001</v>
       </c>
       <c r="D115">
-        <v>1.4335100000000001</v>
+        <v>1.4650700000000001</v>
       </c>
       <c r="E115">
-        <v>1.3982300000000001</v>
+        <v>1.4316199999999999</v>
       </c>
       <c r="F115">
-        <v>1.4212800000000001</v>
+        <v>1.4553</v>
       </c>
       <c r="H115">
         <f t="shared" si="1"/>
-        <v>2.1740000000000093</v>
+        <v>3.5279999999999978</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="21" customHeight="1">
@@ -3415,23 +3416,23 @@
         <v>24</v>
       </c>
       <c r="B116" s="8">
-        <v>41373</v>
+        <v>41380</v>
       </c>
       <c r="C116">
-        <v>1.41126</v>
+        <v>1.3998200000000001</v>
       </c>
       <c r="D116">
-        <v>1.4216800000000001</v>
+        <v>1.4335100000000001</v>
       </c>
       <c r="E116">
-        <v>1.39994</v>
+        <v>1.3982300000000001</v>
       </c>
       <c r="F116">
-        <v>1.40035</v>
+        <v>1.4212800000000001</v>
       </c>
       <c r="H116">
         <f t="shared" si="1"/>
-        <v>2.1790000000000198</v>
+        <v>2.1740000000000093</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="21" customHeight="1">
@@ -3439,23 +3440,23 @@
         <v>24</v>
       </c>
       <c r="B117" s="8">
-        <v>41366</v>
+        <v>41373</v>
       </c>
       <c r="C117">
-        <v>1.39649</v>
+        <v>1.41126</v>
       </c>
       <c r="D117">
-        <v>1.4178900000000001</v>
+        <v>1.4216800000000001</v>
       </c>
       <c r="E117">
-        <v>1.3960999999999999</v>
+        <v>1.39994</v>
       </c>
       <c r="F117">
-        <v>1.4120600000000001</v>
+        <v>1.40035</v>
       </c>
       <c r="H117">
         <f t="shared" si="1"/>
-        <v>3.7039999999999962</v>
+        <v>2.1790000000000198</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="21" customHeight="1">
@@ -3463,23 +3464,23 @@
         <v>24</v>
       </c>
       <c r="B118" s="8">
-        <v>41359</v>
+        <v>41366</v>
       </c>
       <c r="C118">
-        <v>1.4189700000000001</v>
+        <v>1.39649</v>
       </c>
       <c r="D118">
-        <v>1.4310099999999999</v>
+        <v>1.4178900000000001</v>
       </c>
       <c r="E118">
-        <v>1.3939699999999999</v>
+        <v>1.3960999999999999</v>
       </c>
       <c r="F118">
-        <v>1.39605</v>
+        <v>1.4120600000000001</v>
       </c>
       <c r="H118">
         <f t="shared" si="1"/>
-        <v>3.3469999999999889</v>
+        <v>3.7039999999999962</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="21" customHeight="1">
@@ -3487,23 +3488,23 @@
         <v>24</v>
       </c>
       <c r="B119" s="8">
-        <v>41352</v>
+        <v>41359</v>
       </c>
       <c r="C119">
-        <v>1.3945000000000001</v>
+        <v>1.4189700000000001</v>
       </c>
       <c r="D119">
-        <v>1.4208099999999999</v>
+        <v>1.4310099999999999</v>
       </c>
       <c r="E119">
-        <v>1.38734</v>
+        <v>1.3939699999999999</v>
       </c>
       <c r="F119">
-        <v>1.4166399999999999</v>
+        <v>1.39605</v>
       </c>
       <c r="H119">
         <f t="shared" si="1"/>
-        <v>3.0370000000000008</v>
+        <v>3.3469999999999889</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="21" customHeight="1">
@@ -3511,23 +3512,23 @@
         <v>24</v>
       </c>
       <c r="B120" s="8">
-        <v>41345</v>
+        <v>41352</v>
       </c>
       <c r="C120">
-        <v>1.4154500000000001</v>
+        <v>1.3945000000000001</v>
       </c>
       <c r="D120">
-        <v>1.41842</v>
+        <v>1.4208099999999999</v>
       </c>
       <c r="E120">
-        <v>1.38805</v>
+        <v>1.38734</v>
       </c>
       <c r="F120">
-        <v>1.39384</v>
+        <v>1.4166399999999999</v>
       </c>
       <c r="H120">
         <f t="shared" si="1"/>
-        <v>3.0460000000000154</v>
+        <v>3.0370000000000008</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="21" customHeight="1">
@@ -3535,23 +3536,23 @@
         <v>24</v>
       </c>
       <c r="B121" s="8">
-        <v>41338</v>
+        <v>41345</v>
       </c>
       <c r="C121">
-        <v>1.39778</v>
+        <v>1.4154500000000001</v>
       </c>
       <c r="D121">
-        <v>1.4179900000000001</v>
+        <v>1.41842</v>
       </c>
       <c r="E121">
-        <v>1.3875299999999999</v>
+        <v>1.38805</v>
       </c>
       <c r="F121">
-        <v>1.41483</v>
+        <v>1.39384</v>
       </c>
       <c r="H121">
         <f t="shared" si="1"/>
-        <v>2.7020000000000044</v>
+        <v>3.0460000000000154</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="21" customHeight="1">
@@ -3559,23 +3560,23 @@
         <v>24</v>
       </c>
       <c r="B122" s="8">
-        <v>41331</v>
+        <v>41338</v>
       </c>
       <c r="C122">
-        <v>1.3749400000000001</v>
+        <v>1.39778</v>
       </c>
       <c r="D122">
-        <v>1.39832</v>
+        <v>1.4179900000000001</v>
       </c>
       <c r="E122">
-        <v>1.3713</v>
+        <v>1.3875299999999999</v>
       </c>
       <c r="F122">
-        <v>1.3978999999999999</v>
+        <v>1.41483</v>
       </c>
       <c r="H122">
         <f t="shared" si="1"/>
-        <v>2.3599999999999843</v>
+        <v>2.7020000000000044</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="21" customHeight="1">
@@ -3583,23 +3584,23 @@
         <v>24</v>
       </c>
       <c r="B123" s="8">
-        <v>41324</v>
+        <v>41331</v>
       </c>
       <c r="C123">
-        <v>1.38219</v>
+        <v>1.3749400000000001</v>
       </c>
       <c r="D123">
-        <v>1.3862699999999999</v>
+        <v>1.39832</v>
       </c>
       <c r="E123">
-        <v>1.36267</v>
+        <v>1.3713</v>
       </c>
       <c r="F123">
-        <v>1.3765099999999999</v>
+        <v>1.3978999999999999</v>
       </c>
       <c r="H123">
         <f t="shared" si="1"/>
-        <v>1.7700000000000049</v>
+        <v>2.3599999999999843</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="21" customHeight="1">
@@ -3607,23 +3608,23 @@
         <v>24</v>
       </c>
       <c r="B124" s="8">
-        <v>41317</v>
+        <v>41324</v>
       </c>
       <c r="C124">
-        <v>1.3835599999999999</v>
+        <v>1.38219</v>
       </c>
       <c r="D124">
-        <v>1.39018</v>
+        <v>1.3862699999999999</v>
       </c>
       <c r="E124">
-        <v>1.3724799999999999</v>
+        <v>1.36267</v>
       </c>
       <c r="F124">
-        <v>1.3838299999999999</v>
+        <v>1.3765099999999999</v>
       </c>
       <c r="H124">
         <f t="shared" si="1"/>
-        <v>2.3619999999999974</v>
+        <v>1.7700000000000049</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="21" customHeight="1">
@@ -3631,23 +3632,23 @@
         <v>24</v>
       </c>
       <c r="B125" s="8">
-        <v>41310</v>
+        <v>41317</v>
       </c>
       <c r="C125">
-        <v>1.4053199999999999</v>
+        <v>1.3835599999999999</v>
       </c>
       <c r="D125">
-        <v>1.40757</v>
+        <v>1.39018</v>
       </c>
       <c r="E125">
-        <v>1.38395</v>
+        <v>1.3724799999999999</v>
       </c>
       <c r="F125">
-        <v>1.38581</v>
+        <v>1.3838299999999999</v>
       </c>
       <c r="H125">
         <f t="shared" si="1"/>
-        <v>2.9320000000000013</v>
+        <v>2.3619999999999974</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="21" customHeight="1">
@@ -3655,23 +3656,23 @@
         <v>24</v>
       </c>
       <c r="B126" s="8">
-        <v>41303</v>
+        <v>41310</v>
       </c>
       <c r="C126">
-        <v>1.4178200000000001</v>
+        <v>1.4053199999999999</v>
       </c>
       <c r="D126">
-        <v>1.42903</v>
+        <v>1.40757</v>
       </c>
       <c r="E126">
-        <v>1.39971</v>
+        <v>1.38395</v>
       </c>
       <c r="F126">
-        <v>1.4039999999999999</v>
+        <v>1.38581</v>
       </c>
       <c r="H126">
         <f t="shared" si="1"/>
-        <v>1.5430000000000055</v>
+        <v>2.9320000000000013</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="21" customHeight="1">
@@ -3679,23 +3680,23 @@
         <v>24</v>
       </c>
       <c r="B127" s="8">
-        <v>41296</v>
+        <v>41303</v>
       </c>
       <c r="C127">
-        <v>1.41578</v>
+        <v>1.4178200000000001</v>
       </c>
       <c r="D127">
-        <v>1.42757</v>
+        <v>1.42903</v>
       </c>
       <c r="E127">
-        <v>1.41214</v>
+        <v>1.39971</v>
       </c>
       <c r="F127">
-        <v>1.4173500000000001</v>
+        <v>1.4039999999999999</v>
       </c>
       <c r="H127">
         <f t="shared" si="1"/>
-        <v>1.8529999999999935</v>
+        <v>1.5430000000000055</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="21" customHeight="1">
@@ -3703,23 +3704,23 @@
         <v>24</v>
       </c>
       <c r="B128" s="8">
-        <v>41289</v>
+        <v>41296</v>
       </c>
       <c r="C128">
-        <v>1.4165300000000001</v>
+        <v>1.41578</v>
       </c>
       <c r="D128">
-        <v>1.42126</v>
+        <v>1.42757</v>
       </c>
       <c r="E128">
-        <v>1.40273</v>
+        <v>1.41214</v>
       </c>
       <c r="F128">
-        <v>1.4155899999999999</v>
+        <v>1.4173500000000001</v>
       </c>
       <c r="H128">
         <f t="shared" si="1"/>
-        <v>3.082000000000007</v>
+        <v>1.8529999999999935</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="21" customHeight="1">
@@ -3727,23 +3728,23 @@
         <v>24</v>
       </c>
       <c r="B129" s="8">
-        <v>41282</v>
+        <v>41289</v>
       </c>
       <c r="C129">
-        <v>1.4429799999999999</v>
+        <v>1.4165300000000001</v>
       </c>
       <c r="D129">
-        <v>1.44485</v>
+        <v>1.42126</v>
       </c>
       <c r="E129">
-        <v>1.4140299999999999</v>
+        <v>1.40273</v>
       </c>
       <c r="F129">
-        <v>1.4183699999999999</v>
+        <v>1.4155899999999999</v>
       </c>
       <c r="H129">
         <f t="shared" si="1"/>
-        <v>2.4270000000000014</v>
+        <v>3.082000000000007</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="21" customHeight="1">
@@ -3751,23 +3752,23 @@
         <v>24</v>
       </c>
       <c r="B130" s="8">
-        <v>41275</v>
+        <v>41282</v>
       </c>
       <c r="C130">
-        <v>1.45417</v>
+        <v>1.4429799999999999</v>
       </c>
       <c r="D130">
-        <v>1.45669</v>
+        <v>1.44485</v>
       </c>
       <c r="E130">
-        <v>1.43242</v>
+        <v>1.4140299999999999</v>
       </c>
       <c r="F130">
-        <v>1.4436599999999999</v>
+        <v>1.4183699999999999</v>
       </c>
       <c r="H130">
         <f t="shared" ref="H130:H193" si="2">ABS(D131-E131)*100</f>
-        <v>2.7329999999999854</v>
+        <v>2.4270000000000014</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="21" customHeight="1">
@@ -3775,23 +3776,23 @@
         <v>24</v>
       </c>
       <c r="B131" s="8">
-        <v>41268</v>
+        <v>41275</v>
       </c>
       <c r="C131">
-        <v>1.45522</v>
+        <v>1.45417</v>
       </c>
       <c r="D131">
-        <v>1.47281</v>
+        <v>1.45669</v>
       </c>
       <c r="E131">
-        <v>1.4454800000000001</v>
+        <v>1.43242</v>
       </c>
       <c r="F131">
-        <v>1.4593499999999999</v>
+        <v>1.4436599999999999</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
-        <v>3.0630000000000157</v>
+        <v>2.7329999999999854</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="21" customHeight="1">
@@ -3799,23 +3800,23 @@
         <v>24</v>
       </c>
       <c r="B132" s="8">
-        <v>41261</v>
+        <v>41268</v>
       </c>
       <c r="C132">
-        <v>1.43333</v>
+        <v>1.45522</v>
       </c>
       <c r="D132">
-        <v>1.4596800000000001</v>
+        <v>1.47281</v>
       </c>
       <c r="E132">
-        <v>1.4290499999999999</v>
+        <v>1.4454800000000001</v>
       </c>
       <c r="F132">
-        <v>1.45624</v>
+        <v>1.4593499999999999</v>
       </c>
       <c r="H132">
         <f t="shared" si="2"/>
-        <v>2.50999999999999</v>
+        <v>3.0630000000000157</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="21" customHeight="1">
@@ -3823,23 +3824,23 @@
         <v>24</v>
       </c>
       <c r="B133" s="8">
-        <v>41254</v>
+        <v>41261</v>
       </c>
       <c r="C133">
-        <v>1.41405</v>
+        <v>1.43333</v>
       </c>
       <c r="D133">
-        <v>1.43421</v>
+        <v>1.4596800000000001</v>
       </c>
       <c r="E133">
-        <v>1.4091100000000001</v>
+        <v>1.4290499999999999</v>
       </c>
       <c r="F133">
-        <v>1.43164</v>
+        <v>1.45624</v>
       </c>
       <c r="H133">
         <f t="shared" si="2"/>
-        <v>3.9380000000000193</v>
+        <v>2.50999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="21" customHeight="1">
@@ -3847,23 +3848,23 @@
         <v>24</v>
       </c>
       <c r="B134" s="8">
-        <v>41247</v>
+        <v>41254</v>
       </c>
       <c r="C134">
-        <v>1.4311199999999999</v>
+        <v>1.41405</v>
       </c>
       <c r="D134">
-        <v>1.4512400000000001</v>
+        <v>1.43421</v>
       </c>
       <c r="E134">
-        <v>1.4118599999999999</v>
+        <v>1.4091100000000001</v>
       </c>
       <c r="F134">
-        <v>1.4167400000000001</v>
+        <v>1.43164</v>
       </c>
       <c r="H134">
         <f t="shared" si="2"/>
-        <v>3.0030000000000001</v>
+        <v>3.9380000000000193</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="21" customHeight="1">
@@ -3871,23 +3872,23 @@
         <v>24</v>
       </c>
       <c r="B135" s="8">
-        <v>41240</v>
+        <v>41247</v>
       </c>
       <c r="C135">
-        <v>1.42517</v>
+        <v>1.4311199999999999</v>
       </c>
       <c r="D135">
-        <v>1.4436</v>
+        <v>1.4512400000000001</v>
       </c>
       <c r="E135">
-        <v>1.41357</v>
+        <v>1.4118599999999999</v>
       </c>
       <c r="F135">
-        <v>1.4309000000000001</v>
+        <v>1.4167400000000001</v>
       </c>
       <c r="H135">
         <f t="shared" si="2"/>
-        <v>3.0810000000000004</v>
+        <v>3.0030000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="21" customHeight="1">
@@ -3895,23 +3896,23 @@
         <v>24</v>
       </c>
       <c r="B136" s="8">
-        <v>41233</v>
+        <v>41240</v>
       </c>
       <c r="C136">
-        <v>1.4447000000000001</v>
+        <v>1.42517</v>
       </c>
       <c r="D136">
-        <v>1.4488399999999999</v>
+        <v>1.4436</v>
       </c>
       <c r="E136">
-        <v>1.4180299999999999</v>
+        <v>1.41357</v>
       </c>
       <c r="F136">
-        <v>1.42408</v>
+        <v>1.4309000000000001</v>
       </c>
       <c r="H136">
         <f t="shared" si="2"/>
-        <v>2.6699999999999946</v>
+        <v>3.0810000000000004</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="21" customHeight="1">
@@ -3919,23 +3920,23 @@
         <v>24</v>
       </c>
       <c r="B137" s="8">
-        <v>41226</v>
+        <v>41233</v>
       </c>
       <c r="C137">
-        <v>1.4352400000000001</v>
+        <v>1.4447000000000001</v>
       </c>
       <c r="D137">
-        <v>1.44469</v>
+        <v>1.4488399999999999</v>
       </c>
       <c r="E137">
-        <v>1.4179900000000001</v>
+        <v>1.4180299999999999</v>
       </c>
       <c r="F137">
-        <v>1.4433499999999999</v>
+        <v>1.42408</v>
       </c>
       <c r="H137">
         <f t="shared" si="2"/>
-        <v>8.0639999999999823</v>
+        <v>2.6699999999999946</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="21" customHeight="1">
@@ -3943,23 +3944,23 @@
         <v>24</v>
       </c>
       <c r="B138" s="8">
-        <v>41219</v>
+        <v>41226</v>
       </c>
       <c r="C138">
-        <v>1.43913</v>
+        <v>1.4352400000000001</v>
       </c>
       <c r="D138">
-        <v>1.4880199999999999</v>
+        <v>1.44469</v>
       </c>
       <c r="E138">
-        <v>1.4073800000000001</v>
+        <v>1.4179900000000001</v>
       </c>
       <c r="F138">
-        <v>1.4378200000000001</v>
+        <v>1.4433499999999999</v>
       </c>
       <c r="H138">
         <f t="shared" si="2"/>
-        <v>2.5899999999999812</v>
+        <v>8.0639999999999823</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="21" customHeight="1">
@@ -3967,23 +3968,23 @@
         <v>24</v>
       </c>
       <c r="B139" s="8">
-        <v>41212</v>
+        <v>41219</v>
       </c>
       <c r="C139">
-        <v>1.44523</v>
+        <v>1.43913</v>
       </c>
       <c r="D139">
-        <v>1.4557899999999999</v>
+        <v>1.4880199999999999</v>
       </c>
       <c r="E139">
-        <v>1.4298900000000001</v>
+        <v>1.4073800000000001</v>
       </c>
       <c r="F139">
-        <v>1.4506699999999999</v>
+        <v>1.4378200000000001</v>
       </c>
       <c r="H139">
         <f t="shared" si="2"/>
-        <v>3.5760000000000014</v>
+        <v>2.5899999999999812</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="21" customHeight="1">
@@ -3991,23 +3992,23 @@
         <v>24</v>
       </c>
       <c r="B140" s="8">
-        <v>41205</v>
+        <v>41212</v>
       </c>
       <c r="C140">
-        <v>1.4302600000000001</v>
+        <v>1.44523</v>
       </c>
       <c r="D140">
-        <v>1.44848</v>
+        <v>1.4557899999999999</v>
       </c>
       <c r="E140">
-        <v>1.41272</v>
+        <v>1.4298900000000001</v>
       </c>
       <c r="F140">
-        <v>1.44587</v>
+        <v>1.4506699999999999</v>
       </c>
       <c r="H140">
         <f t="shared" si="2"/>
-        <v>2.9379999999999962</v>
+        <v>3.5760000000000014</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="21" customHeight="1">
@@ -4015,23 +4016,23 @@
         <v>24</v>
       </c>
       <c r="B141" s="8">
-        <v>41198</v>
+        <v>41205</v>
       </c>
       <c r="C141">
-        <v>1.4394100000000001</v>
+        <v>1.4302600000000001</v>
       </c>
       <c r="D141">
-        <v>1.4475199999999999</v>
+        <v>1.44848</v>
       </c>
       <c r="E141">
-        <v>1.41814</v>
+        <v>1.41272</v>
       </c>
       <c r="F141">
-        <v>1.4308799999999999</v>
+        <v>1.44587</v>
       </c>
       <c r="H141">
         <f t="shared" si="2"/>
-        <v>3.5640000000000116</v>
+        <v>2.9379999999999962</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="21" customHeight="1">
@@ -4039,23 +4040,23 @@
         <v>24</v>
       </c>
       <c r="B142" s="8">
-        <v>41191</v>
+        <v>41198</v>
       </c>
       <c r="C142">
-        <v>1.4718199999999999</v>
+        <v>1.4394100000000001</v>
       </c>
       <c r="D142">
-        <v>1.4752700000000001</v>
+        <v>1.4475199999999999</v>
       </c>
       <c r="E142">
-        <v>1.43963</v>
+        <v>1.41814</v>
       </c>
       <c r="F142">
-        <v>1.4416500000000001</v>
+        <v>1.4308799999999999</v>
       </c>
       <c r="H142">
         <f t="shared" si="2"/>
-        <v>2.4359999999999937</v>
+        <v>3.5640000000000116</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="21" customHeight="1">
@@ -4063,23 +4064,23 @@
         <v>24</v>
       </c>
       <c r="B143" s="8">
-        <v>41184</v>
+        <v>41191</v>
       </c>
       <c r="C143">
-        <v>1.4667600000000001</v>
+        <v>1.4718199999999999</v>
       </c>
       <c r="D143">
-        <v>1.47787</v>
+        <v>1.4752700000000001</v>
       </c>
       <c r="E143">
-        <v>1.4535100000000001</v>
+        <v>1.43963</v>
       </c>
       <c r="F143">
-        <v>1.47614</v>
+        <v>1.4416500000000001</v>
       </c>
       <c r="H143">
         <f t="shared" si="2"/>
-        <v>2.2399999999999975</v>
+        <v>2.4359999999999937</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="21" customHeight="1">
@@ -4087,23 +4088,23 @@
         <v>24</v>
       </c>
       <c r="B144" s="8">
-        <v>41177</v>
+        <v>41184</v>
       </c>
       <c r="C144">
-        <v>1.4738599999999999</v>
+        <v>1.4667600000000001</v>
       </c>
       <c r="D144">
-        <v>1.4781</v>
+        <v>1.47787</v>
       </c>
       <c r="E144">
-        <v>1.4557</v>
+        <v>1.4535100000000001</v>
       </c>
       <c r="F144">
-        <v>1.4676199999999999</v>
+        <v>1.47614</v>
       </c>
       <c r="H144">
         <f t="shared" si="2"/>
-        <v>2.6830000000000132</v>
+        <v>2.2399999999999975</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="21" customHeight="1">
@@ -4111,23 +4112,23 @@
         <v>24</v>
       </c>
       <c r="B145" s="8">
-        <v>41170</v>
+        <v>41177</v>
       </c>
       <c r="C145">
-        <v>1.48977</v>
+        <v>1.4738599999999999</v>
       </c>
       <c r="D145">
-        <v>1.4900100000000001</v>
+        <v>1.4781</v>
       </c>
       <c r="E145">
-        <v>1.4631799999999999</v>
+        <v>1.4557</v>
       </c>
       <c r="F145">
-        <v>1.4730700000000001</v>
+        <v>1.4676199999999999</v>
       </c>
       <c r="H145">
         <f t="shared" si="2"/>
-        <v>2.513999999999994</v>
+        <v>2.6830000000000132</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="21" customHeight="1">
@@ -4135,23 +4136,23 @@
         <v>24</v>
       </c>
       <c r="B146" s="8">
-        <v>41163</v>
+        <v>41170</v>
       </c>
       <c r="C146">
-        <v>1.4892099999999999</v>
+        <v>1.48977</v>
       </c>
       <c r="D146">
-        <v>1.5095099999999999</v>
+        <v>1.4900100000000001</v>
       </c>
       <c r="E146">
-        <v>1.48437</v>
+        <v>1.4631799999999999</v>
       </c>
       <c r="F146">
-        <v>1.4889300000000001</v>
+        <v>1.4730700000000001</v>
       </c>
       <c r="H146">
         <f t="shared" si="2"/>
-        <v>3.2149999999999901</v>
+        <v>2.513999999999994</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="21" customHeight="1">
@@ -4159,23 +4160,23 @@
         <v>24</v>
       </c>
       <c r="B147" s="8">
-        <v>41156</v>
+        <v>41163</v>
       </c>
       <c r="C147">
-        <v>1.4725200000000001</v>
+        <v>1.4892099999999999</v>
       </c>
       <c r="D147">
-        <v>1.4901</v>
+        <v>1.5095099999999999</v>
       </c>
       <c r="E147">
-        <v>1.4579500000000001</v>
+        <v>1.48437</v>
       </c>
       <c r="F147">
-        <v>1.48997</v>
+        <v>1.4889300000000001</v>
       </c>
       <c r="H147">
         <f t="shared" si="2"/>
-        <v>1.3500000000000068</v>
+        <v>3.2149999999999901</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="21" customHeight="1">
@@ -4183,23 +4184,23 @@
         <v>24</v>
       </c>
       <c r="B148" s="8">
-        <v>41149</v>
+        <v>41156</v>
       </c>
       <c r="C148">
-        <v>1.4804999999999999</v>
+        <v>1.4725200000000001</v>
       </c>
       <c r="D148">
-        <v>1.4871700000000001</v>
+        <v>1.4901</v>
       </c>
       <c r="E148">
-        <v>1.47367</v>
+        <v>1.4579500000000001</v>
       </c>
       <c r="F148">
-        <v>1.4738599999999999</v>
+        <v>1.48997</v>
       </c>
       <c r="H148">
         <f t="shared" si="2"/>
-        <v>1.8220000000000125</v>
+        <v>1.3500000000000068</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="21" customHeight="1">
@@ -4207,23 +4208,23 @@
         <v>24</v>
       </c>
       <c r="B149" s="8">
-        <v>41142</v>
+        <v>41149</v>
       </c>
       <c r="C149">
-        <v>1.48661</v>
+        <v>1.4804999999999999</v>
       </c>
       <c r="D149">
-        <v>1.4877800000000001</v>
+        <v>1.4871700000000001</v>
       </c>
       <c r="E149">
-        <v>1.46956</v>
+        <v>1.47367</v>
       </c>
       <c r="F149">
-        <v>1.48044</v>
+        <v>1.4738599999999999</v>
       </c>
       <c r="H149">
         <f t="shared" si="2"/>
-        <v>3.4689999999999888</v>
+        <v>1.8220000000000125</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="21" customHeight="1">
@@ -4231,23 +4232,23 @@
         <v>24</v>
       </c>
       <c r="B150" s="8">
-        <v>41135</v>
+        <v>41142</v>
       </c>
       <c r="C150">
-        <v>1.4582299999999999</v>
+        <v>1.48661</v>
       </c>
       <c r="D150">
-        <v>1.48888</v>
+        <v>1.4877800000000001</v>
       </c>
       <c r="E150">
-        <v>1.4541900000000001</v>
+        <v>1.46956</v>
       </c>
       <c r="F150">
-        <v>1.48499</v>
+        <v>1.48044</v>
       </c>
       <c r="H150">
         <f t="shared" si="2"/>
-        <v>1.8319999999999892</v>
+        <v>3.4689999999999888</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="21" customHeight="1">
@@ -4255,23 +4256,23 @@
         <v>24</v>
       </c>
       <c r="B151" s="8">
-        <v>41128</v>
+        <v>41135</v>
       </c>
       <c r="C151">
-        <v>1.4574800000000001</v>
+        <v>1.4582299999999999</v>
       </c>
       <c r="D151">
-        <v>1.4604299999999999</v>
+        <v>1.48888</v>
       </c>
       <c r="E151">
-        <v>1.44211</v>
+        <v>1.4541900000000001</v>
       </c>
       <c r="F151">
-        <v>1.45963</v>
+        <v>1.48499</v>
       </c>
       <c r="H151">
         <f t="shared" si="2"/>
-        <v>4.1050000000000031</v>
+        <v>1.8319999999999892</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="21" customHeight="1">
@@ -4279,23 +4280,23 @@
         <v>24</v>
       </c>
       <c r="B152" s="8">
-        <v>41121</v>
+        <v>41128</v>
       </c>
       <c r="C152">
-        <v>1.47119</v>
+        <v>1.4574800000000001</v>
       </c>
       <c r="D152">
-        <v>1.4905600000000001</v>
+        <v>1.4604299999999999</v>
       </c>
       <c r="E152">
-        <v>1.4495100000000001</v>
+        <v>1.44211</v>
       </c>
       <c r="F152">
-        <v>1.4549700000000001</v>
+        <v>1.45963</v>
       </c>
       <c r="H152">
         <f t="shared" si="2"/>
-        <v>2.9420000000000002</v>
+        <v>4.1050000000000031</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="21" customHeight="1">
@@ -4303,23 +4304,23 @@
         <v>24</v>
       </c>
       <c r="B153" s="8">
-        <v>41114</v>
+        <v>41121</v>
       </c>
       <c r="C153">
-        <v>1.4700200000000001</v>
+        <v>1.47119</v>
       </c>
       <c r="D153">
-        <v>1.4812799999999999</v>
+        <v>1.4905600000000001</v>
       </c>
       <c r="E153">
-        <v>1.4518599999999999</v>
+        <v>1.4495100000000001</v>
       </c>
       <c r="F153">
-        <v>1.4702</v>
+        <v>1.4549700000000001</v>
       </c>
       <c r="H153">
         <f t="shared" si="2"/>
-        <v>2.6269999999999794</v>
+        <v>2.9420000000000002</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="21" customHeight="1">
@@ -4327,23 +4328,23 @@
         <v>24</v>
       </c>
       <c r="B154" s="8">
-        <v>41107</v>
+        <v>41114</v>
       </c>
       <c r="C154">
-        <v>1.4545999999999999</v>
+        <v>1.4700200000000001</v>
       </c>
       <c r="D154">
-        <v>1.4789699999999999</v>
+        <v>1.4812799999999999</v>
       </c>
       <c r="E154">
-        <v>1.4527000000000001</v>
+        <v>1.4518599999999999</v>
       </c>
       <c r="F154">
-        <v>1.46977</v>
+        <v>1.4702</v>
       </c>
       <c r="H154">
         <f t="shared" si="2"/>
-        <v>2.1589999999999998</v>
+        <v>2.6269999999999794</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="21" customHeight="1">
@@ -4351,23 +4352,23 @@
         <v>24</v>
       </c>
       <c r="B155" s="8">
-        <v>41100</v>
+        <v>41107</v>
       </c>
       <c r="C155">
-        <v>1.4613499999999999</v>
+        <v>1.4545999999999999</v>
       </c>
       <c r="D155">
-        <v>1.4695499999999999</v>
+        <v>1.4789699999999999</v>
       </c>
       <c r="E155">
-        <v>1.4479599999999999</v>
+        <v>1.4527000000000001</v>
       </c>
       <c r="F155">
-        <v>1.4578100000000001</v>
+        <v>1.46977</v>
       </c>
       <c r="H155">
         <f t="shared" si="2"/>
-        <v>3.4980000000000011</v>
+        <v>2.1589999999999998</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="21" customHeight="1">
@@ -4375,23 +4376,23 @@
         <v>24</v>
       </c>
       <c r="B156" s="8">
-        <v>41093</v>
+        <v>41100</v>
       </c>
       <c r="C156">
-        <v>1.4922200000000001</v>
+        <v>1.4613499999999999</v>
       </c>
       <c r="D156">
-        <v>1.4938400000000001</v>
+        <v>1.4695499999999999</v>
       </c>
       <c r="E156">
-        <v>1.45886</v>
+        <v>1.4479599999999999</v>
       </c>
       <c r="F156">
-        <v>1.4601299999999999</v>
+        <v>1.4578100000000001</v>
       </c>
       <c r="H156">
         <f t="shared" si="2"/>
-        <v>2.2499999999999964</v>
+        <v>3.4980000000000011</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="21" customHeight="1">
@@ -4399,23 +4400,23 @@
         <v>24</v>
       </c>
       <c r="B157" s="8">
-        <v>41086</v>
+        <v>41093</v>
       </c>
       <c r="C157">
-        <v>1.4857100000000001</v>
+        <v>1.4922200000000001</v>
       </c>
       <c r="D157">
-        <v>1.5047299999999999</v>
+        <v>1.4938400000000001</v>
       </c>
       <c r="E157">
-        <v>1.4822299999999999</v>
+        <v>1.45886</v>
       </c>
       <c r="F157">
-        <v>1.4862299999999999</v>
+        <v>1.4601299999999999</v>
       </c>
       <c r="H157">
         <f t="shared" si="2"/>
-        <v>4.9639999999999906</v>
+        <v>2.2499999999999964</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="21" customHeight="1">
@@ -4423,23 +4424,23 @@
         <v>24</v>
       </c>
       <c r="B158" s="8">
-        <v>41079</v>
+        <v>41086</v>
       </c>
       <c r="C158">
-        <v>1.52349</v>
+        <v>1.4857100000000001</v>
       </c>
       <c r="D158">
-        <v>1.5298499999999999</v>
+        <v>1.5047299999999999</v>
       </c>
       <c r="E158">
-        <v>1.48021</v>
+        <v>1.4822299999999999</v>
       </c>
       <c r="F158">
-        <v>1.48428</v>
+        <v>1.4862299999999999</v>
       </c>
       <c r="H158">
         <f t="shared" si="2"/>
-        <v>2.2759999999999891</v>
+        <v>4.9639999999999906</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="21" customHeight="1">
@@ -4447,23 +4448,23 @@
         <v>24</v>
       </c>
       <c r="B159" s="8">
-        <v>41072</v>
+        <v>41079</v>
       </c>
       <c r="C159">
-        <v>1.5257099999999999</v>
+        <v>1.52349</v>
       </c>
       <c r="D159">
-        <v>1.53647</v>
+        <v>1.5298499999999999</v>
       </c>
       <c r="E159">
-        <v>1.5137100000000001</v>
+        <v>1.48021</v>
       </c>
       <c r="F159">
-        <v>1.52529</v>
+        <v>1.48428</v>
       </c>
       <c r="H159">
         <f t="shared" si="2"/>
-        <v>3.2040000000000068</v>
+        <v>2.2759999999999891</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="21" customHeight="1">
@@ -4471,23 +4472,23 @@
         <v>24</v>
       </c>
       <c r="B160" s="8">
-        <v>41065</v>
+        <v>41072</v>
       </c>
       <c r="C160">
-        <v>1.5431999999999999</v>
+        <v>1.5257099999999999</v>
       </c>
       <c r="D160">
-        <v>1.55138</v>
+        <v>1.53647</v>
       </c>
       <c r="E160">
-        <v>1.5193399999999999</v>
+        <v>1.5137100000000001</v>
       </c>
       <c r="F160">
-        <v>1.52522</v>
+        <v>1.52529</v>
       </c>
       <c r="H160">
         <f t="shared" si="2"/>
-        <v>3.0380000000000074</v>
+        <v>3.2040000000000068</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="21" customHeight="1">
@@ -4495,23 +4496,23 @@
         <v>24</v>
       </c>
       <c r="B161" s="8">
-        <v>41058</v>
+        <v>41065</v>
       </c>
       <c r="C161">
-        <v>1.5476799999999999</v>
+        <v>1.5431999999999999</v>
       </c>
       <c r="D161">
-        <v>1.55416</v>
+        <v>1.55138</v>
       </c>
       <c r="E161">
-        <v>1.5237799999999999</v>
+        <v>1.5193399999999999</v>
       </c>
       <c r="F161">
-        <v>1.5419400000000001</v>
+        <v>1.52522</v>
       </c>
       <c r="H161">
         <f t="shared" si="2"/>
-        <v>1.9689999999999985</v>
+        <v>3.0380000000000074</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="21" customHeight="1">
@@ -4519,23 +4520,23 @@
         <v>24</v>
       </c>
       <c r="B162" s="8">
-        <v>41051</v>
+        <v>41058</v>
       </c>
       <c r="C162">
-        <v>1.55175</v>
+        <v>1.5476799999999999</v>
       </c>
       <c r="D162">
-        <v>1.5645199999999999</v>
+        <v>1.55416</v>
       </c>
       <c r="E162">
-        <v>1.5448299999999999</v>
+        <v>1.5237799999999999</v>
       </c>
       <c r="F162">
-        <v>1.5459000000000001</v>
+        <v>1.5419400000000001</v>
       </c>
       <c r="H162">
         <f t="shared" si="2"/>
-        <v>2.2860000000000102</v>
+        <v>1.9689999999999985</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="21" customHeight="1">
@@ -4543,23 +4544,23 @@
         <v>24</v>
       </c>
       <c r="B163" s="8">
-        <v>41044</v>
+        <v>41051</v>
       </c>
       <c r="C163">
-        <v>1.55694</v>
+        <v>1.55175</v>
       </c>
       <c r="D163">
-        <v>1.5595600000000001</v>
+        <v>1.5645199999999999</v>
       </c>
       <c r="E163">
-        <v>1.5367</v>
+        <v>1.5448299999999999</v>
       </c>
       <c r="F163">
-        <v>1.55294</v>
+        <v>1.5459000000000001</v>
       </c>
       <c r="H163">
         <f t="shared" si="2"/>
-        <v>2.092000000000005</v>
+        <v>2.2860000000000102</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="21" customHeight="1">
@@ -4567,23 +4568,23 @@
         <v>24</v>
       </c>
       <c r="B164" s="8">
-        <v>41037</v>
+        <v>41044</v>
       </c>
       <c r="C164">
-        <v>1.5472399999999999</v>
+        <v>1.55694</v>
       </c>
       <c r="D164">
-        <v>1.5603899999999999</v>
+        <v>1.5595600000000001</v>
       </c>
       <c r="E164">
-        <v>1.5394699999999999</v>
+        <v>1.5367</v>
       </c>
       <c r="F164">
-        <v>1.55565</v>
+        <v>1.55294</v>
       </c>
       <c r="H164">
         <f t="shared" si="2"/>
-        <v>6.3199999999999923</v>
+        <v>2.092000000000005</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="21" customHeight="1">
@@ -4591,23 +4592,23 @@
         <v>24</v>
       </c>
       <c r="B165" s="8">
-        <v>41030</v>
+        <v>41037</v>
       </c>
       <c r="C165">
-        <v>1.5060500000000001</v>
+        <v>1.5472399999999999</v>
       </c>
       <c r="D165">
-        <v>1.55664</v>
+        <v>1.5603899999999999</v>
       </c>
       <c r="E165">
-        <v>1.4934400000000001</v>
+        <v>1.5394699999999999</v>
       </c>
       <c r="F165">
-        <v>1.54732</v>
+        <v>1.55565</v>
       </c>
       <c r="H165">
         <f t="shared" si="2"/>
-        <v>5.2749999999999853</v>
+        <v>6.3199999999999923</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="21" customHeight="1">
@@ -4615,23 +4616,23 @@
         <v>24</v>
       </c>
       <c r="B166" s="8">
-        <v>41023</v>
+        <v>41030</v>
       </c>
       <c r="C166">
-        <v>1.4557</v>
+        <v>1.5060500000000001</v>
       </c>
       <c r="D166">
-        <v>1.5078499999999999</v>
+        <v>1.55664</v>
       </c>
       <c r="E166">
-        <v>1.4551000000000001</v>
+        <v>1.4934400000000001</v>
       </c>
       <c r="F166">
-        <v>1.50509</v>
+        <v>1.54732</v>
       </c>
       <c r="H166">
         <f t="shared" si="2"/>
-        <v>3.6950000000000038</v>
+        <v>5.2749999999999853</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="21" customHeight="1">
@@ -4639,23 +4640,23 @@
         <v>24</v>
       </c>
       <c r="B167" s="8">
-        <v>41016</v>
+        <v>41023</v>
       </c>
       <c r="C167">
-        <v>1.4735400000000001</v>
+        <v>1.4557</v>
       </c>
       <c r="D167">
-        <v>1.48038</v>
+        <v>1.5078499999999999</v>
       </c>
       <c r="E167">
-        <v>1.44343</v>
+        <v>1.4551000000000001</v>
       </c>
       <c r="F167">
-        <v>1.4570000000000001</v>
+        <v>1.50509</v>
       </c>
       <c r="H167">
         <f t="shared" si="2"/>
-        <v>5.9769999999999879</v>
+        <v>3.6950000000000038</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="21" customHeight="1">
@@ -4663,23 +4664,23 @@
         <v>24</v>
       </c>
       <c r="B168" s="8">
-        <v>41009</v>
+        <v>41016</v>
       </c>
       <c r="C168">
-        <v>1.5109399999999999</v>
+        <v>1.4735400000000001</v>
       </c>
       <c r="D168">
-        <v>1.5159199999999999</v>
+        <v>1.48038</v>
       </c>
       <c r="E168">
-        <v>1.4561500000000001</v>
+        <v>1.44343</v>
       </c>
       <c r="F168">
-        <v>1.4615400000000001</v>
+        <v>1.4570000000000001</v>
       </c>
       <c r="H168">
         <f t="shared" si="2"/>
-        <v>3.6789999999999878</v>
+        <v>5.9769999999999879</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="21" customHeight="1">
@@ -4687,23 +4688,23 @@
         <v>24</v>
       </c>
       <c r="B169" s="8">
-        <v>41002</v>
+        <v>41009</v>
       </c>
       <c r="C169">
-        <v>1.4841200000000001</v>
+        <v>1.5109399999999999</v>
       </c>
       <c r="D169">
-        <v>1.5202199999999999</v>
+        <v>1.5159199999999999</v>
       </c>
       <c r="E169">
-        <v>1.48343</v>
+        <v>1.4561500000000001</v>
       </c>
       <c r="F169">
-        <v>1.5093399999999999</v>
+        <v>1.4615400000000001</v>
       </c>
       <c r="H169">
         <f t="shared" si="2"/>
-        <v>2.5979999999999892</v>
+        <v>3.6789999999999878</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="21" customHeight="1">
@@ -4711,23 +4712,23 @@
         <v>24</v>
       </c>
       <c r="B170" s="8">
-        <v>40995</v>
+        <v>41002</v>
       </c>
       <c r="C170">
-        <v>1.4862899999999999</v>
+        <v>1.4841200000000001</v>
       </c>
       <c r="D170">
-        <v>1.4974499999999999</v>
+        <v>1.5202199999999999</v>
       </c>
       <c r="E170">
-        <v>1.4714700000000001</v>
+        <v>1.48343</v>
       </c>
       <c r="F170">
-        <v>1.4834000000000001</v>
+        <v>1.5093399999999999</v>
       </c>
       <c r="H170">
         <f t="shared" si="2"/>
-        <v>2.625999999999995</v>
+        <v>2.5979999999999892</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="21" customHeight="1">
@@ -4735,23 +4736,23 @@
         <v>24</v>
       </c>
       <c r="B171" s="8">
-        <v>40988</v>
+        <v>40995</v>
       </c>
       <c r="C171">
-        <v>1.48325</v>
+        <v>1.4862899999999999</v>
       </c>
       <c r="D171">
-        <v>1.49254</v>
+        <v>1.4974499999999999</v>
       </c>
       <c r="E171">
-        <v>1.46628</v>
+        <v>1.4714700000000001</v>
       </c>
       <c r="F171">
-        <v>1.48804</v>
+        <v>1.4834000000000001</v>
       </c>
       <c r="H171">
         <f t="shared" si="2"/>
-        <v>2.4240000000000039</v>
+        <v>2.625999999999995</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="21" customHeight="1">
@@ -4759,23 +4760,23 @@
         <v>24</v>
       </c>
       <c r="B172" s="8">
-        <v>40981</v>
+        <v>40988</v>
       </c>
       <c r="C172">
-        <v>1.4760200000000001</v>
+        <v>1.48325</v>
       </c>
       <c r="D172">
-        <v>1.49407</v>
+        <v>1.49254</v>
       </c>
       <c r="E172">
-        <v>1.46983</v>
+        <v>1.46628</v>
       </c>
       <c r="F172">
-        <v>1.4832000000000001</v>
+        <v>1.48804</v>
       </c>
       <c r="H172">
         <f t="shared" si="2"/>
-        <v>6.2109999999999888</v>
+        <v>2.4240000000000039</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="21" customHeight="1">
@@ -4783,23 +4784,23 @@
         <v>24</v>
       </c>
       <c r="B173" s="8">
-        <v>40974</v>
+        <v>40981</v>
       </c>
       <c r="C173">
-        <v>1.4842</v>
+        <v>1.4760200000000001</v>
       </c>
       <c r="D173">
-        <v>1.50874</v>
+        <v>1.49407</v>
       </c>
       <c r="E173">
-        <v>1.4466300000000001</v>
+        <v>1.46983</v>
       </c>
       <c r="F173">
-        <v>1.4758599999999999</v>
+        <v>1.4832000000000001</v>
       </c>
       <c r="H173">
         <f t="shared" si="2"/>
-        <v>6.4540000000000042</v>
+        <v>6.2109999999999888</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="21" customHeight="1">
@@ -4807,23 +4808,23 @@
         <v>24</v>
       </c>
       <c r="B174" s="8">
-        <v>40967</v>
+        <v>40974</v>
       </c>
       <c r="C174">
-        <v>1.53216</v>
+        <v>1.4842</v>
       </c>
       <c r="D174">
-        <v>1.5383100000000001</v>
+        <v>1.50874</v>
       </c>
       <c r="E174">
-        <v>1.47377</v>
+        <v>1.4466300000000001</v>
       </c>
       <c r="F174">
-        <v>1.4806299999999999</v>
+        <v>1.4758599999999999</v>
       </c>
       <c r="H174">
         <f t="shared" si="2"/>
-        <v>4.2470000000000008</v>
+        <v>6.4540000000000042</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="21" customHeight="1">
@@ -4831,23 +4832,23 @@
         <v>24</v>
       </c>
       <c r="B175" s="8">
-        <v>40960</v>
+        <v>40967</v>
       </c>
       <c r="C175">
-        <v>1.55261</v>
+        <v>1.53216</v>
       </c>
       <c r="D175">
-        <v>1.5584</v>
+        <v>1.5383100000000001</v>
       </c>
       <c r="E175">
-        <v>1.51593</v>
+        <v>1.47377</v>
       </c>
       <c r="F175">
-        <v>1.53392</v>
+        <v>1.4806299999999999</v>
       </c>
       <c r="H175">
         <f t="shared" si="2"/>
-        <v>3.6389999999999922</v>
+        <v>4.2470000000000008</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="21" customHeight="1">
@@ -4855,23 +4856,23 @@
         <v>24</v>
       </c>
       <c r="B176" s="8">
-        <v>40953</v>
+        <v>40960</v>
       </c>
       <c r="C176">
-        <v>1.5809899999999999</v>
+        <v>1.55261</v>
       </c>
       <c r="D176">
-        <v>1.5835999999999999</v>
+        <v>1.5584</v>
       </c>
       <c r="E176">
-        <v>1.54721</v>
+        <v>1.51593</v>
       </c>
       <c r="F176">
-        <v>1.5563100000000001</v>
+        <v>1.53392</v>
       </c>
       <c r="H176">
         <f t="shared" si="2"/>
-        <v>6.0170000000000057</v>
+        <v>3.6389999999999922</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="21" customHeight="1">
@@ -4879,23 +4880,23 @@
         <v>24</v>
       </c>
       <c r="B177" s="8">
-        <v>40946</v>
+        <v>40953</v>
       </c>
       <c r="C177">
-        <v>1.57467</v>
+        <v>1.5809899999999999</v>
       </c>
       <c r="D177">
-        <v>1.62497</v>
+        <v>1.5835999999999999</v>
       </c>
       <c r="E177">
-        <v>1.5648</v>
+        <v>1.54721</v>
       </c>
       <c r="F177">
-        <v>1.5838399999999999</v>
+        <v>1.5563100000000001</v>
       </c>
       <c r="H177">
         <f t="shared" si="2"/>
-        <v>5.0719999999999876</v>
+        <v>6.0170000000000057</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="21" customHeight="1">
@@ -4903,23 +4904,23 @@
         <v>24</v>
       </c>
       <c r="B178" s="8">
-        <v>40939</v>
+        <v>40946</v>
       </c>
       <c r="C178">
-        <v>1.5283</v>
+        <v>1.57467</v>
       </c>
       <c r="D178">
-        <v>1.5789299999999999</v>
+        <v>1.62497</v>
       </c>
       <c r="E178">
-        <v>1.5282100000000001</v>
+        <v>1.5648</v>
       </c>
       <c r="F178">
-        <v>1.57782</v>
+        <v>1.5838399999999999</v>
       </c>
       <c r="H178">
         <f t="shared" si="2"/>
-        <v>4.5609999999999928</v>
+        <v>5.0719999999999876</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="21" customHeight="1">
@@ -4927,23 +4928,23 @@
         <v>24</v>
       </c>
       <c r="B179" s="8">
-        <v>40932</v>
+        <v>40939</v>
       </c>
       <c r="C179">
-        <v>1.53949</v>
+        <v>1.5283</v>
       </c>
       <c r="D179">
-        <v>1.5704899999999999</v>
+        <v>1.5789299999999999</v>
       </c>
       <c r="E179">
-        <v>1.52488</v>
+        <v>1.5282100000000001</v>
       </c>
       <c r="F179">
-        <v>1.5301800000000001</v>
+        <v>1.57782</v>
       </c>
       <c r="H179">
         <f t="shared" si="2"/>
-        <v>7.1359999999999868</v>
+        <v>4.5609999999999928</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="21" customHeight="1">
@@ -4951,23 +4952,23 @@
         <v>24</v>
       </c>
       <c r="B180" s="8">
-        <v>40925</v>
+        <v>40932</v>
       </c>
       <c r="C180">
-        <v>1.5966400000000001</v>
+        <v>1.53949</v>
       </c>
       <c r="D180">
-        <v>1.6053299999999999</v>
+        <v>1.5704899999999999</v>
       </c>
       <c r="E180">
-        <v>1.5339700000000001</v>
+        <v>1.52488</v>
       </c>
       <c r="F180">
-        <v>1.5418700000000001</v>
+        <v>1.5301800000000001</v>
       </c>
       <c r="H180">
         <f t="shared" si="2"/>
-        <v>7.3500000000000121</v>
+        <v>7.1359999999999868</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="21" customHeight="1">
@@ -4975,23 +4976,23 @@
         <v>24</v>
       </c>
       <c r="B181" s="8">
-        <v>40918</v>
+        <v>40925</v>
       </c>
       <c r="C181">
-        <v>1.5658399999999999</v>
+        <v>1.5966400000000001</v>
       </c>
       <c r="D181">
-        <v>1.60762</v>
+        <v>1.6053299999999999</v>
       </c>
       <c r="E181">
-        <v>1.5341199999999999</v>
+        <v>1.5339700000000001</v>
       </c>
       <c r="F181">
-        <v>1.5875699999999999</v>
+        <v>1.5418700000000001</v>
       </c>
       <c r="H181">
         <f t="shared" si="2"/>
-        <v>8.1350000000000033</v>
+        <v>7.3500000000000121</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="21" customHeight="1">
@@ -4999,23 +5000,23 @@
         <v>24</v>
       </c>
       <c r="B182" s="8">
-        <v>40911</v>
+        <v>40918</v>
       </c>
       <c r="C182">
-        <v>1.4911700000000001</v>
+        <v>1.5658399999999999</v>
       </c>
       <c r="D182">
-        <v>1.5682400000000001</v>
+        <v>1.60762</v>
       </c>
       <c r="E182">
-        <v>1.48689</v>
+        <v>1.5341199999999999</v>
       </c>
       <c r="F182">
-        <v>1.5681799999999999</v>
+        <v>1.5875699999999999</v>
       </c>
       <c r="H182">
         <f t="shared" si="2"/>
-        <v>2.7789999999999981</v>
+        <v>8.1350000000000033</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="21" customHeight="1">
@@ -5023,23 +5024,23 @@
         <v>24</v>
       </c>
       <c r="B183" s="8">
-        <v>40904</v>
+        <v>40911</v>
       </c>
       <c r="C183">
-        <v>1.5021599999999999</v>
+        <v>1.4911700000000001</v>
       </c>
       <c r="D183">
-        <v>1.5140899999999999</v>
+        <v>1.5682400000000001</v>
       </c>
       <c r="E183">
-        <v>1.4863</v>
+        <v>1.48689</v>
       </c>
       <c r="F183">
-        <v>1.4925999999999999</v>
+        <v>1.5681799999999999</v>
       </c>
       <c r="H183">
         <f t="shared" si="2"/>
-        <v>2.2540000000000004</v>
+        <v>2.7789999999999981</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="21" customHeight="1">
@@ -5047,23 +5048,23 @@
         <v>24</v>
       </c>
       <c r="B184" s="8">
-        <v>40897</v>
+        <v>40904</v>
       </c>
       <c r="C184">
-        <v>1.5132300000000001</v>
+        <v>1.5021599999999999</v>
       </c>
       <c r="D184">
-        <v>1.5254399999999999</v>
+        <v>1.5140899999999999</v>
       </c>
       <c r="E184">
-        <v>1.5028999999999999</v>
+        <v>1.4863</v>
       </c>
       <c r="F184">
-        <v>1.5051300000000001</v>
+        <v>1.4925999999999999</v>
       </c>
       <c r="H184">
         <f t="shared" si="2"/>
-        <v>3.0270000000000019</v>
+        <v>2.2540000000000004</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="21" customHeight="1">
@@ -5071,23 +5072,23 @@
         <v>24</v>
       </c>
       <c r="B185" s="8">
-        <v>40890</v>
+        <v>40897</v>
       </c>
       <c r="C185">
-        <v>1.52437</v>
+        <v>1.5132300000000001</v>
       </c>
       <c r="D185">
-        <v>1.53346</v>
+        <v>1.5254399999999999</v>
       </c>
       <c r="E185">
-        <v>1.50319</v>
+        <v>1.5028999999999999</v>
       </c>
       <c r="F185">
-        <v>1.51467</v>
+        <v>1.5051300000000001</v>
       </c>
       <c r="H185">
         <f t="shared" si="2"/>
-        <v>5.5220000000000047</v>
+        <v>3.0270000000000019</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="21" customHeight="1">
@@ -5095,23 +5096,23 @@
         <v>24</v>
       </c>
       <c r="B186" s="8">
-        <v>40883</v>
+        <v>40890</v>
       </c>
       <c r="C186">
-        <v>1.4803900000000001</v>
+        <v>1.52437</v>
       </c>
       <c r="D186">
-        <v>1.5342800000000001</v>
+        <v>1.53346</v>
       </c>
       <c r="E186">
-        <v>1.47906</v>
+        <v>1.50319</v>
       </c>
       <c r="F186">
-        <v>1.5286999999999999</v>
+        <v>1.51467</v>
       </c>
       <c r="H186">
         <f t="shared" si="2"/>
-        <v>6.1870000000000092</v>
+        <v>5.5220000000000047</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="21" customHeight="1">
@@ -5119,23 +5120,23 @@
         <v>24</v>
       </c>
       <c r="B187" s="8">
-        <v>40876</v>
+        <v>40883</v>
       </c>
       <c r="C187">
-        <v>1.4720299999999999</v>
+        <v>1.4803900000000001</v>
       </c>
       <c r="D187">
-        <v>1.49665</v>
+        <v>1.5342800000000001</v>
       </c>
       <c r="E187">
-        <v>1.4347799999999999</v>
+        <v>1.47906</v>
       </c>
       <c r="F187">
-        <v>1.48193</v>
+        <v>1.5286999999999999</v>
       </c>
       <c r="H187">
         <f t="shared" si="2"/>
-        <v>2.4540000000000006</v>
+        <v>6.1870000000000092</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="21" customHeight="1">
@@ -5143,23 +5144,23 @@
         <v>24</v>
       </c>
       <c r="B188" s="8">
-        <v>40869</v>
+        <v>40876</v>
       </c>
       <c r="C188">
-        <v>1.4710300000000001</v>
+        <v>1.4720299999999999</v>
       </c>
       <c r="D188">
-        <v>1.48323</v>
+        <v>1.49665</v>
       </c>
       <c r="E188">
-        <v>1.45869</v>
+        <v>1.4347799999999999</v>
       </c>
       <c r="F188">
-        <v>1.47305</v>
+        <v>1.48193</v>
       </c>
       <c r="H188">
         <f t="shared" si="2"/>
-        <v>4.3590000000000018</v>
+        <v>2.4540000000000006</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="21" customHeight="1">
@@ -5167,23 +5168,23 @@
         <v>24</v>
       </c>
       <c r="B189" s="8">
-        <v>40862</v>
+        <v>40869</v>
       </c>
       <c r="C189">
-        <v>1.50729</v>
+        <v>1.4710300000000001</v>
       </c>
       <c r="D189">
-        <v>1.5137700000000001</v>
+        <v>1.48323</v>
       </c>
       <c r="E189">
-        <v>1.47018</v>
+        <v>1.45869</v>
       </c>
       <c r="F189">
-        <v>1.47136</v>
+        <v>1.47305</v>
       </c>
       <c r="H189">
         <f t="shared" si="2"/>
-        <v>3.0220000000000136</v>
+        <v>4.3590000000000018</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="21" customHeight="1">
@@ -5191,23 +5192,23 @@
         <v>24</v>
       </c>
       <c r="B190" s="8">
-        <v>40855</v>
+        <v>40862</v>
       </c>
       <c r="C190">
-        <v>1.5267299999999999</v>
+        <v>1.50729</v>
       </c>
       <c r="D190">
-        <v>1.5287500000000001</v>
+        <v>1.5137700000000001</v>
       </c>
       <c r="E190">
-        <v>1.4985299999999999</v>
+        <v>1.47018</v>
       </c>
       <c r="F190">
-        <v>1.50946</v>
+        <v>1.47136</v>
       </c>
       <c r="H190">
         <f t="shared" si="2"/>
-        <v>4.1050000000000031</v>
+        <v>3.0220000000000136</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="21" customHeight="1">
@@ -5215,23 +5216,23 @@
         <v>24</v>
       </c>
       <c r="B191" s="8">
-        <v>40848</v>
+        <v>40855</v>
       </c>
       <c r="C191">
-        <v>1.55037</v>
+        <v>1.5267299999999999</v>
       </c>
       <c r="D191">
-        <v>1.55043</v>
+        <v>1.5287500000000001</v>
       </c>
       <c r="E191">
-        <v>1.5093799999999999</v>
+        <v>1.4985299999999999</v>
       </c>
       <c r="F191">
-        <v>1.52437</v>
+        <v>1.50946</v>
       </c>
       <c r="H191">
         <f t="shared" si="2"/>
-        <v>4.0979999999999794</v>
+        <v>4.1050000000000031</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="21" customHeight="1">
@@ -5239,23 +5240,23 @@
         <v>24</v>
       </c>
       <c r="B192" s="8">
-        <v>40841</v>
+        <v>40848</v>
       </c>
       <c r="C192">
-        <v>1.5257400000000001</v>
+        <v>1.55037</v>
       </c>
       <c r="D192">
-        <v>1.5575699999999999</v>
+        <v>1.55043</v>
       </c>
       <c r="E192">
-        <v>1.5165900000000001</v>
+        <v>1.5093799999999999</v>
       </c>
       <c r="F192">
-        <v>1.5414699999999999</v>
+        <v>1.52437</v>
       </c>
       <c r="H192">
         <f t="shared" si="2"/>
-        <v>6.0159999999999991</v>
+        <v>4.0979999999999794</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="21" customHeight="1">
@@ -5263,23 +5264,23 @@
         <v>24</v>
       </c>
       <c r="B193" s="8">
-        <v>40834</v>
+        <v>40841</v>
       </c>
       <c r="C193">
-        <v>1.5629599999999999</v>
+        <v>1.5257400000000001</v>
       </c>
       <c r="D193">
-        <v>1.5789899999999999</v>
+        <v>1.5575699999999999</v>
       </c>
       <c r="E193">
-        <v>1.5188299999999999</v>
+        <v>1.5165900000000001</v>
       </c>
       <c r="F193">
-        <v>1.52573</v>
+        <v>1.5414699999999999</v>
       </c>
       <c r="H193">
         <f t="shared" si="2"/>
-        <v>4.2289999999999939</v>
+        <v>6.0159999999999991</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="21" customHeight="1">
@@ -5287,23 +5288,23 @@
         <v>24</v>
       </c>
       <c r="B194" s="8">
-        <v>40827</v>
+        <v>40834</v>
       </c>
       <c r="C194">
-        <v>1.55105</v>
+        <v>1.5629599999999999</v>
       </c>
       <c r="D194">
-        <v>1.58205</v>
+        <v>1.5789899999999999</v>
       </c>
       <c r="E194">
-        <v>1.53976</v>
+        <v>1.5188299999999999</v>
       </c>
       <c r="F194">
-        <v>1.5606100000000001</v>
+        <v>1.52573</v>
       </c>
       <c r="H194">
         <f t="shared" ref="H194:H199" si="3">ABS(D195-E195)*100</f>
-        <v>4.8089999999999966</v>
+        <v>4.2289999999999939</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="21" customHeight="1">
@@ -5311,23 +5312,23 @@
         <v>24</v>
       </c>
       <c r="B195" s="8">
-        <v>40820</v>
+        <v>40827</v>
       </c>
       <c r="C195">
-        <v>1.58884</v>
+        <v>1.55105</v>
       </c>
       <c r="D195">
-        <v>1.5933999999999999</v>
+        <v>1.58205</v>
       </c>
       <c r="E195">
-        <v>1.54531</v>
+        <v>1.53976</v>
       </c>
       <c r="F195">
-        <v>1.54952</v>
+        <v>1.5606100000000001</v>
       </c>
       <c r="H195">
         <f t="shared" si="3"/>
-        <v>5.0900000000000167</v>
+        <v>4.8089999999999966</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="21" customHeight="1">
@@ -5335,23 +5336,23 @@
         <v>24</v>
       </c>
       <c r="B196" s="8">
-        <v>40813</v>
+        <v>40820</v>
       </c>
       <c r="C196">
-        <v>1.5932599999999999</v>
+        <v>1.58884</v>
       </c>
       <c r="D196">
-        <v>1.6249800000000001</v>
+        <v>1.5933999999999999</v>
       </c>
       <c r="E196">
-        <v>1.5740799999999999</v>
+        <v>1.54531</v>
       </c>
       <c r="F196">
-        <v>1.5911200000000001</v>
+        <v>1.54952</v>
       </c>
       <c r="H196">
         <f t="shared" si="3"/>
-        <v>5.8840000000000003</v>
+        <v>5.0900000000000167</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="21" customHeight="1">
@@ -5359,23 +5360,23 @@
         <v>24</v>
       </c>
       <c r="B197" s="8">
-        <v>40806</v>
+        <v>40813</v>
       </c>
       <c r="C197">
-        <v>1.56992</v>
+        <v>1.5932599999999999</v>
       </c>
       <c r="D197">
-        <v>1.61894</v>
+        <v>1.6249800000000001</v>
       </c>
       <c r="E197">
-        <v>1.5601</v>
+        <v>1.5740799999999999</v>
       </c>
       <c r="F197">
-        <v>1.59504</v>
+        <v>1.5911200000000001</v>
       </c>
       <c r="H197">
         <f t="shared" si="3"/>
-        <v>4.045999999999994</v>
+        <v>5.8840000000000003</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="21" customHeight="1">
@@ -5383,23 +5384,23 @@
         <v>24</v>
       </c>
       <c r="B198" s="8">
-        <v>40799</v>
+        <v>40806</v>
       </c>
       <c r="C198">
-        <v>1.5995600000000001</v>
+        <v>1.56992</v>
       </c>
       <c r="D198">
-        <v>1.60663</v>
+        <v>1.61894</v>
       </c>
       <c r="E198">
-        <v>1.5661700000000001</v>
+        <v>1.5601</v>
       </c>
       <c r="F198">
-        <v>1.56887</v>
+        <v>1.59504</v>
       </c>
       <c r="H198">
         <f t="shared" si="3"/>
-        <v>3.990999999999989</v>
+        <v>4.045999999999994</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="21" customHeight="1">
@@ -5407,23 +5408,23 @@
         <v>24</v>
       </c>
       <c r="B199" s="8">
-        <v>40792</v>
+        <v>40799</v>
       </c>
       <c r="C199">
-        <v>1.6126400000000001</v>
+        <v>1.5995600000000001</v>
       </c>
       <c r="D199">
-        <v>1.6175999999999999</v>
+        <v>1.60663</v>
       </c>
       <c r="E199">
-        <v>1.57769</v>
+        <v>1.5661700000000001</v>
       </c>
       <c r="F199">
-        <v>1.5984400000000001</v>
+        <v>1.56887</v>
       </c>
       <c r="H199">
         <f t="shared" si="3"/>
-        <v>5.5779999999999941</v>
+        <v>3.990999999999989</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="21" customHeight="1">
@@ -5431,19 +5432,19 @@
         <v>24</v>
       </c>
       <c r="B200" s="8">
-        <v>40785</v>
+        <v>40792</v>
       </c>
       <c r="C200">
-        <v>1.5597300000000001</v>
+        <v>1.6126400000000001</v>
       </c>
       <c r="D200">
-        <v>1.61527</v>
+        <v>1.6175999999999999</v>
       </c>
       <c r="E200">
-        <v>1.55949</v>
+        <v>1.57769</v>
       </c>
       <c r="F200">
-        <v>1.6124700000000001</v>
+        <v>1.5984400000000001</v>
       </c>
     </row>
   </sheetData>

--- a/volatility/src/xls/24_EURAUD.xlsx
+++ b/volatility/src/xls/24_EURAUD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14180" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
+    <workbookView xWindow="680" yWindow="-80" windowWidth="19800" windowHeight="20980" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -525,7 +525,7 @@
         <v>1000</v>
       </c>
       <c r="C2" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
         <v>75.8</v>
@@ -554,11 +554,11 @@
     <row r="6" spans="2:11" ht="24" customHeight="1">
       <c r="B6" s="5">
         <f>sub!J1</f>
-        <v>2.1534999999999971</v>
+        <v>2.1639999999999993</v>
       </c>
       <c r="C6" s="5">
         <f>ROUND(B2*10000*(100/D2)*(1/B6)/100*C2,0)</f>
-        <v>36757</v>
+        <v>60964</v>
       </c>
       <c r="E6" s="5">
         <v>161.6</v>
@@ -625,7 +625,6 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -668,11 +667,11 @@
       </c>
       <c r="H1">
         <f>ABS(D2-E2)*100</f>
-        <v>2.2340000000000027</v>
+        <v>2.3449999999999971</v>
       </c>
       <c r="J1">
         <f>MEDIAN(H1:H52)</f>
-        <v>2.1534999999999971</v>
+        <v>2.1639999999999993</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
@@ -680,23 +679,23 @@
         <v>24</v>
       </c>
       <c r="B2" s="8">
-        <v>42178</v>
+        <v>42185</v>
       </c>
       <c r="C2">
-        <v>1.6407</v>
+        <v>1.61632</v>
       </c>
       <c r="D2">
-        <v>1.64116</v>
+        <v>1.6258900000000001</v>
       </c>
       <c r="E2">
-        <v>1.6188199999999999</v>
+        <v>1.6024400000000001</v>
       </c>
       <c r="F2">
-        <v>1.6193500000000001</v>
+        <v>1.60815</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H65" si="0">ABS(D3-E3)*100</f>
-        <v>1.8310000000000048</v>
+        <v>2.2340000000000027</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
@@ -704,23 +703,23 @@
         <v>24</v>
       </c>
       <c r="B3" s="8">
-        <v>42171</v>
+        <v>42178</v>
       </c>
       <c r="C3">
-        <v>1.6309199999999999</v>
+        <v>1.6407</v>
       </c>
       <c r="D3">
-        <v>1.6448</v>
+        <v>1.64116</v>
       </c>
       <c r="E3">
-        <v>1.62649</v>
+        <v>1.6188199999999999</v>
       </c>
       <c r="F3">
-        <v>1.6410199999999999</v>
+        <v>1.6193500000000001</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>1.915</v>
+        <v>1.8310000000000048</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
@@ -728,23 +727,23 @@
         <v>24</v>
       </c>
       <c r="B4" s="8">
-        <v>42164</v>
+        <v>42171</v>
       </c>
       <c r="C4">
-        <v>1.61727</v>
+        <v>1.6309199999999999</v>
       </c>
       <c r="D4">
-        <v>1.63632</v>
+        <v>1.6448</v>
       </c>
       <c r="E4">
-        <v>1.61717</v>
+        <v>1.62649</v>
       </c>
       <c r="F4">
-        <v>1.63073</v>
+        <v>1.6410199999999999</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>1.2949999999999795</v>
+        <v>1.915</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
@@ -752,23 +751,23 @@
         <v>24</v>
       </c>
       <c r="B5" s="8">
-        <v>42157</v>
+        <v>42164</v>
       </c>
       <c r="C5">
-        <v>1.6106499999999999</v>
+        <v>1.61727</v>
       </c>
       <c r="D5">
-        <v>1.6197299999999999</v>
+        <v>1.63632</v>
       </c>
       <c r="E5">
-        <v>1.6067800000000001</v>
+        <v>1.61717</v>
       </c>
       <c r="F5">
-        <v>1.61944</v>
+        <v>1.63073</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>1.3720000000000176</v>
+        <v>1.2949999999999795</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
@@ -776,23 +775,23 @@
         <v>24</v>
       </c>
       <c r="B6" s="8">
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="C6">
-        <v>1.6177699999999999</v>
+        <v>1.6106499999999999</v>
       </c>
       <c r="D6">
-        <v>1.6187400000000001</v>
+        <v>1.6197299999999999</v>
       </c>
       <c r="E6">
-        <v>1.6050199999999999</v>
+        <v>1.6067800000000001</v>
       </c>
       <c r="F6">
-        <v>1.6101300000000001</v>
+        <v>1.61944</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>1.5509999999999913</v>
+        <v>1.3720000000000176</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
@@ -800,23 +799,23 @@
         <v>24</v>
       </c>
       <c r="B7" s="8">
-        <v>42143</v>
+        <v>42150</v>
       </c>
       <c r="C7">
-        <v>1.61711</v>
+        <v>1.6177699999999999</v>
       </c>
       <c r="D7">
-        <v>1.6251199999999999</v>
+        <v>1.6187400000000001</v>
       </c>
       <c r="E7">
-        <v>1.60961</v>
+        <v>1.6050199999999999</v>
       </c>
       <c r="F7">
-        <v>1.61761</v>
+        <v>1.6101300000000001</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>2.1830000000000016</v>
+        <v>1.5509999999999913</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
@@ -824,23 +823,23 @@
         <v>24</v>
       </c>
       <c r="B8" s="8">
-        <v>42136</v>
+        <v>42143</v>
       </c>
       <c r="C8">
-        <v>1.6055900000000001</v>
+        <v>1.61711</v>
       </c>
       <c r="D8">
-        <v>1.62618</v>
+        <v>1.6251199999999999</v>
       </c>
       <c r="E8">
-        <v>1.6043499999999999</v>
+        <v>1.60961</v>
       </c>
       <c r="F8">
-        <v>1.6245799999999999</v>
+        <v>1.61761</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>2.1660000000000013</v>
+        <v>2.1830000000000016</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
@@ -848,23 +847,23 @@
         <v>24</v>
       </c>
       <c r="B9" s="8">
-        <v>42129</v>
+        <v>42136</v>
       </c>
       <c r="C9">
-        <v>1.6003799999999999</v>
+        <v>1.6055900000000001</v>
       </c>
       <c r="D9">
-        <v>1.61209</v>
+        <v>1.62618</v>
       </c>
       <c r="E9">
-        <v>1.59043</v>
+        <v>1.6043499999999999</v>
       </c>
       <c r="F9">
-        <v>1.60507</v>
+        <v>1.6245799999999999</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>1.8839999999999968</v>
+        <v>2.1660000000000013</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
@@ -872,23 +871,23 @@
         <v>24</v>
       </c>
       <c r="B10" s="8">
-        <v>42122</v>
+        <v>42129</v>
       </c>
       <c r="C10">
-        <v>1.5829299999999999</v>
+        <v>1.6003799999999999</v>
       </c>
       <c r="D10">
-        <v>1.5993999999999999</v>
+        <v>1.61209</v>
       </c>
       <c r="E10">
-        <v>1.58056</v>
+        <v>1.59043</v>
       </c>
       <c r="F10">
-        <v>1.59494</v>
+        <v>1.60507</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>2.4299999999999988</v>
+        <v>1.8839999999999968</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
@@ -896,23 +895,23 @@
         <v>24</v>
       </c>
       <c r="B11" s="8">
-        <v>42115</v>
+        <v>42122</v>
       </c>
       <c r="C11">
-        <v>1.57239</v>
+        <v>1.5829299999999999</v>
       </c>
       <c r="D11">
-        <v>1.59585</v>
+        <v>1.5993999999999999</v>
       </c>
       <c r="E11">
-        <v>1.57155</v>
+        <v>1.58056</v>
       </c>
       <c r="F11">
-        <v>1.58277</v>
+        <v>1.59494</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>1.5079999999999982</v>
+        <v>2.4299999999999988</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
@@ -920,23 +919,23 @@
         <v>24</v>
       </c>
       <c r="B12" s="8">
-        <v>42108</v>
+        <v>42115</v>
       </c>
       <c r="C12">
-        <v>1.5745100000000001</v>
+        <v>1.57239</v>
       </c>
       <c r="D12">
-        <v>1.58342</v>
+        <v>1.59585</v>
       </c>
       <c r="E12">
-        <v>1.5683400000000001</v>
+        <v>1.57155</v>
       </c>
       <c r="F12">
-        <v>1.5719000000000001</v>
+        <v>1.58277</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>1.3889999999999958</v>
+        <v>1.5079999999999982</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
@@ -944,23 +943,23 @@
         <v>24</v>
       </c>
       <c r="B13" s="8">
-        <v>42101</v>
+        <v>42108</v>
       </c>
       <c r="C13">
-        <v>1.5774999999999999</v>
+        <v>1.5745100000000001</v>
       </c>
       <c r="D13">
-        <v>1.5852299999999999</v>
+        <v>1.58342</v>
       </c>
       <c r="E13">
-        <v>1.57134</v>
+        <v>1.5683400000000001</v>
       </c>
       <c r="F13">
-        <v>1.57511</v>
+        <v>1.5719000000000001</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>1.6510000000000025</v>
+        <v>1.3889999999999958</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
@@ -968,23 +967,23 @@
         <v>24</v>
       </c>
       <c r="B14" s="8">
-        <v>42094</v>
+        <v>42101</v>
       </c>
       <c r="C14">
-        <v>1.57881</v>
+        <v>1.5774999999999999</v>
       </c>
       <c r="D14">
-        <v>1.58789</v>
+        <v>1.5852299999999999</v>
       </c>
       <c r="E14">
-        <v>1.57138</v>
+        <v>1.57134</v>
       </c>
       <c r="F14">
-        <v>1.5787</v>
+        <v>1.57511</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>2.022999999999997</v>
+        <v>1.6510000000000025</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
@@ -992,23 +991,23 @@
         <v>24</v>
       </c>
       <c r="B15" s="8">
-        <v>42087</v>
+        <v>42094</v>
       </c>
       <c r="C15">
-        <v>1.5948800000000001</v>
+        <v>1.57881</v>
       </c>
       <c r="D15">
-        <v>1.59823</v>
+        <v>1.58789</v>
       </c>
       <c r="E15">
-        <v>1.5780000000000001</v>
+        <v>1.57138</v>
       </c>
       <c r="F15">
-        <v>1.57982</v>
+        <v>1.5787</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>1.8969999999999931</v>
+        <v>2.022999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
@@ -1016,23 +1015,23 @@
         <v>24</v>
       </c>
       <c r="B16" s="8">
-        <v>42080</v>
+        <v>42087</v>
       </c>
       <c r="C16">
-        <v>1.59789</v>
+        <v>1.5948800000000001</v>
       </c>
       <c r="D16">
-        <v>1.6076999999999999</v>
+        <v>1.59823</v>
       </c>
       <c r="E16">
-        <v>1.58873</v>
+        <v>1.5780000000000001</v>
       </c>
       <c r="F16">
-        <v>1.59596</v>
+        <v>1.57982</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>1.6230000000000189</v>
+        <v>1.8969999999999931</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1">
@@ -1040,23 +1039,23 @@
         <v>24</v>
       </c>
       <c r="B17" s="8">
-        <v>42073</v>
+        <v>42080</v>
       </c>
       <c r="C17">
-        <v>1.5965400000000001</v>
+        <v>1.59789</v>
       </c>
       <c r="D17">
-        <v>1.6056600000000001</v>
+        <v>1.6076999999999999</v>
       </c>
       <c r="E17">
-        <v>1.5894299999999999</v>
+        <v>1.58873</v>
       </c>
       <c r="F17">
-        <v>1.5989</v>
+        <v>1.59596</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>1.9179999999999975</v>
+        <v>1.6230000000000189</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
@@ -1064,23 +1063,23 @@
         <v>24</v>
       </c>
       <c r="B18" s="8">
-        <v>42066</v>
+        <v>42073</v>
       </c>
       <c r="C18">
-        <v>1.59982</v>
+        <v>1.5965400000000001</v>
       </c>
       <c r="D18">
-        <v>1.6121300000000001</v>
+        <v>1.6056600000000001</v>
       </c>
       <c r="E18">
-        <v>1.5929500000000001</v>
+        <v>1.5894299999999999</v>
       </c>
       <c r="F18">
-        <v>1.5942799999999999</v>
+        <v>1.5989</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>2.6250000000000107</v>
+        <v>1.9179999999999975</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1">
@@ -1088,23 +1087,23 @@
         <v>24</v>
       </c>
       <c r="B19" s="8">
-        <v>42059</v>
+        <v>42066</v>
       </c>
       <c r="C19">
-        <v>1.5877399999999999</v>
+        <v>1.59982</v>
       </c>
       <c r="D19">
-        <v>1.6071800000000001</v>
+        <v>1.6121300000000001</v>
       </c>
       <c r="E19">
-        <v>1.5809299999999999</v>
+        <v>1.5929500000000001</v>
       </c>
       <c r="F19">
-        <v>1.60588</v>
+        <v>1.5942799999999999</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>2.7660000000000018</v>
+        <v>2.6250000000000107</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1">
@@ -1112,23 +1111,23 @@
         <v>24</v>
       </c>
       <c r="B20" s="8">
-        <v>42052</v>
+        <v>42059</v>
       </c>
       <c r="C20">
-        <v>1.5824800000000001</v>
+        <v>1.5877399999999999</v>
       </c>
       <c r="D20">
-        <v>1.60192</v>
+        <v>1.6071800000000001</v>
       </c>
       <c r="E20">
-        <v>1.57426</v>
+        <v>1.5809299999999999</v>
       </c>
       <c r="F20">
-        <v>1.5893999999999999</v>
+        <v>1.60588</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>1.9650000000000167</v>
+        <v>2.7660000000000018</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
@@ -1136,23 +1135,23 @@
         <v>24</v>
       </c>
       <c r="B21" s="8">
-        <v>42045</v>
+        <v>42052</v>
       </c>
       <c r="C21">
-        <v>1.59656</v>
+        <v>1.5824800000000001</v>
       </c>
       <c r="D21">
-        <v>1.5998600000000001</v>
+        <v>1.60192</v>
       </c>
       <c r="E21">
-        <v>1.5802099999999999</v>
+        <v>1.57426</v>
       </c>
       <c r="F21">
-        <v>1.58165</v>
+        <v>1.5893999999999999</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>3.3009999999999984</v>
+        <v>1.9650000000000167</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" customHeight="1">
@@ -1160,23 +1159,23 @@
         <v>24</v>
       </c>
       <c r="B22" s="8">
-        <v>42038</v>
+        <v>42045</v>
       </c>
       <c r="C22">
-        <v>1.5800399999999999</v>
+        <v>1.59656</v>
       </c>
       <c r="D22">
-        <v>1.6059399999999999</v>
+        <v>1.5998600000000001</v>
       </c>
       <c r="E22">
-        <v>1.5729299999999999</v>
+        <v>1.5802099999999999</v>
       </c>
       <c r="F22">
-        <v>1.5977600000000001</v>
+        <v>1.58165</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>2.845999999999993</v>
+        <v>3.3009999999999984</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1">
@@ -1184,23 +1183,23 @@
         <v>24</v>
       </c>
       <c r="B23" s="8">
-        <v>42031</v>
+        <v>42038</v>
       </c>
       <c r="C23">
-        <v>1.58822</v>
+        <v>1.5800399999999999</v>
       </c>
       <c r="D23">
-        <v>1.60053</v>
+        <v>1.6059399999999999</v>
       </c>
       <c r="E23">
-        <v>1.5720700000000001</v>
+        <v>1.5729299999999999</v>
       </c>
       <c r="F23">
-        <v>1.5801000000000001</v>
+        <v>1.5977600000000001</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>1.9419999999999993</v>
+        <v>2.845999999999993</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1">
@@ -1208,23 +1207,23 @@
         <v>24</v>
       </c>
       <c r="B24" s="8">
-        <v>42024</v>
+        <v>42031</v>
       </c>
       <c r="C24">
-        <v>1.5851900000000001</v>
+        <v>1.58822</v>
       </c>
       <c r="D24">
-        <v>1.60375</v>
+        <v>1.60053</v>
       </c>
       <c r="E24">
-        <v>1.58433</v>
+        <v>1.5720700000000001</v>
       </c>
       <c r="F24">
-        <v>1.58891</v>
+        <v>1.5801000000000001</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>2.143000000000006</v>
+        <v>1.9419999999999993</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1">
@@ -1232,23 +1231,23 @@
         <v>24</v>
       </c>
       <c r="B25" s="8">
-        <v>42017</v>
+        <v>42024</v>
       </c>
       <c r="C25">
-        <v>1.58833</v>
+        <v>1.5851900000000001</v>
       </c>
       <c r="D25">
-        <v>1.59883</v>
+        <v>1.60375</v>
       </c>
       <c r="E25">
-        <v>1.5773999999999999</v>
+        <v>1.58433</v>
       </c>
       <c r="F25">
-        <v>1.5857300000000001</v>
+        <v>1.58891</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>2.6410000000000045</v>
+        <v>2.143000000000006</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1">
@@ -1256,23 +1255,23 @@
         <v>24</v>
       </c>
       <c r="B26" s="8">
-        <v>42010</v>
+        <v>42017</v>
       </c>
       <c r="C26">
-        <v>1.6014299999999999</v>
+        <v>1.58833</v>
       </c>
       <c r="D26">
-        <v>1.61537</v>
+        <v>1.59883</v>
       </c>
       <c r="E26">
-        <v>1.5889599999999999</v>
+        <v>1.5773999999999999</v>
       </c>
       <c r="F26">
-        <v>1.58907</v>
+        <v>1.5857300000000001</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>7.6349999999999918</v>
+        <v>2.6410000000000045</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
@@ -1280,23 +1279,23 @@
         <v>24</v>
       </c>
       <c r="B27" s="8">
-        <v>42003</v>
+        <v>42010</v>
       </c>
       <c r="C27">
-        <v>1.62398</v>
+        <v>1.6014299999999999</v>
       </c>
       <c r="D27">
-        <v>1.6766799999999999</v>
+        <v>1.61537</v>
       </c>
       <c r="E27">
-        <v>1.60033</v>
+        <v>1.5889599999999999</v>
       </c>
       <c r="F27">
-        <v>1.6007899999999999</v>
+        <v>1.58907</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>2.6749999999999829</v>
+        <v>7.6349999999999918</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
@@ -1304,23 +1303,23 @@
         <v>24</v>
       </c>
       <c r="B28" s="8">
-        <v>41996</v>
+        <v>42003</v>
       </c>
       <c r="C28">
-        <v>1.6144799999999999</v>
+        <v>1.62398</v>
       </c>
       <c r="D28">
-        <v>1.6315599999999999</v>
+        <v>1.6766799999999999</v>
       </c>
       <c r="E28">
-        <v>1.6048100000000001</v>
+        <v>1.60033</v>
       </c>
       <c r="F28">
-        <v>1.6252899999999999</v>
+        <v>1.6007899999999999</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>4.1210000000000191</v>
+        <v>2.6749999999999829</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1">
@@ -1328,23 +1327,23 @@
         <v>24</v>
       </c>
       <c r="B29" s="8">
-        <v>41989</v>
+        <v>41996</v>
       </c>
       <c r="C29">
-        <v>1.57463</v>
+        <v>1.6144799999999999</v>
       </c>
       <c r="D29">
-        <v>1.6153900000000001</v>
+        <v>1.6315599999999999</v>
       </c>
       <c r="E29">
-        <v>1.5741799999999999</v>
+        <v>1.6048100000000001</v>
       </c>
       <c r="F29">
-        <v>1.6136600000000001</v>
+        <v>1.6252899999999999</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>2.1239999999999926</v>
+        <v>4.1210000000000191</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1">
@@ -1352,23 +1351,23 @@
         <v>24</v>
       </c>
       <c r="B30" s="8">
-        <v>41982</v>
+        <v>41989</v>
       </c>
       <c r="C30">
-        <v>1.58473</v>
+        <v>1.57463</v>
       </c>
       <c r="D30">
-        <v>1.5884799999999999</v>
+        <v>1.6153900000000001</v>
       </c>
       <c r="E30">
-        <v>1.56724</v>
+        <v>1.5741799999999999</v>
       </c>
       <c r="F30">
-        <v>1.57477</v>
+        <v>1.6136600000000001</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>4.9939999999999873</v>
+        <v>2.1239999999999926</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1">
@@ -1376,23 +1375,23 @@
         <v>24</v>
       </c>
       <c r="B31" s="8">
-        <v>41975</v>
+        <v>41982</v>
       </c>
       <c r="C31">
-        <v>1.5375799999999999</v>
+        <v>1.58473</v>
       </c>
       <c r="D31">
-        <v>1.58456</v>
+        <v>1.5884799999999999</v>
       </c>
       <c r="E31">
-        <v>1.5346200000000001</v>
+        <v>1.56724</v>
       </c>
       <c r="F31">
-        <v>1.5843</v>
+        <v>1.57477</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>2.2680000000000033</v>
+        <v>4.9939999999999873</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
@@ -1400,23 +1399,23 @@
         <v>24</v>
       </c>
       <c r="B32" s="8">
-        <v>41968</v>
+        <v>41975</v>
       </c>
       <c r="C32">
-        <v>1.5678099999999999</v>
+        <v>1.5375799999999999</v>
       </c>
       <c r="D32">
-        <v>1.57046</v>
+        <v>1.58456</v>
       </c>
       <c r="E32">
-        <v>1.5477799999999999</v>
+        <v>1.5346200000000001</v>
       </c>
       <c r="F32">
-        <v>1.5483899999999999</v>
+        <v>1.5843</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>2.043000000000017</v>
+        <v>2.2680000000000033</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1">
@@ -1424,23 +1423,23 @@
         <v>24</v>
       </c>
       <c r="B33" s="8">
-        <v>41961</v>
+        <v>41968</v>
       </c>
       <c r="C33">
-        <v>1.5612299999999999</v>
+        <v>1.5678099999999999</v>
       </c>
       <c r="D33">
-        <v>1.5781700000000001</v>
+        <v>1.57046</v>
       </c>
       <c r="E33">
-        <v>1.5577399999999999</v>
+        <v>1.5477799999999999</v>
       </c>
       <c r="F33">
-        <v>1.5670500000000001</v>
+        <v>1.5483899999999999</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>1.7309999999999937</v>
+        <v>2.043000000000017</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21" customHeight="1">
@@ -1448,23 +1447,23 @@
         <v>24</v>
       </c>
       <c r="B34" s="8">
-        <v>41954</v>
+        <v>41961</v>
       </c>
       <c r="C34">
-        <v>1.5679399999999999</v>
+        <v>1.5612299999999999</v>
       </c>
       <c r="D34">
-        <v>1.56931</v>
+        <v>1.5781700000000001</v>
       </c>
       <c r="E34">
-        <v>1.552</v>
+        <v>1.5577399999999999</v>
       </c>
       <c r="F34">
-        <v>1.55629</v>
+        <v>1.5670500000000001</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>2.1980000000000111</v>
+        <v>1.7309999999999937</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1">
@@ -1472,23 +1471,23 @@
         <v>24</v>
       </c>
       <c r="B35" s="8">
-        <v>41947</v>
+        <v>41954</v>
       </c>
       <c r="C35">
-        <v>1.5827599999999999</v>
+        <v>1.5679399999999999</v>
       </c>
       <c r="D35">
-        <v>1.58518</v>
+        <v>1.56931</v>
       </c>
       <c r="E35">
-        <v>1.5631999999999999</v>
+        <v>1.552</v>
       </c>
       <c r="F35">
-        <v>1.56843</v>
+        <v>1.55629</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>4.0779999999999816</v>
+        <v>2.1980000000000111</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1">
@@ -1496,23 +1495,23 @@
         <v>24</v>
       </c>
       <c r="B36" s="8">
-        <v>41940</v>
+        <v>41947</v>
       </c>
       <c r="C36">
-        <v>1.6069599999999999</v>
+        <v>1.5827599999999999</v>
       </c>
       <c r="D36">
-        <v>1.6149899999999999</v>
+        <v>1.58518</v>
       </c>
       <c r="E36">
-        <v>1.5742100000000001</v>
+        <v>1.5631999999999999</v>
       </c>
       <c r="F36">
-        <v>1.5824100000000001</v>
+        <v>1.56843</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>2.1640000000000104</v>
+        <v>4.0779999999999816</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
@@ -1520,23 +1519,23 @@
         <v>24</v>
       </c>
       <c r="B37" s="8">
-        <v>41933</v>
+        <v>41940</v>
       </c>
       <c r="C37">
-        <v>1.6161799999999999</v>
+        <v>1.6069599999999999</v>
       </c>
       <c r="D37">
-        <v>1.62497</v>
+        <v>1.6149899999999999</v>
       </c>
       <c r="E37">
-        <v>1.6033299999999999</v>
+        <v>1.5742100000000001</v>
       </c>
       <c r="F37">
-        <v>1.6080399999999999</v>
+        <v>1.5824100000000001</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>2.3569999999999869</v>
+        <v>2.1640000000000104</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21" customHeight="1">
@@ -1544,23 +1543,23 @@
         <v>24</v>
       </c>
       <c r="B38" s="8">
-        <v>41926</v>
+        <v>41933</v>
       </c>
       <c r="C38">
-        <v>1.62453</v>
+        <v>1.6161799999999999</v>
       </c>
       <c r="D38">
-        <v>1.62842</v>
+        <v>1.62497</v>
       </c>
       <c r="E38">
-        <v>1.6048500000000001</v>
+        <v>1.6033299999999999</v>
       </c>
       <c r="F38">
-        <v>1.6180000000000001</v>
+        <v>1.6080399999999999</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>2.1039999999999948</v>
+        <v>2.3569999999999869</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21" customHeight="1">
@@ -1568,23 +1567,23 @@
         <v>24</v>
       </c>
       <c r="B39" s="8">
-        <v>41919</v>
+        <v>41926</v>
       </c>
       <c r="C39">
-        <v>1.6331599999999999</v>
+        <v>1.62453</v>
       </c>
       <c r="D39">
-        <v>1.6356999999999999</v>
+        <v>1.62842</v>
       </c>
       <c r="E39">
-        <v>1.61466</v>
+        <v>1.6048500000000001</v>
       </c>
       <c r="F39">
-        <v>1.62503</v>
+        <v>1.6180000000000001</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>3.6700000000000177</v>
+        <v>2.1039999999999948</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21" customHeight="1">
@@ -1592,23 +1591,23 @@
         <v>24</v>
       </c>
       <c r="B40" s="8">
-        <v>41912</v>
+        <v>41919</v>
       </c>
       <c r="C40">
-        <v>1.6072299999999999</v>
+        <v>1.6331599999999999</v>
       </c>
       <c r="D40">
-        <v>1.6352500000000001</v>
+        <v>1.6356999999999999</v>
       </c>
       <c r="E40">
-        <v>1.5985499999999999</v>
+        <v>1.61466</v>
       </c>
       <c r="F40">
-        <v>1.63358</v>
+        <v>1.62503</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>2.2350000000000092</v>
+        <v>3.6700000000000177</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1">
@@ -1616,23 +1615,23 @@
         <v>24</v>
       </c>
       <c r="B41" s="8">
-        <v>41905</v>
+        <v>41912</v>
       </c>
       <c r="C41">
-        <v>1.61608</v>
+        <v>1.6072299999999999</v>
       </c>
       <c r="D41">
-        <v>1.62534</v>
+        <v>1.6352500000000001</v>
       </c>
       <c r="E41">
-        <v>1.6029899999999999</v>
+        <v>1.5985499999999999</v>
       </c>
       <c r="F41">
-        <v>1.6070599999999999</v>
+        <v>1.63358</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>2.813000000000021</v>
+        <v>2.2350000000000092</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21" customHeight="1">
@@ -1640,23 +1639,23 @@
         <v>24</v>
       </c>
       <c r="B42" s="8">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="C42">
-        <v>1.62496</v>
+        <v>1.61608</v>
       </c>
       <c r="D42">
-        <v>1.6333200000000001</v>
+        <v>1.62534</v>
       </c>
       <c r="E42">
-        <v>1.6051899999999999</v>
+        <v>1.6029899999999999</v>
       </c>
       <c r="F42">
-        <v>1.6130500000000001</v>
+        <v>1.6070599999999999</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>2.1639999999999882</v>
+        <v>2.813000000000021</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1">
@@ -1664,23 +1663,23 @@
         <v>24</v>
       </c>
       <c r="B43" s="8">
-        <v>41891</v>
+        <v>41898</v>
       </c>
       <c r="C43">
-        <v>1.6256999999999999</v>
+        <v>1.62496</v>
       </c>
       <c r="D43">
-        <v>1.63537</v>
+        <v>1.6333200000000001</v>
       </c>
       <c r="E43">
-        <v>1.6137300000000001</v>
+        <v>1.6051899999999999</v>
       </c>
       <c r="F43">
-        <v>1.62443</v>
+        <v>1.6130500000000001</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>2.4800000000000155</v>
+        <v>2.1639999999999882</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21" customHeight="1">
@@ -1688,23 +1687,23 @@
         <v>24</v>
       </c>
       <c r="B44" s="8">
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="C44">
-        <v>1.61242</v>
+        <v>1.6256999999999999</v>
       </c>
       <c r="D44">
-        <v>1.6289100000000001</v>
+        <v>1.63537</v>
       </c>
       <c r="E44">
-        <v>1.6041099999999999</v>
+        <v>1.6137300000000001</v>
       </c>
       <c r="F44">
-        <v>1.6256600000000001</v>
+        <v>1.62443</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>3.1430000000000069</v>
+        <v>2.4800000000000155</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21" customHeight="1">
@@ -1712,23 +1711,23 @@
         <v>24</v>
       </c>
       <c r="B45" s="8">
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="C45">
-        <v>1.58494</v>
+        <v>1.61242</v>
       </c>
       <c r="D45">
-        <v>1.6160300000000001</v>
+        <v>1.6289100000000001</v>
       </c>
       <c r="E45">
-        <v>1.5846</v>
+        <v>1.6041099999999999</v>
       </c>
       <c r="F45">
-        <v>1.6136699999999999</v>
+        <v>1.6256600000000001</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>3.4370000000000012</v>
+        <v>3.1430000000000069</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21" customHeight="1">
@@ -1736,23 +1735,23 @@
         <v>24</v>
       </c>
       <c r="B46" s="8">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="C46">
-        <v>1.56359</v>
+        <v>1.58494</v>
       </c>
       <c r="D46">
-        <v>1.5946199999999999</v>
+        <v>1.6160300000000001</v>
       </c>
       <c r="E46">
-        <v>1.5602499999999999</v>
+        <v>1.5846</v>
       </c>
       <c r="F46">
-        <v>1.5864799999999999</v>
+        <v>1.6136699999999999</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>1.0929999999999884</v>
+        <v>3.4370000000000012</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21" customHeight="1">
@@ -1760,23 +1759,23 @@
         <v>24</v>
       </c>
       <c r="B47" s="8">
-        <v>41863</v>
+        <v>41870</v>
       </c>
       <c r="C47">
-        <v>1.56288</v>
+        <v>1.56359</v>
       </c>
       <c r="D47">
-        <v>1.5725899999999999</v>
+        <v>1.5946199999999999</v>
       </c>
       <c r="E47">
-        <v>1.56166</v>
+        <v>1.5602499999999999</v>
       </c>
       <c r="F47">
-        <v>1.5638700000000001</v>
+        <v>1.5864799999999999</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>1.2249999999999872</v>
+        <v>1.0929999999999884</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21" customHeight="1">
@@ -1784,23 +1783,23 @@
         <v>24</v>
       </c>
       <c r="B48" s="8">
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="C48">
-        <v>1.5633999999999999</v>
+        <v>1.56288</v>
       </c>
       <c r="D48">
-        <v>1.57019</v>
+        <v>1.5725899999999999</v>
       </c>
       <c r="E48">
-        <v>1.5579400000000001</v>
+        <v>1.56166</v>
       </c>
       <c r="F48">
-        <v>1.56334</v>
+        <v>1.5638700000000001</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>1.9179999999999975</v>
+        <v>1.2249999999999872</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21" customHeight="1">
@@ -1808,23 +1807,23 @@
         <v>24</v>
       </c>
       <c r="B49" s="8">
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="C49">
-        <v>1.57463</v>
+        <v>1.5633999999999999</v>
       </c>
       <c r="D49">
-        <v>1.5819799999999999</v>
+        <v>1.57019</v>
       </c>
       <c r="E49">
-        <v>1.5628</v>
+        <v>1.5579400000000001</v>
       </c>
       <c r="F49">
-        <v>1.5634600000000001</v>
+        <v>1.56334</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>1.6850000000000032</v>
+        <v>1.9179999999999975</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21" customHeight="1">
@@ -1832,23 +1831,23 @@
         <v>24</v>
       </c>
       <c r="B50" s="8">
-        <v>41842</v>
+        <v>41849</v>
       </c>
       <c r="C50">
-        <v>1.57931</v>
+        <v>1.57463</v>
       </c>
       <c r="D50">
-        <v>1.58693</v>
+        <v>1.5819799999999999</v>
       </c>
       <c r="E50">
-        <v>1.5700799999999999</v>
+        <v>1.5628</v>
       </c>
       <c r="F50">
-        <v>1.57494</v>
+        <v>1.5634600000000001</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>2.3310000000000164</v>
+        <v>1.6850000000000032</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21" customHeight="1">
@@ -1856,23 +1855,23 @@
         <v>24</v>
       </c>
       <c r="B51" s="8">
-        <v>41835</v>
+        <v>41842</v>
       </c>
       <c r="C51">
-        <v>1.57561</v>
+        <v>1.57931</v>
       </c>
       <c r="D51">
-        <v>1.5889800000000001</v>
+        <v>1.58693</v>
       </c>
       <c r="E51">
-        <v>1.5656699999999999</v>
+        <v>1.5700799999999999</v>
       </c>
       <c r="F51">
-        <v>1.5782400000000001</v>
+        <v>1.57494</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>1.8170000000000019</v>
+        <v>2.3310000000000164</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21" customHeight="1">
@@ -1880,23 +1879,23 @@
         <v>24</v>
       </c>
       <c r="B52" s="8">
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="C52">
-        <v>1.58036</v>
+        <v>1.57561</v>
       </c>
       <c r="D52">
-        <v>1.58812</v>
+        <v>1.5889800000000001</v>
       </c>
       <c r="E52">
-        <v>1.56995</v>
+        <v>1.5656699999999999</v>
       </c>
       <c r="F52">
-        <v>1.57446</v>
+        <v>1.5782400000000001</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>1.5959999999999974</v>
+        <v>1.8170000000000019</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21" customHeight="1">
@@ -1904,23 +1903,23 @@
         <v>24</v>
       </c>
       <c r="B53" s="8">
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="C53">
-        <v>1.57663</v>
+        <v>1.58036</v>
       </c>
       <c r="D53">
-        <v>1.5887199999999999</v>
+        <v>1.58812</v>
       </c>
       <c r="E53">
-        <v>1.5727599999999999</v>
+        <v>1.56995</v>
       </c>
       <c r="F53">
-        <v>1.5803</v>
+        <v>1.57446</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>1.6850000000000032</v>
+        <v>1.5959999999999974</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21" customHeight="1">
@@ -1928,23 +1927,23 @@
         <v>24</v>
       </c>
       <c r="B54" s="8">
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="C54">
-        <v>1.56735</v>
+        <v>1.57663</v>
       </c>
       <c r="D54">
-        <v>1.5826</v>
+        <v>1.5887199999999999</v>
       </c>
       <c r="E54">
-        <v>1.56575</v>
+        <v>1.5727599999999999</v>
       </c>
       <c r="F54">
-        <v>1.57755</v>
+        <v>1.5803</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>2.1230000000000082</v>
+        <v>1.6850000000000032</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21" customHeight="1">
@@ -1952,23 +1951,23 @@
         <v>24</v>
       </c>
       <c r="B55" s="8">
-        <v>41807</v>
+        <v>41814</v>
       </c>
       <c r="C55">
-        <v>1.55759</v>
+        <v>1.56735</v>
       </c>
       <c r="D55">
-        <v>1.57558</v>
+        <v>1.5826</v>
       </c>
       <c r="E55">
-        <v>1.5543499999999999</v>
+        <v>1.56575</v>
       </c>
       <c r="F55">
-        <v>1.56732</v>
+        <v>1.57755</v>
       </c>
       <c r="H55">
         <f t="shared" si="0"/>
-        <v>2.6449999999999863</v>
+        <v>2.1230000000000082</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21" customHeight="1">
@@ -1976,23 +1975,23 @@
         <v>24</v>
       </c>
       <c r="B56" s="8">
-        <v>41800</v>
+        <v>41807</v>
       </c>
       <c r="C56">
-        <v>1.5498099999999999</v>
+        <v>1.55759</v>
       </c>
       <c r="D56">
-        <v>1.5691299999999999</v>
+        <v>1.57558</v>
       </c>
       <c r="E56">
-        <v>1.5426800000000001</v>
+        <v>1.5543499999999999</v>
       </c>
       <c r="F56">
-        <v>1.5595000000000001</v>
+        <v>1.56732</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>2.8359999999999941</v>
+        <v>2.6449999999999863</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21" customHeight="1">
@@ -2000,23 +1999,23 @@
         <v>24</v>
       </c>
       <c r="B57" s="8">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="C57">
-        <v>1.5402199999999999</v>
+        <v>1.5498099999999999</v>
       </c>
       <c r="D57">
-        <v>1.55579</v>
+        <v>1.5691299999999999</v>
       </c>
       <c r="E57">
-        <v>1.5274300000000001</v>
+        <v>1.5426800000000001</v>
       </c>
       <c r="F57">
-        <v>1.5489299999999999</v>
+        <v>1.5595000000000001</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
-        <v>2.14700000000001</v>
+        <v>2.8359999999999941</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21" customHeight="1">
@@ -2024,23 +2023,23 @@
         <v>24</v>
       </c>
       <c r="B58" s="8">
-        <v>41786</v>
+        <v>41793</v>
       </c>
       <c r="C58">
-        <v>1.5455000000000001</v>
+        <v>1.5402199999999999</v>
       </c>
       <c r="D58">
-        <v>1.5529900000000001</v>
+        <v>1.55579</v>
       </c>
       <c r="E58">
-        <v>1.53152</v>
+        <v>1.5274300000000001</v>
       </c>
       <c r="F58">
-        <v>1.5404899999999999</v>
+        <v>1.5489299999999999</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>2.4280000000000079</v>
+        <v>2.14700000000001</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21" customHeight="1">
@@ -2048,23 +2047,23 @@
         <v>24</v>
       </c>
       <c r="B59" s="8">
-        <v>41779</v>
+        <v>41786</v>
       </c>
       <c r="C59">
-        <v>1.56345</v>
+        <v>1.5455000000000001</v>
       </c>
       <c r="D59">
-        <v>1.5648200000000001</v>
+        <v>1.5529900000000001</v>
       </c>
       <c r="E59">
-        <v>1.54054</v>
+        <v>1.53152</v>
       </c>
       <c r="F59">
-        <v>1.54358</v>
+        <v>1.5404899999999999</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
-        <v>2.3419999999999996</v>
+        <v>2.4280000000000079</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21" customHeight="1">
@@ -2072,23 +2071,23 @@
         <v>24</v>
       </c>
       <c r="B60" s="8">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="C60">
-        <v>1.58345</v>
+        <v>1.56345</v>
       </c>
       <c r="D60">
-        <v>1.5888100000000001</v>
+        <v>1.5648200000000001</v>
       </c>
       <c r="E60">
-        <v>1.5653900000000001</v>
+        <v>1.54054</v>
       </c>
       <c r="F60">
-        <v>1.5664199999999999</v>
+        <v>1.54358</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>1.876000000000011</v>
+        <v>2.3419999999999996</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21" customHeight="1">
@@ -2096,23 +2095,23 @@
         <v>24</v>
       </c>
       <c r="B61" s="8">
-        <v>41765</v>
+        <v>41772</v>
       </c>
       <c r="C61">
-        <v>1.5862700000000001</v>
+        <v>1.58345</v>
       </c>
       <c r="D61">
-        <v>1.59633</v>
+        <v>1.5888100000000001</v>
       </c>
       <c r="E61">
-        <v>1.5775699999999999</v>
+        <v>1.5653900000000001</v>
       </c>
       <c r="F61">
-        <v>1.5828199999999999</v>
+        <v>1.5664199999999999</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>2.1260000000000057</v>
+        <v>1.876000000000011</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21" customHeight="1">
@@ -2120,23 +2119,23 @@
         <v>24</v>
       </c>
       <c r="B62" s="8">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="C62">
-        <v>1.6003099999999999</v>
+        <v>1.5862700000000001</v>
       </c>
       <c r="D62">
-        <v>1.6056600000000001</v>
+        <v>1.59633</v>
       </c>
       <c r="E62">
-        <v>1.5844</v>
+        <v>1.5775699999999999</v>
       </c>
       <c r="F62">
-        <v>1.5872200000000001</v>
+        <v>1.5828199999999999</v>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
-        <v>1.7249999999999988</v>
+        <v>2.1260000000000057</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21" customHeight="1">
@@ -2144,23 +2143,23 @@
         <v>24</v>
       </c>
       <c r="B63" s="8">
-        <v>41751</v>
+        <v>41758</v>
       </c>
       <c r="C63">
-        <v>1.6008899999999999</v>
+        <v>1.6003099999999999</v>
       </c>
       <c r="D63">
-        <v>1.6140099999999999</v>
+        <v>1.6056600000000001</v>
       </c>
       <c r="E63">
-        <v>1.59676</v>
+        <v>1.5844</v>
       </c>
       <c r="F63">
-        <v>1.60046</v>
+        <v>1.5872200000000001</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
-        <v>1.8199999999999994</v>
+        <v>1.7249999999999988</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21" customHeight="1">
@@ -2168,23 +2167,23 @@
         <v>24</v>
       </c>
       <c r="B64" s="8">
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="C64">
-        <v>1.5872900000000001</v>
+        <v>1.6008899999999999</v>
       </c>
       <c r="D64">
-        <v>1.60301</v>
+        <v>1.6140099999999999</v>
       </c>
       <c r="E64">
-        <v>1.5848100000000001</v>
+        <v>1.59676</v>
       </c>
       <c r="F64">
-        <v>1.60209</v>
+        <v>1.60046</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>2.854000000000001</v>
+        <v>1.8199999999999994</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21" customHeight="1">
@@ -2192,23 +2191,23 @@
         <v>24</v>
       </c>
       <c r="B65" s="8">
-        <v>41737</v>
+        <v>41744</v>
       </c>
       <c r="C65">
-        <v>1.6003799999999999</v>
+        <v>1.5872900000000001</v>
       </c>
       <c r="D65">
-        <v>1.6060099999999999</v>
+        <v>1.60301</v>
       </c>
       <c r="E65">
-        <v>1.5774699999999999</v>
+        <v>1.5848100000000001</v>
       </c>
       <c r="F65">
-        <v>1.5885899999999999</v>
+        <v>1.60209</v>
       </c>
       <c r="H65">
         <f t="shared" si="0"/>
-        <v>1.8649999999999833</v>
+        <v>2.854000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21" customHeight="1">
@@ -2216,23 +2215,23 @@
         <v>24</v>
       </c>
       <c r="B66" s="8">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="C66">
-        <v>1.6020300000000001</v>
+        <v>1.6003799999999999</v>
       </c>
       <c r="D66">
-        <v>1.6084799999999999</v>
+        <v>1.6060099999999999</v>
       </c>
       <c r="E66">
-        <v>1.5898300000000001</v>
+        <v>1.5774699999999999</v>
       </c>
       <c r="F66">
-        <v>1.59992</v>
+        <v>1.5885899999999999</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H129" si="1">ABS(D67-E67)*100</f>
-        <v>2.1549999999999958</v>
+        <v>1.8649999999999833</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21" customHeight="1">
@@ -2240,23 +2239,23 @@
         <v>24</v>
       </c>
       <c r="B67" s="8">
-        <v>41723</v>
+        <v>41730</v>
       </c>
       <c r="C67">
-        <v>1.6043099999999999</v>
+        <v>1.6020300000000001</v>
       </c>
       <c r="D67">
-        <v>1.6191</v>
+        <v>1.6084799999999999</v>
       </c>
       <c r="E67">
-        <v>1.59755</v>
+        <v>1.5898300000000001</v>
       </c>
       <c r="F67">
-        <v>1.60425</v>
+        <v>1.59992</v>
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>1.9579999999999931</v>
+        <v>2.1549999999999958</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21" customHeight="1">
@@ -2264,23 +2263,23 @@
         <v>24</v>
       </c>
       <c r="B68" s="8">
-        <v>41716</v>
+        <v>41723</v>
       </c>
       <c r="C68">
-        <v>1.5928</v>
+        <v>1.6043099999999999</v>
       </c>
       <c r="D68">
-        <v>1.6055299999999999</v>
+        <v>1.6191</v>
       </c>
       <c r="E68">
-        <v>1.58595</v>
+        <v>1.59755</v>
       </c>
       <c r="F68">
-        <v>1.6050899999999999</v>
+        <v>1.60425</v>
       </c>
       <c r="H68">
         <f t="shared" si="1"/>
-        <v>3.1309999999999949</v>
+        <v>1.9579999999999931</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21" customHeight="1">
@@ -2288,23 +2287,23 @@
         <v>24</v>
       </c>
       <c r="B69" s="8">
-        <v>41709</v>
+        <v>41716</v>
       </c>
       <c r="C69">
-        <v>1.5682100000000001</v>
+        <v>1.5928</v>
       </c>
       <c r="D69">
-        <v>1.5935299999999999</v>
+        <v>1.6055299999999999</v>
       </c>
       <c r="E69">
-        <v>1.5622199999999999</v>
+        <v>1.58595</v>
       </c>
       <c r="F69">
-        <v>1.5932200000000001</v>
+        <v>1.6050899999999999</v>
       </c>
       <c r="H69">
         <f t="shared" si="1"/>
-        <v>2.9989999999999961</v>
+        <v>3.1309999999999949</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21" customHeight="1">
@@ -2312,23 +2311,23 @@
         <v>24</v>
       </c>
       <c r="B70" s="8">
-        <v>41702</v>
+        <v>41709</v>
       </c>
       <c r="C70">
-        <v>1.58752</v>
+        <v>1.5682100000000001</v>
       </c>
       <c r="D70">
-        <v>1.59775</v>
+        <v>1.5935299999999999</v>
       </c>
       <c r="E70">
-        <v>1.56776</v>
+        <v>1.5622199999999999</v>
       </c>
       <c r="F70">
-        <v>1.5680000000000001</v>
+        <v>1.5932200000000001</v>
       </c>
       <c r="H70">
         <f t="shared" si="1"/>
-        <v>3.0159999999999965</v>
+        <v>2.9989999999999961</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21" customHeight="1">
@@ -2336,23 +2335,23 @@
         <v>24</v>
       </c>
       <c r="B71" s="8">
-        <v>41695</v>
+        <v>41702</v>
       </c>
       <c r="C71">
-        <v>1.56728</v>
+        <v>1.58752</v>
       </c>
       <c r="D71">
-        <v>1.59195</v>
+        <v>1.59775</v>
       </c>
       <c r="E71">
-        <v>1.56179</v>
+        <v>1.56776</v>
       </c>
       <c r="F71">
-        <v>1.5878099999999999</v>
+        <v>1.5680000000000001</v>
       </c>
       <c r="H71">
         <f t="shared" si="1"/>
-        <v>1.5280000000000182</v>
+        <v>3.0159999999999965</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21" customHeight="1">
@@ -2360,23 +2359,23 @@
         <v>24</v>
       </c>
       <c r="B72" s="8">
-        <v>41688</v>
+        <v>41695</v>
       </c>
       <c r="C72">
-        <v>1.56809</v>
+        <v>1.56728</v>
       </c>
       <c r="D72">
-        <v>1.5758700000000001</v>
+        <v>1.59195</v>
       </c>
       <c r="E72">
-        <v>1.5605899999999999</v>
+        <v>1.56179</v>
       </c>
       <c r="F72">
-        <v>1.5689299999999999</v>
+        <v>1.5878099999999999</v>
       </c>
       <c r="H72">
         <f t="shared" si="1"/>
-        <v>2.096000000000009</v>
+        <v>1.5280000000000182</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21" customHeight="1">
@@ -2384,23 +2383,23 @@
         <v>24</v>
       </c>
       <c r="B73" s="8">
-        <v>41681</v>
+        <v>41688</v>
       </c>
       <c r="C73">
-        <v>1.5670599999999999</v>
+        <v>1.56809</v>
       </c>
       <c r="D73">
-        <v>1.5816300000000001</v>
+        <v>1.5758700000000001</v>
       </c>
       <c r="E73">
-        <v>1.56067</v>
+        <v>1.5605899999999999</v>
       </c>
       <c r="F73">
-        <v>1.56843</v>
+        <v>1.5689299999999999</v>
       </c>
       <c r="H73">
         <f t="shared" si="1"/>
-        <v>1.6259999999999941</v>
+        <v>2.096000000000009</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21" customHeight="1">
@@ -2408,23 +2407,23 @@
         <v>24</v>
       </c>
       <c r="B74" s="8">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="C74">
-        <v>1.5713999999999999</v>
+        <v>1.5670599999999999</v>
       </c>
       <c r="D74">
-        <v>1.5796399999999999</v>
+        <v>1.5816300000000001</v>
       </c>
       <c r="E74">
-        <v>1.56338</v>
+        <v>1.56067</v>
       </c>
       <c r="F74">
-        <v>1.56671</v>
+        <v>1.56843</v>
       </c>
       <c r="H74">
         <f t="shared" si="1"/>
-        <v>4.7080000000000011</v>
+        <v>1.6259999999999941</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21" customHeight="1">
@@ -2432,23 +2431,23 @@
         <v>24</v>
       </c>
       <c r="B75" s="8">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="C75">
-        <v>1.5335399999999999</v>
+        <v>1.5713999999999999</v>
       </c>
       <c r="D75">
-        <v>1.57301</v>
+        <v>1.5796399999999999</v>
       </c>
       <c r="E75">
-        <v>1.52593</v>
+        <v>1.56338</v>
       </c>
       <c r="F75">
-        <v>1.57178</v>
+        <v>1.56671</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
-        <v>2.2569999999999979</v>
+        <v>4.7080000000000011</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21" customHeight="1">
@@ -2456,23 +2455,23 @@
         <v>24</v>
       </c>
       <c r="B76" s="8">
-        <v>41660</v>
+        <v>41667</v>
       </c>
       <c r="C76">
-        <v>1.53359</v>
+        <v>1.5335399999999999</v>
       </c>
       <c r="D76">
-        <v>1.5494600000000001</v>
+        <v>1.57301</v>
       </c>
       <c r="E76">
-        <v>1.5268900000000001</v>
+        <v>1.52593</v>
       </c>
       <c r="F76">
-        <v>1.5319799999999999</v>
+        <v>1.57178</v>
       </c>
       <c r="H76">
         <f t="shared" si="1"/>
-        <v>1.8040000000000056</v>
+        <v>2.2569999999999979</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21" customHeight="1">
@@ -2480,23 +2479,23 @@
         <v>24</v>
       </c>
       <c r="B77" s="8">
-        <v>41653</v>
+        <v>41660</v>
       </c>
       <c r="C77">
-        <v>1.5426299999999999</v>
+        <v>1.53359</v>
       </c>
       <c r="D77">
-        <v>1.54406</v>
+        <v>1.5494600000000001</v>
       </c>
       <c r="E77">
-        <v>1.5260199999999999</v>
+        <v>1.5268900000000001</v>
       </c>
       <c r="F77">
-        <v>1.5297799999999999</v>
+        <v>1.5319799999999999</v>
       </c>
       <c r="H77">
         <f t="shared" si="1"/>
-        <v>2.9150000000000009</v>
+        <v>1.8040000000000056</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21" customHeight="1">
@@ -2504,23 +2503,23 @@
         <v>24</v>
       </c>
       <c r="B78" s="8">
-        <v>41646</v>
+        <v>41653</v>
       </c>
       <c r="C78">
-        <v>1.5295399999999999</v>
+        <v>1.5426299999999999</v>
       </c>
       <c r="D78">
-        <v>1.5445899999999999</v>
+        <v>1.54406</v>
       </c>
       <c r="E78">
-        <v>1.5154399999999999</v>
+        <v>1.5260199999999999</v>
       </c>
       <c r="F78">
-        <v>1.5400700000000001</v>
+        <v>1.5297799999999999</v>
       </c>
       <c r="H78">
         <f t="shared" si="1"/>
-        <v>1.4220000000000121</v>
+        <v>2.9150000000000009</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21" customHeight="1">
@@ -2528,23 +2527,23 @@
         <v>24</v>
       </c>
       <c r="B79" s="8">
-        <v>41639</v>
+        <v>41646</v>
       </c>
       <c r="C79">
-        <v>1.53914</v>
+        <v>1.5295399999999999</v>
       </c>
       <c r="D79">
-        <v>1.5430600000000001</v>
+        <v>1.5445899999999999</v>
       </c>
       <c r="E79">
-        <v>1.52884</v>
+        <v>1.5154399999999999</v>
       </c>
       <c r="F79">
-        <v>1.5300400000000001</v>
+        <v>1.5400700000000001</v>
       </c>
       <c r="H79">
         <f t="shared" si="1"/>
-        <v>1.1440000000000117</v>
+        <v>1.4220000000000121</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21" customHeight="1">
@@ -2552,23 +2551,23 @@
         <v>24</v>
       </c>
       <c r="B80" s="8">
-        <v>41632</v>
+        <v>41639</v>
       </c>
       <c r="C80">
-        <v>1.53607</v>
+        <v>1.53914</v>
       </c>
       <c r="D80">
-        <v>1.5393300000000001</v>
+        <v>1.5430600000000001</v>
       </c>
       <c r="E80">
-        <v>1.52789</v>
+        <v>1.52884</v>
       </c>
       <c r="F80">
-        <v>1.53755</v>
+        <v>1.5300400000000001</v>
       </c>
       <c r="H80">
         <f t="shared" si="1"/>
-        <v>2.0159999999999956</v>
+        <v>1.1440000000000117</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21" customHeight="1">
@@ -2576,23 +2575,23 @@
         <v>24</v>
       </c>
       <c r="B81" s="8">
-        <v>41625</v>
+        <v>41632</v>
       </c>
       <c r="C81">
-        <v>1.53599</v>
+        <v>1.53607</v>
       </c>
       <c r="D81">
-        <v>1.5526899999999999</v>
+        <v>1.5393300000000001</v>
       </c>
       <c r="E81">
-        <v>1.5325299999999999</v>
+        <v>1.52789</v>
       </c>
       <c r="F81">
-        <v>1.53748</v>
+        <v>1.53755</v>
       </c>
       <c r="H81">
         <f t="shared" si="1"/>
-        <v>3.6070000000000046</v>
+        <v>2.0159999999999956</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21" customHeight="1">
@@ -2600,23 +2599,23 @@
         <v>24</v>
       </c>
       <c r="B82" s="8">
-        <v>41618</v>
+        <v>41625</v>
       </c>
       <c r="C82">
-        <v>1.5662799999999999</v>
+        <v>1.53599</v>
       </c>
       <c r="D82">
-        <v>1.56826</v>
+        <v>1.5526899999999999</v>
       </c>
       <c r="E82">
-        <v>1.5321899999999999</v>
+        <v>1.5325299999999999</v>
       </c>
       <c r="F82">
-        <v>1.5377700000000001</v>
+        <v>1.53748</v>
       </c>
       <c r="H82">
         <f t="shared" si="1"/>
-        <v>2.0809999999999995</v>
+        <v>3.6070000000000046</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21" customHeight="1">
@@ -2624,23 +2623,23 @@
         <v>24</v>
       </c>
       <c r="B83" s="8">
-        <v>41611</v>
+        <v>41618</v>
       </c>
       <c r="C83">
-        <v>1.5615000000000001</v>
+        <v>1.5662799999999999</v>
       </c>
       <c r="D83">
-        <v>1.5695699999999999</v>
+        <v>1.56826</v>
       </c>
       <c r="E83">
-        <v>1.5487599999999999</v>
+        <v>1.5321899999999999</v>
       </c>
       <c r="F83">
-        <v>1.5670200000000001</v>
+        <v>1.5377700000000001</v>
       </c>
       <c r="H83">
         <f t="shared" si="1"/>
-        <v>2.0210000000000061</v>
+        <v>2.0809999999999995</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21" customHeight="1">
@@ -2648,23 +2647,23 @@
         <v>24</v>
       </c>
       <c r="B84" s="8">
-        <v>41604</v>
+        <v>41611</v>
       </c>
       <c r="C84">
-        <v>1.56558</v>
+        <v>1.5615000000000001</v>
       </c>
       <c r="D84">
-        <v>1.5770200000000001</v>
+        <v>1.5695699999999999</v>
       </c>
       <c r="E84">
-        <v>1.55681</v>
+        <v>1.5487599999999999</v>
       </c>
       <c r="F84">
-        <v>1.56342</v>
+        <v>1.5670200000000001</v>
       </c>
       <c r="H84">
         <f t="shared" si="1"/>
-        <v>2.1469999999999878</v>
+        <v>2.0210000000000061</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21" customHeight="1">
@@ -2672,23 +2671,23 @@
         <v>24</v>
       </c>
       <c r="B85" s="8">
-        <v>41597</v>
+        <v>41604</v>
       </c>
       <c r="C85">
-        <v>1.5576099999999999</v>
+        <v>1.56558</v>
       </c>
       <c r="D85">
-        <v>1.56734</v>
+        <v>1.5770200000000001</v>
       </c>
       <c r="E85">
-        <v>1.5458700000000001</v>
+        <v>1.55681</v>
       </c>
       <c r="F85">
-        <v>1.5664</v>
+        <v>1.56342</v>
       </c>
       <c r="H85">
         <f t="shared" si="1"/>
-        <v>4.6000000000000041</v>
+        <v>2.1469999999999878</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21" customHeight="1">
@@ -2696,23 +2695,23 @@
         <v>24</v>
       </c>
       <c r="B86" s="8">
-        <v>41590</v>
+        <v>41597</v>
       </c>
       <c r="C86">
-        <v>1.52291</v>
+        <v>1.5576099999999999</v>
       </c>
       <c r="D86">
-        <v>1.5656600000000001</v>
+        <v>1.56734</v>
       </c>
       <c r="E86">
-        <v>1.51966</v>
+        <v>1.5458700000000001</v>
       </c>
       <c r="F86">
-        <v>1.5584</v>
+        <v>1.5664</v>
       </c>
       <c r="H86">
         <f t="shared" si="1"/>
-        <v>1.5339999999999909</v>
+        <v>4.6000000000000041</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21" customHeight="1">
@@ -2720,23 +2719,23 @@
         <v>24</v>
       </c>
       <c r="B87" s="8">
-        <v>41583</v>
+        <v>41590</v>
       </c>
       <c r="C87">
-        <v>1.51814</v>
+        <v>1.52291</v>
       </c>
       <c r="D87">
-        <v>1.5233699999999999</v>
+        <v>1.5656600000000001</v>
       </c>
       <c r="E87">
-        <v>1.50803</v>
+        <v>1.51966</v>
       </c>
       <c r="F87">
-        <v>1.5225900000000001</v>
+        <v>1.5584</v>
       </c>
       <c r="H87">
         <f t="shared" si="1"/>
-        <v>1.4720000000000066</v>
+        <v>1.5339999999999909</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21" customHeight="1">
@@ -2744,23 +2743,23 @@
         <v>24</v>
       </c>
       <c r="B88" s="8">
-        <v>41576</v>
+        <v>41583</v>
       </c>
       <c r="C88">
-        <v>1.5124299999999999</v>
+        <v>1.51814</v>
       </c>
       <c r="D88">
-        <v>1.52336</v>
+        <v>1.5233699999999999</v>
       </c>
       <c r="E88">
-        <v>1.50864</v>
+        <v>1.50803</v>
       </c>
       <c r="F88">
-        <v>1.5177700000000001</v>
+        <v>1.5225900000000001</v>
       </c>
       <c r="H88">
         <f t="shared" si="1"/>
-        <v>3.7690000000000001</v>
+        <v>1.4720000000000066</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21" customHeight="1">
@@ -2768,23 +2767,23 @@
         <v>24</v>
       </c>
       <c r="B89" s="8">
-        <v>41569</v>
+        <v>41576</v>
       </c>
       <c r="C89">
-        <v>1.5063299999999999</v>
+        <v>1.5124299999999999</v>
       </c>
       <c r="D89">
-        <v>1.53921</v>
+        <v>1.52336</v>
       </c>
       <c r="E89">
-        <v>1.50152</v>
+        <v>1.50864</v>
       </c>
       <c r="F89">
-        <v>1.5122</v>
+        <v>1.5177700000000001</v>
       </c>
       <c r="H89">
         <f t="shared" si="1"/>
-        <v>1.373000000000002</v>
+        <v>3.7690000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21" customHeight="1">
@@ -2792,23 +2791,23 @@
         <v>24</v>
       </c>
       <c r="B90" s="8">
-        <v>41562</v>
+        <v>41569</v>
       </c>
       <c r="C90">
-        <v>1.4978100000000001</v>
+        <v>1.5063299999999999</v>
       </c>
       <c r="D90">
-        <v>1.5087600000000001</v>
+        <v>1.53921</v>
       </c>
       <c r="E90">
-        <v>1.4950300000000001</v>
+        <v>1.50152</v>
       </c>
       <c r="F90">
-        <v>1.50674</v>
+        <v>1.5122</v>
       </c>
       <c r="H90">
         <f t="shared" si="1"/>
-        <v>2.6110000000000078</v>
+        <v>1.373000000000002</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21" customHeight="1">
@@ -2816,23 +2815,23 @@
         <v>24</v>
       </c>
       <c r="B91" s="8">
-        <v>41555</v>
+        <v>41562</v>
       </c>
       <c r="C91">
-        <v>1.50908</v>
+        <v>1.4978100000000001</v>
       </c>
       <c r="D91">
-        <v>1.52417</v>
+        <v>1.5087600000000001</v>
       </c>
       <c r="E91">
-        <v>1.4980599999999999</v>
+        <v>1.4950300000000001</v>
       </c>
       <c r="F91">
-        <v>1.49908</v>
+        <v>1.50674</v>
       </c>
       <c r="H91">
         <f t="shared" si="1"/>
-        <v>1.7889999999999961</v>
+        <v>2.6110000000000078</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="21" customHeight="1">
@@ -2840,23 +2839,23 @@
         <v>24</v>
       </c>
       <c r="B92" s="8">
-        <v>41548</v>
+        <v>41555</v>
       </c>
       <c r="C92">
-        <v>1.50664</v>
+        <v>1.50908</v>
       </c>
       <c r="D92">
-        <v>1.51292</v>
+        <v>1.52417</v>
       </c>
       <c r="E92">
-        <v>1.4950300000000001</v>
+        <v>1.4980599999999999</v>
       </c>
       <c r="F92">
-        <v>1.50979</v>
+        <v>1.49908</v>
       </c>
       <c r="H92">
         <f t="shared" si="1"/>
-        <v>2.0850000000000035</v>
+        <v>1.7889999999999961</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="21" customHeight="1">
@@ -2864,23 +2863,23 @@
         <v>24</v>
       </c>
       <c r="B93" s="8">
-        <v>41541</v>
+        <v>41548</v>
       </c>
       <c r="C93">
-        <v>1.4977400000000001</v>
+        <v>1.50664</v>
       </c>
       <c r="D93">
-        <v>1.5104</v>
+        <v>1.51292</v>
       </c>
       <c r="E93">
-        <v>1.4895499999999999</v>
+        <v>1.4950300000000001</v>
       </c>
       <c r="F93">
-        <v>1.5077100000000001</v>
+        <v>1.50979</v>
       </c>
       <c r="H93">
         <f t="shared" si="1"/>
-        <v>3.1460000000000043</v>
+        <v>2.0850000000000035</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="21" customHeight="1">
@@ -2888,23 +2887,23 @@
         <v>24</v>
       </c>
       <c r="B94" s="8">
-        <v>41534</v>
+        <v>41541</v>
       </c>
       <c r="C94">
-        <v>1.4923200000000001</v>
+        <v>1.4977400000000001</v>
       </c>
       <c r="D94">
-        <v>1.5107699999999999</v>
+        <v>1.5104</v>
       </c>
       <c r="E94">
-        <v>1.4793099999999999</v>
+        <v>1.4895499999999999</v>
       </c>
       <c r="F94">
-        <v>1.5005500000000001</v>
+        <v>1.5077100000000001</v>
       </c>
       <c r="H94">
         <f t="shared" si="1"/>
-        <v>1.5430000000000055</v>
+        <v>3.1460000000000043</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="21" customHeight="1">
@@ -2912,23 +2911,23 @@
         <v>24</v>
       </c>
       <c r="B95" s="8">
-        <v>41527</v>
+        <v>41534</v>
       </c>
       <c r="C95">
-        <v>1.4922599999999999</v>
+        <v>1.4923200000000001</v>
       </c>
       <c r="D95">
-        <v>1.49668</v>
+        <v>1.5107699999999999</v>
       </c>
       <c r="E95">
-        <v>1.48125</v>
+        <v>1.4793099999999999</v>
       </c>
       <c r="F95">
-        <v>1.4935</v>
+        <v>1.5005500000000001</v>
       </c>
       <c r="H95">
         <f t="shared" si="1"/>
-        <v>1.6089999999999938</v>
+        <v>1.5430000000000055</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="21" customHeight="1">
@@ -2936,23 +2935,23 @@
         <v>24</v>
       </c>
       <c r="B96" s="8">
-        <v>41520</v>
+        <v>41527</v>
       </c>
       <c r="C96">
-        <v>1.4937499999999999</v>
+        <v>1.4922599999999999</v>
       </c>
       <c r="D96">
-        <v>1.49959</v>
+        <v>1.49668</v>
       </c>
       <c r="E96">
-        <v>1.4835</v>
+        <v>1.48125</v>
       </c>
       <c r="F96">
-        <v>1.49403</v>
+        <v>1.4935</v>
       </c>
       <c r="H96">
         <f t="shared" si="1"/>
-        <v>3.0440000000000023</v>
+        <v>1.6089999999999938</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="21" customHeight="1">
@@ -2960,23 +2959,23 @@
         <v>24</v>
       </c>
       <c r="B97" s="8">
-        <v>41513</v>
+        <v>41520</v>
       </c>
       <c r="C97">
-        <v>1.50525</v>
+        <v>1.4937499999999999</v>
       </c>
       <c r="D97">
-        <v>1.5174000000000001</v>
+        <v>1.49959</v>
       </c>
       <c r="E97">
-        <v>1.4869600000000001</v>
+        <v>1.4835</v>
       </c>
       <c r="F97">
-        <v>1.4885699999999999</v>
+        <v>1.49403</v>
       </c>
       <c r="H97">
         <f t="shared" si="1"/>
-        <v>2.2699999999999942</v>
+        <v>3.0440000000000023</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="21" customHeight="1">
@@ -2984,23 +2983,23 @@
         <v>24</v>
       </c>
       <c r="B98" s="8">
-        <v>41506</v>
+        <v>41513</v>
       </c>
       <c r="C98">
-        <v>1.48298</v>
+        <v>1.50525</v>
       </c>
       <c r="D98">
-        <v>1.5034799999999999</v>
+        <v>1.5174000000000001</v>
       </c>
       <c r="E98">
-        <v>1.48078</v>
+        <v>1.4869600000000001</v>
       </c>
       <c r="F98">
-        <v>1.5030300000000001</v>
+        <v>1.4885699999999999</v>
       </c>
       <c r="H98">
         <f t="shared" si="1"/>
-        <v>2.8699999999999948</v>
+        <v>2.2699999999999942</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="21" customHeight="1">
@@ -3008,23 +3007,23 @@
         <v>24</v>
       </c>
       <c r="B99" s="8">
-        <v>41499</v>
+        <v>41506</v>
       </c>
       <c r="C99">
-        <v>1.4980800000000001</v>
+        <v>1.48298</v>
       </c>
       <c r="D99">
-        <v>1.50197</v>
+        <v>1.5034799999999999</v>
       </c>
       <c r="E99">
-        <v>1.4732700000000001</v>
+        <v>1.48078</v>
       </c>
       <c r="F99">
-        <v>1.48305</v>
+        <v>1.5030300000000001</v>
       </c>
       <c r="H99">
         <f t="shared" si="1"/>
-        <v>1.8610000000000015</v>
+        <v>2.8699999999999948</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="21" customHeight="1">
@@ -3032,23 +3031,23 @@
         <v>24</v>
       </c>
       <c r="B100" s="8">
-        <v>41492</v>
+        <v>41499</v>
       </c>
       <c r="C100">
-        <v>1.4850300000000001</v>
+        <v>1.4980800000000001</v>
       </c>
       <c r="D100">
-        <v>1.50108</v>
+        <v>1.50197</v>
       </c>
       <c r="E100">
-        <v>1.48247</v>
+        <v>1.4732700000000001</v>
       </c>
       <c r="F100">
-        <v>1.49793</v>
+        <v>1.48305</v>
       </c>
       <c r="H100">
         <f t="shared" si="1"/>
-        <v>2.8110000000000079</v>
+        <v>1.8610000000000015</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="21" customHeight="1">
@@ -3056,23 +3055,23 @@
         <v>24</v>
       </c>
       <c r="B101" s="8">
-        <v>41485</v>
+        <v>41492</v>
       </c>
       <c r="C101">
-        <v>1.4721</v>
+        <v>1.4850300000000001</v>
       </c>
       <c r="D101">
-        <v>1.49658</v>
+        <v>1.50108</v>
       </c>
       <c r="E101">
-        <v>1.4684699999999999</v>
+        <v>1.48247</v>
       </c>
       <c r="F101">
-        <v>1.48502</v>
+        <v>1.49793</v>
       </c>
       <c r="H101">
         <f t="shared" si="1"/>
-        <v>1.992000000000016</v>
+        <v>2.8110000000000079</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="21" customHeight="1">
@@ -3080,23 +3079,23 @@
         <v>24</v>
       </c>
       <c r="B102" s="8">
-        <v>41478</v>
+        <v>41485</v>
       </c>
       <c r="C102">
-        <v>1.4744999999999999</v>
+        <v>1.4721</v>
       </c>
       <c r="D102">
-        <v>1.4764600000000001</v>
+        <v>1.49658</v>
       </c>
       <c r="E102">
-        <v>1.4565399999999999</v>
+        <v>1.4684699999999999</v>
       </c>
       <c r="F102">
-        <v>1.47142</v>
+        <v>1.48502</v>
       </c>
       <c r="H102">
         <f t="shared" si="1"/>
-        <v>3.5390000000000033</v>
+        <v>1.992000000000016</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="21" customHeight="1">
@@ -3104,23 +3103,23 @@
         <v>24</v>
       </c>
       <c r="B103" s="8">
-        <v>41471</v>
+        <v>41478</v>
       </c>
       <c r="C103">
-        <v>1.4658500000000001</v>
+        <v>1.4744999999999999</v>
       </c>
       <c r="D103">
-        <v>1.4776800000000001</v>
+        <v>1.4764600000000001</v>
       </c>
       <c r="E103">
-        <v>1.4422900000000001</v>
+        <v>1.4565399999999999</v>
       </c>
       <c r="F103">
-        <v>1.4732400000000001</v>
+        <v>1.47142</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>
-        <v>4.1140000000000176</v>
+        <v>3.5390000000000033</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="21" customHeight="1">
@@ -3128,23 +3127,23 @@
         <v>24</v>
       </c>
       <c r="B104" s="8">
-        <v>41464</v>
+        <v>41471</v>
       </c>
       <c r="C104">
-        <v>1.50021</v>
+        <v>1.4658500000000001</v>
       </c>
       <c r="D104">
-        <v>1.5037400000000001</v>
+        <v>1.4776800000000001</v>
       </c>
       <c r="E104">
-        <v>1.4625999999999999</v>
+        <v>1.4422900000000001</v>
       </c>
       <c r="F104">
-        <v>1.46506</v>
+        <v>1.4732400000000001</v>
       </c>
       <c r="H104">
         <f t="shared" si="1"/>
-        <v>2.7490000000000014</v>
+        <v>4.1140000000000176</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="21" customHeight="1">
@@ -3152,23 +3151,23 @@
         <v>24</v>
       </c>
       <c r="B105" s="8">
-        <v>41457</v>
+        <v>41464</v>
       </c>
       <c r="C105">
-        <v>1.48695</v>
+        <v>1.50021</v>
       </c>
       <c r="D105">
-        <v>1.50743</v>
+        <v>1.5037400000000001</v>
       </c>
       <c r="E105">
-        <v>1.47994</v>
+        <v>1.4625999999999999</v>
       </c>
       <c r="F105">
-        <v>1.49962</v>
+        <v>1.46506</v>
       </c>
       <c r="H105">
         <f t="shared" si="1"/>
-        <v>3.1630000000000047</v>
+        <v>2.7490000000000014</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="21" customHeight="1">
@@ -3176,23 +3175,23 @@
         <v>24</v>
       </c>
       <c r="B106" s="8">
-        <v>41450</v>
+        <v>41457</v>
       </c>
       <c r="C106">
-        <v>1.4791700000000001</v>
+        <v>1.48695</v>
       </c>
       <c r="D106">
-        <v>1.49979</v>
+        <v>1.50743</v>
       </c>
       <c r="E106">
-        <v>1.4681599999999999</v>
+        <v>1.47994</v>
       </c>
       <c r="F106">
-        <v>1.4852300000000001</v>
+        <v>1.49962</v>
       </c>
       <c r="H106">
         <f t="shared" si="1"/>
-        <v>1.880000000000015</v>
+        <v>3.1630000000000047</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="21" customHeight="1">
@@ -3200,23 +3199,23 @@
         <v>24</v>
       </c>
       <c r="B107" s="8">
-        <v>41443</v>
+        <v>41450</v>
       </c>
       <c r="C107">
-        <v>1.46898</v>
+        <v>1.4791700000000001</v>
       </c>
       <c r="D107">
-        <v>1.4814400000000001</v>
+        <v>1.49979</v>
       </c>
       <c r="E107">
-        <v>1.4626399999999999</v>
+        <v>1.4681599999999999</v>
       </c>
       <c r="F107">
-        <v>1.4791399999999999</v>
+        <v>1.4852300000000001</v>
       </c>
       <c r="H107">
         <f t="shared" si="1"/>
-        <v>2.4859999999999882</v>
+        <v>1.880000000000015</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="21" customHeight="1">
@@ -3224,23 +3223,23 @@
         <v>24</v>
       </c>
       <c r="B108" s="8">
-        <v>41436</v>
+        <v>41443</v>
       </c>
       <c r="C108">
-        <v>1.48743</v>
+        <v>1.46898</v>
       </c>
       <c r="D108">
-        <v>1.4908699999999999</v>
+        <v>1.4814400000000001</v>
       </c>
       <c r="E108">
-        <v>1.46601</v>
+        <v>1.4626399999999999</v>
       </c>
       <c r="F108">
-        <v>1.4688600000000001</v>
+        <v>1.4791399999999999</v>
       </c>
       <c r="H108">
         <f t="shared" si="1"/>
-        <v>3.6429999999999962</v>
+        <v>2.4859999999999882</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="21" customHeight="1">
@@ -3248,23 +3247,23 @@
         <v>24</v>
       </c>
       <c r="B109" s="8">
-        <v>41429</v>
+        <v>41436</v>
       </c>
       <c r="C109">
-        <v>1.5174700000000001</v>
+        <v>1.48743</v>
       </c>
       <c r="D109">
-        <v>1.51858</v>
+        <v>1.4908699999999999</v>
       </c>
       <c r="E109">
-        <v>1.4821500000000001</v>
+        <v>1.46601</v>
       </c>
       <c r="F109">
-        <v>1.48688</v>
+        <v>1.4688600000000001</v>
       </c>
       <c r="H109">
         <f t="shared" si="1"/>
-        <v>2.9880000000000129</v>
+        <v>3.6429999999999962</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="21" customHeight="1">
@@ -3272,23 +3271,23 @@
         <v>24</v>
       </c>
       <c r="B110" s="8">
-        <v>41422</v>
+        <v>41429</v>
       </c>
       <c r="C110">
-        <v>1.5019199999999999</v>
+        <v>1.5174700000000001</v>
       </c>
       <c r="D110">
-        <v>1.5226900000000001</v>
+        <v>1.51858</v>
       </c>
       <c r="E110">
-        <v>1.49281</v>
+        <v>1.4821500000000001</v>
       </c>
       <c r="F110">
-        <v>1.5153799999999999</v>
+        <v>1.48688</v>
       </c>
       <c r="H110">
         <f t="shared" si="1"/>
-        <v>1.7630000000000035</v>
+        <v>2.9880000000000129</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="21" customHeight="1">
@@ -3296,23 +3295,23 @@
         <v>24</v>
       </c>
       <c r="B111" s="8">
-        <v>41415</v>
+        <v>41422</v>
       </c>
       <c r="C111">
-        <v>1.5039100000000001</v>
+        <v>1.5019199999999999</v>
       </c>
       <c r="D111">
-        <v>1.5110399999999999</v>
+        <v>1.5226900000000001</v>
       </c>
       <c r="E111">
-        <v>1.4934099999999999</v>
+        <v>1.49281</v>
       </c>
       <c r="F111">
-        <v>1.5007999999999999</v>
+        <v>1.5153799999999999</v>
       </c>
       <c r="H111">
         <f t="shared" si="1"/>
-        <v>3.5980000000000123</v>
+        <v>1.7630000000000035</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="21" customHeight="1">
@@ -3320,23 +3319,23 @@
         <v>24</v>
       </c>
       <c r="B112" s="8">
-        <v>41408</v>
+        <v>41415</v>
       </c>
       <c r="C112">
-        <v>1.4783200000000001</v>
+        <v>1.5039100000000001</v>
       </c>
       <c r="D112">
-        <v>1.5075000000000001</v>
+        <v>1.5110399999999999</v>
       </c>
       <c r="E112">
-        <v>1.4715199999999999</v>
+        <v>1.4934099999999999</v>
       </c>
       <c r="F112">
-        <v>1.5024599999999999</v>
+        <v>1.5007999999999999</v>
       </c>
       <c r="H112">
         <f t="shared" si="1"/>
-        <v>2.0840000000000192</v>
+        <v>3.5980000000000123</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="21" customHeight="1">
@@ -3344,23 +3343,23 @@
         <v>24</v>
       </c>
       <c r="B113" s="8">
-        <v>41401</v>
+        <v>41408</v>
       </c>
       <c r="C113">
-        <v>1.48569</v>
+        <v>1.4783200000000001</v>
       </c>
       <c r="D113">
-        <v>1.4878800000000001</v>
+        <v>1.5075000000000001</v>
       </c>
       <c r="E113">
-        <v>1.4670399999999999</v>
+        <v>1.4715199999999999</v>
       </c>
       <c r="F113">
-        <v>1.4792700000000001</v>
+        <v>1.5024599999999999</v>
       </c>
       <c r="H113">
         <f t="shared" si="1"/>
-        <v>4.6699999999999964</v>
+        <v>2.0840000000000192</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="21" customHeight="1">
@@ -3368,23 +3367,23 @@
         <v>24</v>
       </c>
       <c r="B114" s="8">
-        <v>41394</v>
+        <v>41401</v>
       </c>
       <c r="C114">
-        <v>1.4559500000000001</v>
+        <v>1.48569</v>
       </c>
       <c r="D114">
-        <v>1.49105</v>
+        <v>1.4878800000000001</v>
       </c>
       <c r="E114">
-        <v>1.44435</v>
+        <v>1.4670399999999999</v>
       </c>
       <c r="F114">
-        <v>1.4821299999999999</v>
+        <v>1.4792700000000001</v>
       </c>
       <c r="H114">
         <f t="shared" si="1"/>
-        <v>3.3450000000000202</v>
+        <v>4.6699999999999964</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="21" customHeight="1">
@@ -3392,23 +3391,23 @@
         <v>24</v>
       </c>
       <c r="B115" s="8">
-        <v>41387</v>
+        <v>41394</v>
       </c>
       <c r="C115">
-        <v>1.4381200000000001</v>
+        <v>1.4559500000000001</v>
       </c>
       <c r="D115">
-        <v>1.4650700000000001</v>
+        <v>1.49105</v>
       </c>
       <c r="E115">
-        <v>1.4316199999999999</v>
+        <v>1.44435</v>
       </c>
       <c r="F115">
-        <v>1.4553</v>
+        <v>1.4821299999999999</v>
       </c>
       <c r="H115">
         <f t="shared" si="1"/>
-        <v>3.5279999999999978</v>
+        <v>3.3450000000000202</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="21" customHeight="1">
@@ -3416,23 +3415,23 @@
         <v>24</v>
       </c>
       <c r="B116" s="8">
-        <v>41380</v>
+        <v>41387</v>
       </c>
       <c r="C116">
-        <v>1.3998200000000001</v>
+        <v>1.4381200000000001</v>
       </c>
       <c r="D116">
-        <v>1.4335100000000001</v>
+        <v>1.4650700000000001</v>
       </c>
       <c r="E116">
-        <v>1.3982300000000001</v>
+        <v>1.4316199999999999</v>
       </c>
       <c r="F116">
-        <v>1.4212800000000001</v>
+        <v>1.4553</v>
       </c>
       <c r="H116">
         <f t="shared" si="1"/>
-        <v>2.1740000000000093</v>
+        <v>3.5279999999999978</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="21" customHeight="1">
@@ -3440,23 +3439,23 @@
         <v>24</v>
       </c>
       <c r="B117" s="8">
-        <v>41373</v>
+        <v>41380</v>
       </c>
       <c r="C117">
-        <v>1.41126</v>
+        <v>1.3998200000000001</v>
       </c>
       <c r="D117">
-        <v>1.4216800000000001</v>
+        <v>1.4335100000000001</v>
       </c>
       <c r="E117">
-        <v>1.39994</v>
+        <v>1.3982300000000001</v>
       </c>
       <c r="F117">
-        <v>1.40035</v>
+        <v>1.4212800000000001</v>
       </c>
       <c r="H117">
         <f t="shared" si="1"/>
-        <v>2.1790000000000198</v>
+        <v>2.1740000000000093</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="21" customHeight="1">
@@ -3464,23 +3463,23 @@
         <v>24</v>
       </c>
       <c r="B118" s="8">
-        <v>41366</v>
+        <v>41373</v>
       </c>
       <c r="C118">
-        <v>1.39649</v>
+        <v>1.41126</v>
       </c>
       <c r="D118">
-        <v>1.4178900000000001</v>
+        <v>1.4216800000000001</v>
       </c>
       <c r="E118">
-        <v>1.3960999999999999</v>
+        <v>1.39994</v>
       </c>
       <c r="F118">
-        <v>1.4120600000000001</v>
+        <v>1.40035</v>
       </c>
       <c r="H118">
         <f t="shared" si="1"/>
-        <v>3.7039999999999962</v>
+        <v>2.1790000000000198</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="21" customHeight="1">
@@ -3488,23 +3487,23 @@
         <v>24</v>
       </c>
       <c r="B119" s="8">
-        <v>41359</v>
+        <v>41366</v>
       </c>
       <c r="C119">
-        <v>1.4189700000000001</v>
+        <v>1.39649</v>
       </c>
       <c r="D119">
-        <v>1.4310099999999999</v>
+        <v>1.4178900000000001</v>
       </c>
       <c r="E119">
-        <v>1.3939699999999999</v>
+        <v>1.3960999999999999</v>
       </c>
       <c r="F119">
-        <v>1.39605</v>
+        <v>1.4120600000000001</v>
       </c>
       <c r="H119">
         <f t="shared" si="1"/>
-        <v>3.3469999999999889</v>
+        <v>3.7039999999999962</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="21" customHeight="1">
@@ -3512,23 +3511,23 @@
         <v>24</v>
       </c>
       <c r="B120" s="8">
-        <v>41352</v>
+        <v>41359</v>
       </c>
       <c r="C120">
-        <v>1.3945000000000001</v>
+        <v>1.4189700000000001</v>
       </c>
       <c r="D120">
-        <v>1.4208099999999999</v>
+        <v>1.4310099999999999</v>
       </c>
       <c r="E120">
-        <v>1.38734</v>
+        <v>1.3939699999999999</v>
       </c>
       <c r="F120">
-        <v>1.4166399999999999</v>
+        <v>1.39605</v>
       </c>
       <c r="H120">
         <f t="shared" si="1"/>
-        <v>3.0370000000000008</v>
+        <v>3.3469999999999889</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="21" customHeight="1">
@@ -3536,23 +3535,23 @@
         <v>24</v>
       </c>
       <c r="B121" s="8">
-        <v>41345</v>
+        <v>41352</v>
       </c>
       <c r="C121">
-        <v>1.4154500000000001</v>
+        <v>1.3945000000000001</v>
       </c>
       <c r="D121">
-        <v>1.41842</v>
+        <v>1.4208099999999999</v>
       </c>
       <c r="E121">
-        <v>1.38805</v>
+        <v>1.38734</v>
       </c>
       <c r="F121">
-        <v>1.39384</v>
+        <v>1.4166399999999999</v>
       </c>
       <c r="H121">
         <f t="shared" si="1"/>
-        <v>3.0460000000000154</v>
+        <v>3.0370000000000008</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="21" customHeight="1">
@@ -3560,23 +3559,23 @@
         <v>24</v>
       </c>
       <c r="B122" s="8">
-        <v>41338</v>
+        <v>41345</v>
       </c>
       <c r="C122">
-        <v>1.39778</v>
+        <v>1.4154500000000001</v>
       </c>
       <c r="D122">
-        <v>1.4179900000000001</v>
+        <v>1.41842</v>
       </c>
       <c r="E122">
-        <v>1.3875299999999999</v>
+        <v>1.38805</v>
       </c>
       <c r="F122">
-        <v>1.41483</v>
+        <v>1.39384</v>
       </c>
       <c r="H122">
         <f t="shared" si="1"/>
-        <v>2.7020000000000044</v>
+        <v>3.0460000000000154</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="21" customHeight="1">
@@ -3584,23 +3583,23 @@
         <v>24</v>
       </c>
       <c r="B123" s="8">
-        <v>41331</v>
+        <v>41338</v>
       </c>
       <c r="C123">
-        <v>1.3749400000000001</v>
+        <v>1.39778</v>
       </c>
       <c r="D123">
-        <v>1.39832</v>
+        <v>1.4179900000000001</v>
       </c>
       <c r="E123">
-        <v>1.3713</v>
+        <v>1.3875299999999999</v>
       </c>
       <c r="F123">
-        <v>1.3978999999999999</v>
+        <v>1.41483</v>
       </c>
       <c r="H123">
         <f t="shared" si="1"/>
-        <v>2.3599999999999843</v>
+        <v>2.7020000000000044</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="21" customHeight="1">
@@ -3608,23 +3607,23 @@
         <v>24</v>
       </c>
       <c r="B124" s="8">
-        <v>41324</v>
+        <v>41331</v>
       </c>
       <c r="C124">
-        <v>1.38219</v>
+        <v>1.3749400000000001</v>
       </c>
       <c r="D124">
-        <v>1.3862699999999999</v>
+        <v>1.39832</v>
       </c>
       <c r="E124">
-        <v>1.36267</v>
+        <v>1.3713</v>
       </c>
       <c r="F124">
-        <v>1.3765099999999999</v>
+        <v>1.3978999999999999</v>
       </c>
       <c r="H124">
         <f t="shared" si="1"/>
-        <v>1.7700000000000049</v>
+        <v>2.3599999999999843</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="21" customHeight="1">
@@ -3632,23 +3631,23 @@
         <v>24</v>
       </c>
       <c r="B125" s="8">
-        <v>41317</v>
+        <v>41324</v>
       </c>
       <c r="C125">
-        <v>1.3835599999999999</v>
+        <v>1.38219</v>
       </c>
       <c r="D125">
-        <v>1.39018</v>
+        <v>1.3862699999999999</v>
       </c>
       <c r="E125">
-        <v>1.3724799999999999</v>
+        <v>1.36267</v>
       </c>
       <c r="F125">
-        <v>1.3838299999999999</v>
+        <v>1.3765099999999999</v>
       </c>
       <c r="H125">
         <f t="shared" si="1"/>
-        <v>2.3619999999999974</v>
+        <v>1.7700000000000049</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="21" customHeight="1">
@@ -3656,23 +3655,23 @@
         <v>24</v>
       </c>
       <c r="B126" s="8">
-        <v>41310</v>
+        <v>41317</v>
       </c>
       <c r="C126">
-        <v>1.4053199999999999</v>
+        <v>1.3835599999999999</v>
       </c>
       <c r="D126">
-        <v>1.40757</v>
+        <v>1.39018</v>
       </c>
       <c r="E126">
-        <v>1.38395</v>
+        <v>1.3724799999999999</v>
       </c>
       <c r="F126">
-        <v>1.38581</v>
+        <v>1.3838299999999999</v>
       </c>
       <c r="H126">
         <f t="shared" si="1"/>
-        <v>2.9320000000000013</v>
+        <v>2.3619999999999974</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="21" customHeight="1">
@@ -3680,23 +3679,23 @@
         <v>24</v>
       </c>
       <c r="B127" s="8">
-        <v>41303</v>
+        <v>41310</v>
       </c>
       <c r="C127">
-        <v>1.4178200000000001</v>
+        <v>1.4053199999999999</v>
       </c>
       <c r="D127">
-        <v>1.42903</v>
+        <v>1.40757</v>
       </c>
       <c r="E127">
-        <v>1.39971</v>
+        <v>1.38395</v>
       </c>
       <c r="F127">
-        <v>1.4039999999999999</v>
+        <v>1.38581</v>
       </c>
       <c r="H127">
         <f t="shared" si="1"/>
-        <v>1.5430000000000055</v>
+        <v>2.9320000000000013</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="21" customHeight="1">
@@ -3704,23 +3703,23 @@
         <v>24</v>
       </c>
       <c r="B128" s="8">
-        <v>41296</v>
+        <v>41303</v>
       </c>
       <c r="C128">
-        <v>1.41578</v>
+        <v>1.4178200000000001</v>
       </c>
       <c r="D128">
-        <v>1.42757</v>
+        <v>1.42903</v>
       </c>
       <c r="E128">
-        <v>1.41214</v>
+        <v>1.39971</v>
       </c>
       <c r="F128">
-        <v>1.4173500000000001</v>
+        <v>1.4039999999999999</v>
       </c>
       <c r="H128">
         <f t="shared" si="1"/>
-        <v>1.8529999999999935</v>
+        <v>1.5430000000000055</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="21" customHeight="1">
@@ -3728,23 +3727,23 @@
         <v>24</v>
       </c>
       <c r="B129" s="8">
-        <v>41289</v>
+        <v>41296</v>
       </c>
       <c r="C129">
-        <v>1.4165300000000001</v>
+        <v>1.41578</v>
       </c>
       <c r="D129">
-        <v>1.42126</v>
+        <v>1.42757</v>
       </c>
       <c r="E129">
-        <v>1.40273</v>
+        <v>1.41214</v>
       </c>
       <c r="F129">
-        <v>1.4155899999999999</v>
+        <v>1.4173500000000001</v>
       </c>
       <c r="H129">
         <f t="shared" si="1"/>
-        <v>3.082000000000007</v>
+        <v>1.8529999999999935</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="21" customHeight="1">
@@ -3752,23 +3751,23 @@
         <v>24</v>
       </c>
       <c r="B130" s="8">
-        <v>41282</v>
+        <v>41289</v>
       </c>
       <c r="C130">
-        <v>1.4429799999999999</v>
+        <v>1.4165300000000001</v>
       </c>
       <c r="D130">
-        <v>1.44485</v>
+        <v>1.42126</v>
       </c>
       <c r="E130">
-        <v>1.4140299999999999</v>
+        <v>1.40273</v>
       </c>
       <c r="F130">
-        <v>1.4183699999999999</v>
+        <v>1.4155899999999999</v>
       </c>
       <c r="H130">
         <f t="shared" ref="H130:H193" si="2">ABS(D131-E131)*100</f>
-        <v>2.4270000000000014</v>
+        <v>3.082000000000007</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="21" customHeight="1">
@@ -3776,23 +3775,23 @@
         <v>24</v>
       </c>
       <c r="B131" s="8">
-        <v>41275</v>
+        <v>41282</v>
       </c>
       <c r="C131">
-        <v>1.45417</v>
+        <v>1.4429799999999999</v>
       </c>
       <c r="D131">
-        <v>1.45669</v>
+        <v>1.44485</v>
       </c>
       <c r="E131">
-        <v>1.43242</v>
+        <v>1.4140299999999999</v>
       </c>
       <c r="F131">
-        <v>1.4436599999999999</v>
+        <v>1.4183699999999999</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
-        <v>2.7329999999999854</v>
+        <v>2.4270000000000014</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="21" customHeight="1">
@@ -3800,23 +3799,23 @@
         <v>24</v>
       </c>
       <c r="B132" s="8">
-        <v>41268</v>
+        <v>41275</v>
       </c>
       <c r="C132">
-        <v>1.45522</v>
+        <v>1.45417</v>
       </c>
       <c r="D132">
-        <v>1.47281</v>
+        <v>1.45669</v>
       </c>
       <c r="E132">
-        <v>1.4454800000000001</v>
+        <v>1.43242</v>
       </c>
       <c r="F132">
-        <v>1.4593499999999999</v>
+        <v>1.4436599999999999</v>
       </c>
       <c r="H132">
         <f t="shared" si="2"/>
-        <v>3.0630000000000157</v>
+        <v>2.7329999999999854</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="21" customHeight="1">
@@ -3824,23 +3823,23 @@
         <v>24</v>
       </c>
       <c r="B133" s="8">
-        <v>41261</v>
+        <v>41268</v>
       </c>
       <c r="C133">
-        <v>1.43333</v>
+        <v>1.45522</v>
       </c>
       <c r="D133">
-        <v>1.4596800000000001</v>
+        <v>1.47281</v>
       </c>
       <c r="E133">
-        <v>1.4290499999999999</v>
+        <v>1.4454800000000001</v>
       </c>
       <c r="F133">
-        <v>1.45624</v>
+        <v>1.4593499999999999</v>
       </c>
       <c r="H133">
         <f t="shared" si="2"/>
-        <v>2.50999999999999</v>
+        <v>3.0630000000000157</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="21" customHeight="1">
@@ -3848,23 +3847,23 @@
         <v>24</v>
       </c>
       <c r="B134" s="8">
-        <v>41254</v>
+        <v>41261</v>
       </c>
       <c r="C134">
-        <v>1.41405</v>
+        <v>1.43333</v>
       </c>
       <c r="D134">
-        <v>1.43421</v>
+        <v>1.4596800000000001</v>
       </c>
       <c r="E134">
-        <v>1.4091100000000001</v>
+        <v>1.4290499999999999</v>
       </c>
       <c r="F134">
-        <v>1.43164</v>
+        <v>1.45624</v>
       </c>
       <c r="H134">
         <f t="shared" si="2"/>
-        <v>3.9380000000000193</v>
+        <v>2.50999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="21" customHeight="1">
@@ -3872,23 +3871,23 @@
         <v>24</v>
       </c>
       <c r="B135" s="8">
-        <v>41247</v>
+        <v>41254</v>
       </c>
       <c r="C135">
-        <v>1.4311199999999999</v>
+        <v>1.41405</v>
       </c>
       <c r="D135">
-        <v>1.4512400000000001</v>
+        <v>1.43421</v>
       </c>
       <c r="E135">
-        <v>1.4118599999999999</v>
+        <v>1.4091100000000001</v>
       </c>
       <c r="F135">
-        <v>1.4167400000000001</v>
+        <v>1.43164</v>
       </c>
       <c r="H135">
         <f t="shared" si="2"/>
-        <v>3.0030000000000001</v>
+        <v>3.9380000000000193</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="21" customHeight="1">
@@ -3896,23 +3895,23 @@
         <v>24</v>
       </c>
       <c r="B136" s="8">
-        <v>41240</v>
+        <v>41247</v>
       </c>
       <c r="C136">
-        <v>1.42517</v>
+        <v>1.4311199999999999</v>
       </c>
       <c r="D136">
-        <v>1.4436</v>
+        <v>1.4512400000000001</v>
       </c>
       <c r="E136">
-        <v>1.41357</v>
+        <v>1.4118599999999999</v>
       </c>
       <c r="F136">
-        <v>1.4309000000000001</v>
+        <v>1.4167400000000001</v>
       </c>
       <c r="H136">
         <f t="shared" si="2"/>
-        <v>3.0810000000000004</v>
+        <v>3.0030000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="21" customHeight="1">
@@ -3920,23 +3919,23 @@
         <v>24</v>
       </c>
       <c r="B137" s="8">
-        <v>41233</v>
+        <v>41240</v>
       </c>
       <c r="C137">
-        <v>1.4447000000000001</v>
+        <v>1.42517</v>
       </c>
       <c r="D137">
-        <v>1.4488399999999999</v>
+        <v>1.4436</v>
       </c>
       <c r="E137">
-        <v>1.4180299999999999</v>
+        <v>1.41357</v>
       </c>
       <c r="F137">
-        <v>1.42408</v>
+        <v>1.4309000000000001</v>
       </c>
       <c r="H137">
         <f t="shared" si="2"/>
-        <v>2.6699999999999946</v>
+        <v>3.0810000000000004</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="21" customHeight="1">
@@ -3944,23 +3943,23 @@
         <v>24</v>
       </c>
       <c r="B138" s="8">
-        <v>41226</v>
+        <v>41233</v>
       </c>
       <c r="C138">
-        <v>1.4352400000000001</v>
+        <v>1.4447000000000001</v>
       </c>
       <c r="D138">
-        <v>1.44469</v>
+        <v>1.4488399999999999</v>
       </c>
       <c r="E138">
-        <v>1.4179900000000001</v>
+        <v>1.4180299999999999</v>
       </c>
       <c r="F138">
-        <v>1.4433499999999999</v>
+        <v>1.42408</v>
       </c>
       <c r="H138">
         <f t="shared" si="2"/>
-        <v>8.0639999999999823</v>
+        <v>2.6699999999999946</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="21" customHeight="1">
@@ -3968,23 +3967,23 @@
         <v>24</v>
       </c>
       <c r="B139" s="8">
-        <v>41219</v>
+        <v>41226</v>
       </c>
       <c r="C139">
-        <v>1.43913</v>
+        <v>1.4352400000000001</v>
       </c>
       <c r="D139">
-        <v>1.4880199999999999</v>
+        <v>1.44469</v>
       </c>
       <c r="E139">
-        <v>1.4073800000000001</v>
+        <v>1.4179900000000001</v>
       </c>
       <c r="F139">
-        <v>1.4378200000000001</v>
+        <v>1.4433499999999999</v>
       </c>
       <c r="H139">
         <f t="shared" si="2"/>
-        <v>2.5899999999999812</v>
+        <v>8.0639999999999823</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="21" customHeight="1">
@@ -3992,23 +3991,23 @@
         <v>24</v>
       </c>
       <c r="B140" s="8">
-        <v>41212</v>
+        <v>41219</v>
       </c>
       <c r="C140">
-        <v>1.44523</v>
+        <v>1.43913</v>
       </c>
       <c r="D140">
-        <v>1.4557899999999999</v>
+        <v>1.4880199999999999</v>
       </c>
       <c r="E140">
-        <v>1.4298900000000001</v>
+        <v>1.4073800000000001</v>
       </c>
       <c r="F140">
-        <v>1.4506699999999999</v>
+        <v>1.4378200000000001</v>
       </c>
       <c r="H140">
         <f t="shared" si="2"/>
-        <v>3.5760000000000014</v>
+        <v>2.5899999999999812</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="21" customHeight="1">
@@ -4016,23 +4015,23 @@
         <v>24</v>
       </c>
       <c r="B141" s="8">
-        <v>41205</v>
+        <v>41212</v>
       </c>
       <c r="C141">
-        <v>1.4302600000000001</v>
+        <v>1.44523</v>
       </c>
       <c r="D141">
-        <v>1.44848</v>
+        <v>1.4557899999999999</v>
       </c>
       <c r="E141">
-        <v>1.41272</v>
+        <v>1.4298900000000001</v>
       </c>
       <c r="F141">
-        <v>1.44587</v>
+        <v>1.4506699999999999</v>
       </c>
       <c r="H141">
         <f t="shared" si="2"/>
-        <v>2.9379999999999962</v>
+        <v>3.5760000000000014</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="21" customHeight="1">
@@ -4040,23 +4039,23 @@
         <v>24</v>
       </c>
       <c r="B142" s="8">
-        <v>41198</v>
+        <v>41205</v>
       </c>
       <c r="C142">
-        <v>1.4394100000000001</v>
+        <v>1.4302600000000001</v>
       </c>
       <c r="D142">
-        <v>1.4475199999999999</v>
+        <v>1.44848</v>
       </c>
       <c r="E142">
-        <v>1.41814</v>
+        <v>1.41272</v>
       </c>
       <c r="F142">
-        <v>1.4308799999999999</v>
+        <v>1.44587</v>
       </c>
       <c r="H142">
         <f t="shared" si="2"/>
-        <v>3.5640000000000116</v>
+        <v>2.9379999999999962</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="21" customHeight="1">
@@ -4064,23 +4063,23 @@
         <v>24</v>
       </c>
       <c r="B143" s="8">
-        <v>41191</v>
+        <v>41198</v>
       </c>
       <c r="C143">
-        <v>1.4718199999999999</v>
+        <v>1.4394100000000001</v>
       </c>
       <c r="D143">
-        <v>1.4752700000000001</v>
+        <v>1.4475199999999999</v>
       </c>
       <c r="E143">
-        <v>1.43963</v>
+        <v>1.41814</v>
       </c>
       <c r="F143">
-        <v>1.4416500000000001</v>
+        <v>1.4308799999999999</v>
       </c>
       <c r="H143">
         <f t="shared" si="2"/>
-        <v>2.4359999999999937</v>
+        <v>3.5640000000000116</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="21" customHeight="1">
@@ -4088,23 +4087,23 @@
         <v>24</v>
       </c>
       <c r="B144" s="8">
-        <v>41184</v>
+        <v>41191</v>
       </c>
       <c r="C144">
-        <v>1.4667600000000001</v>
+        <v>1.4718199999999999</v>
       </c>
       <c r="D144">
-        <v>1.47787</v>
+        <v>1.4752700000000001</v>
       </c>
       <c r="E144">
-        <v>1.4535100000000001</v>
+        <v>1.43963</v>
       </c>
       <c r="F144">
-        <v>1.47614</v>
+        <v>1.4416500000000001</v>
       </c>
       <c r="H144">
         <f t="shared" si="2"/>
-        <v>2.2399999999999975</v>
+        <v>2.4359999999999937</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="21" customHeight="1">
@@ -4112,23 +4111,23 @@
         <v>24</v>
       </c>
       <c r="B145" s="8">
-        <v>41177</v>
+        <v>41184</v>
       </c>
       <c r="C145">
-        <v>1.4738599999999999</v>
+        <v>1.4667600000000001</v>
       </c>
       <c r="D145">
-        <v>1.4781</v>
+        <v>1.47787</v>
       </c>
       <c r="E145">
-        <v>1.4557</v>
+        <v>1.4535100000000001</v>
       </c>
       <c r="F145">
-        <v>1.4676199999999999</v>
+        <v>1.47614</v>
       </c>
       <c r="H145">
         <f t="shared" si="2"/>
-        <v>2.6830000000000132</v>
+        <v>2.2399999999999975</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="21" customHeight="1">
@@ -4136,23 +4135,23 @@
         <v>24</v>
       </c>
       <c r="B146" s="8">
-        <v>41170</v>
+        <v>41177</v>
       </c>
       <c r="C146">
-        <v>1.48977</v>
+        <v>1.4738599999999999</v>
       </c>
       <c r="D146">
-        <v>1.4900100000000001</v>
+        <v>1.4781</v>
       </c>
       <c r="E146">
-        <v>1.4631799999999999</v>
+        <v>1.4557</v>
       </c>
       <c r="F146">
-        <v>1.4730700000000001</v>
+        <v>1.4676199999999999</v>
       </c>
       <c r="H146">
         <f t="shared" si="2"/>
-        <v>2.513999999999994</v>
+        <v>2.6830000000000132</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="21" customHeight="1">
@@ -4160,23 +4159,23 @@
         <v>24</v>
       </c>
       <c r="B147" s="8">
-        <v>41163</v>
+        <v>41170</v>
       </c>
       <c r="C147">
-        <v>1.4892099999999999</v>
+        <v>1.48977</v>
       </c>
       <c r="D147">
-        <v>1.5095099999999999</v>
+        <v>1.4900100000000001</v>
       </c>
       <c r="E147">
-        <v>1.48437</v>
+        <v>1.4631799999999999</v>
       </c>
       <c r="F147">
-        <v>1.4889300000000001</v>
+        <v>1.4730700000000001</v>
       </c>
       <c r="H147">
         <f t="shared" si="2"/>
-        <v>3.2149999999999901</v>
+        <v>2.513999999999994</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="21" customHeight="1">
@@ -4184,23 +4183,23 @@
         <v>24</v>
       </c>
       <c r="B148" s="8">
-        <v>41156</v>
+        <v>41163</v>
       </c>
       <c r="C148">
-        <v>1.4725200000000001</v>
+        <v>1.4892099999999999</v>
       </c>
       <c r="D148">
-        <v>1.4901</v>
+        <v>1.5095099999999999</v>
       </c>
       <c r="E148">
-        <v>1.4579500000000001</v>
+        <v>1.48437</v>
       </c>
       <c r="F148">
-        <v>1.48997</v>
+        <v>1.4889300000000001</v>
       </c>
       <c r="H148">
         <f t="shared" si="2"/>
-        <v>1.3500000000000068</v>
+        <v>3.2149999999999901</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="21" customHeight="1">
@@ -4208,23 +4207,23 @@
         <v>24</v>
       </c>
       <c r="B149" s="8">
-        <v>41149</v>
+        <v>41156</v>
       </c>
       <c r="C149">
-        <v>1.4804999999999999</v>
+        <v>1.4725200000000001</v>
       </c>
       <c r="D149">
-        <v>1.4871700000000001</v>
+        <v>1.4901</v>
       </c>
       <c r="E149">
-        <v>1.47367</v>
+        <v>1.4579500000000001</v>
       </c>
       <c r="F149">
-        <v>1.4738599999999999</v>
+        <v>1.48997</v>
       </c>
       <c r="H149">
         <f t="shared" si="2"/>
-        <v>1.8220000000000125</v>
+        <v>1.3500000000000068</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="21" customHeight="1">
@@ -4232,23 +4231,23 @@
         <v>24</v>
       </c>
       <c r="B150" s="8">
-        <v>41142</v>
+        <v>41149</v>
       </c>
       <c r="C150">
-        <v>1.48661</v>
+        <v>1.4804999999999999</v>
       </c>
       <c r="D150">
-        <v>1.4877800000000001</v>
+        <v>1.4871700000000001</v>
       </c>
       <c r="E150">
-        <v>1.46956</v>
+        <v>1.47367</v>
       </c>
       <c r="F150">
-        <v>1.48044</v>
+        <v>1.4738599999999999</v>
       </c>
       <c r="H150">
         <f t="shared" si="2"/>
-        <v>3.4689999999999888</v>
+        <v>1.8220000000000125</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="21" customHeight="1">
@@ -4256,23 +4255,23 @@
         <v>24</v>
       </c>
       <c r="B151" s="8">
-        <v>41135</v>
+        <v>41142</v>
       </c>
       <c r="C151">
-        <v>1.4582299999999999</v>
+        <v>1.48661</v>
       </c>
       <c r="D151">
-        <v>1.48888</v>
+        <v>1.4877800000000001</v>
       </c>
       <c r="E151">
-        <v>1.4541900000000001</v>
+        <v>1.46956</v>
       </c>
       <c r="F151">
-        <v>1.48499</v>
+        <v>1.48044</v>
       </c>
       <c r="H151">
         <f t="shared" si="2"/>
-        <v>1.8319999999999892</v>
+        <v>3.4689999999999888</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="21" customHeight="1">
@@ -4280,23 +4279,23 @@
         <v>24</v>
       </c>
       <c r="B152" s="8">
-        <v>41128</v>
+        <v>41135</v>
       </c>
       <c r="C152">
-        <v>1.4574800000000001</v>
+        <v>1.4582299999999999</v>
       </c>
       <c r="D152">
-        <v>1.4604299999999999</v>
+        <v>1.48888</v>
       </c>
       <c r="E152">
-        <v>1.44211</v>
+        <v>1.4541900000000001</v>
       </c>
       <c r="F152">
-        <v>1.45963</v>
+        <v>1.48499</v>
       </c>
       <c r="H152">
         <f t="shared" si="2"/>
-        <v>4.1050000000000031</v>
+        <v>1.8319999999999892</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="21" customHeight="1">
@@ -4304,23 +4303,23 @@
         <v>24</v>
       </c>
       <c r="B153" s="8">
-        <v>41121</v>
+        <v>41128</v>
       </c>
       <c r="C153">
-        <v>1.47119</v>
+        <v>1.4574800000000001</v>
       </c>
       <c r="D153">
-        <v>1.4905600000000001</v>
+        <v>1.4604299999999999</v>
       </c>
       <c r="E153">
-        <v>1.4495100000000001</v>
+        <v>1.44211</v>
       </c>
       <c r="F153">
-        <v>1.4549700000000001</v>
+        <v>1.45963</v>
       </c>
       <c r="H153">
         <f t="shared" si="2"/>
-        <v>2.9420000000000002</v>
+        <v>4.1050000000000031</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="21" customHeight="1">
@@ -4328,23 +4327,23 @@
         <v>24</v>
       </c>
       <c r="B154" s="8">
-        <v>41114</v>
+        <v>41121</v>
       </c>
       <c r="C154">
-        <v>1.4700200000000001</v>
+        <v>1.47119</v>
       </c>
       <c r="D154">
-        <v>1.4812799999999999</v>
+        <v>1.4905600000000001</v>
       </c>
       <c r="E154">
-        <v>1.4518599999999999</v>
+        <v>1.4495100000000001</v>
       </c>
       <c r="F154">
-        <v>1.4702</v>
+        <v>1.4549700000000001</v>
       </c>
       <c r="H154">
         <f t="shared" si="2"/>
-        <v>2.6269999999999794</v>
+        <v>2.9420000000000002</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="21" customHeight="1">
@@ -4352,23 +4351,23 @@
         <v>24</v>
       </c>
       <c r="B155" s="8">
-        <v>41107</v>
+        <v>41114</v>
       </c>
       <c r="C155">
-        <v>1.4545999999999999</v>
+        <v>1.4700200000000001</v>
       </c>
       <c r="D155">
-        <v>1.4789699999999999</v>
+        <v>1.4812799999999999</v>
       </c>
       <c r="E155">
-        <v>1.4527000000000001</v>
+        <v>1.4518599999999999</v>
       </c>
       <c r="F155">
-        <v>1.46977</v>
+        <v>1.4702</v>
       </c>
       <c r="H155">
         <f t="shared" si="2"/>
-        <v>2.1589999999999998</v>
+        <v>2.6269999999999794</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="21" customHeight="1">
@@ -4376,23 +4375,23 @@
         <v>24</v>
       </c>
       <c r="B156" s="8">
-        <v>41100</v>
+        <v>41107</v>
       </c>
       <c r="C156">
-        <v>1.4613499999999999</v>
+        <v>1.4545999999999999</v>
       </c>
       <c r="D156">
-        <v>1.4695499999999999</v>
+        <v>1.4789699999999999</v>
       </c>
       <c r="E156">
-        <v>1.4479599999999999</v>
+        <v>1.4527000000000001</v>
       </c>
       <c r="F156">
-        <v>1.4578100000000001</v>
+        <v>1.46977</v>
       </c>
       <c r="H156">
         <f t="shared" si="2"/>
-        <v>3.4980000000000011</v>
+        <v>2.1589999999999998</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="21" customHeight="1">
@@ -4400,23 +4399,23 @@
         <v>24</v>
       </c>
       <c r="B157" s="8">
-        <v>41093</v>
+        <v>41100</v>
       </c>
       <c r="C157">
-        <v>1.4922200000000001</v>
+        <v>1.4613499999999999</v>
       </c>
       <c r="D157">
-        <v>1.4938400000000001</v>
+        <v>1.4695499999999999</v>
       </c>
       <c r="E157">
-        <v>1.45886</v>
+        <v>1.4479599999999999</v>
       </c>
       <c r="F157">
-        <v>1.4601299999999999</v>
+        <v>1.4578100000000001</v>
       </c>
       <c r="H157">
         <f t="shared" si="2"/>
-        <v>2.2499999999999964</v>
+        <v>3.4980000000000011</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="21" customHeight="1">
@@ -4424,23 +4423,23 @@
         <v>24</v>
       </c>
       <c r="B158" s="8">
-        <v>41086</v>
+        <v>41093</v>
       </c>
       <c r="C158">
-        <v>1.4857100000000001</v>
+        <v>1.4922200000000001</v>
       </c>
       <c r="D158">
-        <v>1.5047299999999999</v>
+        <v>1.4938400000000001</v>
       </c>
       <c r="E158">
-        <v>1.4822299999999999</v>
+        <v>1.45886</v>
       </c>
       <c r="F158">
-        <v>1.4862299999999999</v>
+        <v>1.4601299999999999</v>
       </c>
       <c r="H158">
         <f t="shared" si="2"/>
-        <v>4.9639999999999906</v>
+        <v>2.2499999999999964</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="21" customHeight="1">
@@ -4448,23 +4447,23 @@
         <v>24</v>
       </c>
       <c r="B159" s="8">
-        <v>41079</v>
+        <v>41086</v>
       </c>
       <c r="C159">
-        <v>1.52349</v>
+        <v>1.4857100000000001</v>
       </c>
       <c r="D159">
-        <v>1.5298499999999999</v>
+        <v>1.5047299999999999</v>
       </c>
       <c r="E159">
-        <v>1.48021</v>
+        <v>1.4822299999999999</v>
       </c>
       <c r="F159">
-        <v>1.48428</v>
+        <v>1.4862299999999999</v>
       </c>
       <c r="H159">
         <f t="shared" si="2"/>
-        <v>2.2759999999999891</v>
+        <v>4.9639999999999906</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="21" customHeight="1">
@@ -4472,23 +4471,23 @@
         <v>24</v>
       </c>
       <c r="B160" s="8">
-        <v>41072</v>
+        <v>41079</v>
       </c>
       <c r="C160">
-        <v>1.5257099999999999</v>
+        <v>1.52349</v>
       </c>
       <c r="D160">
-        <v>1.53647</v>
+        <v>1.5298499999999999</v>
       </c>
       <c r="E160">
-        <v>1.5137100000000001</v>
+        <v>1.48021</v>
       </c>
       <c r="F160">
-        <v>1.52529</v>
+        <v>1.48428</v>
       </c>
       <c r="H160">
         <f t="shared" si="2"/>
-        <v>3.2040000000000068</v>
+        <v>2.2759999999999891</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="21" customHeight="1">
@@ -4496,23 +4495,23 @@
         <v>24</v>
       </c>
       <c r="B161" s="8">
-        <v>41065</v>
+        <v>41072</v>
       </c>
       <c r="C161">
-        <v>1.5431999999999999</v>
+        <v>1.5257099999999999</v>
       </c>
       <c r="D161">
-        <v>1.55138</v>
+        <v>1.53647</v>
       </c>
       <c r="E161">
-        <v>1.5193399999999999</v>
+        <v>1.5137100000000001</v>
       </c>
       <c r="F161">
-        <v>1.52522</v>
+        <v>1.52529</v>
       </c>
       <c r="H161">
         <f t="shared" si="2"/>
-        <v>3.0380000000000074</v>
+        <v>3.2040000000000068</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="21" customHeight="1">
@@ -4520,23 +4519,23 @@
         <v>24</v>
       </c>
       <c r="B162" s="8">
-        <v>41058</v>
+        <v>41065</v>
       </c>
       <c r="C162">
-        <v>1.5476799999999999</v>
+        <v>1.5431999999999999</v>
       </c>
       <c r="D162">
-        <v>1.55416</v>
+        <v>1.55138</v>
       </c>
       <c r="E162">
-        <v>1.5237799999999999</v>
+        <v>1.5193399999999999</v>
       </c>
       <c r="F162">
-        <v>1.5419400000000001</v>
+        <v>1.52522</v>
       </c>
       <c r="H162">
         <f t="shared" si="2"/>
-        <v>1.9689999999999985</v>
+        <v>3.0380000000000074</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="21" customHeight="1">
@@ -4544,23 +4543,23 @@
         <v>24</v>
       </c>
       <c r="B163" s="8">
-        <v>41051</v>
+        <v>41058</v>
       </c>
       <c r="C163">
-        <v>1.55175</v>
+        <v>1.5476799999999999</v>
       </c>
       <c r="D163">
-        <v>1.5645199999999999</v>
+        <v>1.55416</v>
       </c>
       <c r="E163">
-        <v>1.5448299999999999</v>
+        <v>1.5237799999999999</v>
       </c>
       <c r="F163">
-        <v>1.5459000000000001</v>
+        <v>1.5419400000000001</v>
       </c>
       <c r="H163">
         <f t="shared" si="2"/>
-        <v>2.2860000000000102</v>
+        <v>1.9689999999999985</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="21" customHeight="1">
@@ -4568,23 +4567,23 @@
         <v>24</v>
       </c>
       <c r="B164" s="8">
-        <v>41044</v>
+        <v>41051</v>
       </c>
       <c r="C164">
-        <v>1.55694</v>
+        <v>1.55175</v>
       </c>
       <c r="D164">
-        <v>1.5595600000000001</v>
+        <v>1.5645199999999999</v>
       </c>
       <c r="E164">
-        <v>1.5367</v>
+        <v>1.5448299999999999</v>
       </c>
       <c r="F164">
-        <v>1.55294</v>
+        <v>1.5459000000000001</v>
       </c>
       <c r="H164">
         <f t="shared" si="2"/>
-        <v>2.092000000000005</v>
+        <v>2.2860000000000102</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="21" customHeight="1">
@@ -4592,23 +4591,23 @@
         <v>24</v>
       </c>
       <c r="B165" s="8">
-        <v>41037</v>
+        <v>41044</v>
       </c>
       <c r="C165">
-        <v>1.5472399999999999</v>
+        <v>1.55694</v>
       </c>
       <c r="D165">
-        <v>1.5603899999999999</v>
+        <v>1.5595600000000001</v>
       </c>
       <c r="E165">
-        <v>1.5394699999999999</v>
+        <v>1.5367</v>
       </c>
       <c r="F165">
-        <v>1.55565</v>
+        <v>1.55294</v>
       </c>
       <c r="H165">
         <f t="shared" si="2"/>
-        <v>6.3199999999999923</v>
+        <v>2.092000000000005</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="21" customHeight="1">
@@ -4616,23 +4615,23 @@
         <v>24</v>
       </c>
       <c r="B166" s="8">
-        <v>41030</v>
+        <v>41037</v>
       </c>
       <c r="C166">
-        <v>1.5060500000000001</v>
+        <v>1.5472399999999999</v>
       </c>
       <c r="D166">
-        <v>1.55664</v>
+        <v>1.5603899999999999</v>
       </c>
       <c r="E166">
-        <v>1.4934400000000001</v>
+        <v>1.5394699999999999</v>
       </c>
       <c r="F166">
-        <v>1.54732</v>
+        <v>1.55565</v>
       </c>
       <c r="H166">
         <f t="shared" si="2"/>
-        <v>5.2749999999999853</v>
+        <v>6.3199999999999923</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="21" customHeight="1">
@@ -4640,23 +4639,23 @@
         <v>24</v>
       </c>
       <c r="B167" s="8">
-        <v>41023</v>
+        <v>41030</v>
       </c>
       <c r="C167">
-        <v>1.4557</v>
+        <v>1.5060500000000001</v>
       </c>
       <c r="D167">
-        <v>1.5078499999999999</v>
+        <v>1.55664</v>
       </c>
       <c r="E167">
-        <v>1.4551000000000001</v>
+        <v>1.4934400000000001</v>
       </c>
       <c r="F167">
-        <v>1.50509</v>
+        <v>1.54732</v>
       </c>
       <c r="H167">
         <f t="shared" si="2"/>
-        <v>3.6950000000000038</v>
+        <v>5.2749999999999853</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="21" customHeight="1">
@@ -4664,23 +4663,23 @@
         <v>24</v>
       </c>
       <c r="B168" s="8">
-        <v>41016</v>
+        <v>41023</v>
       </c>
       <c r="C168">
-        <v>1.4735400000000001</v>
+        <v>1.4557</v>
       </c>
       <c r="D168">
-        <v>1.48038</v>
+        <v>1.5078499999999999</v>
       </c>
       <c r="E168">
-        <v>1.44343</v>
+        <v>1.4551000000000001</v>
       </c>
       <c r="F168">
-        <v>1.4570000000000001</v>
+        <v>1.50509</v>
       </c>
       <c r="H168">
         <f t="shared" si="2"/>
-        <v>5.9769999999999879</v>
+        <v>3.6950000000000038</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="21" customHeight="1">
@@ -4688,23 +4687,23 @@
         <v>24</v>
       </c>
       <c r="B169" s="8">
-        <v>41009</v>
+        <v>41016</v>
       </c>
       <c r="C169">
-        <v>1.5109399999999999</v>
+        <v>1.4735400000000001</v>
       </c>
       <c r="D169">
-        <v>1.5159199999999999</v>
+        <v>1.48038</v>
       </c>
       <c r="E169">
-        <v>1.4561500000000001</v>
+        <v>1.44343</v>
       </c>
       <c r="F169">
-        <v>1.4615400000000001</v>
+        <v>1.4570000000000001</v>
       </c>
       <c r="H169">
         <f t="shared" si="2"/>
-        <v>3.6789999999999878</v>
+        <v>5.9769999999999879</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="21" customHeight="1">
@@ -4712,23 +4711,23 @@
         <v>24</v>
       </c>
       <c r="B170" s="8">
-        <v>41002</v>
+        <v>41009</v>
       </c>
       <c r="C170">
-        <v>1.4841200000000001</v>
+        <v>1.5109399999999999</v>
       </c>
       <c r="D170">
-        <v>1.5202199999999999</v>
+        <v>1.5159199999999999</v>
       </c>
       <c r="E170">
-        <v>1.48343</v>
+        <v>1.4561500000000001</v>
       </c>
       <c r="F170">
-        <v>1.5093399999999999</v>
+        <v>1.4615400000000001</v>
       </c>
       <c r="H170">
         <f t="shared" si="2"/>
-        <v>2.5979999999999892</v>
+        <v>3.6789999999999878</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="21" customHeight="1">
@@ -4736,23 +4735,23 @@
         <v>24</v>
       </c>
       <c r="B171" s="8">
-        <v>40995</v>
+        <v>41002</v>
       </c>
       <c r="C171">
-        <v>1.4862899999999999</v>
+        <v>1.4841200000000001</v>
       </c>
       <c r="D171">
-        <v>1.4974499999999999</v>
+        <v>1.5202199999999999</v>
       </c>
       <c r="E171">
-        <v>1.4714700000000001</v>
+        <v>1.48343</v>
       </c>
       <c r="F171">
-        <v>1.4834000000000001</v>
+        <v>1.5093399999999999</v>
       </c>
       <c r="H171">
         <f t="shared" si="2"/>
-        <v>2.625999999999995</v>
+        <v>2.5979999999999892</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="21" customHeight="1">
@@ -4760,23 +4759,23 @@
         <v>24</v>
       </c>
       <c r="B172" s="8">
-        <v>40988</v>
+        <v>40995</v>
       </c>
       <c r="C172">
-        <v>1.48325</v>
+        <v>1.4862899999999999</v>
       </c>
       <c r="D172">
-        <v>1.49254</v>
+        <v>1.4974499999999999</v>
       </c>
       <c r="E172">
-        <v>1.46628</v>
+        <v>1.4714700000000001</v>
       </c>
       <c r="F172">
-        <v>1.48804</v>
+        <v>1.4834000000000001</v>
       </c>
       <c r="H172">
         <f t="shared" si="2"/>
-        <v>2.4240000000000039</v>
+        <v>2.625999999999995</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="21" customHeight="1">
@@ -4784,23 +4783,23 @@
         <v>24</v>
       </c>
       <c r="B173" s="8">
-        <v>40981</v>
+        <v>40988</v>
       </c>
       <c r="C173">
-        <v>1.4760200000000001</v>
+        <v>1.48325</v>
       </c>
       <c r="D173">
-        <v>1.49407</v>
+        <v>1.49254</v>
       </c>
       <c r="E173">
-        <v>1.46983</v>
+        <v>1.46628</v>
       </c>
       <c r="F173">
-        <v>1.4832000000000001</v>
+        <v>1.48804</v>
       </c>
       <c r="H173">
         <f t="shared" si="2"/>
-        <v>6.2109999999999888</v>
+        <v>2.4240000000000039</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="21" customHeight="1">
@@ -4808,23 +4807,23 @@
         <v>24</v>
       </c>
       <c r="B174" s="8">
-        <v>40974</v>
+        <v>40981</v>
       </c>
       <c r="C174">
-        <v>1.4842</v>
+        <v>1.4760200000000001</v>
       </c>
       <c r="D174">
-        <v>1.50874</v>
+        <v>1.49407</v>
       </c>
       <c r="E174">
-        <v>1.4466300000000001</v>
+        <v>1.46983</v>
       </c>
       <c r="F174">
-        <v>1.4758599999999999</v>
+        <v>1.4832000000000001</v>
       </c>
       <c r="H174">
         <f t="shared" si="2"/>
-        <v>6.4540000000000042</v>
+        <v>6.2109999999999888</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="21" customHeight="1">
@@ -4832,23 +4831,23 @@
         <v>24</v>
       </c>
       <c r="B175" s="8">
-        <v>40967</v>
+        <v>40974</v>
       </c>
       <c r="C175">
-        <v>1.53216</v>
+        <v>1.4842</v>
       </c>
       <c r="D175">
-        <v>1.5383100000000001</v>
+        <v>1.50874</v>
       </c>
       <c r="E175">
-        <v>1.47377</v>
+        <v>1.4466300000000001</v>
       </c>
       <c r="F175">
-        <v>1.4806299999999999</v>
+        <v>1.4758599999999999</v>
       </c>
       <c r="H175">
         <f t="shared" si="2"/>
-        <v>4.2470000000000008</v>
+        <v>6.4540000000000042</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="21" customHeight="1">
@@ -4856,23 +4855,23 @@
         <v>24</v>
       </c>
       <c r="B176" s="8">
-        <v>40960</v>
+        <v>40967</v>
       </c>
       <c r="C176">
-        <v>1.55261</v>
+        <v>1.53216</v>
       </c>
       <c r="D176">
-        <v>1.5584</v>
+        <v>1.5383100000000001</v>
       </c>
       <c r="E176">
-        <v>1.51593</v>
+        <v>1.47377</v>
       </c>
       <c r="F176">
-        <v>1.53392</v>
+        <v>1.4806299999999999</v>
       </c>
       <c r="H176">
         <f t="shared" si="2"/>
-        <v>3.6389999999999922</v>
+        <v>4.2470000000000008</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="21" customHeight="1">
@@ -4880,23 +4879,23 @@
         <v>24</v>
       </c>
       <c r="B177" s="8">
-        <v>40953</v>
+        <v>40960</v>
       </c>
       <c r="C177">
-        <v>1.5809899999999999</v>
+        <v>1.55261</v>
       </c>
       <c r="D177">
-        <v>1.5835999999999999</v>
+        <v>1.5584</v>
       </c>
       <c r="E177">
-        <v>1.54721</v>
+        <v>1.51593</v>
       </c>
       <c r="F177">
-        <v>1.5563100000000001</v>
+        <v>1.53392</v>
       </c>
       <c r="H177">
         <f t="shared" si="2"/>
-        <v>6.0170000000000057</v>
+        <v>3.6389999999999922</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="21" customHeight="1">
@@ -4904,23 +4903,23 @@
         <v>24</v>
       </c>
       <c r="B178" s="8">
-        <v>40946</v>
+        <v>40953</v>
       </c>
       <c r="C178">
-        <v>1.57467</v>
+        <v>1.5809899999999999</v>
       </c>
       <c r="D178">
-        <v>1.62497</v>
+        <v>1.5835999999999999</v>
       </c>
       <c r="E178">
-        <v>1.5648</v>
+        <v>1.54721</v>
       </c>
       <c r="F178">
-        <v>1.5838399999999999</v>
+        <v>1.5563100000000001</v>
       </c>
       <c r="H178">
         <f t="shared" si="2"/>
-        <v>5.0719999999999876</v>
+        <v>6.0170000000000057</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="21" customHeight="1">
@@ -4928,23 +4927,23 @@
         <v>24</v>
       </c>
       <c r="B179" s="8">
-        <v>40939</v>
+        <v>40946</v>
       </c>
       <c r="C179">
-        <v>1.5283</v>
+        <v>1.57467</v>
       </c>
       <c r="D179">
-        <v>1.5789299999999999</v>
+        <v>1.62497</v>
       </c>
       <c r="E179">
-        <v>1.5282100000000001</v>
+        <v>1.5648</v>
       </c>
       <c r="F179">
-        <v>1.57782</v>
+        <v>1.5838399999999999</v>
       </c>
       <c r="H179">
         <f t="shared" si="2"/>
-        <v>4.5609999999999928</v>
+        <v>5.0719999999999876</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="21" customHeight="1">
@@ -4952,23 +4951,23 @@
         <v>24</v>
       </c>
       <c r="B180" s="8">
-        <v>40932</v>
+        <v>40939</v>
       </c>
       <c r="C180">
-        <v>1.53949</v>
+        <v>1.5283</v>
       </c>
       <c r="D180">
-        <v>1.5704899999999999</v>
+        <v>1.5789299999999999</v>
       </c>
       <c r="E180">
-        <v>1.52488</v>
+        <v>1.5282100000000001</v>
       </c>
       <c r="F180">
-        <v>1.5301800000000001</v>
+        <v>1.57782</v>
       </c>
       <c r="H180">
         <f t="shared" si="2"/>
-        <v>7.1359999999999868</v>
+        <v>4.5609999999999928</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="21" customHeight="1">
@@ -4976,23 +4975,23 @@
         <v>24</v>
       </c>
       <c r="B181" s="8">
-        <v>40925</v>
+        <v>40932</v>
       </c>
       <c r="C181">
-        <v>1.5966400000000001</v>
+        <v>1.53949</v>
       </c>
       <c r="D181">
-        <v>1.6053299999999999</v>
+        <v>1.5704899999999999</v>
       </c>
       <c r="E181">
-        <v>1.5339700000000001</v>
+        <v>1.52488</v>
       </c>
       <c r="F181">
-        <v>1.5418700000000001</v>
+        <v>1.5301800000000001</v>
       </c>
       <c r="H181">
         <f t="shared" si="2"/>
-        <v>7.3500000000000121</v>
+        <v>7.1359999999999868</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="21" customHeight="1">
@@ -5000,23 +4999,23 @@
         <v>24</v>
       </c>
       <c r="B182" s="8">
-        <v>40918</v>
+        <v>40925</v>
       </c>
       <c r="C182">
-        <v>1.5658399999999999</v>
+        <v>1.5966400000000001</v>
       </c>
       <c r="D182">
-        <v>1.60762</v>
+        <v>1.6053299999999999</v>
       </c>
       <c r="E182">
-        <v>1.5341199999999999</v>
+        <v>1.5339700000000001</v>
       </c>
       <c r="F182">
-        <v>1.5875699999999999</v>
+        <v>1.5418700000000001</v>
       </c>
       <c r="H182">
         <f t="shared" si="2"/>
-        <v>8.1350000000000033</v>
+        <v>7.3500000000000121</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="21" customHeight="1">
@@ -5024,23 +5023,23 @@
         <v>24</v>
       </c>
       <c r="B183" s="8">
-        <v>40911</v>
+        <v>40918</v>
       </c>
       <c r="C183">
-        <v>1.4911700000000001</v>
+        <v>1.5658399999999999</v>
       </c>
       <c r="D183">
-        <v>1.5682400000000001</v>
+        <v>1.60762</v>
       </c>
       <c r="E183">
-        <v>1.48689</v>
+        <v>1.5341199999999999</v>
       </c>
       <c r="F183">
-        <v>1.5681799999999999</v>
+        <v>1.5875699999999999</v>
       </c>
       <c r="H183">
         <f t="shared" si="2"/>
-        <v>2.7789999999999981</v>
+        <v>8.1350000000000033</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="21" customHeight="1">
@@ -5048,23 +5047,23 @@
         <v>24</v>
       </c>
       <c r="B184" s="8">
-        <v>40904</v>
+        <v>40911</v>
       </c>
       <c r="C184">
-        <v>1.5021599999999999</v>
+        <v>1.4911700000000001</v>
       </c>
       <c r="D184">
-        <v>1.5140899999999999</v>
+        <v>1.5682400000000001</v>
       </c>
       <c r="E184">
-        <v>1.4863</v>
+        <v>1.48689</v>
       </c>
       <c r="F184">
-        <v>1.4925999999999999</v>
+        <v>1.5681799999999999</v>
       </c>
       <c r="H184">
         <f t="shared" si="2"/>
-        <v>2.2540000000000004</v>
+        <v>2.7789999999999981</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="21" customHeight="1">
@@ -5072,23 +5071,23 @@
         <v>24</v>
       </c>
       <c r="B185" s="8">
-        <v>40897</v>
+        <v>40904</v>
       </c>
       <c r="C185">
-        <v>1.5132300000000001</v>
+        <v>1.5021599999999999</v>
       </c>
       <c r="D185">
-        <v>1.5254399999999999</v>
+        <v>1.5140899999999999</v>
       </c>
       <c r="E185">
-        <v>1.5028999999999999</v>
+        <v>1.4863</v>
       </c>
       <c r="F185">
-        <v>1.5051300000000001</v>
+        <v>1.4925999999999999</v>
       </c>
       <c r="H185">
         <f t="shared" si="2"/>
-        <v>3.0270000000000019</v>
+        <v>2.2540000000000004</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="21" customHeight="1">
@@ -5096,23 +5095,23 @@
         <v>24</v>
       </c>
       <c r="B186" s="8">
-        <v>40890</v>
+        <v>40897</v>
       </c>
       <c r="C186">
-        <v>1.52437</v>
+        <v>1.5132300000000001</v>
       </c>
       <c r="D186">
-        <v>1.53346</v>
+        <v>1.5254399999999999</v>
       </c>
       <c r="E186">
-        <v>1.50319</v>
+        <v>1.5028999999999999</v>
       </c>
       <c r="F186">
-        <v>1.51467</v>
+        <v>1.5051300000000001</v>
       </c>
       <c r="H186">
         <f t="shared" si="2"/>
-        <v>5.5220000000000047</v>
+        <v>3.0270000000000019</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="21" customHeight="1">
@@ -5120,23 +5119,23 @@
         <v>24</v>
       </c>
       <c r="B187" s="8">
-        <v>40883</v>
+        <v>40890</v>
       </c>
       <c r="C187">
-        <v>1.4803900000000001</v>
+        <v>1.52437</v>
       </c>
       <c r="D187">
-        <v>1.5342800000000001</v>
+        <v>1.53346</v>
       </c>
       <c r="E187">
-        <v>1.47906</v>
+        <v>1.50319</v>
       </c>
       <c r="F187">
-        <v>1.5286999999999999</v>
+        <v>1.51467</v>
       </c>
       <c r="H187">
         <f t="shared" si="2"/>
-        <v>6.1870000000000092</v>
+        <v>5.5220000000000047</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="21" customHeight="1">
@@ -5144,23 +5143,23 @@
         <v>24</v>
       </c>
       <c r="B188" s="8">
-        <v>40876</v>
+        <v>40883</v>
       </c>
       <c r="C188">
-        <v>1.4720299999999999</v>
+        <v>1.4803900000000001</v>
       </c>
       <c r="D188">
-        <v>1.49665</v>
+        <v>1.5342800000000001</v>
       </c>
       <c r="E188">
-        <v>1.4347799999999999</v>
+        <v>1.47906</v>
       </c>
       <c r="F188">
-        <v>1.48193</v>
+        <v>1.5286999999999999</v>
       </c>
       <c r="H188">
         <f t="shared" si="2"/>
-        <v>2.4540000000000006</v>
+        <v>6.1870000000000092</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="21" customHeight="1">
@@ -5168,23 +5167,23 @@
         <v>24</v>
       </c>
       <c r="B189" s="8">
-        <v>40869</v>
+        <v>40876</v>
       </c>
       <c r="C189">
-        <v>1.4710300000000001</v>
+        <v>1.4720299999999999</v>
       </c>
       <c r="D189">
-        <v>1.48323</v>
+        <v>1.49665</v>
       </c>
       <c r="E189">
-        <v>1.45869</v>
+        <v>1.4347799999999999</v>
       </c>
       <c r="F189">
-        <v>1.47305</v>
+        <v>1.48193</v>
       </c>
       <c r="H189">
         <f t="shared" si="2"/>
-        <v>4.3590000000000018</v>
+        <v>2.4540000000000006</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="21" customHeight="1">
@@ -5192,23 +5191,23 @@
         <v>24</v>
       </c>
       <c r="B190" s="8">
-        <v>40862</v>
+        <v>40869</v>
       </c>
       <c r="C190">
-        <v>1.50729</v>
+        <v>1.4710300000000001</v>
       </c>
       <c r="D190">
-        <v>1.5137700000000001</v>
+        <v>1.48323</v>
       </c>
       <c r="E190">
-        <v>1.47018</v>
+        <v>1.45869</v>
       </c>
       <c r="F190">
-        <v>1.47136</v>
+        <v>1.47305</v>
       </c>
       <c r="H190">
         <f t="shared" si="2"/>
-        <v>3.0220000000000136</v>
+        <v>4.3590000000000018</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="21" customHeight="1">
@@ -5216,23 +5215,23 @@
         <v>24</v>
       </c>
       <c r="B191" s="8">
-        <v>40855</v>
+        <v>40862</v>
       </c>
       <c r="C191">
-        <v>1.5267299999999999</v>
+        <v>1.50729</v>
       </c>
       <c r="D191">
-        <v>1.5287500000000001</v>
+        <v>1.5137700000000001</v>
       </c>
       <c r="E191">
-        <v>1.4985299999999999</v>
+        <v>1.47018</v>
       </c>
       <c r="F191">
-        <v>1.50946</v>
+        <v>1.47136</v>
       </c>
       <c r="H191">
         <f t="shared" si="2"/>
-        <v>4.1050000000000031</v>
+        <v>3.0220000000000136</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="21" customHeight="1">
@@ -5240,23 +5239,23 @@
         <v>24</v>
       </c>
       <c r="B192" s="8">
-        <v>40848</v>
+        <v>40855</v>
       </c>
       <c r="C192">
-        <v>1.55037</v>
+        <v>1.5267299999999999</v>
       </c>
       <c r="D192">
-        <v>1.55043</v>
+        <v>1.5287500000000001</v>
       </c>
       <c r="E192">
-        <v>1.5093799999999999</v>
+        <v>1.4985299999999999</v>
       </c>
       <c r="F192">
-        <v>1.52437</v>
+        <v>1.50946</v>
       </c>
       <c r="H192">
         <f t="shared" si="2"/>
-        <v>4.0979999999999794</v>
+        <v>4.1050000000000031</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="21" customHeight="1">
@@ -5264,23 +5263,23 @@
         <v>24</v>
       </c>
       <c r="B193" s="8">
-        <v>40841</v>
+        <v>40848</v>
       </c>
       <c r="C193">
-        <v>1.5257400000000001</v>
+        <v>1.55037</v>
       </c>
       <c r="D193">
-        <v>1.5575699999999999</v>
+        <v>1.55043</v>
       </c>
       <c r="E193">
-        <v>1.5165900000000001</v>
+        <v>1.5093799999999999</v>
       </c>
       <c r="F193">
-        <v>1.5414699999999999</v>
+        <v>1.52437</v>
       </c>
       <c r="H193">
         <f t="shared" si="2"/>
-        <v>6.0159999999999991</v>
+        <v>4.0979999999999794</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="21" customHeight="1">
@@ -5288,23 +5287,23 @@
         <v>24</v>
       </c>
       <c r="B194" s="8">
-        <v>40834</v>
+        <v>40841</v>
       </c>
       <c r="C194">
-        <v>1.5629599999999999</v>
+        <v>1.5257400000000001</v>
       </c>
       <c r="D194">
-        <v>1.5789899999999999</v>
+        <v>1.5575699999999999</v>
       </c>
       <c r="E194">
-        <v>1.5188299999999999</v>
+        <v>1.5165900000000001</v>
       </c>
       <c r="F194">
-        <v>1.52573</v>
+        <v>1.5414699999999999</v>
       </c>
       <c r="H194">
         <f t="shared" ref="H194:H199" si="3">ABS(D195-E195)*100</f>
-        <v>4.2289999999999939</v>
+        <v>6.0159999999999991</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="21" customHeight="1">
@@ -5312,23 +5311,23 @@
         <v>24</v>
       </c>
       <c r="B195" s="8">
-        <v>40827</v>
+        <v>40834</v>
       </c>
       <c r="C195">
-        <v>1.55105</v>
+        <v>1.5629599999999999</v>
       </c>
       <c r="D195">
-        <v>1.58205</v>
+        <v>1.5789899999999999</v>
       </c>
       <c r="E195">
-        <v>1.53976</v>
+        <v>1.5188299999999999</v>
       </c>
       <c r="F195">
-        <v>1.5606100000000001</v>
+        <v>1.52573</v>
       </c>
       <c r="H195">
         <f t="shared" si="3"/>
-        <v>4.8089999999999966</v>
+        <v>4.2289999999999939</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="21" customHeight="1">
@@ -5336,23 +5335,23 @@
         <v>24</v>
       </c>
       <c r="B196" s="8">
-        <v>40820</v>
+        <v>40827</v>
       </c>
       <c r="C196">
-        <v>1.58884</v>
+        <v>1.55105</v>
       </c>
       <c r="D196">
-        <v>1.5933999999999999</v>
+        <v>1.58205</v>
       </c>
       <c r="E196">
-        <v>1.54531</v>
+        <v>1.53976</v>
       </c>
       <c r="F196">
-        <v>1.54952</v>
+        <v>1.5606100000000001</v>
       </c>
       <c r="H196">
         <f t="shared" si="3"/>
-        <v>5.0900000000000167</v>
+        <v>4.8089999999999966</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="21" customHeight="1">
@@ -5360,23 +5359,23 @@
         <v>24</v>
       </c>
       <c r="B197" s="8">
-        <v>40813</v>
+        <v>40820</v>
       </c>
       <c r="C197">
-        <v>1.5932599999999999</v>
+        <v>1.58884</v>
       </c>
       <c r="D197">
-        <v>1.6249800000000001</v>
+        <v>1.5933999999999999</v>
       </c>
       <c r="E197">
-        <v>1.5740799999999999</v>
+        <v>1.54531</v>
       </c>
       <c r="F197">
-        <v>1.5911200000000001</v>
+        <v>1.54952</v>
       </c>
       <c r="H197">
         <f t="shared" si="3"/>
-        <v>5.8840000000000003</v>
+        <v>5.0900000000000167</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="21" customHeight="1">
@@ -5384,23 +5383,23 @@
         <v>24</v>
       </c>
       <c r="B198" s="8">
-        <v>40806</v>
+        <v>40813</v>
       </c>
       <c r="C198">
-        <v>1.56992</v>
+        <v>1.5932599999999999</v>
       </c>
       <c r="D198">
-        <v>1.61894</v>
+        <v>1.6249800000000001</v>
       </c>
       <c r="E198">
-        <v>1.5601</v>
+        <v>1.5740799999999999</v>
       </c>
       <c r="F198">
-        <v>1.59504</v>
+        <v>1.5911200000000001</v>
       </c>
       <c r="H198">
         <f t="shared" si="3"/>
-        <v>4.045999999999994</v>
+        <v>5.8840000000000003</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="21" customHeight="1">
@@ -5408,23 +5407,23 @@
         <v>24</v>
       </c>
       <c r="B199" s="8">
-        <v>40799</v>
+        <v>40806</v>
       </c>
       <c r="C199">
-        <v>1.5995600000000001</v>
+        <v>1.56992</v>
       </c>
       <c r="D199">
-        <v>1.60663</v>
+        <v>1.61894</v>
       </c>
       <c r="E199">
-        <v>1.5661700000000001</v>
+        <v>1.5601</v>
       </c>
       <c r="F199">
-        <v>1.56887</v>
+        <v>1.59504</v>
       </c>
       <c r="H199">
         <f t="shared" si="3"/>
-        <v>3.990999999999989</v>
+        <v>4.045999999999994</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="21" customHeight="1">
@@ -5432,19 +5431,19 @@
         <v>24</v>
       </c>
       <c r="B200" s="8">
-        <v>40792</v>
+        <v>40799</v>
       </c>
       <c r="C200">
-        <v>1.6126400000000001</v>
+        <v>1.5995600000000001</v>
       </c>
       <c r="D200">
-        <v>1.6175999999999999</v>
+        <v>1.60663</v>
       </c>
       <c r="E200">
-        <v>1.57769</v>
+        <v>1.5661700000000001</v>
       </c>
       <c r="F200">
-        <v>1.5984400000000001</v>
+        <v>1.56887</v>
       </c>
     </row>
   </sheetData>

--- a/volatility/src/xls/24_EURAUD.xlsx
+++ b/volatility/src/xls/24_EURAUD.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Amount</t>
     <phoneticPr fontId="1"/>
@@ -46,22 +46,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>buy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>limit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>stop</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sell</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>通貨ペア</t>
   </si>
   <si>
@@ -78,6 +62,30 @@
   </si>
   <si>
     <t>終値</t>
+  </si>
+  <si>
+    <t>buy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>limit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>limit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sell</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -501,7 +509,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -542,13 +550,13 @@
         <v>5</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="24" customHeight="1">
@@ -561,19 +569,19 @@
         <v>60964</v>
       </c>
       <c r="E6" s="5">
-        <v>161.6</v>
+        <v>1.6080000000000001</v>
       </c>
       <c r="G6" s="5">
-        <f>(E6+B9)/100</f>
-        <v>1.6229999999999998</v>
+        <f>E6+(B9/100)</f>
+        <v>1.615</v>
       </c>
       <c r="H6" s="5">
         <f>G6+(B8/100)</f>
-        <v>1.6449999999999998</v>
+        <v>1.637</v>
       </c>
       <c r="I6" s="5">
         <f>G6-(B8/100)</f>
-        <v>1.6009999999999998</v>
+        <v>1.593</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1">
@@ -588,13 +596,13 @@
         <v>0.7</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7"/>
     </row>
@@ -602,16 +610,16 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="5">
-        <f>(E6-B9)/100</f>
-        <v>1.609</v>
+        <f>E6-(B9/100)</f>
+        <v>1.6010000000000002</v>
       </c>
       <c r="H10" s="5">
         <f>G10-(B8/100)</f>
-        <v>1.587</v>
+        <v>1.5790000000000002</v>
       </c>
       <c r="I10" s="5">
         <f>G10+(B8/100)</f>
-        <v>1.631</v>
+        <v>1.6230000000000002</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="24" customHeight="1">
@@ -638,7 +646,7 @@
   <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F200"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9.83203125" defaultRowHeight="21" customHeight="1"/>
@@ -648,26 +656,26 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
       </c>
       <c r="H1">
         <f>ABS(D2-E2)*100</f>
-        <v>2.3449999999999971</v>
+        <v>1.855999999999991</v>
       </c>
       <c r="J1">
         <f>MEDIAN(H1:H52)</f>
@@ -679,23 +687,23 @@
         <v>24</v>
       </c>
       <c r="B2" s="8">
-        <v>42185</v>
+        <v>42192</v>
       </c>
       <c r="C2">
-        <v>1.61632</v>
+        <v>1.6080000000000001</v>
       </c>
       <c r="D2">
-        <v>1.6258900000000001</v>
+        <v>1.6230599999999999</v>
       </c>
       <c r="E2">
-        <v>1.6024400000000001</v>
+        <v>1.6045</v>
       </c>
       <c r="F2">
-        <v>1.60815</v>
+        <v>1.6046100000000001</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H65" si="0">ABS(D3-E3)*100</f>
-        <v>2.2340000000000027</v>
+        <v>2.3449999999999971</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
@@ -703,23 +711,23 @@
         <v>24</v>
       </c>
       <c r="B3" s="8">
-        <v>42178</v>
+        <v>42185</v>
       </c>
       <c r="C3">
-        <v>1.6407</v>
+        <v>1.61632</v>
       </c>
       <c r="D3">
-        <v>1.64116</v>
+        <v>1.6258900000000001</v>
       </c>
       <c r="E3">
-        <v>1.6188199999999999</v>
+        <v>1.6024400000000001</v>
       </c>
       <c r="F3">
-        <v>1.6193500000000001</v>
+        <v>1.60815</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>1.8310000000000048</v>
+        <v>2.2340000000000027</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
@@ -727,23 +735,23 @@
         <v>24</v>
       </c>
       <c r="B4" s="8">
-        <v>42171</v>
+        <v>42178</v>
       </c>
       <c r="C4">
-        <v>1.6309199999999999</v>
+        <v>1.6407</v>
       </c>
       <c r="D4">
-        <v>1.6448</v>
+        <v>1.64116</v>
       </c>
       <c r="E4">
-        <v>1.62649</v>
+        <v>1.6188199999999999</v>
       </c>
       <c r="F4">
-        <v>1.6410199999999999</v>
+        <v>1.6193500000000001</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>1.915</v>
+        <v>1.8310000000000048</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
@@ -751,23 +759,23 @@
         <v>24</v>
       </c>
       <c r="B5" s="8">
-        <v>42164</v>
+        <v>42171</v>
       </c>
       <c r="C5">
-        <v>1.61727</v>
+        <v>1.6309199999999999</v>
       </c>
       <c r="D5">
-        <v>1.63632</v>
+        <v>1.6448</v>
       </c>
       <c r="E5">
-        <v>1.61717</v>
+        <v>1.62649</v>
       </c>
       <c r="F5">
-        <v>1.63073</v>
+        <v>1.6410199999999999</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>1.2949999999999795</v>
+        <v>1.915</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
@@ -775,23 +783,23 @@
         <v>24</v>
       </c>
       <c r="B6" s="8">
-        <v>42157</v>
+        <v>42164</v>
       </c>
       <c r="C6">
-        <v>1.6106499999999999</v>
+        <v>1.61727</v>
       </c>
       <c r="D6">
-        <v>1.6197299999999999</v>
+        <v>1.63632</v>
       </c>
       <c r="E6">
-        <v>1.6067800000000001</v>
+        <v>1.61717</v>
       </c>
       <c r="F6">
-        <v>1.61944</v>
+        <v>1.63073</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>1.3720000000000176</v>
+        <v>1.2949999999999795</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
@@ -799,23 +807,23 @@
         <v>24</v>
       </c>
       <c r="B7" s="8">
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="C7">
-        <v>1.6177699999999999</v>
+        <v>1.6106499999999999</v>
       </c>
       <c r="D7">
-        <v>1.6187400000000001</v>
+        <v>1.6197299999999999</v>
       </c>
       <c r="E7">
-        <v>1.6050199999999999</v>
+        <v>1.6067800000000001</v>
       </c>
       <c r="F7">
-        <v>1.6101300000000001</v>
+        <v>1.61944</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>1.5509999999999913</v>
+        <v>1.3720000000000176</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
@@ -823,23 +831,23 @@
         <v>24</v>
       </c>
       <c r="B8" s="8">
-        <v>42143</v>
+        <v>42150</v>
       </c>
       <c r="C8">
-        <v>1.61711</v>
+        <v>1.6177699999999999</v>
       </c>
       <c r="D8">
-        <v>1.6251199999999999</v>
+        <v>1.6187400000000001</v>
       </c>
       <c r="E8">
-        <v>1.60961</v>
+        <v>1.6050199999999999</v>
       </c>
       <c r="F8">
-        <v>1.61761</v>
+        <v>1.6101300000000001</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>2.1830000000000016</v>
+        <v>1.5509999999999913</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
@@ -847,23 +855,23 @@
         <v>24</v>
       </c>
       <c r="B9" s="8">
-        <v>42136</v>
+        <v>42143</v>
       </c>
       <c r="C9">
-        <v>1.6055900000000001</v>
+        <v>1.61711</v>
       </c>
       <c r="D9">
-        <v>1.62618</v>
+        <v>1.6251199999999999</v>
       </c>
       <c r="E9">
-        <v>1.6043499999999999</v>
+        <v>1.60961</v>
       </c>
       <c r="F9">
-        <v>1.6245799999999999</v>
+        <v>1.61761</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>2.1660000000000013</v>
+        <v>2.1830000000000016</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
@@ -871,23 +879,23 @@
         <v>24</v>
       </c>
       <c r="B10" s="8">
-        <v>42129</v>
+        <v>42136</v>
       </c>
       <c r="C10">
-        <v>1.6003799999999999</v>
+        <v>1.6055900000000001</v>
       </c>
       <c r="D10">
-        <v>1.61209</v>
+        <v>1.62618</v>
       </c>
       <c r="E10">
-        <v>1.59043</v>
+        <v>1.6043499999999999</v>
       </c>
       <c r="F10">
-        <v>1.60507</v>
+        <v>1.6245799999999999</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>1.8839999999999968</v>
+        <v>2.1660000000000013</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
@@ -895,23 +903,23 @@
         <v>24</v>
       </c>
       <c r="B11" s="8">
-        <v>42122</v>
+        <v>42129</v>
       </c>
       <c r="C11">
-        <v>1.5829299999999999</v>
+        <v>1.6003799999999999</v>
       </c>
       <c r="D11">
-        <v>1.5993999999999999</v>
+        <v>1.61209</v>
       </c>
       <c r="E11">
-        <v>1.58056</v>
+        <v>1.59043</v>
       </c>
       <c r="F11">
-        <v>1.59494</v>
+        <v>1.60507</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>2.4299999999999988</v>
+        <v>1.8839999999999968</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
@@ -919,23 +927,23 @@
         <v>24</v>
       </c>
       <c r="B12" s="8">
-        <v>42115</v>
+        <v>42122</v>
       </c>
       <c r="C12">
-        <v>1.57239</v>
+        <v>1.5829299999999999</v>
       </c>
       <c r="D12">
-        <v>1.59585</v>
+        <v>1.5993999999999999</v>
       </c>
       <c r="E12">
-        <v>1.57155</v>
+        <v>1.58056</v>
       </c>
       <c r="F12">
-        <v>1.58277</v>
+        <v>1.59494</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>1.5079999999999982</v>
+        <v>2.4299999999999988</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
@@ -943,23 +951,23 @@
         <v>24</v>
       </c>
       <c r="B13" s="8">
-        <v>42108</v>
+        <v>42115</v>
       </c>
       <c r="C13">
-        <v>1.5745100000000001</v>
+        <v>1.57239</v>
       </c>
       <c r="D13">
-        <v>1.58342</v>
+        <v>1.59585</v>
       </c>
       <c r="E13">
-        <v>1.5683400000000001</v>
+        <v>1.57155</v>
       </c>
       <c r="F13">
-        <v>1.5719000000000001</v>
+        <v>1.58277</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>1.3889999999999958</v>
+        <v>1.5079999999999982</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
@@ -967,23 +975,23 @@
         <v>24</v>
       </c>
       <c r="B14" s="8">
-        <v>42101</v>
+        <v>42108</v>
       </c>
       <c r="C14">
-        <v>1.5774999999999999</v>
+        <v>1.5745100000000001</v>
       </c>
       <c r="D14">
-        <v>1.5852299999999999</v>
+        <v>1.58342</v>
       </c>
       <c r="E14">
-        <v>1.57134</v>
+        <v>1.5683400000000001</v>
       </c>
       <c r="F14">
-        <v>1.57511</v>
+        <v>1.5719000000000001</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>1.6510000000000025</v>
+        <v>1.3889999999999958</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
@@ -991,23 +999,23 @@
         <v>24</v>
       </c>
       <c r="B15" s="8">
-        <v>42094</v>
+        <v>42101</v>
       </c>
       <c r="C15">
-        <v>1.57881</v>
+        <v>1.5774999999999999</v>
       </c>
       <c r="D15">
-        <v>1.58789</v>
+        <v>1.5852299999999999</v>
       </c>
       <c r="E15">
-        <v>1.57138</v>
+        <v>1.57134</v>
       </c>
       <c r="F15">
-        <v>1.5787</v>
+        <v>1.57511</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>2.022999999999997</v>
+        <v>1.6510000000000025</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
@@ -1015,23 +1023,23 @@
         <v>24</v>
       </c>
       <c r="B16" s="8">
-        <v>42087</v>
+        <v>42094</v>
       </c>
       <c r="C16">
-        <v>1.5948800000000001</v>
+        <v>1.57881</v>
       </c>
       <c r="D16">
-        <v>1.59823</v>
+        <v>1.58789</v>
       </c>
       <c r="E16">
-        <v>1.5780000000000001</v>
+        <v>1.57138</v>
       </c>
       <c r="F16">
-        <v>1.57982</v>
+        <v>1.5787</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>1.8969999999999931</v>
+        <v>2.022999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1">
@@ -1039,23 +1047,23 @@
         <v>24</v>
       </c>
       <c r="B17" s="8">
-        <v>42080</v>
+        <v>42087</v>
       </c>
       <c r="C17">
-        <v>1.59789</v>
+        <v>1.5948800000000001</v>
       </c>
       <c r="D17">
-        <v>1.6076999999999999</v>
+        <v>1.59823</v>
       </c>
       <c r="E17">
-        <v>1.58873</v>
+        <v>1.5780000000000001</v>
       </c>
       <c r="F17">
-        <v>1.59596</v>
+        <v>1.57982</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>1.6230000000000189</v>
+        <v>1.8969999999999931</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
@@ -1063,23 +1071,23 @@
         <v>24</v>
       </c>
       <c r="B18" s="8">
-        <v>42073</v>
+        <v>42080</v>
       </c>
       <c r="C18">
-        <v>1.5965400000000001</v>
+        <v>1.59789</v>
       </c>
       <c r="D18">
-        <v>1.6056600000000001</v>
+        <v>1.6076999999999999</v>
       </c>
       <c r="E18">
-        <v>1.5894299999999999</v>
+        <v>1.58873</v>
       </c>
       <c r="F18">
-        <v>1.5989</v>
+        <v>1.59596</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>1.9179999999999975</v>
+        <v>1.6230000000000189</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1">
@@ -1087,23 +1095,23 @@
         <v>24</v>
       </c>
       <c r="B19" s="8">
-        <v>42066</v>
+        <v>42073</v>
       </c>
       <c r="C19">
-        <v>1.59982</v>
+        <v>1.5965400000000001</v>
       </c>
       <c r="D19">
-        <v>1.6121300000000001</v>
+        <v>1.6056600000000001</v>
       </c>
       <c r="E19">
-        <v>1.5929500000000001</v>
+        <v>1.5894299999999999</v>
       </c>
       <c r="F19">
-        <v>1.5942799999999999</v>
+        <v>1.5989</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>2.6250000000000107</v>
+        <v>1.9179999999999975</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1">
@@ -1111,23 +1119,23 @@
         <v>24</v>
       </c>
       <c r="B20" s="8">
-        <v>42059</v>
+        <v>42066</v>
       </c>
       <c r="C20">
-        <v>1.5877399999999999</v>
+        <v>1.59982</v>
       </c>
       <c r="D20">
-        <v>1.6071800000000001</v>
+        <v>1.6121300000000001</v>
       </c>
       <c r="E20">
-        <v>1.5809299999999999</v>
+        <v>1.5929500000000001</v>
       </c>
       <c r="F20">
-        <v>1.60588</v>
+        <v>1.5942799999999999</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>2.7660000000000018</v>
+        <v>2.6250000000000107</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
@@ -1135,23 +1143,23 @@
         <v>24</v>
       </c>
       <c r="B21" s="8">
-        <v>42052</v>
+        <v>42059</v>
       </c>
       <c r="C21">
-        <v>1.5824800000000001</v>
+        <v>1.5877399999999999</v>
       </c>
       <c r="D21">
-        <v>1.60192</v>
+        <v>1.6071800000000001</v>
       </c>
       <c r="E21">
-        <v>1.57426</v>
+        <v>1.5809299999999999</v>
       </c>
       <c r="F21">
-        <v>1.5893999999999999</v>
+        <v>1.60588</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>1.9650000000000167</v>
+        <v>2.7660000000000018</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" customHeight="1">
@@ -1159,23 +1167,23 @@
         <v>24</v>
       </c>
       <c r="B22" s="8">
-        <v>42045</v>
+        <v>42052</v>
       </c>
       <c r="C22">
-        <v>1.59656</v>
+        <v>1.5824800000000001</v>
       </c>
       <c r="D22">
-        <v>1.5998600000000001</v>
+        <v>1.60192</v>
       </c>
       <c r="E22">
-        <v>1.5802099999999999</v>
+        <v>1.57426</v>
       </c>
       <c r="F22">
-        <v>1.58165</v>
+        <v>1.5893999999999999</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>3.3009999999999984</v>
+        <v>1.9650000000000167</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1">
@@ -1183,23 +1191,23 @@
         <v>24</v>
       </c>
       <c r="B23" s="8">
-        <v>42038</v>
+        <v>42045</v>
       </c>
       <c r="C23">
-        <v>1.5800399999999999</v>
+        <v>1.59656</v>
       </c>
       <c r="D23">
-        <v>1.6059399999999999</v>
+        <v>1.5998600000000001</v>
       </c>
       <c r="E23">
-        <v>1.5729299999999999</v>
+        <v>1.5802099999999999</v>
       </c>
       <c r="F23">
-        <v>1.5977600000000001</v>
+        <v>1.58165</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>2.845999999999993</v>
+        <v>3.3009999999999984</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1">
@@ -1207,23 +1215,23 @@
         <v>24</v>
       </c>
       <c r="B24" s="8">
-        <v>42031</v>
+        <v>42038</v>
       </c>
       <c r="C24">
-        <v>1.58822</v>
+        <v>1.5800399999999999</v>
       </c>
       <c r="D24">
-        <v>1.60053</v>
+        <v>1.6059399999999999</v>
       </c>
       <c r="E24">
-        <v>1.5720700000000001</v>
+        <v>1.5729299999999999</v>
       </c>
       <c r="F24">
-        <v>1.5801000000000001</v>
+        <v>1.5977600000000001</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>1.9419999999999993</v>
+        <v>2.845999999999993</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1">
@@ -1231,23 +1239,23 @@
         <v>24</v>
       </c>
       <c r="B25" s="8">
-        <v>42024</v>
+        <v>42031</v>
       </c>
       <c r="C25">
-        <v>1.5851900000000001</v>
+        <v>1.58822</v>
       </c>
       <c r="D25">
-        <v>1.60375</v>
+        <v>1.60053</v>
       </c>
       <c r="E25">
-        <v>1.58433</v>
+        <v>1.5720700000000001</v>
       </c>
       <c r="F25">
-        <v>1.58891</v>
+        <v>1.5801000000000001</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>2.143000000000006</v>
+        <v>1.9419999999999993</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1">
@@ -1255,23 +1263,23 @@
         <v>24</v>
       </c>
       <c r="B26" s="8">
-        <v>42017</v>
+        <v>42024</v>
       </c>
       <c r="C26">
-        <v>1.58833</v>
+        <v>1.5851900000000001</v>
       </c>
       <c r="D26">
-        <v>1.59883</v>
+        <v>1.60375</v>
       </c>
       <c r="E26">
-        <v>1.5773999999999999</v>
+        <v>1.58433</v>
       </c>
       <c r="F26">
-        <v>1.5857300000000001</v>
+        <v>1.58891</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>2.6410000000000045</v>
+        <v>2.143000000000006</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
@@ -1279,23 +1287,23 @@
         <v>24</v>
       </c>
       <c r="B27" s="8">
-        <v>42010</v>
+        <v>42017</v>
       </c>
       <c r="C27">
-        <v>1.6014299999999999</v>
+        <v>1.58833</v>
       </c>
       <c r="D27">
-        <v>1.61537</v>
+        <v>1.59883</v>
       </c>
       <c r="E27">
-        <v>1.5889599999999999</v>
+        <v>1.5773999999999999</v>
       </c>
       <c r="F27">
-        <v>1.58907</v>
+        <v>1.5857300000000001</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>7.6349999999999918</v>
+        <v>2.6410000000000045</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
@@ -1303,23 +1311,23 @@
         <v>24</v>
       </c>
       <c r="B28" s="8">
-        <v>42003</v>
+        <v>42010</v>
       </c>
       <c r="C28">
-        <v>1.62398</v>
+        <v>1.6014299999999999</v>
       </c>
       <c r="D28">
-        <v>1.6766799999999999</v>
+        <v>1.61537</v>
       </c>
       <c r="E28">
-        <v>1.60033</v>
+        <v>1.5889599999999999</v>
       </c>
       <c r="F28">
-        <v>1.6007899999999999</v>
+        <v>1.58907</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>2.6749999999999829</v>
+        <v>7.6349999999999918</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1">
@@ -1327,23 +1335,23 @@
         <v>24</v>
       </c>
       <c r="B29" s="8">
-        <v>41996</v>
+        <v>42003</v>
       </c>
       <c r="C29">
-        <v>1.6144799999999999</v>
+        <v>1.62398</v>
       </c>
       <c r="D29">
-        <v>1.6315599999999999</v>
+        <v>1.6766799999999999</v>
       </c>
       <c r="E29">
-        <v>1.6048100000000001</v>
+        <v>1.60033</v>
       </c>
       <c r="F29">
-        <v>1.6252899999999999</v>
+        <v>1.6007899999999999</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>4.1210000000000191</v>
+        <v>2.6749999999999829</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1">
@@ -1351,23 +1359,23 @@
         <v>24</v>
       </c>
       <c r="B30" s="8">
-        <v>41989</v>
+        <v>41996</v>
       </c>
       <c r="C30">
-        <v>1.57463</v>
+        <v>1.6144799999999999</v>
       </c>
       <c r="D30">
-        <v>1.6153900000000001</v>
+        <v>1.6315599999999999</v>
       </c>
       <c r="E30">
-        <v>1.5741799999999999</v>
+        <v>1.6048100000000001</v>
       </c>
       <c r="F30">
-        <v>1.6136600000000001</v>
+        <v>1.6252899999999999</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>2.1239999999999926</v>
+        <v>4.1210000000000191</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1">
@@ -1375,23 +1383,23 @@
         <v>24</v>
       </c>
       <c r="B31" s="8">
-        <v>41982</v>
+        <v>41989</v>
       </c>
       <c r="C31">
-        <v>1.58473</v>
+        <v>1.57463</v>
       </c>
       <c r="D31">
-        <v>1.5884799999999999</v>
+        <v>1.6153900000000001</v>
       </c>
       <c r="E31">
-        <v>1.56724</v>
+        <v>1.5741799999999999</v>
       </c>
       <c r="F31">
-        <v>1.57477</v>
+        <v>1.6136600000000001</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>4.9939999999999873</v>
+        <v>2.1239999999999926</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
@@ -1399,23 +1407,23 @@
         <v>24</v>
       </c>
       <c r="B32" s="8">
-        <v>41975</v>
+        <v>41982</v>
       </c>
       <c r="C32">
-        <v>1.5375799999999999</v>
+        <v>1.58473</v>
       </c>
       <c r="D32">
-        <v>1.58456</v>
+        <v>1.5884799999999999</v>
       </c>
       <c r="E32">
-        <v>1.5346200000000001</v>
+        <v>1.56724</v>
       </c>
       <c r="F32">
-        <v>1.5843</v>
+        <v>1.57477</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>2.2680000000000033</v>
+        <v>4.9939999999999873</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1">
@@ -1423,23 +1431,23 @@
         <v>24</v>
       </c>
       <c r="B33" s="8">
-        <v>41968</v>
+        <v>41975</v>
       </c>
       <c r="C33">
-        <v>1.5678099999999999</v>
+        <v>1.5375799999999999</v>
       </c>
       <c r="D33">
-        <v>1.57046</v>
+        <v>1.58456</v>
       </c>
       <c r="E33">
-        <v>1.5477799999999999</v>
+        <v>1.5346200000000001</v>
       </c>
       <c r="F33">
-        <v>1.5483899999999999</v>
+        <v>1.5843</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>2.043000000000017</v>
+        <v>2.2680000000000033</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21" customHeight="1">
@@ -1447,23 +1455,23 @@
         <v>24</v>
       </c>
       <c r="B34" s="8">
-        <v>41961</v>
+        <v>41968</v>
       </c>
       <c r="C34">
-        <v>1.5612299999999999</v>
+        <v>1.5678099999999999</v>
       </c>
       <c r="D34">
-        <v>1.5781700000000001</v>
+        <v>1.57046</v>
       </c>
       <c r="E34">
-        <v>1.5577399999999999</v>
+        <v>1.5477799999999999</v>
       </c>
       <c r="F34">
-        <v>1.5670500000000001</v>
+        <v>1.5483899999999999</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>1.7309999999999937</v>
+        <v>2.043000000000017</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1">
@@ -1471,23 +1479,23 @@
         <v>24</v>
       </c>
       <c r="B35" s="8">
-        <v>41954</v>
+        <v>41961</v>
       </c>
       <c r="C35">
-        <v>1.5679399999999999</v>
+        <v>1.5612299999999999</v>
       </c>
       <c r="D35">
-        <v>1.56931</v>
+        <v>1.5781700000000001</v>
       </c>
       <c r="E35">
-        <v>1.552</v>
+        <v>1.5577399999999999</v>
       </c>
       <c r="F35">
-        <v>1.55629</v>
+        <v>1.5670500000000001</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>2.1980000000000111</v>
+        <v>1.7309999999999937</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1">
@@ -1495,23 +1503,23 @@
         <v>24</v>
       </c>
       <c r="B36" s="8">
-        <v>41947</v>
+        <v>41954</v>
       </c>
       <c r="C36">
-        <v>1.5827599999999999</v>
+        <v>1.5679399999999999</v>
       </c>
       <c r="D36">
-        <v>1.58518</v>
+        <v>1.56931</v>
       </c>
       <c r="E36">
-        <v>1.5631999999999999</v>
+        <v>1.552</v>
       </c>
       <c r="F36">
-        <v>1.56843</v>
+        <v>1.55629</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>4.0779999999999816</v>
+        <v>2.1980000000000111</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
@@ -1519,23 +1527,23 @@
         <v>24</v>
       </c>
       <c r="B37" s="8">
-        <v>41940</v>
+        <v>41947</v>
       </c>
       <c r="C37">
-        <v>1.6069599999999999</v>
+        <v>1.5827599999999999</v>
       </c>
       <c r="D37">
-        <v>1.6149899999999999</v>
+        <v>1.58518</v>
       </c>
       <c r="E37">
-        <v>1.5742100000000001</v>
+        <v>1.5631999999999999</v>
       </c>
       <c r="F37">
-        <v>1.5824100000000001</v>
+        <v>1.56843</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>2.1640000000000104</v>
+        <v>4.0779999999999816</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21" customHeight="1">
@@ -1543,23 +1551,23 @@
         <v>24</v>
       </c>
       <c r="B38" s="8">
-        <v>41933</v>
+        <v>41940</v>
       </c>
       <c r="C38">
-        <v>1.6161799999999999</v>
+        <v>1.6069599999999999</v>
       </c>
       <c r="D38">
-        <v>1.62497</v>
+        <v>1.6149899999999999</v>
       </c>
       <c r="E38">
-        <v>1.6033299999999999</v>
+        <v>1.5742100000000001</v>
       </c>
       <c r="F38">
-        <v>1.6080399999999999</v>
+        <v>1.5824100000000001</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>2.3569999999999869</v>
+        <v>2.1640000000000104</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21" customHeight="1">
@@ -1567,23 +1575,23 @@
         <v>24</v>
       </c>
       <c r="B39" s="8">
-        <v>41926</v>
+        <v>41933</v>
       </c>
       <c r="C39">
-        <v>1.62453</v>
+        <v>1.6161799999999999</v>
       </c>
       <c r="D39">
-        <v>1.62842</v>
+        <v>1.62497</v>
       </c>
       <c r="E39">
-        <v>1.6048500000000001</v>
+        <v>1.6033299999999999</v>
       </c>
       <c r="F39">
-        <v>1.6180000000000001</v>
+        <v>1.6080399999999999</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>2.1039999999999948</v>
+        <v>2.3569999999999869</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21" customHeight="1">
@@ -1591,23 +1599,23 @@
         <v>24</v>
       </c>
       <c r="B40" s="8">
-        <v>41919</v>
+        <v>41926</v>
       </c>
       <c r="C40">
-        <v>1.6331599999999999</v>
+        <v>1.62453</v>
       </c>
       <c r="D40">
-        <v>1.6356999999999999</v>
+        <v>1.62842</v>
       </c>
       <c r="E40">
-        <v>1.61466</v>
+        <v>1.6048500000000001</v>
       </c>
       <c r="F40">
-        <v>1.62503</v>
+        <v>1.6180000000000001</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>3.6700000000000177</v>
+        <v>2.1039999999999948</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1">
@@ -1615,23 +1623,23 @@
         <v>24</v>
       </c>
       <c r="B41" s="8">
-        <v>41912</v>
+        <v>41919</v>
       </c>
       <c r="C41">
-        <v>1.6072299999999999</v>
+        <v>1.6331599999999999</v>
       </c>
       <c r="D41">
-        <v>1.6352500000000001</v>
+        <v>1.6356999999999999</v>
       </c>
       <c r="E41">
-        <v>1.5985499999999999</v>
+        <v>1.61466</v>
       </c>
       <c r="F41">
-        <v>1.63358</v>
+        <v>1.62503</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>2.2350000000000092</v>
+        <v>3.6700000000000177</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21" customHeight="1">
@@ -1639,23 +1647,23 @@
         <v>24</v>
       </c>
       <c r="B42" s="8">
-        <v>41905</v>
+        <v>41912</v>
       </c>
       <c r="C42">
-        <v>1.61608</v>
+        <v>1.6072299999999999</v>
       </c>
       <c r="D42">
-        <v>1.62534</v>
+        <v>1.6352500000000001</v>
       </c>
       <c r="E42">
-        <v>1.6029899999999999</v>
+        <v>1.5985499999999999</v>
       </c>
       <c r="F42">
-        <v>1.6070599999999999</v>
+        <v>1.63358</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>2.813000000000021</v>
+        <v>2.2350000000000092</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1">
@@ -1663,23 +1671,23 @@
         <v>24</v>
       </c>
       <c r="B43" s="8">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="C43">
-        <v>1.62496</v>
+        <v>1.61608</v>
       </c>
       <c r="D43">
-        <v>1.6333200000000001</v>
+        <v>1.62534</v>
       </c>
       <c r="E43">
-        <v>1.6051899999999999</v>
+        <v>1.6029899999999999</v>
       </c>
       <c r="F43">
-        <v>1.6130500000000001</v>
+        <v>1.6070599999999999</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>2.1639999999999882</v>
+        <v>2.813000000000021</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21" customHeight="1">
@@ -1687,23 +1695,23 @@
         <v>24</v>
       </c>
       <c r="B44" s="8">
-        <v>41891</v>
+        <v>41898</v>
       </c>
       <c r="C44">
-        <v>1.6256999999999999</v>
+        <v>1.62496</v>
       </c>
       <c r="D44">
-        <v>1.63537</v>
+        <v>1.6333200000000001</v>
       </c>
       <c r="E44">
-        <v>1.6137300000000001</v>
+        <v>1.6051899999999999</v>
       </c>
       <c r="F44">
-        <v>1.62443</v>
+        <v>1.6130500000000001</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>2.4800000000000155</v>
+        <v>2.1639999999999882</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21" customHeight="1">
@@ -1711,23 +1719,23 @@
         <v>24</v>
       </c>
       <c r="B45" s="8">
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="C45">
-        <v>1.61242</v>
+        <v>1.6256999999999999</v>
       </c>
       <c r="D45">
-        <v>1.6289100000000001</v>
+        <v>1.63537</v>
       </c>
       <c r="E45">
-        <v>1.6041099999999999</v>
+        <v>1.6137300000000001</v>
       </c>
       <c r="F45">
-        <v>1.6256600000000001</v>
+        <v>1.62443</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>3.1430000000000069</v>
+        <v>2.4800000000000155</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21" customHeight="1">
@@ -1735,23 +1743,23 @@
         <v>24</v>
       </c>
       <c r="B46" s="8">
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="C46">
-        <v>1.58494</v>
+        <v>1.61242</v>
       </c>
       <c r="D46">
-        <v>1.6160300000000001</v>
+        <v>1.6289100000000001</v>
       </c>
       <c r="E46">
-        <v>1.5846</v>
+        <v>1.6041099999999999</v>
       </c>
       <c r="F46">
-        <v>1.6136699999999999</v>
+        <v>1.6256600000000001</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>3.4370000000000012</v>
+        <v>3.1430000000000069</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21" customHeight="1">
@@ -1759,23 +1767,23 @@
         <v>24</v>
       </c>
       <c r="B47" s="8">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="C47">
-        <v>1.56359</v>
+        <v>1.58494</v>
       </c>
       <c r="D47">
-        <v>1.5946199999999999</v>
+        <v>1.6160300000000001</v>
       </c>
       <c r="E47">
-        <v>1.5602499999999999</v>
+        <v>1.5846</v>
       </c>
       <c r="F47">
-        <v>1.5864799999999999</v>
+        <v>1.6136699999999999</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>1.0929999999999884</v>
+        <v>3.4370000000000012</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21" customHeight="1">
@@ -1783,23 +1791,23 @@
         <v>24</v>
       </c>
       <c r="B48" s="8">
-        <v>41863</v>
+        <v>41870</v>
       </c>
       <c r="C48">
-        <v>1.56288</v>
+        <v>1.56359</v>
       </c>
       <c r="D48">
-        <v>1.5725899999999999</v>
+        <v>1.5946199999999999</v>
       </c>
       <c r="E48">
-        <v>1.56166</v>
+        <v>1.5602499999999999</v>
       </c>
       <c r="F48">
-        <v>1.5638700000000001</v>
+        <v>1.5864799999999999</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>1.2249999999999872</v>
+        <v>1.0929999999999884</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21" customHeight="1">
@@ -1807,23 +1815,23 @@
         <v>24</v>
       </c>
       <c r="B49" s="8">
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="C49">
-        <v>1.5633999999999999</v>
+        <v>1.56288</v>
       </c>
       <c r="D49">
-        <v>1.57019</v>
+        <v>1.5725899999999999</v>
       </c>
       <c r="E49">
-        <v>1.5579400000000001</v>
+        <v>1.56166</v>
       </c>
       <c r="F49">
-        <v>1.56334</v>
+        <v>1.5638700000000001</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>1.9179999999999975</v>
+        <v>1.2249999999999872</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21" customHeight="1">
@@ -1831,23 +1839,23 @@
         <v>24</v>
       </c>
       <c r="B50" s="8">
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="C50">
-        <v>1.57463</v>
+        <v>1.5633999999999999</v>
       </c>
       <c r="D50">
-        <v>1.5819799999999999</v>
+        <v>1.57019</v>
       </c>
       <c r="E50">
-        <v>1.5628</v>
+        <v>1.5579400000000001</v>
       </c>
       <c r="F50">
-        <v>1.5634600000000001</v>
+        <v>1.56334</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>1.6850000000000032</v>
+        <v>1.9179999999999975</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21" customHeight="1">
@@ -1855,23 +1863,23 @@
         <v>24</v>
       </c>
       <c r="B51" s="8">
-        <v>41842</v>
+        <v>41849</v>
       </c>
       <c r="C51">
-        <v>1.57931</v>
+        <v>1.57463</v>
       </c>
       <c r="D51">
-        <v>1.58693</v>
+        <v>1.5819799999999999</v>
       </c>
       <c r="E51">
-        <v>1.5700799999999999</v>
+        <v>1.5628</v>
       </c>
       <c r="F51">
-        <v>1.57494</v>
+        <v>1.5634600000000001</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>2.3310000000000164</v>
+        <v>1.6850000000000032</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21" customHeight="1">
@@ -1879,23 +1887,23 @@
         <v>24</v>
       </c>
       <c r="B52" s="8">
-        <v>41835</v>
+        <v>41842</v>
       </c>
       <c r="C52">
-        <v>1.57561</v>
+        <v>1.57931</v>
       </c>
       <c r="D52">
-        <v>1.5889800000000001</v>
+        <v>1.58693</v>
       </c>
       <c r="E52">
-        <v>1.5656699999999999</v>
+        <v>1.5700799999999999</v>
       </c>
       <c r="F52">
-        <v>1.5782400000000001</v>
+        <v>1.57494</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>1.8170000000000019</v>
+        <v>2.3310000000000164</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21" customHeight="1">
@@ -1903,23 +1911,23 @@
         <v>24</v>
       </c>
       <c r="B53" s="8">
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="C53">
-        <v>1.58036</v>
+        <v>1.57561</v>
       </c>
       <c r="D53">
-        <v>1.58812</v>
+        <v>1.5889800000000001</v>
       </c>
       <c r="E53">
-        <v>1.56995</v>
+        <v>1.5656699999999999</v>
       </c>
       <c r="F53">
-        <v>1.57446</v>
+        <v>1.5782400000000001</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>1.5959999999999974</v>
+        <v>1.8170000000000019</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21" customHeight="1">
@@ -1927,23 +1935,23 @@
         <v>24</v>
       </c>
       <c r="B54" s="8">
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="C54">
-        <v>1.57663</v>
+        <v>1.58036</v>
       </c>
       <c r="D54">
-        <v>1.5887199999999999</v>
+        <v>1.58812</v>
       </c>
       <c r="E54">
-        <v>1.5727599999999999</v>
+        <v>1.56995</v>
       </c>
       <c r="F54">
-        <v>1.5803</v>
+        <v>1.57446</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>1.6850000000000032</v>
+        <v>1.5959999999999974</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21" customHeight="1">
@@ -1951,23 +1959,23 @@
         <v>24</v>
       </c>
       <c r="B55" s="8">
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="C55">
-        <v>1.56735</v>
+        <v>1.57663</v>
       </c>
       <c r="D55">
-        <v>1.5826</v>
+        <v>1.5887199999999999</v>
       </c>
       <c r="E55">
-        <v>1.56575</v>
+        <v>1.5727599999999999</v>
       </c>
       <c r="F55">
-        <v>1.57755</v>
+        <v>1.5803</v>
       </c>
       <c r="H55">
         <f t="shared" si="0"/>
-        <v>2.1230000000000082</v>
+        <v>1.6850000000000032</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21" customHeight="1">
@@ -1975,23 +1983,23 @@
         <v>24</v>
       </c>
       <c r="B56" s="8">
-        <v>41807</v>
+        <v>41814</v>
       </c>
       <c r="C56">
-        <v>1.55759</v>
+        <v>1.56735</v>
       </c>
       <c r="D56">
-        <v>1.57558</v>
+        <v>1.5826</v>
       </c>
       <c r="E56">
-        <v>1.5543499999999999</v>
+        <v>1.56575</v>
       </c>
       <c r="F56">
-        <v>1.56732</v>
+        <v>1.57755</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>2.6449999999999863</v>
+        <v>2.1230000000000082</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21" customHeight="1">
@@ -1999,23 +2007,23 @@
         <v>24</v>
       </c>
       <c r="B57" s="8">
-        <v>41800</v>
+        <v>41807</v>
       </c>
       <c r="C57">
-        <v>1.5498099999999999</v>
+        <v>1.55759</v>
       </c>
       <c r="D57">
-        <v>1.5691299999999999</v>
+        <v>1.57558</v>
       </c>
       <c r="E57">
-        <v>1.5426800000000001</v>
+        <v>1.5543499999999999</v>
       </c>
       <c r="F57">
-        <v>1.5595000000000001</v>
+        <v>1.56732</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
-        <v>2.8359999999999941</v>
+        <v>2.6449999999999863</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21" customHeight="1">
@@ -2023,23 +2031,23 @@
         <v>24</v>
       </c>
       <c r="B58" s="8">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="C58">
-        <v>1.5402199999999999</v>
+        <v>1.5498099999999999</v>
       </c>
       <c r="D58">
-        <v>1.55579</v>
+        <v>1.5691299999999999</v>
       </c>
       <c r="E58">
-        <v>1.5274300000000001</v>
+        <v>1.5426800000000001</v>
       </c>
       <c r="F58">
-        <v>1.5489299999999999</v>
+        <v>1.5595000000000001</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>2.14700000000001</v>
+        <v>2.8359999999999941</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21" customHeight="1">
@@ -2047,23 +2055,23 @@
         <v>24</v>
       </c>
       <c r="B59" s="8">
-        <v>41786</v>
+        <v>41793</v>
       </c>
       <c r="C59">
-        <v>1.5455000000000001</v>
+        <v>1.5402199999999999</v>
       </c>
       <c r="D59">
-        <v>1.5529900000000001</v>
+        <v>1.55579</v>
       </c>
       <c r="E59">
-        <v>1.53152</v>
+        <v>1.5274300000000001</v>
       </c>
       <c r="F59">
-        <v>1.5404899999999999</v>
+        <v>1.5489299999999999</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
-        <v>2.4280000000000079</v>
+        <v>2.14700000000001</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21" customHeight="1">
@@ -2071,23 +2079,23 @@
         <v>24</v>
       </c>
       <c r="B60" s="8">
-        <v>41779</v>
+        <v>41786</v>
       </c>
       <c r="C60">
-        <v>1.56345</v>
+        <v>1.5455000000000001</v>
       </c>
       <c r="D60">
-        <v>1.5648200000000001</v>
+        <v>1.5529900000000001</v>
       </c>
       <c r="E60">
-        <v>1.54054</v>
+        <v>1.53152</v>
       </c>
       <c r="F60">
-        <v>1.54358</v>
+        <v>1.5404899999999999</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>2.3419999999999996</v>
+        <v>2.4280000000000079</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21" customHeight="1">
@@ -2095,23 +2103,23 @@
         <v>24</v>
       </c>
       <c r="B61" s="8">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="C61">
-        <v>1.58345</v>
+        <v>1.56345</v>
       </c>
       <c r="D61">
-        <v>1.5888100000000001</v>
+        <v>1.5648200000000001</v>
       </c>
       <c r="E61">
-        <v>1.5653900000000001</v>
+        <v>1.54054</v>
       </c>
       <c r="F61">
-        <v>1.5664199999999999</v>
+        <v>1.54358</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>1.876000000000011</v>
+        <v>2.3419999999999996</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21" customHeight="1">
@@ -2119,23 +2127,23 @@
         <v>24</v>
       </c>
       <c r="B62" s="8">
-        <v>41765</v>
+        <v>41772</v>
       </c>
       <c r="C62">
-        <v>1.5862700000000001</v>
+        <v>1.58345</v>
       </c>
       <c r="D62">
-        <v>1.59633</v>
+        <v>1.5888100000000001</v>
       </c>
       <c r="E62">
-        <v>1.5775699999999999</v>
+        <v>1.5653900000000001</v>
       </c>
       <c r="F62">
-        <v>1.5828199999999999</v>
+        <v>1.5664199999999999</v>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
-        <v>2.1260000000000057</v>
+        <v>1.876000000000011</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21" customHeight="1">
@@ -2143,23 +2151,23 @@
         <v>24</v>
       </c>
       <c r="B63" s="8">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="C63">
-        <v>1.6003099999999999</v>
+        <v>1.5862700000000001</v>
       </c>
       <c r="D63">
-        <v>1.6056600000000001</v>
+        <v>1.59633</v>
       </c>
       <c r="E63">
-        <v>1.5844</v>
+        <v>1.5775699999999999</v>
       </c>
       <c r="F63">
-        <v>1.5872200000000001</v>
+        <v>1.5828199999999999</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
-        <v>1.7249999999999988</v>
+        <v>2.1260000000000057</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21" customHeight="1">
@@ -2167,23 +2175,23 @@
         <v>24</v>
       </c>
       <c r="B64" s="8">
-        <v>41751</v>
+        <v>41758</v>
       </c>
       <c r="C64">
-        <v>1.6008899999999999</v>
+        <v>1.6003099999999999</v>
       </c>
       <c r="D64">
-        <v>1.6140099999999999</v>
+        <v>1.6056600000000001</v>
       </c>
       <c r="E64">
-        <v>1.59676</v>
+        <v>1.5844</v>
       </c>
       <c r="F64">
-        <v>1.60046</v>
+        <v>1.5872200000000001</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>1.8199999999999994</v>
+        <v>1.7249999999999988</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21" customHeight="1">
@@ -2191,23 +2199,23 @@
         <v>24</v>
       </c>
       <c r="B65" s="8">
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="C65">
-        <v>1.5872900000000001</v>
+        <v>1.6008899999999999</v>
       </c>
       <c r="D65">
-        <v>1.60301</v>
+        <v>1.6140099999999999</v>
       </c>
       <c r="E65">
-        <v>1.5848100000000001</v>
+        <v>1.59676</v>
       </c>
       <c r="F65">
-        <v>1.60209</v>
+        <v>1.60046</v>
       </c>
       <c r="H65">
         <f t="shared" si="0"/>
-        <v>2.854000000000001</v>
+        <v>1.8199999999999994</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21" customHeight="1">
@@ -2215,23 +2223,23 @@
         <v>24</v>
       </c>
       <c r="B66" s="8">
-        <v>41737</v>
+        <v>41744</v>
       </c>
       <c r="C66">
-        <v>1.6003799999999999</v>
+        <v>1.5872900000000001</v>
       </c>
       <c r="D66">
-        <v>1.6060099999999999</v>
+        <v>1.60301</v>
       </c>
       <c r="E66">
-        <v>1.5774699999999999</v>
+        <v>1.5848100000000001</v>
       </c>
       <c r="F66">
-        <v>1.5885899999999999</v>
+        <v>1.60209</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H129" si="1">ABS(D67-E67)*100</f>
-        <v>1.8649999999999833</v>
+        <v>2.854000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21" customHeight="1">
@@ -2239,23 +2247,23 @@
         <v>24</v>
       </c>
       <c r="B67" s="8">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="C67">
-        <v>1.6020300000000001</v>
+        <v>1.6003799999999999</v>
       </c>
       <c r="D67">
-        <v>1.6084799999999999</v>
+        <v>1.6060099999999999</v>
       </c>
       <c r="E67">
-        <v>1.5898300000000001</v>
+        <v>1.5774699999999999</v>
       </c>
       <c r="F67">
-        <v>1.59992</v>
+        <v>1.5885899999999999</v>
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>2.1549999999999958</v>
+        <v>1.8649999999999833</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21" customHeight="1">
@@ -2263,23 +2271,23 @@
         <v>24</v>
       </c>
       <c r="B68" s="8">
-        <v>41723</v>
+        <v>41730</v>
       </c>
       <c r="C68">
-        <v>1.6043099999999999</v>
+        <v>1.6020300000000001</v>
       </c>
       <c r="D68">
-        <v>1.6191</v>
+        <v>1.6084799999999999</v>
       </c>
       <c r="E68">
-        <v>1.59755</v>
+        <v>1.5898300000000001</v>
       </c>
       <c r="F68">
-        <v>1.60425</v>
+        <v>1.59992</v>
       </c>
       <c r="H68">
         <f t="shared" si="1"/>
-        <v>1.9579999999999931</v>
+        <v>2.1549999999999958</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21" customHeight="1">
@@ -2287,23 +2295,23 @@
         <v>24</v>
       </c>
       <c r="B69" s="8">
-        <v>41716</v>
+        <v>41723</v>
       </c>
       <c r="C69">
-        <v>1.5928</v>
+        <v>1.6043099999999999</v>
       </c>
       <c r="D69">
-        <v>1.6055299999999999</v>
+        <v>1.6191</v>
       </c>
       <c r="E69">
-        <v>1.58595</v>
+        <v>1.59755</v>
       </c>
       <c r="F69">
-        <v>1.6050899999999999</v>
+        <v>1.60425</v>
       </c>
       <c r="H69">
         <f t="shared" si="1"/>
-        <v>3.1309999999999949</v>
+        <v>1.9579999999999931</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21" customHeight="1">
@@ -2311,23 +2319,23 @@
         <v>24</v>
       </c>
       <c r="B70" s="8">
-        <v>41709</v>
+        <v>41716</v>
       </c>
       <c r="C70">
-        <v>1.5682100000000001</v>
+        <v>1.5928</v>
       </c>
       <c r="D70">
-        <v>1.5935299999999999</v>
+        <v>1.6055299999999999</v>
       </c>
       <c r="E70">
-        <v>1.5622199999999999</v>
+        <v>1.58595</v>
       </c>
       <c r="F70">
-        <v>1.5932200000000001</v>
+        <v>1.6050899999999999</v>
       </c>
       <c r="H70">
         <f t="shared" si="1"/>
-        <v>2.9989999999999961</v>
+        <v>3.1309999999999949</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21" customHeight="1">
@@ -2335,23 +2343,23 @@
         <v>24</v>
       </c>
       <c r="B71" s="8">
-        <v>41702</v>
+        <v>41709</v>
       </c>
       <c r="C71">
-        <v>1.58752</v>
+        <v>1.5682100000000001</v>
       </c>
       <c r="D71">
-        <v>1.59775</v>
+        <v>1.5935299999999999</v>
       </c>
       <c r="E71">
-        <v>1.56776</v>
+        <v>1.5622199999999999</v>
       </c>
       <c r="F71">
-        <v>1.5680000000000001</v>
+        <v>1.5932200000000001</v>
       </c>
       <c r="H71">
         <f t="shared" si="1"/>
-        <v>3.0159999999999965</v>
+        <v>2.9989999999999961</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21" customHeight="1">
@@ -2359,23 +2367,23 @@
         <v>24</v>
       </c>
       <c r="B72" s="8">
-        <v>41695</v>
+        <v>41702</v>
       </c>
       <c r="C72">
-        <v>1.56728</v>
+        <v>1.58752</v>
       </c>
       <c r="D72">
-        <v>1.59195</v>
+        <v>1.59775</v>
       </c>
       <c r="E72">
-        <v>1.56179</v>
+        <v>1.56776</v>
       </c>
       <c r="F72">
-        <v>1.5878099999999999</v>
+        <v>1.5680000000000001</v>
       </c>
       <c r="H72">
         <f t="shared" si="1"/>
-        <v>1.5280000000000182</v>
+        <v>3.0159999999999965</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21" customHeight="1">
@@ -2383,23 +2391,23 @@
         <v>24</v>
       </c>
       <c r="B73" s="8">
-        <v>41688</v>
+        <v>41695</v>
       </c>
       <c r="C73">
-        <v>1.56809</v>
+        <v>1.56728</v>
       </c>
       <c r="D73">
-        <v>1.5758700000000001</v>
+        <v>1.59195</v>
       </c>
       <c r="E73">
-        <v>1.5605899999999999</v>
+        <v>1.56179</v>
       </c>
       <c r="F73">
-        <v>1.5689299999999999</v>
+        <v>1.5878099999999999</v>
       </c>
       <c r="H73">
         <f t="shared" si="1"/>
-        <v>2.096000000000009</v>
+        <v>1.5280000000000182</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21" customHeight="1">
@@ -2407,23 +2415,23 @@
         <v>24</v>
       </c>
       <c r="B74" s="8">
-        <v>41681</v>
+        <v>41688</v>
       </c>
       <c r="C74">
-        <v>1.5670599999999999</v>
+        <v>1.56809</v>
       </c>
       <c r="D74">
-        <v>1.5816300000000001</v>
+        <v>1.5758700000000001</v>
       </c>
       <c r="E74">
-        <v>1.56067</v>
+        <v>1.5605899999999999</v>
       </c>
       <c r="F74">
-        <v>1.56843</v>
+        <v>1.5689299999999999</v>
       </c>
       <c r="H74">
         <f t="shared" si="1"/>
-        <v>1.6259999999999941</v>
+        <v>2.096000000000009</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21" customHeight="1">
@@ -2431,23 +2439,23 @@
         <v>24</v>
       </c>
       <c r="B75" s="8">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="C75">
-        <v>1.5713999999999999</v>
+        <v>1.5670599999999999</v>
       </c>
       <c r="D75">
-        <v>1.5796399999999999</v>
+        <v>1.5816300000000001</v>
       </c>
       <c r="E75">
-        <v>1.56338</v>
+        <v>1.56067</v>
       </c>
       <c r="F75">
-        <v>1.56671</v>
+        <v>1.56843</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
-        <v>4.7080000000000011</v>
+        <v>1.6259999999999941</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21" customHeight="1">
@@ -2455,23 +2463,23 @@
         <v>24</v>
       </c>
       <c r="B76" s="8">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="C76">
-        <v>1.5335399999999999</v>
+        <v>1.5713999999999999</v>
       </c>
       <c r="D76">
-        <v>1.57301</v>
+        <v>1.5796399999999999</v>
       </c>
       <c r="E76">
-        <v>1.52593</v>
+        <v>1.56338</v>
       </c>
       <c r="F76">
-        <v>1.57178</v>
+        <v>1.56671</v>
       </c>
       <c r="H76">
         <f t="shared" si="1"/>
-        <v>2.2569999999999979</v>
+        <v>4.7080000000000011</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21" customHeight="1">
@@ -2479,23 +2487,23 @@
         <v>24</v>
       </c>
       <c r="B77" s="8">
-        <v>41660</v>
+        <v>41667</v>
       </c>
       <c r="C77">
-        <v>1.53359</v>
+        <v>1.5335399999999999</v>
       </c>
       <c r="D77">
-        <v>1.5494600000000001</v>
+        <v>1.57301</v>
       </c>
       <c r="E77">
-        <v>1.5268900000000001</v>
+        <v>1.52593</v>
       </c>
       <c r="F77">
-        <v>1.5319799999999999</v>
+        <v>1.57178</v>
       </c>
       <c r="H77">
         <f t="shared" si="1"/>
-        <v>1.8040000000000056</v>
+        <v>2.2569999999999979</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21" customHeight="1">
@@ -2503,23 +2511,23 @@
         <v>24</v>
       </c>
       <c r="B78" s="8">
-        <v>41653</v>
+        <v>41660</v>
       </c>
       <c r="C78">
-        <v>1.5426299999999999</v>
+        <v>1.53359</v>
       </c>
       <c r="D78">
-        <v>1.54406</v>
+        <v>1.5494600000000001</v>
       </c>
       <c r="E78">
-        <v>1.5260199999999999</v>
+        <v>1.5268900000000001</v>
       </c>
       <c r="F78">
-        <v>1.5297799999999999</v>
+        <v>1.5319799999999999</v>
       </c>
       <c r="H78">
         <f t="shared" si="1"/>
-        <v>2.9150000000000009</v>
+        <v>1.8040000000000056</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21" customHeight="1">
@@ -2527,23 +2535,23 @@
         <v>24</v>
       </c>
       <c r="B79" s="8">
-        <v>41646</v>
+        <v>41653</v>
       </c>
       <c r="C79">
-        <v>1.5295399999999999</v>
+        <v>1.5426299999999999</v>
       </c>
       <c r="D79">
-        <v>1.5445899999999999</v>
+        <v>1.54406</v>
       </c>
       <c r="E79">
-        <v>1.5154399999999999</v>
+        <v>1.5260199999999999</v>
       </c>
       <c r="F79">
-        <v>1.5400700000000001</v>
+        <v>1.5297799999999999</v>
       </c>
       <c r="H79">
         <f t="shared" si="1"/>
-        <v>1.4220000000000121</v>
+        <v>2.9150000000000009</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21" customHeight="1">
@@ -2551,23 +2559,23 @@
         <v>24</v>
       </c>
       <c r="B80" s="8">
-        <v>41639</v>
+        <v>41646</v>
       </c>
       <c r="C80">
-        <v>1.53914</v>
+        <v>1.5295399999999999</v>
       </c>
       <c r="D80">
-        <v>1.5430600000000001</v>
+        <v>1.5445899999999999</v>
       </c>
       <c r="E80">
-        <v>1.52884</v>
+        <v>1.5154399999999999</v>
       </c>
       <c r="F80">
-        <v>1.5300400000000001</v>
+        <v>1.5400700000000001</v>
       </c>
       <c r="H80">
         <f t="shared" si="1"/>
-        <v>1.1440000000000117</v>
+        <v>1.4220000000000121</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21" customHeight="1">
@@ -2575,23 +2583,23 @@
         <v>24</v>
       </c>
       <c r="B81" s="8">
-        <v>41632</v>
+        <v>41639</v>
       </c>
       <c r="C81">
-        <v>1.53607</v>
+        <v>1.53914</v>
       </c>
       <c r="D81">
-        <v>1.5393300000000001</v>
+        <v>1.5430600000000001</v>
       </c>
       <c r="E81">
-        <v>1.52789</v>
+        <v>1.52884</v>
       </c>
       <c r="F81">
-        <v>1.53755</v>
+        <v>1.5300400000000001</v>
       </c>
       <c r="H81">
         <f t="shared" si="1"/>
-        <v>2.0159999999999956</v>
+        <v>1.1440000000000117</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21" customHeight="1">
@@ -2599,23 +2607,23 @@
         <v>24</v>
       </c>
       <c r="B82" s="8">
-        <v>41625</v>
+        <v>41632</v>
       </c>
       <c r="C82">
-        <v>1.53599</v>
+        <v>1.53607</v>
       </c>
       <c r="D82">
-        <v>1.5526899999999999</v>
+        <v>1.5393300000000001</v>
       </c>
       <c r="E82">
-        <v>1.5325299999999999</v>
+        <v>1.52789</v>
       </c>
       <c r="F82">
-        <v>1.53748</v>
+        <v>1.53755</v>
       </c>
       <c r="H82">
         <f t="shared" si="1"/>
-        <v>3.6070000000000046</v>
+        <v>2.0159999999999956</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21" customHeight="1">
@@ -2623,23 +2631,23 @@
         <v>24</v>
       </c>
       <c r="B83" s="8">
-        <v>41618</v>
+        <v>41625</v>
       </c>
       <c r="C83">
-        <v>1.5662799999999999</v>
+        <v>1.53599</v>
       </c>
       <c r="D83">
-        <v>1.56826</v>
+        <v>1.5526899999999999</v>
       </c>
       <c r="E83">
-        <v>1.5321899999999999</v>
+        <v>1.5325299999999999</v>
       </c>
       <c r="F83">
-        <v>1.5377700000000001</v>
+        <v>1.53748</v>
       </c>
       <c r="H83">
         <f t="shared" si="1"/>
-        <v>2.0809999999999995</v>
+        <v>3.6070000000000046</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21" customHeight="1">
@@ -2647,23 +2655,23 @@
         <v>24</v>
       </c>
       <c r="B84" s="8">
-        <v>41611</v>
+        <v>41618</v>
       </c>
       <c r="C84">
-        <v>1.5615000000000001</v>
+        <v>1.5662799999999999</v>
       </c>
       <c r="D84">
-        <v>1.5695699999999999</v>
+        <v>1.56826</v>
       </c>
       <c r="E84">
-        <v>1.5487599999999999</v>
+        <v>1.5321899999999999</v>
       </c>
       <c r="F84">
-        <v>1.5670200000000001</v>
+        <v>1.5377700000000001</v>
       </c>
       <c r="H84">
         <f t="shared" si="1"/>
-        <v>2.0210000000000061</v>
+        <v>2.0809999999999995</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21" customHeight="1">
@@ -2671,23 +2679,23 @@
         <v>24</v>
       </c>
       <c r="B85" s="8">
-        <v>41604</v>
+        <v>41611</v>
       </c>
       <c r="C85">
-        <v>1.56558</v>
+        <v>1.5615000000000001</v>
       </c>
       <c r="D85">
-        <v>1.5770200000000001</v>
+        <v>1.5695699999999999</v>
       </c>
       <c r="E85">
-        <v>1.55681</v>
+        <v>1.5487599999999999</v>
       </c>
       <c r="F85">
-        <v>1.56342</v>
+        <v>1.5670200000000001</v>
       </c>
       <c r="H85">
         <f t="shared" si="1"/>
-        <v>2.1469999999999878</v>
+        <v>2.0210000000000061</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21" customHeight="1">
@@ -2695,23 +2703,23 @@
         <v>24</v>
       </c>
       <c r="B86" s="8">
-        <v>41597</v>
+        <v>41604</v>
       </c>
       <c r="C86">
-        <v>1.5576099999999999</v>
+        <v>1.56558</v>
       </c>
       <c r="D86">
-        <v>1.56734</v>
+        <v>1.5770200000000001</v>
       </c>
       <c r="E86">
-        <v>1.5458700000000001</v>
+        <v>1.55681</v>
       </c>
       <c r="F86">
-        <v>1.5664</v>
+        <v>1.56342</v>
       </c>
       <c r="H86">
         <f t="shared" si="1"/>
-        <v>4.6000000000000041</v>
+        <v>2.1469999999999878</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21" customHeight="1">
@@ -2719,23 +2727,23 @@
         <v>24</v>
       </c>
       <c r="B87" s="8">
-        <v>41590</v>
+        <v>41597</v>
       </c>
       <c r="C87">
-        <v>1.52291</v>
+        <v>1.5576099999999999</v>
       </c>
       <c r="D87">
-        <v>1.5656600000000001</v>
+        <v>1.56734</v>
       </c>
       <c r="E87">
-        <v>1.51966</v>
+        <v>1.5458700000000001</v>
       </c>
       <c r="F87">
-        <v>1.5584</v>
+        <v>1.5664</v>
       </c>
       <c r="H87">
         <f t="shared" si="1"/>
-        <v>1.5339999999999909</v>
+        <v>4.6000000000000041</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21" customHeight="1">
@@ -2743,23 +2751,23 @@
         <v>24</v>
       </c>
       <c r="B88" s="8">
-        <v>41583</v>
+        <v>41590</v>
       </c>
       <c r="C88">
-        <v>1.51814</v>
+        <v>1.52291</v>
       </c>
       <c r="D88">
-        <v>1.5233699999999999</v>
+        <v>1.5656600000000001</v>
       </c>
       <c r="E88">
-        <v>1.50803</v>
+        <v>1.51966</v>
       </c>
       <c r="F88">
-        <v>1.5225900000000001</v>
+        <v>1.5584</v>
       </c>
       <c r="H88">
         <f t="shared" si="1"/>
-        <v>1.4720000000000066</v>
+        <v>1.5339999999999909</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21" customHeight="1">
@@ -2767,23 +2775,23 @@
         <v>24</v>
       </c>
       <c r="B89" s="8">
-        <v>41576</v>
+        <v>41583</v>
       </c>
       <c r="C89">
-        <v>1.5124299999999999</v>
+        <v>1.51814</v>
       </c>
       <c r="D89">
-        <v>1.52336</v>
+        <v>1.5233699999999999</v>
       </c>
       <c r="E89">
-        <v>1.50864</v>
+        <v>1.50803</v>
       </c>
       <c r="F89">
-        <v>1.5177700000000001</v>
+        <v>1.5225900000000001</v>
       </c>
       <c r="H89">
         <f t="shared" si="1"/>
-        <v>3.7690000000000001</v>
+        <v>1.4720000000000066</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21" customHeight="1">
@@ -2791,23 +2799,23 @@
         <v>24</v>
       </c>
       <c r="B90" s="8">
-        <v>41569</v>
+        <v>41576</v>
       </c>
       <c r="C90">
-        <v>1.5063299999999999</v>
+        <v>1.5124299999999999</v>
       </c>
       <c r="D90">
-        <v>1.53921</v>
+        <v>1.52336</v>
       </c>
       <c r="E90">
-        <v>1.50152</v>
+        <v>1.50864</v>
       </c>
       <c r="F90">
-        <v>1.5122</v>
+        <v>1.5177700000000001</v>
       </c>
       <c r="H90">
         <f t="shared" si="1"/>
-        <v>1.373000000000002</v>
+        <v>3.7690000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21" customHeight="1">
@@ -2815,23 +2823,23 @@
         <v>24</v>
       </c>
       <c r="B91" s="8">
-        <v>41562</v>
+        <v>41569</v>
       </c>
       <c r="C91">
-        <v>1.4978100000000001</v>
+        <v>1.5063299999999999</v>
       </c>
       <c r="D91">
-        <v>1.5087600000000001</v>
+        <v>1.53921</v>
       </c>
       <c r="E91">
-        <v>1.4950300000000001</v>
+        <v>1.50152</v>
       </c>
       <c r="F91">
-        <v>1.50674</v>
+        <v>1.5122</v>
       </c>
       <c r="H91">
         <f t="shared" si="1"/>
-        <v>2.6110000000000078</v>
+        <v>1.373000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="21" customHeight="1">
@@ -2839,23 +2847,23 @@
         <v>24</v>
       </c>
       <c r="B92" s="8">
-        <v>41555</v>
+        <v>41562</v>
       </c>
       <c r="C92">
-        <v>1.50908</v>
+        <v>1.4978100000000001</v>
       </c>
       <c r="D92">
-        <v>1.52417</v>
+        <v>1.5087600000000001</v>
       </c>
       <c r="E92">
-        <v>1.4980599999999999</v>
+        <v>1.4950300000000001</v>
       </c>
       <c r="F92">
-        <v>1.49908</v>
+        <v>1.50674</v>
       </c>
       <c r="H92">
         <f t="shared" si="1"/>
-        <v>1.7889999999999961</v>
+        <v>2.6110000000000078</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="21" customHeight="1">
@@ -2863,23 +2871,23 @@
         <v>24</v>
       </c>
       <c r="B93" s="8">
-        <v>41548</v>
+        <v>41555</v>
       </c>
       <c r="C93">
-        <v>1.50664</v>
+        <v>1.50908</v>
       </c>
       <c r="D93">
-        <v>1.51292</v>
+        <v>1.52417</v>
       </c>
       <c r="E93">
-        <v>1.4950300000000001</v>
+        <v>1.4980599999999999</v>
       </c>
       <c r="F93">
-        <v>1.50979</v>
+        <v>1.49908</v>
       </c>
       <c r="H93">
         <f t="shared" si="1"/>
-        <v>2.0850000000000035</v>
+        <v>1.7889999999999961</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="21" customHeight="1">
@@ -2887,23 +2895,23 @@
         <v>24</v>
       </c>
       <c r="B94" s="8">
-        <v>41541</v>
+        <v>41548</v>
       </c>
       <c r="C94">
-        <v>1.4977400000000001</v>
+        <v>1.50664</v>
       </c>
       <c r="D94">
-        <v>1.5104</v>
+        <v>1.51292</v>
       </c>
       <c r="E94">
-        <v>1.4895499999999999</v>
+        <v>1.4950300000000001</v>
       </c>
       <c r="F94">
-        <v>1.5077100000000001</v>
+        <v>1.50979</v>
       </c>
       <c r="H94">
         <f t="shared" si="1"/>
-        <v>3.1460000000000043</v>
+        <v>2.0850000000000035</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="21" customHeight="1">
@@ -2911,23 +2919,23 @@
         <v>24</v>
       </c>
       <c r="B95" s="8">
-        <v>41534</v>
+        <v>41541</v>
       </c>
       <c r="C95">
-        <v>1.4923200000000001</v>
+        <v>1.4977400000000001</v>
       </c>
       <c r="D95">
-        <v>1.5107699999999999</v>
+        <v>1.5104</v>
       </c>
       <c r="E95">
-        <v>1.4793099999999999</v>
+        <v>1.4895499999999999</v>
       </c>
       <c r="F95">
-        <v>1.5005500000000001</v>
+        <v>1.5077100000000001</v>
       </c>
       <c r="H95">
         <f t="shared" si="1"/>
-        <v>1.5430000000000055</v>
+        <v>3.1460000000000043</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="21" customHeight="1">
@@ -2935,23 +2943,23 @@
         <v>24</v>
       </c>
       <c r="B96" s="8">
-        <v>41527</v>
+        <v>41534</v>
       </c>
       <c r="C96">
-        <v>1.4922599999999999</v>
+        <v>1.4923200000000001</v>
       </c>
       <c r="D96">
-        <v>1.49668</v>
+        <v>1.5107699999999999</v>
       </c>
       <c r="E96">
-        <v>1.48125</v>
+        <v>1.4793099999999999</v>
       </c>
       <c r="F96">
-        <v>1.4935</v>
+        <v>1.5005500000000001</v>
       </c>
       <c r="H96">
         <f t="shared" si="1"/>
-        <v>1.6089999999999938</v>
+        <v>1.5430000000000055</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="21" customHeight="1">
@@ -2959,23 +2967,23 @@
         <v>24</v>
       </c>
       <c r="B97" s="8">
-        <v>41520</v>
+        <v>41527</v>
       </c>
       <c r="C97">
-        <v>1.4937499999999999</v>
+        <v>1.4922599999999999</v>
       </c>
       <c r="D97">
-        <v>1.49959</v>
+        <v>1.49668</v>
       </c>
       <c r="E97">
-        <v>1.4835</v>
+        <v>1.48125</v>
       </c>
       <c r="F97">
-        <v>1.49403</v>
+        <v>1.4935</v>
       </c>
       <c r="H97">
         <f t="shared" si="1"/>
-        <v>3.0440000000000023</v>
+        <v>1.6089999999999938</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="21" customHeight="1">
@@ -2983,23 +2991,23 @@
         <v>24</v>
       </c>
       <c r="B98" s="8">
-        <v>41513</v>
+        <v>41520</v>
       </c>
       <c r="C98">
-        <v>1.50525</v>
+        <v>1.4937499999999999</v>
       </c>
       <c r="D98">
-        <v>1.5174000000000001</v>
+        <v>1.49959</v>
       </c>
       <c r="E98">
-        <v>1.4869600000000001</v>
+        <v>1.4835</v>
       </c>
       <c r="F98">
-        <v>1.4885699999999999</v>
+        <v>1.49403</v>
       </c>
       <c r="H98">
         <f t="shared" si="1"/>
-        <v>2.2699999999999942</v>
+        <v>3.0440000000000023</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="21" customHeight="1">
@@ -3007,23 +3015,23 @@
         <v>24</v>
       </c>
       <c r="B99" s="8">
-        <v>41506</v>
+        <v>41513</v>
       </c>
       <c r="C99">
-        <v>1.48298</v>
+        <v>1.50525</v>
       </c>
       <c r="D99">
-        <v>1.5034799999999999</v>
+        <v>1.5174000000000001</v>
       </c>
       <c r="E99">
-        <v>1.48078</v>
+        <v>1.4869600000000001</v>
       </c>
       <c r="F99">
-        <v>1.5030300000000001</v>
+        <v>1.4885699999999999</v>
       </c>
       <c r="H99">
         <f t="shared" si="1"/>
-        <v>2.8699999999999948</v>
+        <v>2.2699999999999942</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="21" customHeight="1">
@@ -3031,23 +3039,23 @@
         <v>24</v>
       </c>
       <c r="B100" s="8">
-        <v>41499</v>
+        <v>41506</v>
       </c>
       <c r="C100">
-        <v>1.4980800000000001</v>
+        <v>1.48298</v>
       </c>
       <c r="D100">
-        <v>1.50197</v>
+        <v>1.5034799999999999</v>
       </c>
       <c r="E100">
-        <v>1.4732700000000001</v>
+        <v>1.48078</v>
       </c>
       <c r="F100">
-        <v>1.48305</v>
+        <v>1.5030300000000001</v>
       </c>
       <c r="H100">
         <f t="shared" si="1"/>
-        <v>1.8610000000000015</v>
+        <v>2.8699999999999948</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="21" customHeight="1">
@@ -3055,23 +3063,23 @@
         <v>24</v>
       </c>
       <c r="B101" s="8">
-        <v>41492</v>
+        <v>41499</v>
       </c>
       <c r="C101">
-        <v>1.4850300000000001</v>
+        <v>1.4980800000000001</v>
       </c>
       <c r="D101">
-        <v>1.50108</v>
+        <v>1.50197</v>
       </c>
       <c r="E101">
-        <v>1.48247</v>
+        <v>1.4732700000000001</v>
       </c>
       <c r="F101">
-        <v>1.49793</v>
+        <v>1.48305</v>
       </c>
       <c r="H101">
         <f t="shared" si="1"/>
-        <v>2.8110000000000079</v>
+        <v>1.8610000000000015</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="21" customHeight="1">
@@ -3079,23 +3087,23 @@
         <v>24</v>
       </c>
       <c r="B102" s="8">
-        <v>41485</v>
+        <v>41492</v>
       </c>
       <c r="C102">
-        <v>1.4721</v>
+        <v>1.4850300000000001</v>
       </c>
       <c r="D102">
-        <v>1.49658</v>
+        <v>1.50108</v>
       </c>
       <c r="E102">
-        <v>1.4684699999999999</v>
+        <v>1.48247</v>
       </c>
       <c r="F102">
-        <v>1.48502</v>
+        <v>1.49793</v>
       </c>
       <c r="H102">
         <f t="shared" si="1"/>
-        <v>1.992000000000016</v>
+        <v>2.8110000000000079</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="21" customHeight="1">
@@ -3103,23 +3111,23 @@
         <v>24</v>
       </c>
       <c r="B103" s="8">
-        <v>41478</v>
+        <v>41485</v>
       </c>
       <c r="C103">
-        <v>1.4744999999999999</v>
+        <v>1.4721</v>
       </c>
       <c r="D103">
-        <v>1.4764600000000001</v>
+        <v>1.49658</v>
       </c>
       <c r="E103">
-        <v>1.4565399999999999</v>
+        <v>1.4684699999999999</v>
       </c>
       <c r="F103">
-        <v>1.47142</v>
+        <v>1.48502</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>
-        <v>3.5390000000000033</v>
+        <v>1.992000000000016</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="21" customHeight="1">
@@ -3127,23 +3135,23 @@
         <v>24</v>
       </c>
       <c r="B104" s="8">
-        <v>41471</v>
+        <v>41478</v>
       </c>
       <c r="C104">
-        <v>1.4658500000000001</v>
+        <v>1.4744999999999999</v>
       </c>
       <c r="D104">
-        <v>1.4776800000000001</v>
+        <v>1.4764600000000001</v>
       </c>
       <c r="E104">
-        <v>1.4422900000000001</v>
+        <v>1.4565399999999999</v>
       </c>
       <c r="F104">
-        <v>1.4732400000000001</v>
+        <v>1.47142</v>
       </c>
       <c r="H104">
         <f t="shared" si="1"/>
-        <v>4.1140000000000176</v>
+        <v>3.5390000000000033</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="21" customHeight="1">
@@ -3151,23 +3159,23 @@
         <v>24</v>
       </c>
       <c r="B105" s="8">
-        <v>41464</v>
+        <v>41471</v>
       </c>
       <c r="C105">
-        <v>1.50021</v>
+        <v>1.4658500000000001</v>
       </c>
       <c r="D105">
-        <v>1.5037400000000001</v>
+        <v>1.4776800000000001</v>
       </c>
       <c r="E105">
-        <v>1.4625999999999999</v>
+        <v>1.4422900000000001</v>
       </c>
       <c r="F105">
-        <v>1.46506</v>
+        <v>1.4732400000000001</v>
       </c>
       <c r="H105">
         <f t="shared" si="1"/>
-        <v>2.7490000000000014</v>
+        <v>4.1140000000000176</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="21" customHeight="1">
@@ -3175,23 +3183,23 @@
         <v>24</v>
       </c>
       <c r="B106" s="8">
-        <v>41457</v>
+        <v>41464</v>
       </c>
       <c r="C106">
-        <v>1.48695</v>
+        <v>1.50021</v>
       </c>
       <c r="D106">
-        <v>1.50743</v>
+        <v>1.5037400000000001</v>
       </c>
       <c r="E106">
-        <v>1.47994</v>
+        <v>1.4625999999999999</v>
       </c>
       <c r="F106">
-        <v>1.49962</v>
+        <v>1.46506</v>
       </c>
       <c r="H106">
         <f t="shared" si="1"/>
-        <v>3.1630000000000047</v>
+        <v>2.7490000000000014</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="21" customHeight="1">
@@ -3199,23 +3207,23 @@
         <v>24</v>
       </c>
       <c r="B107" s="8">
-        <v>41450</v>
+        <v>41457</v>
       </c>
       <c r="C107">
-        <v>1.4791700000000001</v>
+        <v>1.48695</v>
       </c>
       <c r="D107">
-        <v>1.49979</v>
+        <v>1.50743</v>
       </c>
       <c r="E107">
-        <v>1.4681599999999999</v>
+        <v>1.47994</v>
       </c>
       <c r="F107">
-        <v>1.4852300000000001</v>
+        <v>1.49962</v>
       </c>
       <c r="H107">
         <f t="shared" si="1"/>
-        <v>1.880000000000015</v>
+        <v>3.1630000000000047</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="21" customHeight="1">
@@ -3223,23 +3231,23 @@
         <v>24</v>
       </c>
       <c r="B108" s="8">
-        <v>41443</v>
+        <v>41450</v>
       </c>
       <c r="C108">
-        <v>1.46898</v>
+        <v>1.4791700000000001</v>
       </c>
       <c r="D108">
-        <v>1.4814400000000001</v>
+        <v>1.49979</v>
       </c>
       <c r="E108">
-        <v>1.4626399999999999</v>
+        <v>1.4681599999999999</v>
       </c>
       <c r="F108">
-        <v>1.4791399999999999</v>
+        <v>1.4852300000000001</v>
       </c>
       <c r="H108">
         <f t="shared" si="1"/>
-        <v>2.4859999999999882</v>
+        <v>1.880000000000015</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="21" customHeight="1">
@@ -3247,23 +3255,23 @@
         <v>24</v>
       </c>
       <c r="B109" s="8">
-        <v>41436</v>
+        <v>41443</v>
       </c>
       <c r="C109">
-        <v>1.48743</v>
+        <v>1.46898</v>
       </c>
       <c r="D109">
-        <v>1.4908699999999999</v>
+        <v>1.4814400000000001</v>
       </c>
       <c r="E109">
-        <v>1.46601</v>
+        <v>1.4626399999999999</v>
       </c>
       <c r="F109">
-        <v>1.4688600000000001</v>
+        <v>1.4791399999999999</v>
       </c>
       <c r="H109">
         <f t="shared" si="1"/>
-        <v>3.6429999999999962</v>
+        <v>2.4859999999999882</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="21" customHeight="1">
@@ -3271,23 +3279,23 @@
         <v>24</v>
       </c>
       <c r="B110" s="8">
-        <v>41429</v>
+        <v>41436</v>
       </c>
       <c r="C110">
-        <v>1.5174700000000001</v>
+        <v>1.48743</v>
       </c>
       <c r="D110">
-        <v>1.51858</v>
+        <v>1.4908699999999999</v>
       </c>
       <c r="E110">
-        <v>1.4821500000000001</v>
+        <v>1.46601</v>
       </c>
       <c r="F110">
-        <v>1.48688</v>
+        <v>1.4688600000000001</v>
       </c>
       <c r="H110">
         <f t="shared" si="1"/>
-        <v>2.9880000000000129</v>
+        <v>3.6429999999999962</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="21" customHeight="1">
@@ -3295,23 +3303,23 @@
         <v>24</v>
       </c>
       <c r="B111" s="8">
-        <v>41422</v>
+        <v>41429</v>
       </c>
       <c r="C111">
-        <v>1.5019199999999999</v>
+        <v>1.5174700000000001</v>
       </c>
       <c r="D111">
-        <v>1.5226900000000001</v>
+        <v>1.51858</v>
       </c>
       <c r="E111">
-        <v>1.49281</v>
+        <v>1.4821500000000001</v>
       </c>
       <c r="F111">
-        <v>1.5153799999999999</v>
+        <v>1.48688</v>
       </c>
       <c r="H111">
         <f t="shared" si="1"/>
-        <v>1.7630000000000035</v>
+        <v>2.9880000000000129</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="21" customHeight="1">
@@ -3319,23 +3327,23 @@
         <v>24</v>
       </c>
       <c r="B112" s="8">
-        <v>41415</v>
+        <v>41422</v>
       </c>
       <c r="C112">
-        <v>1.5039100000000001</v>
+        <v>1.5019199999999999</v>
       </c>
       <c r="D112">
-        <v>1.5110399999999999</v>
+        <v>1.5226900000000001</v>
       </c>
       <c r="E112">
-        <v>1.4934099999999999</v>
+        <v>1.49281</v>
       </c>
       <c r="F112">
-        <v>1.5007999999999999</v>
+        <v>1.5153799999999999</v>
       </c>
       <c r="H112">
         <f t="shared" si="1"/>
-        <v>3.5980000000000123</v>
+        <v>1.7630000000000035</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="21" customHeight="1">
@@ -3343,23 +3351,23 @@
         <v>24</v>
       </c>
       <c r="B113" s="8">
-        <v>41408</v>
+        <v>41415</v>
       </c>
       <c r="C113">
-        <v>1.4783200000000001</v>
+        <v>1.5039100000000001</v>
       </c>
       <c r="D113">
-        <v>1.5075000000000001</v>
+        <v>1.5110399999999999</v>
       </c>
       <c r="E113">
-        <v>1.4715199999999999</v>
+        <v>1.4934099999999999</v>
       </c>
       <c r="F113">
-        <v>1.5024599999999999</v>
+        <v>1.5007999999999999</v>
       </c>
       <c r="H113">
         <f t="shared" si="1"/>
-        <v>2.0840000000000192</v>
+        <v>3.5980000000000123</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="21" customHeight="1">
@@ -3367,23 +3375,23 @@
         <v>24</v>
       </c>
       <c r="B114" s="8">
-        <v>41401</v>
+        <v>41408</v>
       </c>
       <c r="C114">
-        <v>1.48569</v>
+        <v>1.4783200000000001</v>
       </c>
       <c r="D114">
-        <v>1.4878800000000001</v>
+        <v>1.5075000000000001</v>
       </c>
       <c r="E114">
-        <v>1.4670399999999999</v>
+        <v>1.4715199999999999</v>
       </c>
       <c r="F114">
-        <v>1.4792700000000001</v>
+        <v>1.5024599999999999</v>
       </c>
       <c r="H114">
         <f t="shared" si="1"/>
-        <v>4.6699999999999964</v>
+        <v>2.0840000000000192</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="21" customHeight="1">
@@ -3391,23 +3399,23 @@
         <v>24</v>
       </c>
       <c r="B115" s="8">
-        <v>41394</v>
+        <v>41401</v>
       </c>
       <c r="C115">
-        <v>1.4559500000000001</v>
+        <v>1.48569</v>
       </c>
       <c r="D115">
-        <v>1.49105</v>
+        <v>1.4878800000000001</v>
       </c>
       <c r="E115">
-        <v>1.44435</v>
+        <v>1.4670399999999999</v>
       </c>
       <c r="F115">
-        <v>1.4821299999999999</v>
+        <v>1.4792700000000001</v>
       </c>
       <c r="H115">
         <f t="shared" si="1"/>
-        <v>3.3450000000000202</v>
+        <v>4.6699999999999964</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="21" customHeight="1">
@@ -3415,23 +3423,23 @@
         <v>24</v>
       </c>
       <c r="B116" s="8">
-        <v>41387</v>
+        <v>41394</v>
       </c>
       <c r="C116">
-        <v>1.4381200000000001</v>
+        <v>1.4559500000000001</v>
       </c>
       <c r="D116">
-        <v>1.4650700000000001</v>
+        <v>1.49105</v>
       </c>
       <c r="E116">
-        <v>1.4316199999999999</v>
+        <v>1.44435</v>
       </c>
       <c r="F116">
-        <v>1.4553</v>
+        <v>1.4821299999999999</v>
       </c>
       <c r="H116">
         <f t="shared" si="1"/>
-        <v>3.5279999999999978</v>
+        <v>3.3450000000000202</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="21" customHeight="1">
@@ -3439,23 +3447,23 @@
         <v>24</v>
       </c>
       <c r="B117" s="8">
-        <v>41380</v>
+        <v>41387</v>
       </c>
       <c r="C117">
-        <v>1.3998200000000001</v>
+        <v>1.4381200000000001</v>
       </c>
       <c r="D117">
-        <v>1.4335100000000001</v>
+        <v>1.4650700000000001</v>
       </c>
       <c r="E117">
-        <v>1.3982300000000001</v>
+        <v>1.4316199999999999</v>
       </c>
       <c r="F117">
-        <v>1.4212800000000001</v>
+        <v>1.4553</v>
       </c>
       <c r="H117">
         <f t="shared" si="1"/>
-        <v>2.1740000000000093</v>
+        <v>3.5279999999999978</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="21" customHeight="1">
@@ -3463,23 +3471,23 @@
         <v>24</v>
       </c>
       <c r="B118" s="8">
-        <v>41373</v>
+        <v>41380</v>
       </c>
       <c r="C118">
-        <v>1.41126</v>
+        <v>1.3998200000000001</v>
       </c>
       <c r="D118">
-        <v>1.4216800000000001</v>
+        <v>1.4335100000000001</v>
       </c>
       <c r="E118">
-        <v>1.39994</v>
+        <v>1.3982300000000001</v>
       </c>
       <c r="F118">
-        <v>1.40035</v>
+        <v>1.4212800000000001</v>
       </c>
       <c r="H118">
         <f t="shared" si="1"/>
-        <v>2.1790000000000198</v>
+        <v>2.1740000000000093</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="21" customHeight="1">
@@ -3487,23 +3495,23 @@
         <v>24</v>
       </c>
       <c r="B119" s="8">
-        <v>41366</v>
+        <v>41373</v>
       </c>
       <c r="C119">
-        <v>1.39649</v>
+        <v>1.41126</v>
       </c>
       <c r="D119">
-        <v>1.4178900000000001</v>
+        <v>1.4216800000000001</v>
       </c>
       <c r="E119">
-        <v>1.3960999999999999</v>
+        <v>1.39994</v>
       </c>
       <c r="F119">
-        <v>1.4120600000000001</v>
+        <v>1.40035</v>
       </c>
       <c r="H119">
         <f t="shared" si="1"/>
-        <v>3.7039999999999962</v>
+        <v>2.1790000000000198</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="21" customHeight="1">
@@ -3511,23 +3519,23 @@
         <v>24</v>
       </c>
       <c r="B120" s="8">
-        <v>41359</v>
+        <v>41366</v>
       </c>
       <c r="C120">
-        <v>1.4189700000000001</v>
+        <v>1.39649</v>
       </c>
       <c r="D120">
-        <v>1.4310099999999999</v>
+        <v>1.4178900000000001</v>
       </c>
       <c r="E120">
-        <v>1.3939699999999999</v>
+        <v>1.3960999999999999</v>
       </c>
       <c r="F120">
-        <v>1.39605</v>
+        <v>1.4120600000000001</v>
       </c>
       <c r="H120">
         <f t="shared" si="1"/>
-        <v>3.3469999999999889</v>
+        <v>3.7039999999999962</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="21" customHeight="1">
@@ -3535,23 +3543,23 @@
         <v>24</v>
       </c>
       <c r="B121" s="8">
-        <v>41352</v>
+        <v>41359</v>
       </c>
       <c r="C121">
-        <v>1.3945000000000001</v>
+        <v>1.4189700000000001</v>
       </c>
       <c r="D121">
-        <v>1.4208099999999999</v>
+        <v>1.4310099999999999</v>
       </c>
       <c r="E121">
-        <v>1.38734</v>
+        <v>1.3939699999999999</v>
       </c>
       <c r="F121">
-        <v>1.4166399999999999</v>
+        <v>1.39605</v>
       </c>
       <c r="H121">
         <f t="shared" si="1"/>
-        <v>3.0370000000000008</v>
+        <v>3.3469999999999889</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="21" customHeight="1">
@@ -3559,23 +3567,23 @@
         <v>24</v>
       </c>
       <c r="B122" s="8">
-        <v>41345</v>
+        <v>41352</v>
       </c>
       <c r="C122">
-        <v>1.4154500000000001</v>
+        <v>1.3945000000000001</v>
       </c>
       <c r="D122">
-        <v>1.41842</v>
+        <v>1.4208099999999999</v>
       </c>
       <c r="E122">
-        <v>1.38805</v>
+        <v>1.38734</v>
       </c>
       <c r="F122">
-        <v>1.39384</v>
+        <v>1.4166399999999999</v>
       </c>
       <c r="H122">
         <f t="shared" si="1"/>
-        <v>3.0460000000000154</v>
+        <v>3.0370000000000008</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="21" customHeight="1">
@@ -3583,23 +3591,23 @@
         <v>24</v>
       </c>
       <c r="B123" s="8">
-        <v>41338</v>
+        <v>41345</v>
       </c>
       <c r="C123">
-        <v>1.39778</v>
+        <v>1.4154500000000001</v>
       </c>
       <c r="D123">
-        <v>1.4179900000000001</v>
+        <v>1.41842</v>
       </c>
       <c r="E123">
-        <v>1.3875299999999999</v>
+        <v>1.38805</v>
       </c>
       <c r="F123">
-        <v>1.41483</v>
+        <v>1.39384</v>
       </c>
       <c r="H123">
         <f t="shared" si="1"/>
-        <v>2.7020000000000044</v>
+        <v>3.0460000000000154</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="21" customHeight="1">
@@ -3607,23 +3615,23 @@
         <v>24</v>
       </c>
       <c r="B124" s="8">
-        <v>41331</v>
+        <v>41338</v>
       </c>
       <c r="C124">
-        <v>1.3749400000000001</v>
+        <v>1.39778</v>
       </c>
       <c r="D124">
-        <v>1.39832</v>
+        <v>1.4179900000000001</v>
       </c>
       <c r="E124">
-        <v>1.3713</v>
+        <v>1.3875299999999999</v>
       </c>
       <c r="F124">
-        <v>1.3978999999999999</v>
+        <v>1.41483</v>
       </c>
       <c r="H124">
         <f t="shared" si="1"/>
-        <v>2.3599999999999843</v>
+        <v>2.7020000000000044</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="21" customHeight="1">
@@ -3631,23 +3639,23 @@
         <v>24</v>
       </c>
       <c r="B125" s="8">
-        <v>41324</v>
+        <v>41331</v>
       </c>
       <c r="C125">
-        <v>1.38219</v>
+        <v>1.3749400000000001</v>
       </c>
       <c r="D125">
-        <v>1.3862699999999999</v>
+        <v>1.39832</v>
       </c>
       <c r="E125">
-        <v>1.36267</v>
+        <v>1.3713</v>
       </c>
       <c r="F125">
-        <v>1.3765099999999999</v>
+        <v>1.3978999999999999</v>
       </c>
       <c r="H125">
         <f t="shared" si="1"/>
-        <v>1.7700000000000049</v>
+        <v>2.3599999999999843</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="21" customHeight="1">
@@ -3655,23 +3663,23 @@
         <v>24</v>
       </c>
       <c r="B126" s="8">
-        <v>41317</v>
+        <v>41324</v>
       </c>
       <c r="C126">
-        <v>1.3835599999999999</v>
+        <v>1.38219</v>
       </c>
       <c r="D126">
-        <v>1.39018</v>
+        <v>1.3862699999999999</v>
       </c>
       <c r="E126">
-        <v>1.3724799999999999</v>
+        <v>1.36267</v>
       </c>
       <c r="F126">
-        <v>1.3838299999999999</v>
+        <v>1.3765099999999999</v>
       </c>
       <c r="H126">
         <f t="shared" si="1"/>
-        <v>2.3619999999999974</v>
+        <v>1.7700000000000049</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="21" customHeight="1">
@@ -3679,23 +3687,23 @@
         <v>24</v>
       </c>
       <c r="B127" s="8">
-        <v>41310</v>
+        <v>41317</v>
       </c>
       <c r="C127">
-        <v>1.4053199999999999</v>
+        <v>1.3835599999999999</v>
       </c>
       <c r="D127">
-        <v>1.40757</v>
+        <v>1.39018</v>
       </c>
       <c r="E127">
-        <v>1.38395</v>
+        <v>1.3724799999999999</v>
       </c>
       <c r="F127">
-        <v>1.38581</v>
+        <v>1.3838299999999999</v>
       </c>
       <c r="H127">
         <f t="shared" si="1"/>
-        <v>2.9320000000000013</v>
+        <v>2.3619999999999974</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="21" customHeight="1">
@@ -3703,23 +3711,23 @@
         <v>24</v>
       </c>
       <c r="B128" s="8">
-        <v>41303</v>
+        <v>41310</v>
       </c>
       <c r="C128">
-        <v>1.4178200000000001</v>
+        <v>1.4053199999999999</v>
       </c>
       <c r="D128">
-        <v>1.42903</v>
+        <v>1.40757</v>
       </c>
       <c r="E128">
-        <v>1.39971</v>
+        <v>1.38395</v>
       </c>
       <c r="F128">
-        <v>1.4039999999999999</v>
+        <v>1.38581</v>
       </c>
       <c r="H128">
         <f t="shared" si="1"/>
-        <v>1.5430000000000055</v>
+        <v>2.9320000000000013</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="21" customHeight="1">
@@ -3727,23 +3735,23 @@
         <v>24</v>
       </c>
       <c r="B129" s="8">
-        <v>41296</v>
+        <v>41303</v>
       </c>
       <c r="C129">
-        <v>1.41578</v>
+        <v>1.4178200000000001</v>
       </c>
       <c r="D129">
-        <v>1.42757</v>
+        <v>1.42903</v>
       </c>
       <c r="E129">
-        <v>1.41214</v>
+        <v>1.39971</v>
       </c>
       <c r="F129">
-        <v>1.4173500000000001</v>
+        <v>1.4039999999999999</v>
       </c>
       <c r="H129">
         <f t="shared" si="1"/>
-        <v>1.8529999999999935</v>
+        <v>1.5430000000000055</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="21" customHeight="1">
@@ -3751,23 +3759,23 @@
         <v>24</v>
       </c>
       <c r="B130" s="8">
-        <v>41289</v>
+        <v>41296</v>
       </c>
       <c r="C130">
-        <v>1.4165300000000001</v>
+        <v>1.41578</v>
       </c>
       <c r="D130">
-        <v>1.42126</v>
+        <v>1.42757</v>
       </c>
       <c r="E130">
-        <v>1.40273</v>
+        <v>1.41214</v>
       </c>
       <c r="F130">
-        <v>1.4155899999999999</v>
+        <v>1.4173500000000001</v>
       </c>
       <c r="H130">
         <f t="shared" ref="H130:H193" si="2">ABS(D131-E131)*100</f>
-        <v>3.082000000000007</v>
+        <v>1.8529999999999935</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="21" customHeight="1">
@@ -3775,23 +3783,23 @@
         <v>24</v>
       </c>
       <c r="B131" s="8">
-        <v>41282</v>
+        <v>41289</v>
       </c>
       <c r="C131">
-        <v>1.4429799999999999</v>
+        <v>1.4165300000000001</v>
       </c>
       <c r="D131">
-        <v>1.44485</v>
+        <v>1.42126</v>
       </c>
       <c r="E131">
-        <v>1.4140299999999999</v>
+        <v>1.40273</v>
       </c>
       <c r="F131">
-        <v>1.4183699999999999</v>
+        <v>1.4155899999999999</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
-        <v>2.4270000000000014</v>
+        <v>3.082000000000007</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="21" customHeight="1">
@@ -3799,23 +3807,23 @@
         <v>24</v>
       </c>
       <c r="B132" s="8">
-        <v>41275</v>
+        <v>41282</v>
       </c>
       <c r="C132">
-        <v>1.45417</v>
+        <v>1.4429799999999999</v>
       </c>
       <c r="D132">
-        <v>1.45669</v>
+        <v>1.44485</v>
       </c>
       <c r="E132">
-        <v>1.43242</v>
+        <v>1.4140299999999999</v>
       </c>
       <c r="F132">
-        <v>1.4436599999999999</v>
+        <v>1.4183699999999999</v>
       </c>
       <c r="H132">
         <f t="shared" si="2"/>
-        <v>2.7329999999999854</v>
+        <v>2.4270000000000014</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="21" customHeight="1">
@@ -3823,23 +3831,23 @@
         <v>24</v>
       </c>
       <c r="B133" s="8">
-        <v>41268</v>
+        <v>41275</v>
       </c>
       <c r="C133">
-        <v>1.45522</v>
+        <v>1.45417</v>
       </c>
       <c r="D133">
-        <v>1.47281</v>
+        <v>1.45669</v>
       </c>
       <c r="E133">
-        <v>1.4454800000000001</v>
+        <v>1.43242</v>
       </c>
       <c r="F133">
-        <v>1.4593499999999999</v>
+        <v>1.4436599999999999</v>
       </c>
       <c r="H133">
         <f t="shared" si="2"/>
-        <v>3.0630000000000157</v>
+        <v>2.7329999999999854</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="21" customHeight="1">
@@ -3847,23 +3855,23 @@
         <v>24</v>
       </c>
       <c r="B134" s="8">
-        <v>41261</v>
+        <v>41268</v>
       </c>
       <c r="C134">
-        <v>1.43333</v>
+        <v>1.45522</v>
       </c>
       <c r="D134">
-        <v>1.4596800000000001</v>
+        <v>1.47281</v>
       </c>
       <c r="E134">
-        <v>1.4290499999999999</v>
+        <v>1.4454800000000001</v>
       </c>
       <c r="F134">
-        <v>1.45624</v>
+        <v>1.4593499999999999</v>
       </c>
       <c r="H134">
         <f t="shared" si="2"/>
-        <v>2.50999999999999</v>
+        <v>3.0630000000000157</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="21" customHeight="1">
@@ -3871,23 +3879,23 @@
         <v>24</v>
       </c>
       <c r="B135" s="8">
-        <v>41254</v>
+        <v>41261</v>
       </c>
       <c r="C135">
-        <v>1.41405</v>
+        <v>1.43333</v>
       </c>
       <c r="D135">
-        <v>1.43421</v>
+        <v>1.4596800000000001</v>
       </c>
       <c r="E135">
-        <v>1.4091100000000001</v>
+        <v>1.4290499999999999</v>
       </c>
       <c r="F135">
-        <v>1.43164</v>
+        <v>1.45624</v>
       </c>
       <c r="H135">
         <f t="shared" si="2"/>
-        <v>3.9380000000000193</v>
+        <v>2.50999999999999</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="21" customHeight="1">
@@ -3895,23 +3903,23 @@
         <v>24</v>
       </c>
       <c r="B136" s="8">
-        <v>41247</v>
+        <v>41254</v>
       </c>
       <c r="C136">
-        <v>1.4311199999999999</v>
+        <v>1.41405</v>
       </c>
       <c r="D136">
-        <v>1.4512400000000001</v>
+        <v>1.43421</v>
       </c>
       <c r="E136">
-        <v>1.4118599999999999</v>
+        <v>1.4091100000000001</v>
       </c>
       <c r="F136">
-        <v>1.4167400000000001</v>
+        <v>1.43164</v>
       </c>
       <c r="H136">
         <f t="shared" si="2"/>
-        <v>3.0030000000000001</v>
+        <v>3.9380000000000193</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="21" customHeight="1">
@@ -3919,23 +3927,23 @@
         <v>24</v>
       </c>
       <c r="B137" s="8">
-        <v>41240</v>
+        <v>41247</v>
       </c>
       <c r="C137">
-        <v>1.42517</v>
+        <v>1.4311199999999999</v>
       </c>
       <c r="D137">
-        <v>1.4436</v>
+        <v>1.4512400000000001</v>
       </c>
       <c r="E137">
-        <v>1.41357</v>
+        <v>1.4118599999999999</v>
       </c>
       <c r="F137">
-        <v>1.4309000000000001</v>
+        <v>1.4167400000000001</v>
       </c>
       <c r="H137">
         <f t="shared" si="2"/>
-        <v>3.0810000000000004</v>
+        <v>3.0030000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="21" customHeight="1">
@@ -3943,23 +3951,23 @@
         <v>24</v>
       </c>
       <c r="B138" s="8">
-        <v>41233</v>
+        <v>41240</v>
       </c>
       <c r="C138">
-        <v>1.4447000000000001</v>
+        <v>1.42517</v>
       </c>
       <c r="D138">
-        <v>1.4488399999999999</v>
+        <v>1.4436</v>
       </c>
       <c r="E138">
-        <v>1.4180299999999999</v>
+        <v>1.41357</v>
       </c>
       <c r="F138">
-        <v>1.42408</v>
+        <v>1.4309000000000001</v>
       </c>
       <c r="H138">
         <f t="shared" si="2"/>
-        <v>2.6699999999999946</v>
+        <v>3.0810000000000004</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="21" customHeight="1">
@@ -3967,23 +3975,23 @@
         <v>24</v>
       </c>
       <c r="B139" s="8">
-        <v>41226</v>
+        <v>41233</v>
       </c>
       <c r="C139">
-        <v>1.4352400000000001</v>
+        <v>1.4447000000000001</v>
       </c>
       <c r="D139">
-        <v>1.44469</v>
+        <v>1.4488399999999999</v>
       </c>
       <c r="E139">
-        <v>1.4179900000000001</v>
+        <v>1.4180299999999999</v>
       </c>
       <c r="F139">
-        <v>1.4433499999999999</v>
+        <v>1.42408</v>
       </c>
       <c r="H139">
         <f t="shared" si="2"/>
-        <v>8.0639999999999823</v>
+        <v>2.6699999999999946</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="21" customHeight="1">
@@ -3991,23 +3999,23 @@
         <v>24</v>
       </c>
       <c r="B140" s="8">
-        <v>41219</v>
+        <v>41226</v>
       </c>
       <c r="C140">
-        <v>1.43913</v>
+        <v>1.4352400000000001</v>
       </c>
       <c r="D140">
-        <v>1.4880199999999999</v>
+        <v>1.44469</v>
       </c>
       <c r="E140">
-        <v>1.4073800000000001</v>
+        <v>1.4179900000000001</v>
       </c>
       <c r="F140">
-        <v>1.4378200000000001</v>
+        <v>1.4433499999999999</v>
       </c>
       <c r="H140">
         <f t="shared" si="2"/>
-        <v>2.5899999999999812</v>
+        <v>8.0639999999999823</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="21" customHeight="1">
@@ -4015,23 +4023,23 @@
         <v>24</v>
       </c>
       <c r="B141" s="8">
-        <v>41212</v>
+        <v>41219</v>
       </c>
       <c r="C141">
-        <v>1.44523</v>
+        <v>1.43913</v>
       </c>
       <c r="D141">
-        <v>1.4557899999999999</v>
+        <v>1.4880199999999999</v>
       </c>
       <c r="E141">
-        <v>1.4298900000000001</v>
+        <v>1.4073800000000001</v>
       </c>
       <c r="F141">
-        <v>1.4506699999999999</v>
+        <v>1.4378200000000001</v>
       </c>
       <c r="H141">
         <f t="shared" si="2"/>
-        <v>3.5760000000000014</v>
+        <v>2.5899999999999812</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="21" customHeight="1">
@@ -4039,23 +4047,23 @@
         <v>24</v>
       </c>
       <c r="B142" s="8">
-        <v>41205</v>
+        <v>41212</v>
       </c>
       <c r="C142">
-        <v>1.4302600000000001</v>
+        <v>1.44523</v>
       </c>
       <c r="D142">
-        <v>1.44848</v>
+        <v>1.4557899999999999</v>
       </c>
       <c r="E142">
-        <v>1.41272</v>
+        <v>1.4298900000000001</v>
       </c>
       <c r="F142">
-        <v>1.44587</v>
+        <v>1.4506699999999999</v>
       </c>
       <c r="H142">
         <f t="shared" si="2"/>
-        <v>2.9379999999999962</v>
+        <v>3.5760000000000014</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="21" customHeight="1">
@@ -4063,23 +4071,23 @@
         <v>24</v>
       </c>
       <c r="B143" s="8">
-        <v>41198</v>
+        <v>41205</v>
       </c>
       <c r="C143">
-        <v>1.4394100000000001</v>
+        <v>1.4302600000000001</v>
       </c>
       <c r="D143">
-        <v>1.4475199999999999</v>
+        <v>1.44848</v>
       </c>
       <c r="E143">
-        <v>1.41814</v>
+        <v>1.41272</v>
       </c>
       <c r="F143">
-        <v>1.4308799999999999</v>
+        <v>1.44587</v>
       </c>
       <c r="H143">
         <f t="shared" si="2"/>
-        <v>3.5640000000000116</v>
+        <v>2.9379999999999962</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="21" customHeight="1">
@@ -4087,23 +4095,23 @@
         <v>24</v>
       </c>
       <c r="B144" s="8">
-        <v>41191</v>
+        <v>41198</v>
       </c>
       <c r="C144">
-        <v>1.4718199999999999</v>
+        <v>1.4394100000000001</v>
       </c>
       <c r="D144">
-        <v>1.4752700000000001</v>
+        <v>1.4475199999999999</v>
       </c>
       <c r="E144">
-        <v>1.43963</v>
+        <v>1.41814</v>
       </c>
       <c r="F144">
-        <v>1.4416500000000001</v>
+        <v>1.4308799999999999</v>
       </c>
       <c r="H144">
         <f t="shared" si="2"/>
-        <v>2.4359999999999937</v>
+        <v>3.5640000000000116</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="21" customHeight="1">
@@ -4111,23 +4119,23 @@
         <v>24</v>
       </c>
       <c r="B145" s="8">
-        <v>41184</v>
+        <v>41191</v>
       </c>
       <c r="C145">
-        <v>1.4667600000000001</v>
+        <v>1.4718199999999999</v>
       </c>
       <c r="D145">
-        <v>1.47787</v>
+        <v>1.4752700000000001</v>
       </c>
       <c r="E145">
-        <v>1.4535100000000001</v>
+        <v>1.43963</v>
       </c>
       <c r="F145">
-        <v>1.47614</v>
+        <v>1.4416500000000001</v>
       </c>
       <c r="H145">
         <f t="shared" si="2"/>
-        <v>2.2399999999999975</v>
+        <v>2.4359999999999937</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="21" customHeight="1">
@@ -4135,23 +4143,23 @@
         <v>24</v>
       </c>
       <c r="B146" s="8">
-        <v>41177</v>
+        <v>41184</v>
       </c>
       <c r="C146">
-        <v>1.4738599999999999</v>
+        <v>1.4667600000000001</v>
       </c>
       <c r="D146">
-        <v>1.4781</v>
+        <v>1.47787</v>
       </c>
       <c r="E146">
-        <v>1.4557</v>
+        <v>1.4535100000000001</v>
       </c>
       <c r="F146">
-        <v>1.4676199999999999</v>
+        <v>1.47614</v>
       </c>
       <c r="H146">
         <f t="shared" si="2"/>
-        <v>2.6830000000000132</v>
+        <v>2.2399999999999975</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="21" customHeight="1">
@@ -4159,23 +4167,23 @@
         <v>24</v>
       </c>
       <c r="B147" s="8">
-        <v>41170</v>
+        <v>41177</v>
       </c>
       <c r="C147">
-        <v>1.48977</v>
+        <v>1.4738599999999999</v>
       </c>
       <c r="D147">
-        <v>1.4900100000000001</v>
+        <v>1.4781</v>
       </c>
       <c r="E147">
-        <v>1.4631799999999999</v>
+        <v>1.4557</v>
       </c>
       <c r="F147">
-        <v>1.4730700000000001</v>
+        <v>1.4676199999999999</v>
       </c>
       <c r="H147">
         <f t="shared" si="2"/>
-        <v>2.513999999999994</v>
+        <v>2.6830000000000132</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="21" customHeight="1">
@@ -4183,23 +4191,23 @@
         <v>24</v>
       </c>
       <c r="B148" s="8">
-        <v>41163</v>
+        <v>41170</v>
       </c>
       <c r="C148">
-        <v>1.4892099999999999</v>
+        <v>1.48977</v>
       </c>
       <c r="D148">
-        <v>1.5095099999999999</v>
+        <v>1.4900100000000001</v>
       </c>
       <c r="E148">
-        <v>1.48437</v>
+        <v>1.4631799999999999</v>
       </c>
       <c r="F148">
-        <v>1.4889300000000001</v>
+        <v>1.4730700000000001</v>
       </c>
       <c r="H148">
         <f t="shared" si="2"/>
-        <v>3.2149999999999901</v>
+        <v>2.513999999999994</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="21" customHeight="1">
@@ -4207,23 +4215,23 @@
         <v>24</v>
       </c>
       <c r="B149" s="8">
-        <v>41156</v>
+        <v>41163</v>
       </c>
       <c r="C149">
-        <v>1.4725200000000001</v>
+        <v>1.4892099999999999</v>
       </c>
       <c r="D149">
-        <v>1.4901</v>
+        <v>1.5095099999999999</v>
       </c>
       <c r="E149">
-        <v>1.4579500000000001</v>
+        <v>1.48437</v>
       </c>
       <c r="F149">
-        <v>1.48997</v>
+        <v>1.4889300000000001</v>
       </c>
       <c r="H149">
         <f t="shared" si="2"/>
-        <v>1.3500000000000068</v>
+        <v>3.2149999999999901</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="21" customHeight="1">
@@ -4231,23 +4239,23 @@
         <v>24</v>
       </c>
       <c r="B150" s="8">
-        <v>41149</v>
+        <v>41156</v>
       </c>
       <c r="C150">
-        <v>1.4804999999999999</v>
+        <v>1.4725200000000001</v>
       </c>
       <c r="D150">
-        <v>1.4871700000000001</v>
+        <v>1.4901</v>
       </c>
       <c r="E150">
-        <v>1.47367</v>
+        <v>1.4579500000000001</v>
       </c>
       <c r="F150">
-        <v>1.4738599999999999</v>
+        <v>1.48997</v>
       </c>
       <c r="H150">
         <f t="shared" si="2"/>
-        <v>1.8220000000000125</v>
+        <v>1.3500000000000068</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="21" customHeight="1">
@@ -4255,23 +4263,23 @@
         <v>24</v>
       </c>
       <c r="B151" s="8">
-        <v>41142</v>
+        <v>41149</v>
       </c>
       <c r="C151">
-        <v>1.48661</v>
+        <v>1.4804999999999999</v>
       </c>
       <c r="D151">
-        <v>1.4877800000000001</v>
+        <v>1.4871700000000001</v>
       </c>
       <c r="E151">
-        <v>1.46956</v>
+        <v>1.47367</v>
       </c>
       <c r="F151">
-        <v>1.48044</v>
+        <v>1.4738599999999999</v>
       </c>
       <c r="H151">
         <f t="shared" si="2"/>
-        <v>3.4689999999999888</v>
+        <v>1.8220000000000125</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="21" customHeight="1">
@@ -4279,23 +4287,23 @@
         <v>24</v>
       </c>
       <c r="B152" s="8">
-        <v>41135</v>
+        <v>41142</v>
       </c>
       <c r="C152">
-        <v>1.4582299999999999</v>
+        <v>1.48661</v>
       </c>
       <c r="D152">
-        <v>1.48888</v>
+        <v>1.4877800000000001</v>
       </c>
       <c r="E152">
-        <v>1.4541900000000001</v>
+        <v>1.46956</v>
       </c>
       <c r="F152">
-        <v>1.48499</v>
+        <v>1.48044</v>
       </c>
       <c r="H152">
         <f t="shared" si="2"/>
-        <v>1.8319999999999892</v>
+        <v>3.4689999999999888</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="21" customHeight="1">
@@ -4303,23 +4311,23 @@
         <v>24</v>
       </c>
       <c r="B153" s="8">
-        <v>41128</v>
+        <v>41135</v>
       </c>
       <c r="C153">
-        <v>1.4574800000000001</v>
+        <v>1.4582299999999999</v>
       </c>
       <c r="D153">
-        <v>1.4604299999999999</v>
+        <v>1.48888</v>
       </c>
       <c r="E153">
-        <v>1.44211</v>
+        <v>1.4541900000000001</v>
       </c>
       <c r="F153">
-        <v>1.45963</v>
+        <v>1.48499</v>
       </c>
       <c r="H153">
         <f t="shared" si="2"/>
-        <v>4.1050000000000031</v>
+        <v>1.8319999999999892</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="21" customHeight="1">
@@ -4327,23 +4335,23 @@
         <v>24</v>
       </c>
       <c r="B154" s="8">
-        <v>41121</v>
+        <v>41128</v>
       </c>
       <c r="C154">
-        <v>1.47119</v>
+        <v>1.4574800000000001</v>
       </c>
       <c r="D154">
-        <v>1.4905600000000001</v>
+        <v>1.4604299999999999</v>
       </c>
       <c r="E154">
-        <v>1.4495100000000001</v>
+        <v>1.44211</v>
       </c>
       <c r="F154">
-        <v>1.4549700000000001</v>
+        <v>1.45963</v>
       </c>
       <c r="H154">
         <f t="shared" si="2"/>
-        <v>2.9420000000000002</v>
+        <v>4.1050000000000031</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="21" customHeight="1">
@@ -4351,23 +4359,23 @@
         <v>24</v>
       </c>
       <c r="B155" s="8">
-        <v>41114</v>
+        <v>41121</v>
       </c>
       <c r="C155">
-        <v>1.4700200000000001</v>
+        <v>1.47119</v>
       </c>
       <c r="D155">
-        <v>1.4812799999999999</v>
+        <v>1.4905600000000001</v>
       </c>
       <c r="E155">
-        <v>1.4518599999999999</v>
+        <v>1.4495100000000001</v>
       </c>
       <c r="F155">
-        <v>1.4702</v>
+        <v>1.4549700000000001</v>
       </c>
       <c r="H155">
         <f t="shared" si="2"/>
-        <v>2.6269999999999794</v>
+        <v>2.9420000000000002</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="21" customHeight="1">
@@ -4375,23 +4383,23 @@
         <v>24</v>
       </c>
       <c r="B156" s="8">
-        <v>41107</v>
+        <v>41114</v>
       </c>
       <c r="C156">
-        <v>1.4545999999999999</v>
+        <v>1.4700200000000001</v>
       </c>
       <c r="D156">
-        <v>1.4789699999999999</v>
+        <v>1.4812799999999999</v>
       </c>
       <c r="E156">
-        <v>1.4527000000000001</v>
+        <v>1.4518599999999999</v>
       </c>
       <c r="F156">
-        <v>1.46977</v>
+        <v>1.4702</v>
       </c>
       <c r="H156">
         <f t="shared" si="2"/>
-        <v>2.1589999999999998</v>
+        <v>2.6269999999999794</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="21" customHeight="1">
@@ -4399,23 +4407,23 @@
         <v>24</v>
       </c>
       <c r="B157" s="8">
-        <v>41100</v>
+        <v>41107</v>
       </c>
       <c r="C157">
-        <v>1.4613499999999999</v>
+        <v>1.4545999999999999</v>
       </c>
       <c r="D157">
-        <v>1.4695499999999999</v>
+        <v>1.4789699999999999</v>
       </c>
       <c r="E157">
-        <v>1.4479599999999999</v>
+        <v>1.4527000000000001</v>
       </c>
       <c r="F157">
-        <v>1.4578100000000001</v>
+        <v>1.46977</v>
       </c>
       <c r="H157">
         <f t="shared" si="2"/>
-        <v>3.4980000000000011</v>
+        <v>2.1589999999999998</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="21" customHeight="1">
@@ -4423,23 +4431,23 @@
         <v>24</v>
       </c>
       <c r="B158" s="8">
-        <v>41093</v>
+        <v>41100</v>
       </c>
       <c r="C158">
-        <v>1.4922200000000001</v>
+        <v>1.4613499999999999</v>
       </c>
       <c r="D158">
-        <v>1.4938400000000001</v>
+        <v>1.4695499999999999</v>
       </c>
       <c r="E158">
-        <v>1.45886</v>
+        <v>1.4479599999999999</v>
       </c>
       <c r="F158">
-        <v>1.4601299999999999</v>
+        <v>1.4578100000000001</v>
       </c>
       <c r="H158">
         <f t="shared" si="2"/>
-        <v>2.2499999999999964</v>
+        <v>3.4980000000000011</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="21" customHeight="1">
@@ -4447,23 +4455,23 @@
         <v>24</v>
       </c>
       <c r="B159" s="8">
-        <v>41086</v>
+        <v>41093</v>
       </c>
       <c r="C159">
-        <v>1.4857100000000001</v>
+        <v>1.4922200000000001</v>
       </c>
       <c r="D159">
-        <v>1.5047299999999999</v>
+        <v>1.4938400000000001</v>
       </c>
       <c r="E159">
-        <v>1.4822299999999999</v>
+        <v>1.45886</v>
       </c>
       <c r="F159">
-        <v>1.4862299999999999</v>
+        <v>1.4601299999999999</v>
       </c>
       <c r="H159">
         <f t="shared" si="2"/>
-        <v>4.9639999999999906</v>
+        <v>2.2499999999999964</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="21" customHeight="1">
@@ -4471,23 +4479,23 @@
         <v>24</v>
       </c>
       <c r="B160" s="8">
-        <v>41079</v>
+        <v>41086</v>
       </c>
       <c r="C160">
-        <v>1.52349</v>
+        <v>1.4857100000000001</v>
       </c>
       <c r="D160">
-        <v>1.5298499999999999</v>
+        <v>1.5047299999999999</v>
       </c>
       <c r="E160">
-        <v>1.48021</v>
+        <v>1.4822299999999999</v>
       </c>
       <c r="F160">
-        <v>1.48428</v>
+        <v>1.4862299999999999</v>
       </c>
       <c r="H160">
         <f t="shared" si="2"/>
-        <v>2.2759999999999891</v>
+        <v>4.9639999999999906</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="21" customHeight="1">
@@ -4495,23 +4503,23 @@
         <v>24</v>
       </c>
       <c r="B161" s="8">
-        <v>41072</v>
+        <v>41079</v>
       </c>
       <c r="C161">
-        <v>1.5257099999999999</v>
+        <v>1.52349</v>
       </c>
       <c r="D161">
-        <v>1.53647</v>
+        <v>1.5298499999999999</v>
       </c>
       <c r="E161">
-        <v>1.5137100000000001</v>
+        <v>1.48021</v>
       </c>
       <c r="F161">
-        <v>1.52529</v>
+        <v>1.48428</v>
       </c>
       <c r="H161">
         <f t="shared" si="2"/>
-        <v>3.2040000000000068</v>
+        <v>2.2759999999999891</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="21" customHeight="1">
@@ -4519,23 +4527,23 @@
         <v>24</v>
       </c>
       <c r="B162" s="8">
-        <v>41065</v>
+        <v>41072</v>
       </c>
       <c r="C162">
-        <v>1.5431999999999999</v>
+        <v>1.5257099999999999</v>
       </c>
       <c r="D162">
-        <v>1.55138</v>
+        <v>1.53647</v>
       </c>
       <c r="E162">
-        <v>1.5193399999999999</v>
+        <v>1.5137100000000001</v>
       </c>
       <c r="F162">
-        <v>1.52522</v>
+        <v>1.52529</v>
       </c>
       <c r="H162">
         <f t="shared" si="2"/>
-        <v>3.0380000000000074</v>
+        <v>3.2040000000000068</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="21" customHeight="1">
@@ -4543,23 +4551,23 @@
         <v>24</v>
       </c>
       <c r="B163" s="8">
-        <v>41058</v>
+        <v>41065</v>
       </c>
       <c r="C163">
-        <v>1.5476799999999999</v>
+        <v>1.5431999999999999</v>
       </c>
       <c r="D163">
-        <v>1.55416</v>
+        <v>1.55138</v>
       </c>
       <c r="E163">
-        <v>1.5237799999999999</v>
+        <v>1.5193399999999999</v>
       </c>
       <c r="F163">
-        <v>1.5419400000000001</v>
+        <v>1.52522</v>
       </c>
       <c r="H163">
         <f t="shared" si="2"/>
-        <v>1.9689999999999985</v>
+        <v>3.0380000000000074</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="21" customHeight="1">
@@ -4567,23 +4575,23 @@
         <v>24</v>
       </c>
       <c r="B164" s="8">
-        <v>41051</v>
+        <v>41058</v>
       </c>
       <c r="C164">
-        <v>1.55175</v>
+        <v>1.5476799999999999</v>
       </c>
       <c r="D164">
-        <v>1.5645199999999999</v>
+        <v>1.55416</v>
       </c>
       <c r="E164">
-        <v>1.5448299999999999</v>
+        <v>1.5237799999999999</v>
       </c>
       <c r="F164">
-        <v>1.5459000000000001</v>
+        <v>1.5419400000000001</v>
       </c>
       <c r="H164">
         <f t="shared" si="2"/>
-        <v>2.2860000000000102</v>
+        <v>1.9689999999999985</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="21" customHeight="1">
@@ -4591,23 +4599,23 @@
         <v>24</v>
       </c>
       <c r="B165" s="8">
-        <v>41044</v>
+        <v>41051</v>
       </c>
       <c r="C165">
-        <v>1.55694</v>
+        <v>1.55175</v>
       </c>
       <c r="D165">
-        <v>1.5595600000000001</v>
+        <v>1.5645199999999999</v>
       </c>
       <c r="E165">
-        <v>1.5367</v>
+        <v>1.5448299999999999</v>
       </c>
       <c r="F165">
-        <v>1.55294</v>
+        <v>1.5459000000000001</v>
       </c>
       <c r="H165">
         <f t="shared" si="2"/>
-        <v>2.092000000000005</v>
+        <v>2.2860000000000102</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="21" customHeight="1">
@@ -4615,23 +4623,23 @@
         <v>24</v>
       </c>
       <c r="B166" s="8">
-        <v>41037</v>
+        <v>41044</v>
       </c>
       <c r="C166">
-        <v>1.5472399999999999</v>
+        <v>1.55694</v>
       </c>
       <c r="D166">
-        <v>1.5603899999999999</v>
+        <v>1.5595600000000001</v>
       </c>
       <c r="E166">
-        <v>1.5394699999999999</v>
+        <v>1.5367</v>
       </c>
       <c r="F166">
-        <v>1.55565</v>
+        <v>1.55294</v>
       </c>
       <c r="H166">
         <f t="shared" si="2"/>
-        <v>6.3199999999999923</v>
+        <v>2.092000000000005</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="21" customHeight="1">
@@ -4639,23 +4647,23 @@
         <v>24</v>
       </c>
       <c r="B167" s="8">
-        <v>41030</v>
+        <v>41037</v>
       </c>
       <c r="C167">
-        <v>1.5060500000000001</v>
+        <v>1.5472399999999999</v>
       </c>
       <c r="D167">
-        <v>1.55664</v>
+        <v>1.5603899999999999</v>
       </c>
       <c r="E167">
-        <v>1.4934400000000001</v>
+        <v>1.5394699999999999</v>
       </c>
       <c r="F167">
-        <v>1.54732</v>
+        <v>1.55565</v>
       </c>
       <c r="H167">
         <f t="shared" si="2"/>
-        <v>5.2749999999999853</v>
+        <v>6.3199999999999923</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="21" customHeight="1">
@@ -4663,23 +4671,23 @@
         <v>24</v>
       </c>
       <c r="B168" s="8">
-        <v>41023</v>
+        <v>41030</v>
       </c>
       <c r="C168">
-        <v>1.4557</v>
+        <v>1.5060500000000001</v>
       </c>
       <c r="D168">
-        <v>1.5078499999999999</v>
+        <v>1.55664</v>
       </c>
       <c r="E168">
-        <v>1.4551000000000001</v>
+        <v>1.4934400000000001</v>
       </c>
       <c r="F168">
-        <v>1.50509</v>
+        <v>1.54732</v>
       </c>
       <c r="H168">
         <f t="shared" si="2"/>
-        <v>3.6950000000000038</v>
+        <v>5.2749999999999853</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="21" customHeight="1">
@@ -4687,23 +4695,23 @@
         <v>24</v>
       </c>
       <c r="B169" s="8">
-        <v>41016</v>
+        <v>41023</v>
       </c>
       <c r="C169">
-        <v>1.4735400000000001</v>
+        <v>1.4557</v>
       </c>
       <c r="D169">
-        <v>1.48038</v>
+        <v>1.5078499999999999</v>
       </c>
       <c r="E169">
-        <v>1.44343</v>
+        <v>1.4551000000000001</v>
       </c>
       <c r="F169">
-        <v>1.4570000000000001</v>
+        <v>1.50509</v>
       </c>
       <c r="H169">
         <f t="shared" si="2"/>
-        <v>5.9769999999999879</v>
+        <v>3.6950000000000038</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="21" customHeight="1">
@@ -4711,23 +4719,23 @@
         <v>24</v>
       </c>
       <c r="B170" s="8">
-        <v>41009</v>
+        <v>41016</v>
       </c>
       <c r="C170">
-        <v>1.5109399999999999</v>
+        <v>1.4735400000000001</v>
       </c>
       <c r="D170">
-        <v>1.5159199999999999</v>
+        <v>1.48038</v>
       </c>
       <c r="E170">
-        <v>1.4561500000000001</v>
+        <v>1.44343</v>
       </c>
       <c r="F170">
-        <v>1.4615400000000001</v>
+        <v>1.4570000000000001</v>
       </c>
       <c r="H170">
         <f t="shared" si="2"/>
-        <v>3.6789999999999878</v>
+        <v>5.9769999999999879</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="21" customHeight="1">
@@ -4735,23 +4743,23 @@
         <v>24</v>
       </c>
       <c r="B171" s="8">
-        <v>41002</v>
+        <v>41009</v>
       </c>
       <c r="C171">
-        <v>1.4841200000000001</v>
+        <v>1.5109399999999999</v>
       </c>
       <c r="D171">
-        <v>1.5202199999999999</v>
+        <v>1.5159199999999999</v>
       </c>
       <c r="E171">
-        <v>1.48343</v>
+        <v>1.4561500000000001</v>
       </c>
       <c r="F171">
-        <v>1.5093399999999999</v>
+        <v>1.4615400000000001</v>
       </c>
       <c r="H171">
         <f t="shared" si="2"/>
-        <v>2.5979999999999892</v>
+        <v>3.6789999999999878</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="21" customHeight="1">
@@ -4759,23 +4767,23 @@
         <v>24</v>
       </c>
       <c r="B172" s="8">
-        <v>40995</v>
+        <v>41002</v>
       </c>
       <c r="C172">
-        <v>1.4862899999999999</v>
+        <v>1.4841200000000001</v>
       </c>
       <c r="D172">
-        <v>1.4974499999999999</v>
+        <v>1.5202199999999999</v>
       </c>
       <c r="E172">
-        <v>1.4714700000000001</v>
+        <v>1.48343</v>
       </c>
       <c r="F172">
-        <v>1.4834000000000001</v>
+        <v>1.5093399999999999</v>
       </c>
       <c r="H172">
         <f t="shared" si="2"/>
-        <v>2.625999999999995</v>
+        <v>2.5979999999999892</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="21" customHeight="1">
@@ -4783,23 +4791,23 @@
         <v>24</v>
       </c>
       <c r="B173" s="8">
-        <v>40988</v>
+        <v>40995</v>
       </c>
       <c r="C173">
-        <v>1.48325</v>
+        <v>1.4862899999999999</v>
       </c>
       <c r="D173">
-        <v>1.49254</v>
+        <v>1.4974499999999999</v>
       </c>
       <c r="E173">
-        <v>1.46628</v>
+        <v>1.4714700000000001</v>
       </c>
       <c r="F173">
-        <v>1.48804</v>
+        <v>1.4834000000000001</v>
       </c>
       <c r="H173">
         <f t="shared" si="2"/>
-        <v>2.4240000000000039</v>
+        <v>2.625999999999995</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="21" customHeight="1">
@@ -4807,23 +4815,23 @@
         <v>24</v>
       </c>
       <c r="B174" s="8">
-        <v>40981</v>
+        <v>40988</v>
       </c>
       <c r="C174">
-        <v>1.4760200000000001</v>
+        <v>1.48325</v>
       </c>
       <c r="D174">
-        <v>1.49407</v>
+        <v>1.49254</v>
       </c>
       <c r="E174">
-        <v>1.46983</v>
+        <v>1.46628</v>
       </c>
       <c r="F174">
-        <v>1.4832000000000001</v>
+        <v>1.48804</v>
       </c>
       <c r="H174">
         <f t="shared" si="2"/>
-        <v>6.2109999999999888</v>
+        <v>2.4240000000000039</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="21" customHeight="1">
@@ -4831,23 +4839,23 @@
         <v>24</v>
       </c>
       <c r="B175" s="8">
-        <v>40974</v>
+        <v>40981</v>
       </c>
       <c r="C175">
-        <v>1.4842</v>
+        <v>1.4760200000000001</v>
       </c>
       <c r="D175">
-        <v>1.50874</v>
+        <v>1.49407</v>
       </c>
       <c r="E175">
-        <v>1.4466300000000001</v>
+        <v>1.46983</v>
       </c>
       <c r="F175">
-        <v>1.4758599999999999</v>
+        <v>1.4832000000000001</v>
       </c>
       <c r="H175">
         <f t="shared" si="2"/>
-        <v>6.4540000000000042</v>
+        <v>6.2109999999999888</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="21" customHeight="1">
@@ -4855,23 +4863,23 @@
         <v>24</v>
       </c>
       <c r="B176" s="8">
-        <v>40967</v>
+        <v>40974</v>
       </c>
       <c r="C176">
-        <v>1.53216</v>
+        <v>1.4842</v>
       </c>
       <c r="D176">
-        <v>1.5383100000000001</v>
+        <v>1.50874</v>
       </c>
       <c r="E176">
-        <v>1.47377</v>
+        <v>1.4466300000000001</v>
       </c>
       <c r="F176">
-        <v>1.4806299999999999</v>
+        <v>1.4758599999999999</v>
       </c>
       <c r="H176">
         <f t="shared" si="2"/>
-        <v>4.2470000000000008</v>
+        <v>6.4540000000000042</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="21" customHeight="1">
@@ -4879,23 +4887,23 @@
         <v>24</v>
       </c>
       <c r="B177" s="8">
-        <v>40960</v>
+        <v>40967</v>
       </c>
       <c r="C177">
-        <v>1.55261</v>
+        <v>1.53216</v>
       </c>
       <c r="D177">
-        <v>1.5584</v>
+        <v>1.5383100000000001</v>
       </c>
       <c r="E177">
-        <v>1.51593</v>
+        <v>1.47377</v>
       </c>
       <c r="F177">
-        <v>1.53392</v>
+        <v>1.4806299999999999</v>
       </c>
       <c r="H177">
         <f t="shared" si="2"/>
-        <v>3.6389999999999922</v>
+        <v>4.2470000000000008</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="21" customHeight="1">
@@ -4903,23 +4911,23 @@
         <v>24</v>
       </c>
       <c r="B178" s="8">
-        <v>40953</v>
+        <v>40960</v>
       </c>
       <c r="C178">
-        <v>1.5809899999999999</v>
+        <v>1.55261</v>
       </c>
       <c r="D178">
-        <v>1.5835999999999999</v>
+        <v>1.5584</v>
       </c>
       <c r="E178">
-        <v>1.54721</v>
+        <v>1.51593</v>
       </c>
       <c r="F178">
-        <v>1.5563100000000001</v>
+        <v>1.53392</v>
       </c>
       <c r="H178">
         <f t="shared" si="2"/>
-        <v>6.0170000000000057</v>
+        <v>3.6389999999999922</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="21" customHeight="1">
@@ -4927,23 +4935,23 @@
         <v>24</v>
       </c>
       <c r="B179" s="8">
-        <v>40946</v>
+        <v>40953</v>
       </c>
       <c r="C179">
-        <v>1.57467</v>
+        <v>1.5809899999999999</v>
       </c>
       <c r="D179">
-        <v>1.62497</v>
+        <v>1.5835999999999999</v>
       </c>
       <c r="E179">
-        <v>1.5648</v>
+        <v>1.54721</v>
       </c>
       <c r="F179">
-        <v>1.5838399999999999</v>
+        <v>1.5563100000000001</v>
       </c>
       <c r="H179">
         <f t="shared" si="2"/>
-        <v>5.0719999999999876</v>
+        <v>6.0170000000000057</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="21" customHeight="1">
@@ -4951,23 +4959,23 @@
         <v>24</v>
       </c>
       <c r="B180" s="8">
-        <v>40939</v>
+        <v>40946</v>
       </c>
       <c r="C180">
-        <v>1.5283</v>
+        <v>1.57467</v>
       </c>
       <c r="D180">
-        <v>1.5789299999999999</v>
+        <v>1.62497</v>
       </c>
       <c r="E180">
-        <v>1.5282100000000001</v>
+        <v>1.5648</v>
       </c>
       <c r="F180">
-        <v>1.57782</v>
+        <v>1.5838399999999999</v>
       </c>
       <c r="H180">
         <f t="shared" si="2"/>
-        <v>4.5609999999999928</v>
+        <v>5.0719999999999876</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="21" customHeight="1">
@@ -4975,23 +4983,23 @@
         <v>24</v>
       </c>
       <c r="B181" s="8">
-        <v>40932</v>
+        <v>40939</v>
       </c>
       <c r="C181">
-        <v>1.53949</v>
+        <v>1.5283</v>
       </c>
       <c r="D181">
-        <v>1.5704899999999999</v>
+        <v>1.5789299999999999</v>
       </c>
       <c r="E181">
-        <v>1.52488</v>
+        <v>1.5282100000000001</v>
       </c>
       <c r="F181">
-        <v>1.5301800000000001</v>
+        <v>1.57782</v>
       </c>
       <c r="H181">
         <f t="shared" si="2"/>
-        <v>7.1359999999999868</v>
+        <v>4.5609999999999928</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="21" customHeight="1">
@@ -4999,23 +5007,23 @@
         <v>24</v>
       </c>
       <c r="B182" s="8">
-        <v>40925</v>
+        <v>40932</v>
       </c>
       <c r="C182">
-        <v>1.5966400000000001</v>
+        <v>1.53949</v>
       </c>
       <c r="D182">
-        <v>1.6053299999999999</v>
+        <v>1.5704899999999999</v>
       </c>
       <c r="E182">
-        <v>1.5339700000000001</v>
+        <v>1.52488</v>
       </c>
       <c r="F182">
-        <v>1.5418700000000001</v>
+        <v>1.5301800000000001</v>
       </c>
       <c r="H182">
         <f t="shared" si="2"/>
-        <v>7.3500000000000121</v>
+        <v>7.1359999999999868</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="21" customHeight="1">
@@ -5023,23 +5031,23 @@
         <v>24</v>
       </c>
       <c r="B183" s="8">
-        <v>40918</v>
+        <v>40925</v>
       </c>
       <c r="C183">
-        <v>1.5658399999999999</v>
+        <v>1.5966400000000001</v>
       </c>
       <c r="D183">
-        <v>1.60762</v>
+        <v>1.6053299999999999</v>
       </c>
       <c r="E183">
-        <v>1.5341199999999999</v>
+        <v>1.5339700000000001</v>
       </c>
       <c r="F183">
-        <v>1.5875699999999999</v>
+        <v>1.5418700000000001</v>
       </c>
       <c r="H183">
         <f t="shared" si="2"/>
-        <v>8.1350000000000033</v>
+        <v>7.3500000000000121</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="21" customHeight="1">
@@ -5047,23 +5055,23 @@
         <v>24</v>
       </c>
       <c r="B184" s="8">
-        <v>40911</v>
+        <v>40918</v>
       </c>
       <c r="C184">
-        <v>1.4911700000000001</v>
+        <v>1.5658399999999999</v>
       </c>
       <c r="D184">
-        <v>1.5682400000000001</v>
+        <v>1.60762</v>
       </c>
       <c r="E184">
-        <v>1.48689</v>
+        <v>1.5341199999999999</v>
       </c>
       <c r="F184">
-        <v>1.5681799999999999</v>
+        <v>1.5875699999999999</v>
       </c>
       <c r="H184">
         <f t="shared" si="2"/>
-        <v>2.7789999999999981</v>
+        <v>8.1350000000000033</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="21" customHeight="1">
@@ -5071,23 +5079,23 @@
         <v>24</v>
       </c>
       <c r="B185" s="8">
-        <v>40904</v>
+        <v>40911</v>
       </c>
       <c r="C185">
-        <v>1.5021599999999999</v>
+        <v>1.4911700000000001</v>
       </c>
       <c r="D185">
-        <v>1.5140899999999999</v>
+        <v>1.5682400000000001</v>
       </c>
       <c r="E185">
-        <v>1.4863</v>
+        <v>1.48689</v>
       </c>
       <c r="F185">
-        <v>1.4925999999999999</v>
+        <v>1.5681799999999999</v>
       </c>
       <c r="H185">
         <f t="shared" si="2"/>
-        <v>2.2540000000000004</v>
+        <v>2.7789999999999981</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="21" customHeight="1">
@@ -5095,23 +5103,23 @@
         <v>24</v>
       </c>
       <c r="B186" s="8">
-        <v>40897</v>
+        <v>40904</v>
       </c>
       <c r="C186">
-        <v>1.5132300000000001</v>
+        <v>1.5021599999999999</v>
       </c>
       <c r="D186">
-        <v>1.5254399999999999</v>
+        <v>1.5140899999999999</v>
       </c>
       <c r="E186">
-        <v>1.5028999999999999</v>
+        <v>1.4863</v>
       </c>
       <c r="F186">
-        <v>1.5051300000000001</v>
+        <v>1.4925999999999999</v>
       </c>
       <c r="H186">
         <f t="shared" si="2"/>
-        <v>3.0270000000000019</v>
+        <v>2.2540000000000004</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="21" customHeight="1">
@@ -5119,23 +5127,23 @@
         <v>24</v>
       </c>
       <c r="B187" s="8">
-        <v>40890</v>
+        <v>40897</v>
       </c>
       <c r="C187">
-        <v>1.52437</v>
+        <v>1.5132300000000001</v>
       </c>
       <c r="D187">
-        <v>1.53346</v>
+        <v>1.5254399999999999</v>
       </c>
       <c r="E187">
-        <v>1.50319</v>
+        <v>1.5028999999999999</v>
       </c>
       <c r="F187">
-        <v>1.51467</v>
+        <v>1.5051300000000001</v>
       </c>
       <c r="H187">
         <f t="shared" si="2"/>
-        <v>5.5220000000000047</v>
+        <v>3.0270000000000019</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="21" customHeight="1">
@@ -5143,23 +5151,23 @@
         <v>24</v>
       </c>
       <c r="B188" s="8">
-        <v>40883</v>
+        <v>40890</v>
       </c>
       <c r="C188">
-        <v>1.4803900000000001</v>
+        <v>1.52437</v>
       </c>
       <c r="D188">
-        <v>1.5342800000000001</v>
+        <v>1.53346</v>
       </c>
       <c r="E188">
-        <v>1.47906</v>
+        <v>1.50319</v>
       </c>
       <c r="F188">
-        <v>1.5286999999999999</v>
+        <v>1.51467</v>
       </c>
       <c r="H188">
         <f t="shared" si="2"/>
-        <v>6.1870000000000092</v>
+        <v>5.5220000000000047</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="21" customHeight="1">
@@ -5167,23 +5175,23 @@
         <v>24</v>
       </c>
       <c r="B189" s="8">
-        <v>40876</v>
+        <v>40883</v>
       </c>
       <c r="C189">
-        <v>1.4720299999999999</v>
+        <v>1.4803900000000001</v>
       </c>
       <c r="D189">
-        <v>1.49665</v>
+        <v>1.5342800000000001</v>
       </c>
       <c r="E189">
-        <v>1.4347799999999999</v>
+        <v>1.47906</v>
       </c>
       <c r="F189">
-        <v>1.48193</v>
+        <v>1.5286999999999999</v>
       </c>
       <c r="H189">
         <f t="shared" si="2"/>
-        <v>2.4540000000000006</v>
+        <v>6.1870000000000092</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="21" customHeight="1">
@@ -5191,23 +5199,23 @@
         <v>24</v>
       </c>
       <c r="B190" s="8">
-        <v>40869</v>
+        <v>40876</v>
       </c>
       <c r="C190">
-        <v>1.4710300000000001</v>
+        <v>1.4720299999999999</v>
       </c>
       <c r="D190">
-        <v>1.48323</v>
+        <v>1.49665</v>
       </c>
       <c r="E190">
-        <v>1.45869</v>
+        <v>1.4347799999999999</v>
       </c>
       <c r="F190">
-        <v>1.47305</v>
+        <v>1.48193</v>
       </c>
       <c r="H190">
         <f t="shared" si="2"/>
-        <v>4.3590000000000018</v>
+        <v>2.4540000000000006</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="21" customHeight="1">
@@ -5215,23 +5223,23 @@
         <v>24</v>
       </c>
       <c r="B191" s="8">
-        <v>40862</v>
+        <v>40869</v>
       </c>
       <c r="C191">
-        <v>1.50729</v>
+        <v>1.4710300000000001</v>
       </c>
       <c r="D191">
-        <v>1.5137700000000001</v>
+        <v>1.48323</v>
       </c>
       <c r="E191">
-        <v>1.47018</v>
+        <v>1.45869</v>
       </c>
       <c r="F191">
-        <v>1.47136</v>
+        <v>1.47305</v>
       </c>
       <c r="H191">
         <f t="shared" si="2"/>
-        <v>3.0220000000000136</v>
+        <v>4.3590000000000018</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="21" customHeight="1">
@@ -5239,23 +5247,23 @@
         <v>24</v>
       </c>
       <c r="B192" s="8">
-        <v>40855</v>
+        <v>40862</v>
       </c>
       <c r="C192">
-        <v>1.5267299999999999</v>
+        <v>1.50729</v>
       </c>
       <c r="D192">
-        <v>1.5287500000000001</v>
+        <v>1.5137700000000001</v>
       </c>
       <c r="E192">
-        <v>1.4985299999999999</v>
+        <v>1.47018</v>
       </c>
       <c r="F192">
-        <v>1.50946</v>
+        <v>1.47136</v>
       </c>
       <c r="H192">
         <f t="shared" si="2"/>
-        <v>4.1050000000000031</v>
+        <v>3.0220000000000136</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="21" customHeight="1">
@@ -5263,23 +5271,23 @@
         <v>24</v>
       </c>
       <c r="B193" s="8">
-        <v>40848</v>
+        <v>40855</v>
       </c>
       <c r="C193">
-        <v>1.55037</v>
+        <v>1.5267299999999999</v>
       </c>
       <c r="D193">
-        <v>1.55043</v>
+        <v>1.5287500000000001</v>
       </c>
       <c r="E193">
-        <v>1.5093799999999999</v>
+        <v>1.4985299999999999</v>
       </c>
       <c r="F193">
-        <v>1.52437</v>
+        <v>1.50946</v>
       </c>
       <c r="H193">
         <f t="shared" si="2"/>
-        <v>4.0979999999999794</v>
+        <v>4.1050000000000031</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="21" customHeight="1">
@@ -5287,23 +5295,23 @@
         <v>24</v>
       </c>
       <c r="B194" s="8">
-        <v>40841</v>
+        <v>40848</v>
       </c>
       <c r="C194">
-        <v>1.5257400000000001</v>
+        <v>1.55037</v>
       </c>
       <c r="D194">
-        <v>1.5575699999999999</v>
+        <v>1.55043</v>
       </c>
       <c r="E194">
-        <v>1.5165900000000001</v>
+        <v>1.5093799999999999</v>
       </c>
       <c r="F194">
-        <v>1.5414699999999999</v>
+        <v>1.52437</v>
       </c>
       <c r="H194">
         <f t="shared" ref="H194:H199" si="3">ABS(D195-E195)*100</f>
-        <v>6.0159999999999991</v>
+        <v>4.0979999999999794</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="21" customHeight="1">
@@ -5311,23 +5319,23 @@
         <v>24</v>
       </c>
       <c r="B195" s="8">
-        <v>40834</v>
+        <v>40841</v>
       </c>
       <c r="C195">
-        <v>1.5629599999999999</v>
+        <v>1.5257400000000001</v>
       </c>
       <c r="D195">
-        <v>1.5789899999999999</v>
+        <v>1.5575699999999999</v>
       </c>
       <c r="E195">
-        <v>1.5188299999999999</v>
+        <v>1.5165900000000001</v>
       </c>
       <c r="F195">
-        <v>1.52573</v>
+        <v>1.5414699999999999</v>
       </c>
       <c r="H195">
         <f t="shared" si="3"/>
-        <v>4.2289999999999939</v>
+        <v>6.0159999999999991</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="21" customHeight="1">
@@ -5335,23 +5343,23 @@
         <v>24</v>
       </c>
       <c r="B196" s="8">
-        <v>40827</v>
+        <v>40834</v>
       </c>
       <c r="C196">
-        <v>1.55105</v>
+        <v>1.5629599999999999</v>
       </c>
       <c r="D196">
-        <v>1.58205</v>
+        <v>1.5789899999999999</v>
       </c>
       <c r="E196">
-        <v>1.53976</v>
+        <v>1.5188299999999999</v>
       </c>
       <c r="F196">
-        <v>1.5606100000000001</v>
+        <v>1.52573</v>
       </c>
       <c r="H196">
         <f t="shared" si="3"/>
-        <v>4.8089999999999966</v>
+        <v>4.2289999999999939</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="21" customHeight="1">
@@ -5359,23 +5367,23 @@
         <v>24</v>
       </c>
       <c r="B197" s="8">
-        <v>40820</v>
+        <v>40827</v>
       </c>
       <c r="C197">
-        <v>1.58884</v>
+        <v>1.55105</v>
       </c>
       <c r="D197">
-        <v>1.5933999999999999</v>
+        <v>1.58205</v>
       </c>
       <c r="E197">
-        <v>1.54531</v>
+        <v>1.53976</v>
       </c>
       <c r="F197">
-        <v>1.54952</v>
+        <v>1.5606100000000001</v>
       </c>
       <c r="H197">
         <f t="shared" si="3"/>
-        <v>5.0900000000000167</v>
+        <v>4.8089999999999966</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="21" customHeight="1">
@@ -5383,23 +5391,23 @@
         <v>24</v>
       </c>
       <c r="B198" s="8">
-        <v>40813</v>
+        <v>40820</v>
       </c>
       <c r="C198">
-        <v>1.5932599999999999</v>
+        <v>1.58884</v>
       </c>
       <c r="D198">
-        <v>1.6249800000000001</v>
+        <v>1.5933999999999999</v>
       </c>
       <c r="E198">
-        <v>1.5740799999999999</v>
+        <v>1.54531</v>
       </c>
       <c r="F198">
-        <v>1.5911200000000001</v>
+        <v>1.54952</v>
       </c>
       <c r="H198">
         <f t="shared" si="3"/>
-        <v>5.8840000000000003</v>
+        <v>5.0900000000000167</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="21" customHeight="1">
@@ -5407,23 +5415,23 @@
         <v>24</v>
       </c>
       <c r="B199" s="8">
-        <v>40806</v>
+        <v>40813</v>
       </c>
       <c r="C199">
-        <v>1.56992</v>
+        <v>1.5932599999999999</v>
       </c>
       <c r="D199">
-        <v>1.61894</v>
+        <v>1.6249800000000001</v>
       </c>
       <c r="E199">
-        <v>1.5601</v>
+        <v>1.5740799999999999</v>
       </c>
       <c r="F199">
-        <v>1.59504</v>
+        <v>1.5911200000000001</v>
       </c>
       <c r="H199">
         <f t="shared" si="3"/>
-        <v>4.045999999999994</v>
+        <v>5.8840000000000003</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="21" customHeight="1">
@@ -5431,19 +5439,19 @@
         <v>24</v>
       </c>
       <c r="B200" s="8">
-        <v>40799</v>
+        <v>40806</v>
       </c>
       <c r="C200">
-        <v>1.5995600000000001</v>
+        <v>1.56992</v>
       </c>
       <c r="D200">
-        <v>1.60663</v>
+        <v>1.61894</v>
       </c>
       <c r="E200">
-        <v>1.5661700000000001</v>
+        <v>1.5601</v>
       </c>
       <c r="F200">
-        <v>1.56887</v>
+        <v>1.59504</v>
       </c>
     </row>
   </sheetData>
